--- a/Differences.xlsx
+++ b/Differences.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CCrowe\Documents\Traffic\Cube\Compare_CSV\Compare_CSVs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\ccrowe\documents\traffic\cube\compare_csv\compare_csvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12624"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12624" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Counts" sheetId="1" r:id="rId1"/>
@@ -352,8 +352,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CT63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,2172 +656,2172 @@
     </row>
     <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>11181</v>
+        <v>11158</v>
       </c>
       <c r="AA2">
-        <v>235</v>
+        <v>-7.75</v>
       </c>
       <c r="AB2">
-        <v>-19.25</v>
+        <v>-12.25</v>
       </c>
       <c r="AC2">
-        <v>-19</v>
+        <v>-25.5</v>
       </c>
       <c r="AD2">
-        <v>110.5</v>
+        <v>1.25</v>
       </c>
       <c r="AE2">
-        <v>97.75</v>
+        <v>-5</v>
       </c>
       <c r="AF2">
-        <v>89.5</v>
+        <v>-30.5</v>
       </c>
       <c r="AG2">
-        <v>105.5</v>
+        <v>-53.75</v>
       </c>
       <c r="AH2">
-        <v>82.25</v>
+        <v>-32</v>
       </c>
       <c r="AI2">
-        <v>88.75</v>
+        <v>-20</v>
       </c>
       <c r="AJ2">
-        <v>9.75</v>
+        <v>-53.5</v>
       </c>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>26126</v>
+        <v>26129</v>
       </c>
       <c r="AA3">
-        <v>52.5</v>
+        <v>409</v>
       </c>
       <c r="AB3">
-        <v>-240.25</v>
+        <v>519</v>
       </c>
       <c r="AC3">
-        <v>-397.5</v>
+        <v>627</v>
       </c>
       <c r="AD3">
-        <v>-257.5</v>
+        <v>632</v>
       </c>
       <c r="AE3">
-        <v>-258.75</v>
+        <v>696</v>
       </c>
       <c r="AF3">
-        <v>-454.5</v>
+        <v>693</v>
       </c>
       <c r="AG3">
-        <v>-221.75</v>
+        <v>684</v>
       </c>
       <c r="AH3">
-        <v>-218</v>
+        <v>616</v>
       </c>
       <c r="AI3">
-        <v>-197.5</v>
+        <v>569</v>
       </c>
       <c r="AJ3">
-        <v>-220.25</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>11456</v>
+        <v>27985</v>
       </c>
       <c r="AA4">
-        <v>137.5</v>
+        <v>716</v>
       </c>
       <c r="AB4">
-        <v>-108.5</v>
+        <v>799</v>
       </c>
       <c r="AC4">
-        <v>-178</v>
+        <v>832</v>
       </c>
       <c r="AD4">
-        <v>-103.25</v>
+        <v>881</v>
       </c>
       <c r="AE4">
-        <v>-151.75</v>
+        <v>862</v>
       </c>
       <c r="AF4">
-        <v>-172.75</v>
+        <v>826</v>
       </c>
       <c r="AG4">
-        <v>10.25</v>
+        <v>775</v>
       </c>
       <c r="AH4">
-        <v>-15.25</v>
+        <v>834</v>
       </c>
       <c r="AI4">
-        <v>54.25</v>
+        <v>751</v>
       </c>
       <c r="AJ4">
-        <v>-29.25</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>11085</v>
+        <v>11290</v>
       </c>
       <c r="AA5">
-        <v>-1.5</v>
+        <v>81.75</v>
       </c>
       <c r="AB5">
-        <v>0.5</v>
+        <v>-175</v>
       </c>
       <c r="AC5">
-        <v>0.5</v>
+        <v>-176.75</v>
       </c>
       <c r="AD5">
-        <v>-1.5</v>
+        <v>-100.75</v>
       </c>
       <c r="AE5">
-        <v>-0.75</v>
+        <v>-61.25</v>
       </c>
       <c r="AF5">
-        <v>-3.5</v>
+        <v>-91.25</v>
       </c>
       <c r="AG5">
-        <v>-2.25</v>
+        <v>34</v>
       </c>
       <c r="AH5">
-        <v>-6</v>
+        <v>-12.25</v>
       </c>
       <c r="AI5">
-        <v>-3.5</v>
+        <v>-40</v>
       </c>
       <c r="AJ5">
-        <v>-7</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="6" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>36675</v>
+        <v>11341</v>
       </c>
       <c r="AA6">
-        <v>-21.75</v>
+        <v>56.5</v>
       </c>
       <c r="AB6">
-        <v>-64</v>
+        <v>54</v>
       </c>
       <c r="AC6">
-        <v>-31.25</v>
+        <v>-9.25</v>
       </c>
       <c r="AD6">
-        <v>-68.5</v>
+        <v>-25</v>
       </c>
       <c r="AE6">
-        <v>-50.75</v>
+        <v>-30.5</v>
       </c>
       <c r="AF6">
-        <v>-122.75</v>
+        <v>33.75</v>
       </c>
       <c r="AG6">
-        <v>-211.25</v>
+        <v>135.25</v>
       </c>
       <c r="AH6">
-        <v>-218.25</v>
+        <v>55.25</v>
       </c>
       <c r="AI6">
-        <v>-210</v>
+        <v>57.5</v>
       </c>
       <c r="AJ6">
-        <v>-260</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>28013</v>
+        <v>11290</v>
       </c>
       <c r="AA7">
-        <v>-33.75</v>
+        <v>68.25</v>
       </c>
       <c r="AB7">
-        <v>-231</v>
+        <v>60.25</v>
       </c>
       <c r="AC7">
-        <v>-521.25</v>
+        <v>29.25</v>
       </c>
       <c r="AD7">
-        <v>-399.75</v>
+        <v>11</v>
       </c>
       <c r="AE7">
-        <v>-375.5</v>
+        <v>-3.75</v>
       </c>
       <c r="AF7">
-        <v>-697.25</v>
+        <v>-18.25</v>
       </c>
       <c r="AG7">
-        <v>-713.5</v>
+        <v>-25.75</v>
       </c>
       <c r="AH7">
-        <v>-682.5</v>
+        <v>-1.5</v>
       </c>
       <c r="AI7">
-        <v>-467</v>
+        <v>36</v>
       </c>
       <c r="AJ7">
-        <v>-436.75</v>
+        <v>34.25</v>
       </c>
     </row>
     <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>27997</v>
+        <v>11302</v>
       </c>
       <c r="AA8">
-        <v>-235</v>
+        <v>108.5</v>
       </c>
       <c r="AB8">
-        <v>-53</v>
+        <v>111.5</v>
       </c>
       <c r="AC8">
-        <v>-22</v>
+        <v>213.25</v>
       </c>
       <c r="AD8">
-        <v>121</v>
+        <v>174.5</v>
       </c>
       <c r="AE8">
-        <v>156</v>
+        <v>207.25</v>
       </c>
       <c r="AF8">
-        <v>-36</v>
+        <v>97.75</v>
       </c>
       <c r="AG8">
-        <v>-74</v>
+        <v>7.25</v>
       </c>
       <c r="AH8">
-        <v>-59</v>
+        <v>3.25</v>
       </c>
       <c r="AI8">
-        <v>-203</v>
+        <v>-20</v>
       </c>
       <c r="AJ8">
-        <v>-453</v>
+        <v>-81.75</v>
       </c>
     </row>
     <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>11254</v>
+        <v>11300</v>
       </c>
       <c r="AA9">
-        <v>37.5</v>
+        <v>777</v>
       </c>
       <c r="AB9">
-        <v>54.5</v>
+        <v>826</v>
       </c>
       <c r="AC9">
-        <v>51.25</v>
+        <v>835</v>
       </c>
       <c r="AD9">
-        <v>45.5</v>
+        <v>926</v>
       </c>
       <c r="AE9">
-        <v>107.25</v>
+        <v>886</v>
       </c>
       <c r="AF9">
-        <v>71</v>
+        <v>863</v>
       </c>
       <c r="AG9">
-        <v>83.25</v>
+        <v>821</v>
       </c>
       <c r="AH9">
-        <v>18.25</v>
+        <v>785</v>
       </c>
       <c r="AI9">
-        <v>24.5</v>
+        <v>766</v>
       </c>
       <c r="AJ9">
-        <v>-90.75</v>
+        <v>612</v>
       </c>
     </row>
     <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>38806</v>
+        <v>11456</v>
       </c>
       <c r="AA10">
-        <v>-51.75</v>
+        <v>-43.75</v>
       </c>
       <c r="AB10">
-        <v>-38.75</v>
+        <v>-99.25</v>
       </c>
       <c r="AC10">
-        <v>-35.5</v>
+        <v>-154.75</v>
       </c>
       <c r="AD10">
-        <v>-34.75</v>
+        <v>-152.75</v>
       </c>
       <c r="AE10">
-        <v>-96.5</v>
+        <v>-215</v>
       </c>
       <c r="AF10">
-        <v>-167.25</v>
+        <v>-245.25</v>
       </c>
       <c r="AG10">
-        <v>-278.5</v>
+        <v>-234.5</v>
       </c>
       <c r="AH10">
-        <v>-253.25</v>
+        <v>-200.75</v>
       </c>
       <c r="AI10">
-        <v>-253.75</v>
+        <v>-170.75</v>
       </c>
       <c r="AJ10">
-        <v>-284.25</v>
+        <v>-159.5</v>
       </c>
     </row>
     <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>26125</v>
+        <v>28006</v>
       </c>
       <c r="AA11">
-        <v>3.5</v>
+        <v>266</v>
       </c>
       <c r="AB11">
-        <v>21.75</v>
+        <v>230.25</v>
       </c>
       <c r="AC11">
-        <v>15.5</v>
+        <v>191.75</v>
       </c>
       <c r="AD11">
-        <v>33.25</v>
+        <v>167.25</v>
       </c>
       <c r="AE11">
-        <v>33</v>
+        <v>109.75</v>
       </c>
       <c r="AF11">
-        <v>14</v>
+        <v>47.25</v>
       </c>
       <c r="AG11">
-        <v>22.25</v>
+        <v>-3</v>
       </c>
       <c r="AH11">
-        <v>29.25</v>
+        <v>23</v>
       </c>
       <c r="AI11">
-        <v>19.5</v>
+        <v>27</v>
       </c>
       <c r="AJ11">
-        <v>-24.25</v>
+        <v>-115.5</v>
       </c>
     </row>
     <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>36674</v>
+        <v>11289</v>
       </c>
       <c r="AA12">
-        <v>937</v>
+        <v>109</v>
       </c>
       <c r="AB12">
-        <v>1009</v>
+        <v>165.25</v>
       </c>
       <c r="AC12">
-        <v>1031</v>
+        <v>117.25</v>
       </c>
       <c r="AD12">
-        <v>1125</v>
+        <v>112</v>
       </c>
       <c r="AE12">
-        <v>1086</v>
+        <v>147.75</v>
       </c>
       <c r="AF12">
-        <v>1052</v>
+        <v>128.75</v>
       </c>
       <c r="AG12">
-        <v>993</v>
+        <v>113</v>
       </c>
       <c r="AH12">
-        <v>944</v>
+        <v>30.5</v>
       </c>
       <c r="AI12">
-        <v>915</v>
+        <v>79.5</v>
       </c>
       <c r="AJ12">
-        <v>760</v>
+        <v>-119.75</v>
       </c>
     </row>
     <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>32464</v>
+        <v>11415</v>
       </c>
       <c r="AA13">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="AB13">
-        <v>232</v>
+        <v>102</v>
       </c>
       <c r="AC13">
-        <v>272</v>
+        <v>109</v>
       </c>
       <c r="AD13">
-        <v>274</v>
+        <v>94</v>
       </c>
       <c r="AE13">
-        <v>326</v>
+        <v>88</v>
       </c>
       <c r="AF13">
-        <v>309</v>
+        <v>106</v>
       </c>
       <c r="AG13">
-        <v>331</v>
+        <v>109</v>
       </c>
       <c r="AH13">
-        <v>302</v>
+        <v>104</v>
       </c>
       <c r="AI13">
-        <v>313</v>
+        <v>121</v>
       </c>
       <c r="AJ13">
-        <v>187</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>11341</v>
+        <v>11046</v>
       </c>
       <c r="AA14">
-        <v>56.5</v>
+        <v>-2</v>
       </c>
       <c r="AB14">
-        <v>54</v>
+        <v>-19</v>
       </c>
       <c r="AC14">
-        <v>-9.25</v>
+        <v>0.25</v>
       </c>
       <c r="AD14">
-        <v>-25</v>
+        <v>-3</v>
       </c>
       <c r="AE14">
-        <v>-30.5</v>
+        <v>111.75</v>
       </c>
       <c r="AF14">
-        <v>33.75</v>
+        <v>8.25</v>
       </c>
       <c r="AG14">
-        <v>135.25</v>
+        <v>34</v>
       </c>
       <c r="AH14">
-        <v>55.25</v>
+        <v>8.75</v>
       </c>
       <c r="AI14">
-        <v>57.5</v>
+        <v>-11</v>
       </c>
       <c r="AJ14">
-        <v>-41</v>
+        <v>-117</v>
       </c>
     </row>
     <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>11300</v>
+        <v>36669</v>
       </c>
       <c r="AA15">
-        <v>777</v>
+        <v>-53.25</v>
       </c>
       <c r="AB15">
-        <v>826</v>
+        <v>-62</v>
       </c>
       <c r="AC15">
-        <v>835</v>
+        <v>-56.75</v>
       </c>
       <c r="AD15">
-        <v>926</v>
+        <v>-62</v>
       </c>
       <c r="AE15">
-        <v>886</v>
+        <v>-115.5</v>
       </c>
       <c r="AF15">
-        <v>863</v>
+        <v>-139.5</v>
       </c>
       <c r="AG15">
-        <v>821</v>
+        <v>-174.5</v>
       </c>
       <c r="AH15">
-        <v>785</v>
+        <v>-173</v>
       </c>
       <c r="AI15">
-        <v>766</v>
+        <v>-150.75</v>
       </c>
       <c r="AJ15">
-        <v>612</v>
+        <v>-131.5</v>
       </c>
     </row>
     <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>11289</v>
+        <v>26138</v>
       </c>
       <c r="AA16">
-        <v>109</v>
+        <v>345</v>
       </c>
       <c r="AB16">
-        <v>165.25</v>
+        <v>393</v>
       </c>
       <c r="AC16">
-        <v>117.25</v>
+        <v>405</v>
       </c>
       <c r="AD16">
-        <v>112</v>
+        <v>450</v>
       </c>
       <c r="AE16">
-        <v>147.75</v>
+        <v>434</v>
       </c>
       <c r="AF16">
-        <v>128.75</v>
+        <v>424</v>
       </c>
       <c r="AG16">
-        <v>113</v>
+        <v>474</v>
       </c>
       <c r="AH16">
-        <v>30.5</v>
+        <v>428</v>
       </c>
       <c r="AI16">
-        <v>79.5</v>
+        <v>421</v>
       </c>
       <c r="AJ16">
-        <v>-119.75</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>11153</v>
+        <v>11383</v>
       </c>
       <c r="AA17">
-        <v>453</v>
+        <v>184.5</v>
       </c>
       <c r="AB17">
-        <v>245.5</v>
+        <v>221.5</v>
       </c>
       <c r="AC17">
-        <v>333.5</v>
+        <v>190.25</v>
       </c>
       <c r="AD17">
-        <v>378.5</v>
+        <v>177.25</v>
       </c>
       <c r="AE17">
-        <v>374.75</v>
+        <v>163.25</v>
       </c>
       <c r="AF17">
-        <v>365.5</v>
+        <v>87.75</v>
       </c>
       <c r="AG17">
-        <v>307</v>
+        <v>89</v>
       </c>
       <c r="AH17">
-        <v>291.25</v>
+        <v>85.75</v>
       </c>
       <c r="AI17">
-        <v>249.75</v>
+        <v>146</v>
       </c>
       <c r="AJ17">
-        <v>178.25</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>11182</v>
+        <v>36664</v>
       </c>
       <c r="AA18">
-        <v>89.25</v>
+        <v>-27</v>
       </c>
       <c r="AB18">
-        <v>104.75</v>
+        <v>-328.75</v>
       </c>
       <c r="AC18">
-        <v>121.75</v>
+        <v>-517</v>
       </c>
       <c r="AD18">
-        <v>91</v>
+        <v>-781.5</v>
       </c>
       <c r="AE18">
-        <v>136.25</v>
+        <v>-774.5</v>
       </c>
       <c r="AF18">
-        <v>109.5</v>
+        <v>-939.75</v>
       </c>
       <c r="AG18">
-        <v>104.75</v>
+        <v>-924</v>
       </c>
       <c r="AH18">
-        <v>42</v>
+        <v>-950.5</v>
       </c>
       <c r="AI18">
-        <v>62.5</v>
+        <v>-777.25</v>
       </c>
       <c r="AJ18">
-        <v>-52</v>
+        <v>-709.5</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>11302</v>
+        <v>27975</v>
       </c>
       <c r="AA19">
-        <v>108.5</v>
+        <v>471.25</v>
       </c>
       <c r="AB19">
+        <v>186.75</v>
+      </c>
+      <c r="AC19">
+        <v>44</v>
+      </c>
+      <c r="AD19">
+        <v>-87.25</v>
+      </c>
+      <c r="AE19">
         <v>111.5</v>
       </c>
-      <c r="AC19">
-        <v>213.25</v>
-      </c>
-      <c r="AD19">
-        <v>174.5</v>
-      </c>
-      <c r="AE19">
-        <v>207.25</v>
-      </c>
       <c r="AF19">
-        <v>97.75</v>
+        <v>-27.75</v>
       </c>
       <c r="AG19">
-        <v>7.25</v>
+        <v>-93.25</v>
       </c>
       <c r="AH19">
-        <v>3.25</v>
+        <v>-65</v>
       </c>
       <c r="AI19">
-        <v>-20</v>
+        <v>44.75</v>
       </c>
       <c r="AJ19">
-        <v>-81.75</v>
+        <v>-328</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>27975</v>
+        <v>11208</v>
       </c>
       <c r="AA20">
-        <v>471.25</v>
+        <v>142</v>
       </c>
       <c r="AB20">
-        <v>186.75</v>
+        <v>170</v>
       </c>
       <c r="AC20">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="AD20">
-        <v>-87.25</v>
+        <v>291</v>
       </c>
       <c r="AE20">
-        <v>111.5</v>
+        <v>293</v>
       </c>
       <c r="AF20">
-        <v>-27.75</v>
+        <v>296</v>
       </c>
       <c r="AG20">
-        <v>-93.25</v>
+        <v>244</v>
       </c>
       <c r="AH20">
-        <v>-65</v>
+        <v>227</v>
       </c>
       <c r="AI20">
-        <v>44.75</v>
+        <v>228</v>
       </c>
       <c r="AJ20">
-        <v>-328</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>11383</v>
+        <v>38805</v>
       </c>
       <c r="AA21">
-        <v>184.5</v>
+        <v>29.25</v>
       </c>
       <c r="AB21">
-        <v>221.5</v>
+        <v>-248.5</v>
       </c>
       <c r="AC21">
-        <v>190.25</v>
+        <v>-489</v>
       </c>
       <c r="AD21">
-        <v>177.25</v>
+        <v>-623.75</v>
       </c>
       <c r="AE21">
-        <v>163.25</v>
+        <v>-723</v>
       </c>
       <c r="AF21">
-        <v>87.75</v>
+        <v>-939.25</v>
       </c>
       <c r="AG21">
-        <v>89</v>
+        <v>-903.25</v>
       </c>
       <c r="AH21">
-        <v>85.75</v>
+        <v>-863.75</v>
       </c>
       <c r="AI21">
-        <v>146</v>
+        <v>-684.75</v>
       </c>
       <c r="AJ21">
-        <v>94</v>
+        <v>-653.75</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>27985</v>
+        <v>27983</v>
       </c>
       <c r="AA22">
-        <v>716</v>
+        <v>463.25</v>
       </c>
       <c r="AB22">
-        <v>799</v>
+        <v>226.5</v>
       </c>
       <c r="AC22">
-        <v>832</v>
+        <v>58.75</v>
       </c>
       <c r="AD22">
-        <v>881</v>
+        <v>-68.75</v>
       </c>
       <c r="AE22">
-        <v>862</v>
+        <v>100.75</v>
       </c>
       <c r="AF22">
-        <v>826</v>
+        <v>-214</v>
       </c>
       <c r="AG22">
-        <v>775</v>
+        <v>-302</v>
       </c>
       <c r="AH22">
-        <v>834</v>
+        <v>-123</v>
       </c>
       <c r="AI22">
-        <v>751</v>
+        <v>-129.75</v>
       </c>
       <c r="AJ22">
-        <v>478</v>
+        <v>-322.5</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>11383</v>
+        <v>36668</v>
       </c>
       <c r="AA23">
-        <v>322.75</v>
+        <v>-125.25</v>
       </c>
       <c r="AB23">
-        <v>36</v>
+        <v>-480.5</v>
       </c>
       <c r="AC23">
-        <v>83</v>
+        <v>-812.5</v>
       </c>
       <c r="AD23">
-        <v>126.75</v>
+        <v>-1057.5</v>
       </c>
       <c r="AE23">
-        <v>157.5</v>
+        <v>-1166.25</v>
       </c>
       <c r="AF23">
-        <v>139.25</v>
+        <v>-1392.5</v>
       </c>
       <c r="AG23">
-        <v>284.5</v>
+        <v>-1326</v>
       </c>
       <c r="AH23">
-        <v>250.75</v>
+        <v>-1298.5</v>
       </c>
       <c r="AI23">
-        <v>203</v>
+        <v>-1080.5</v>
       </c>
       <c r="AJ23">
-        <v>205.75</v>
+        <v>-1009.25</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>26115</v>
+        <v>27999</v>
       </c>
       <c r="AA24">
-        <v>279.75</v>
+        <v>-60.25</v>
       </c>
       <c r="AB24">
-        <v>212.25</v>
+        <v>-79.75</v>
       </c>
       <c r="AC24">
-        <v>115.25</v>
+        <v>-57.5</v>
       </c>
       <c r="AD24">
-        <v>153.25</v>
+        <v>-53.5</v>
       </c>
       <c r="AE24">
-        <v>240</v>
+        <v>-25.75</v>
       </c>
       <c r="AF24">
-        <v>230</v>
+        <v>-41.75</v>
       </c>
       <c r="AG24">
-        <v>158.5</v>
+        <v>-76.25</v>
       </c>
       <c r="AH24">
-        <v>146.25</v>
+        <v>-89.25</v>
       </c>
       <c r="AI24">
-        <v>137.75</v>
+        <v>-33.75</v>
       </c>
       <c r="AJ24">
-        <v>-124.25</v>
+        <v>-47.25</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>11256</v>
+        <v>11485</v>
       </c>
       <c r="AA25">
-        <v>222.75</v>
+        <v>273</v>
       </c>
       <c r="AB25">
-        <v>-95.75</v>
+        <v>255.75</v>
       </c>
       <c r="AC25">
-        <v>-51.25</v>
+        <v>151.75</v>
       </c>
       <c r="AD25">
-        <v>27.5</v>
+        <v>153.5</v>
       </c>
       <c r="AE25">
-        <v>21.75</v>
+        <v>246.75</v>
       </c>
       <c r="AF25">
-        <v>30.75</v>
+        <v>269</v>
       </c>
       <c r="AG25">
-        <v>71.5</v>
+        <v>190.5</v>
       </c>
       <c r="AH25">
-        <v>36.75</v>
+        <v>173.75</v>
       </c>
       <c r="AI25">
-        <v>68</v>
+        <v>145.5</v>
       </c>
       <c r="AJ25">
-        <v>-44.75</v>
+        <v>-133.5</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>28016</v>
+        <v>26115</v>
       </c>
       <c r="AA26">
-        <v>0.75</v>
+        <v>279.75</v>
       </c>
       <c r="AB26">
-        <v>-110.25</v>
+        <v>212.25</v>
       </c>
       <c r="AC26">
-        <v>-137.75</v>
+        <v>115.25</v>
       </c>
       <c r="AD26">
-        <v>-203.25</v>
+        <v>153.25</v>
       </c>
       <c r="AE26">
-        <v>-271.25</v>
+        <v>240</v>
       </c>
       <c r="AF26">
-        <v>-356.5</v>
+        <v>230</v>
       </c>
       <c r="AG26">
-        <v>-363.5</v>
+        <v>158.5</v>
       </c>
       <c r="AH26">
-        <v>-375</v>
+        <v>146.25</v>
       </c>
       <c r="AI26">
-        <v>-303.75</v>
+        <v>137.75</v>
       </c>
       <c r="AJ26">
-        <v>-353.5</v>
+        <v>-124.25</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>27998</v>
+        <v>26114</v>
       </c>
       <c r="AA27">
-        <v>139.75</v>
+        <v>116</v>
       </c>
       <c r="AB27">
-        <v>54</v>
+        <v>-216</v>
       </c>
       <c r="AC27">
-        <v>21.25</v>
+        <v>-336.5</v>
       </c>
       <c r="AD27">
-        <v>-50.75</v>
+        <v>-274.75</v>
       </c>
       <c r="AE27">
-        <v>-101</v>
+        <v>-335.75</v>
       </c>
       <c r="AF27">
-        <v>-209.5</v>
+        <v>-414</v>
       </c>
       <c r="AG27">
-        <v>-244.25</v>
+        <v>-216.5</v>
       </c>
       <c r="AH27">
-        <v>-223</v>
+        <v>-292.75</v>
       </c>
       <c r="AI27">
-        <v>-167</v>
+        <v>-218.25</v>
       </c>
       <c r="AJ27">
-        <v>-300.5</v>
+        <v>-151.25</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>36668</v>
+        <v>36666</v>
       </c>
       <c r="AA28">
-        <v>-27.75</v>
+        <v>-1.5</v>
       </c>
       <c r="AB28">
-        <v>-40</v>
+        <v>-283.75</v>
       </c>
       <c r="AC28">
-        <v>-45.75</v>
+        <v>-529.25</v>
       </c>
       <c r="AD28">
-        <v>-89.75</v>
+        <v>-742.75</v>
       </c>
       <c r="AE28">
-        <v>-106.5</v>
+        <v>-826.5</v>
       </c>
       <c r="AF28">
-        <v>-159.5</v>
+        <v>-1089.25</v>
       </c>
       <c r="AG28">
-        <v>-174.5</v>
+        <v>-1052.5</v>
       </c>
       <c r="AH28">
-        <v>-171.75</v>
+        <v>-1055.75</v>
       </c>
       <c r="AI28">
-        <v>-156.5</v>
+        <v>-875.25</v>
       </c>
       <c r="AJ28">
-        <v>-141.5</v>
+        <v>-768</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>11415</v>
+        <v>36675</v>
       </c>
       <c r="AA29">
-        <v>65</v>
+        <v>-21.75</v>
       </c>
       <c r="AB29">
-        <v>102</v>
+        <v>-64</v>
       </c>
       <c r="AC29">
-        <v>109</v>
+        <v>-31.25</v>
       </c>
       <c r="AD29">
-        <v>94</v>
+        <v>-68.5</v>
       </c>
       <c r="AE29">
-        <v>88</v>
+        <v>-50.75</v>
       </c>
       <c r="AF29">
-        <v>106</v>
+        <v>-122.75</v>
       </c>
       <c r="AG29">
-        <v>109</v>
+        <v>-211.25</v>
       </c>
       <c r="AH29">
-        <v>104</v>
+        <v>-218.25</v>
       </c>
       <c r="AI29">
-        <v>121</v>
+        <v>-210</v>
       </c>
       <c r="AJ29">
-        <v>70</v>
+        <v>-260</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>27986</v>
+        <v>26120</v>
       </c>
       <c r="AA30">
-        <v>140.75</v>
+        <v>-18</v>
       </c>
       <c r="AB30">
-        <v>74.75</v>
+        <v>-6</v>
       </c>
       <c r="AC30">
-        <v>103.75</v>
+        <v>-5</v>
       </c>
       <c r="AD30">
+        <v>-6</v>
+      </c>
+      <c r="AE30">
+        <v>-3</v>
+      </c>
+      <c r="AF30">
+        <v>8</v>
+      </c>
+      <c r="AG30">
+        <v>20</v>
+      </c>
+      <c r="AH30">
         <v>13</v>
       </c>
-      <c r="AE30">
-        <v>-5.75</v>
-      </c>
-      <c r="AF30">
-        <v>-149</v>
-      </c>
-      <c r="AG30">
-        <v>-175.75</v>
-      </c>
-      <c r="AH30">
-        <v>-168</v>
-      </c>
       <c r="AI30">
-        <v>-135.5</v>
+        <v>-4</v>
       </c>
       <c r="AJ30">
-        <v>-255</v>
+        <v>-57</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>26115</v>
+        <v>11436</v>
       </c>
       <c r="AA31">
-        <v>4.5</v>
+        <v>649</v>
       </c>
       <c r="AB31">
-        <v>43.5</v>
+        <v>716</v>
       </c>
       <c r="AC31">
-        <v>30</v>
+        <v>807</v>
       </c>
       <c r="AD31">
-        <v>15.5</v>
+        <v>812</v>
       </c>
       <c r="AE31">
-        <v>27.25</v>
+        <v>866</v>
       </c>
       <c r="AF31">
-        <v>43</v>
+        <v>913</v>
       </c>
       <c r="AG31">
-        <v>43</v>
+        <v>915</v>
       </c>
       <c r="AH31">
-        <v>30.75</v>
+        <v>891</v>
       </c>
       <c r="AI31">
-        <v>20.75</v>
+        <v>820</v>
       </c>
       <c r="AJ31">
-        <v>-26.75</v>
+        <v>642</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>26114</v>
+        <v>11383</v>
       </c>
       <c r="AA32">
-        <v>116</v>
+        <v>322.75</v>
       </c>
       <c r="AB32">
-        <v>-216</v>
+        <v>36</v>
       </c>
       <c r="AC32">
-        <v>-336.5</v>
+        <v>83</v>
       </c>
       <c r="AD32">
-        <v>-274.75</v>
+        <v>126.75</v>
       </c>
       <c r="AE32">
-        <v>-335.75</v>
+        <v>157.5</v>
       </c>
       <c r="AF32">
-        <v>-414</v>
+        <v>139.25</v>
       </c>
       <c r="AG32">
-        <v>-216.5</v>
+        <v>284.5</v>
       </c>
       <c r="AH32">
-        <v>-292.75</v>
+        <v>250.75</v>
       </c>
       <c r="AI32">
-        <v>-218.25</v>
+        <v>203</v>
       </c>
       <c r="AJ32">
-        <v>-151.25</v>
+        <v>205.75</v>
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>11436</v>
+        <v>11181</v>
       </c>
       <c r="AA33">
-        <v>649</v>
+        <v>-3</v>
       </c>
       <c r="AB33">
-        <v>716</v>
+        <v>-82.75</v>
       </c>
       <c r="AC33">
-        <v>807</v>
+        <v>-25.75</v>
       </c>
       <c r="AD33">
-        <v>812</v>
+        <v>-70.5</v>
       </c>
       <c r="AE33">
-        <v>866</v>
+        <v>-87.5</v>
       </c>
       <c r="AF33">
-        <v>913</v>
+        <v>-24</v>
       </c>
       <c r="AG33">
-        <v>915</v>
+        <v>-35.75</v>
       </c>
       <c r="AH33">
-        <v>891</v>
+        <v>-33.25</v>
       </c>
       <c r="AI33">
-        <v>820</v>
+        <v>-15.25</v>
       </c>
       <c r="AJ33">
-        <v>642</v>
+        <v>-69.5</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>11456</v>
+        <v>11088</v>
       </c>
       <c r="AA34">
-        <v>-43.75</v>
+        <v>57.25</v>
       </c>
       <c r="AB34">
-        <v>-99.25</v>
+        <v>58.25</v>
       </c>
       <c r="AC34">
-        <v>-154.75</v>
+        <v>85.75</v>
       </c>
       <c r="AD34">
-        <v>-152.75</v>
+        <v>113.25</v>
       </c>
       <c r="AE34">
-        <v>-215</v>
+        <v>183.5</v>
       </c>
       <c r="AF34">
-        <v>-245.25</v>
+        <v>119</v>
       </c>
       <c r="AG34">
-        <v>-234.5</v>
+        <v>140.75</v>
       </c>
       <c r="AH34">
-        <v>-200.75</v>
+        <v>119.25</v>
       </c>
       <c r="AI34">
-        <v>-170.75</v>
+        <v>65.25</v>
       </c>
       <c r="AJ34">
-        <v>-159.5</v>
+        <v>-17.25</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>11254</v>
+        <v>11268</v>
       </c>
       <c r="AA35">
-        <v>44.75</v>
+        <v>69</v>
       </c>
       <c r="AB35">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC35">
-        <v>30.75</v>
+        <v>148.75</v>
       </c>
       <c r="AD35">
-        <v>30.5</v>
+        <v>103.75</v>
       </c>
       <c r="AE35">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="AF35">
-        <v>30</v>
+        <v>71.5</v>
       </c>
       <c r="AG35">
-        <v>12.25</v>
+        <v>-34</v>
       </c>
       <c r="AH35">
-        <v>9.75</v>
+        <v>-6.5</v>
       </c>
       <c r="AI35">
-        <v>34.25</v>
+        <v>-31.75</v>
       </c>
       <c r="AJ35">
-        <v>11.5</v>
+        <v>-97.75</v>
       </c>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>38805</v>
+        <v>26126</v>
       </c>
       <c r="AA36">
-        <v>29.25</v>
+        <v>52.5</v>
       </c>
       <c r="AB36">
-        <v>-248.5</v>
+        <v>-240.25</v>
       </c>
       <c r="AC36">
-        <v>-489</v>
+        <v>-397.5</v>
       </c>
       <c r="AD36">
-        <v>-623.75</v>
+        <v>-257.5</v>
       </c>
       <c r="AE36">
-        <v>-723</v>
+        <v>-258.75</v>
       </c>
       <c r="AF36">
-        <v>-939.25</v>
+        <v>-454.5</v>
       </c>
       <c r="AG36">
-        <v>-903.25</v>
+        <v>-221.75</v>
       </c>
       <c r="AH36">
-        <v>-863.75</v>
+        <v>-218</v>
       </c>
       <c r="AI36">
-        <v>-684.75</v>
+        <v>-197.5</v>
       </c>
       <c r="AJ36">
-        <v>-653.75</v>
+        <v>-220.25</v>
       </c>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36668</v>
+        <v>28013</v>
       </c>
       <c r="AA37">
-        <v>-125.25</v>
+        <v>-33.75</v>
       </c>
       <c r="AB37">
-        <v>-480.5</v>
+        <v>-231</v>
       </c>
       <c r="AC37">
-        <v>-812.5</v>
+        <v>-521.25</v>
       </c>
       <c r="AD37">
-        <v>-1057.5</v>
+        <v>-399.75</v>
       </c>
       <c r="AE37">
-        <v>-1166.25</v>
+        <v>-375.5</v>
       </c>
       <c r="AF37">
-        <v>-1392.5</v>
+        <v>-697.25</v>
       </c>
       <c r="AG37">
-        <v>-1326</v>
+        <v>-713.5</v>
       </c>
       <c r="AH37">
-        <v>-1298.5</v>
+        <v>-682.5</v>
       </c>
       <c r="AI37">
-        <v>-1080.5</v>
+        <v>-467</v>
       </c>
       <c r="AJ37">
-        <v>-1009.25</v>
+        <v>-436.75</v>
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>28006</v>
+        <v>11182</v>
       </c>
       <c r="AA38">
-        <v>266</v>
+        <v>89.25</v>
       </c>
       <c r="AB38">
-        <v>230.25</v>
+        <v>104.75</v>
       </c>
       <c r="AC38">
-        <v>191.75</v>
+        <v>121.75</v>
       </c>
       <c r="AD38">
-        <v>167.25</v>
+        <v>91</v>
       </c>
       <c r="AE38">
-        <v>109.75</v>
+        <v>136.25</v>
       </c>
       <c r="AF38">
-        <v>47.25</v>
+        <v>109.5</v>
       </c>
       <c r="AG38">
-        <v>-3</v>
+        <v>104.75</v>
       </c>
       <c r="AH38">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AI38">
-        <v>27</v>
+        <v>62.5</v>
       </c>
       <c r="AJ38">
-        <v>-115.5</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>26120</v>
+        <v>11181</v>
       </c>
       <c r="AA39">
-        <v>-18</v>
+        <v>235</v>
       </c>
       <c r="AB39">
-        <v>-6</v>
+        <v>-19.25</v>
       </c>
       <c r="AC39">
-        <v>-5</v>
+        <v>-19</v>
       </c>
       <c r="AD39">
-        <v>-6</v>
+        <v>110.5</v>
       </c>
       <c r="AE39">
-        <v>-3</v>
+        <v>97.75</v>
       </c>
       <c r="AF39">
-        <v>8</v>
+        <v>89.5</v>
       </c>
       <c r="AG39">
-        <v>20</v>
+        <v>105.5</v>
       </c>
       <c r="AH39">
-        <v>13</v>
+        <v>82.25</v>
       </c>
       <c r="AI39">
-        <v>-4</v>
+        <v>88.75</v>
       </c>
       <c r="AJ39">
-        <v>-57</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>36665</v>
+        <v>26126</v>
       </c>
       <c r="AA40">
-        <v>-14.5</v>
+        <v>-53</v>
       </c>
       <c r="AB40">
-        <v>-21.25</v>
+        <v>-29</v>
       </c>
       <c r="AC40">
-        <v>-4.75</v>
+        <v>-35</v>
       </c>
       <c r="AD40">
-        <v>10</v>
+        <v>-59.25</v>
       </c>
       <c r="AE40">
-        <v>-49.25</v>
+        <v>-48.25</v>
       </c>
       <c r="AF40">
-        <v>-92.5</v>
+        <v>-49</v>
       </c>
       <c r="AG40">
-        <v>-171</v>
+        <v>-76.25</v>
       </c>
       <c r="AH40">
-        <v>-149.75</v>
+        <v>-72.75</v>
       </c>
       <c r="AI40">
-        <v>-169.25</v>
+        <v>-62</v>
       </c>
       <c r="AJ40">
-        <v>-217.75</v>
+        <v>-150.25</v>
       </c>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>11485</v>
+        <v>11254</v>
       </c>
       <c r="AA41">
-        <v>273</v>
+        <v>37.5</v>
       </c>
       <c r="AB41">
-        <v>255.75</v>
+        <v>54.5</v>
       </c>
       <c r="AC41">
-        <v>151.75</v>
+        <v>51.25</v>
       </c>
       <c r="AD41">
-        <v>153.5</v>
+        <v>45.5</v>
       </c>
       <c r="AE41">
-        <v>246.75</v>
+        <v>107.25</v>
       </c>
       <c r="AF41">
-        <v>269</v>
+        <v>71</v>
       </c>
       <c r="AG41">
-        <v>190.5</v>
+        <v>83.25</v>
       </c>
       <c r="AH41">
-        <v>173.75</v>
+        <v>18.25</v>
       </c>
       <c r="AI41">
-        <v>145.5</v>
+        <v>24.5</v>
       </c>
       <c r="AJ41">
-        <v>-133.5</v>
+        <v>-90.75</v>
       </c>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>26116</v>
+        <v>27998</v>
       </c>
       <c r="AA42">
-        <v>157</v>
+        <v>139.75</v>
       </c>
       <c r="AB42">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="AC42">
-        <v>218</v>
+        <v>21.25</v>
       </c>
       <c r="AD42">
-        <v>221</v>
+        <v>-50.75</v>
       </c>
       <c r="AE42">
-        <v>268</v>
+        <v>-101</v>
       </c>
       <c r="AF42">
-        <v>239</v>
+        <v>-209.5</v>
       </c>
       <c r="AG42">
-        <v>253</v>
+        <v>-244.25</v>
       </c>
       <c r="AH42">
-        <v>230</v>
+        <v>-223</v>
       </c>
       <c r="AI42">
-        <v>253</v>
+        <v>-167</v>
       </c>
       <c r="AJ42">
-        <v>188</v>
+        <v>-300.5</v>
       </c>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>11088</v>
+        <v>27997</v>
       </c>
       <c r="AA43">
-        <v>57.25</v>
+        <v>-235</v>
       </c>
       <c r="AB43">
-        <v>58.25</v>
+        <v>-53</v>
       </c>
       <c r="AC43">
-        <v>85.75</v>
+        <v>-22</v>
       </c>
       <c r="AD43">
-        <v>113.25</v>
+        <v>121</v>
       </c>
       <c r="AE43">
-        <v>183.5</v>
+        <v>156</v>
       </c>
       <c r="AF43">
-        <v>119</v>
+        <v>-36</v>
       </c>
       <c r="AG43">
-        <v>140.75</v>
+        <v>-74</v>
       </c>
       <c r="AH43">
-        <v>119.25</v>
+        <v>-59</v>
       </c>
       <c r="AI43">
-        <v>65.25</v>
+        <v>-203</v>
       </c>
       <c r="AJ43">
-        <v>-17.25</v>
+        <v>-453</v>
       </c>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>36667</v>
+        <v>26116</v>
       </c>
       <c r="AA44">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="AB44">
-        <v>52.25</v>
+        <v>177</v>
       </c>
       <c r="AC44">
-        <v>79.75</v>
+        <v>218</v>
       </c>
       <c r="AD44">
-        <v>90.75</v>
+        <v>221</v>
       </c>
       <c r="AE44">
-        <v>47.75</v>
+        <v>268</v>
       </c>
       <c r="AF44">
-        <v>6.75</v>
+        <v>239</v>
       </c>
       <c r="AG44">
-        <v>-60.75</v>
+        <v>253</v>
       </c>
       <c r="AH44">
-        <v>-49.25</v>
+        <v>230</v>
       </c>
       <c r="AI44">
-        <v>-70.75</v>
+        <v>253</v>
       </c>
       <c r="AJ44">
-        <v>-134.25</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>36664</v>
+        <v>38806</v>
       </c>
       <c r="AA45">
-        <v>-27</v>
+        <v>-51.75</v>
       </c>
       <c r="AB45">
-        <v>-328.75</v>
+        <v>-38.75</v>
       </c>
       <c r="AC45">
-        <v>-517</v>
+        <v>-35.5</v>
       </c>
       <c r="AD45">
-        <v>-781.5</v>
+        <v>-34.75</v>
       </c>
       <c r="AE45">
-        <v>-774.5</v>
+        <v>-96.5</v>
       </c>
       <c r="AF45">
-        <v>-939.75</v>
+        <v>-167.25</v>
       </c>
       <c r="AG45">
-        <v>-924</v>
+        <v>-278.5</v>
       </c>
       <c r="AH45">
-        <v>-950.5</v>
+        <v>-253.25</v>
       </c>
       <c r="AI45">
-        <v>-777.25</v>
+        <v>-253.75</v>
       </c>
       <c r="AJ45">
-        <v>-709.5</v>
+        <v>-284.25</v>
       </c>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>26138</v>
+        <v>32464</v>
       </c>
       <c r="AA46">
-        <v>345</v>
+        <v>198</v>
       </c>
       <c r="AB46">
-        <v>393</v>
+        <v>232</v>
       </c>
       <c r="AC46">
-        <v>405</v>
+        <v>272</v>
       </c>
       <c r="AD46">
-        <v>450</v>
+        <v>274</v>
       </c>
       <c r="AE46">
-        <v>434</v>
+        <v>326</v>
       </c>
       <c r="AF46">
-        <v>424</v>
+        <v>309</v>
       </c>
       <c r="AG46">
-        <v>474</v>
+        <v>331</v>
       </c>
       <c r="AH46">
-        <v>428</v>
+        <v>302</v>
       </c>
       <c r="AI46">
-        <v>421</v>
+        <v>313</v>
       </c>
       <c r="AJ46">
-        <v>324</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>27999</v>
+        <v>11153</v>
       </c>
       <c r="AA47">
-        <v>317.75</v>
+        <v>453</v>
       </c>
       <c r="AB47">
-        <v>189.5</v>
+        <v>245.5</v>
       </c>
       <c r="AC47">
-        <v>-79.5</v>
+        <v>333.5</v>
       </c>
       <c r="AD47">
-        <v>38</v>
+        <v>378.5</v>
       </c>
       <c r="AE47">
-        <v>136</v>
+        <v>374.75</v>
       </c>
       <c r="AF47">
-        <v>-264.75</v>
+        <v>365.5</v>
       </c>
       <c r="AG47">
-        <v>-341.25</v>
+        <v>307</v>
       </c>
       <c r="AH47">
-        <v>-256.5</v>
+        <v>291.25</v>
       </c>
       <c r="AI47">
-        <v>-194.25</v>
+        <v>249.75</v>
       </c>
       <c r="AJ47">
-        <v>-373</v>
+        <v>178.25</v>
       </c>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>11290</v>
+        <v>28016</v>
       </c>
       <c r="AA48">
-        <v>81.75</v>
+        <v>0.75</v>
       </c>
       <c r="AB48">
-        <v>-175</v>
+        <v>-110.25</v>
       </c>
       <c r="AC48">
-        <v>-176.75</v>
+        <v>-137.75</v>
       </c>
       <c r="AD48">
-        <v>-100.75</v>
+        <v>-203.25</v>
       </c>
       <c r="AE48">
-        <v>-61.25</v>
+        <v>-271.25</v>
       </c>
       <c r="AF48">
-        <v>-91.25</v>
+        <v>-356.5</v>
       </c>
       <c r="AG48">
-        <v>34</v>
+        <v>-363.5</v>
       </c>
       <c r="AH48">
-        <v>-12.25</v>
+        <v>-375</v>
       </c>
       <c r="AI48">
-        <v>-40</v>
+        <v>-303.75</v>
       </c>
       <c r="AJ48">
-        <v>-45</v>
+        <v>-353.5</v>
       </c>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>11290</v>
+        <v>27986</v>
       </c>
       <c r="AA49">
-        <v>68.25</v>
+        <v>140.75</v>
       </c>
       <c r="AB49">
-        <v>60.25</v>
+        <v>74.75</v>
       </c>
       <c r="AC49">
-        <v>29.25</v>
+        <v>103.75</v>
       </c>
       <c r="AD49">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE49">
-        <v>-3.75</v>
+        <v>-5.75</v>
       </c>
       <c r="AF49">
-        <v>-18.25</v>
+        <v>-149</v>
       </c>
       <c r="AG49">
-        <v>-25.75</v>
+        <v>-175.75</v>
       </c>
       <c r="AH49">
-        <v>-1.5</v>
+        <v>-168</v>
       </c>
       <c r="AI49">
-        <v>36</v>
+        <v>-135.5</v>
       </c>
       <c r="AJ49">
-        <v>34.25</v>
+        <v>-255</v>
       </c>
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>36669</v>
+        <v>12101</v>
       </c>
       <c r="AA50">
-        <v>-53.25</v>
+        <v>278.25</v>
       </c>
       <c r="AB50">
-        <v>-62</v>
+        <v>261.5</v>
       </c>
       <c r="AC50">
-        <v>-56.75</v>
+        <v>268</v>
       </c>
       <c r="AD50">
-        <v>-62</v>
+        <v>245</v>
       </c>
       <c r="AE50">
-        <v>-115.5</v>
+        <v>243.75</v>
       </c>
       <c r="AF50">
-        <v>-139.5</v>
+        <v>248.5</v>
       </c>
       <c r="AG50">
-        <v>-174.5</v>
+        <v>239</v>
       </c>
       <c r="AH50">
-        <v>-173</v>
+        <v>225</v>
       </c>
       <c r="AI50">
-        <v>-150.75</v>
+        <v>241.75</v>
       </c>
       <c r="AJ50">
-        <v>-131.5</v>
+        <v>223.75</v>
       </c>
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>11306</v>
+        <v>27999</v>
       </c>
       <c r="AA51">
-        <v>106.25</v>
+        <v>317.75</v>
       </c>
       <c r="AB51">
-        <v>77.25</v>
+        <v>189.5</v>
       </c>
       <c r="AC51">
-        <v>68.75</v>
+        <v>-79.5</v>
       </c>
       <c r="AD51">
-        <v>21.25</v>
+        <v>38</v>
       </c>
       <c r="AE51">
-        <v>46.5</v>
+        <v>136</v>
       </c>
       <c r="AF51">
-        <v>69</v>
+        <v>-264.75</v>
       </c>
       <c r="AG51">
-        <v>43.5</v>
+        <v>-341.25</v>
       </c>
       <c r="AH51">
-        <v>63</v>
+        <v>-256.5</v>
       </c>
       <c r="AI51">
-        <v>66.5</v>
+        <v>-194.25</v>
       </c>
       <c r="AJ51">
-        <v>54.5</v>
+        <v>-373</v>
       </c>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>26129</v>
+        <v>26115</v>
       </c>
       <c r="AA52">
-        <v>409</v>
+        <v>4.5</v>
       </c>
       <c r="AB52">
-        <v>519</v>
+        <v>43.5</v>
       </c>
       <c r="AC52">
-        <v>627</v>
+        <v>30</v>
       </c>
       <c r="AD52">
-        <v>632</v>
+        <v>15.5</v>
       </c>
       <c r="AE52">
-        <v>696</v>
+        <v>27.25</v>
       </c>
       <c r="AF52">
-        <v>693</v>
+        <v>43</v>
       </c>
       <c r="AG52">
-        <v>684</v>
+        <v>43</v>
       </c>
       <c r="AH52">
-        <v>616</v>
+        <v>30.75</v>
       </c>
       <c r="AI52">
-        <v>569</v>
+        <v>20.75</v>
       </c>
       <c r="AJ52">
-        <v>236</v>
+        <v>-26.75</v>
       </c>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>11208</v>
+        <v>36674</v>
       </c>
       <c r="AA53">
-        <v>142</v>
+        <v>937</v>
       </c>
       <c r="AB53">
-        <v>170</v>
+        <v>1009</v>
       </c>
       <c r="AC53">
-        <v>273</v>
+        <v>1031</v>
       </c>
       <c r="AD53">
-        <v>291</v>
+        <v>1125</v>
       </c>
       <c r="AE53">
-        <v>293</v>
+        <v>1086</v>
       </c>
       <c r="AF53">
-        <v>296</v>
+        <v>1052</v>
       </c>
       <c r="AG53">
-        <v>244</v>
+        <v>993</v>
       </c>
       <c r="AH53">
-        <v>227</v>
+        <v>944</v>
       </c>
       <c r="AI53">
-        <v>228</v>
+        <v>915</v>
       </c>
       <c r="AJ53">
-        <v>163</v>
+        <v>760</v>
       </c>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>11158</v>
+        <v>11085</v>
       </c>
       <c r="AA54">
-        <v>-7.75</v>
+        <v>-1.5</v>
       </c>
       <c r="AB54">
-        <v>-12.25</v>
+        <v>0.5</v>
       </c>
       <c r="AC54">
-        <v>-25.5</v>
+        <v>0.5</v>
       </c>
       <c r="AD54">
-        <v>1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="AE54">
-        <v>-5</v>
+        <v>-0.75</v>
       </c>
       <c r="AF54">
-        <v>-30.5</v>
+        <v>-3.5</v>
       </c>
       <c r="AG54">
-        <v>-53.75</v>
+        <v>-2.25</v>
       </c>
       <c r="AH54">
-        <v>-32</v>
+        <v>-6</v>
       </c>
       <c r="AI54">
-        <v>-20</v>
+        <v>-3.5</v>
       </c>
       <c r="AJ54">
-        <v>-53.5</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>36666</v>
+        <v>27984</v>
       </c>
       <c r="AA55">
-        <v>-1.5</v>
+        <v>753.75</v>
       </c>
       <c r="AB55">
-        <v>-283.75</v>
+        <v>842.75</v>
       </c>
       <c r="AC55">
-        <v>-529.25</v>
+        <v>1028.5</v>
       </c>
       <c r="AD55">
-        <v>-742.75</v>
+        <v>1017.25</v>
       </c>
       <c r="AE55">
-        <v>-826.5</v>
+        <v>970</v>
       </c>
       <c r="AF55">
-        <v>-1089.25</v>
+        <v>865.5</v>
       </c>
       <c r="AG55">
-        <v>-1052.5</v>
+        <v>824</v>
       </c>
       <c r="AH55">
-        <v>-1055.75</v>
+        <v>810</v>
       </c>
       <c r="AI55">
-        <v>-875.25</v>
+        <v>764</v>
       </c>
       <c r="AJ55">
-        <v>-768</v>
+        <v>375</v>
       </c>
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>11181</v>
+        <v>36668</v>
       </c>
       <c r="AA56">
-        <v>-3</v>
+        <v>-27.75</v>
       </c>
       <c r="AB56">
-        <v>-82.75</v>
+        <v>-40</v>
       </c>
       <c r="AC56">
-        <v>-25.75</v>
+        <v>-45.75</v>
       </c>
       <c r="AD56">
-        <v>-70.5</v>
+        <v>-89.75</v>
       </c>
       <c r="AE56">
-        <v>-87.5</v>
+        <v>-106.5</v>
       </c>
       <c r="AF56">
-        <v>-24</v>
+        <v>-159.5</v>
       </c>
       <c r="AG56">
-        <v>-35.75</v>
+        <v>-174.5</v>
       </c>
       <c r="AH56">
-        <v>-33.25</v>
+        <v>-171.75</v>
       </c>
       <c r="AI56">
-        <v>-15.25</v>
+        <v>-156.5</v>
       </c>
       <c r="AJ56">
-        <v>-69.5</v>
+        <v>-141.5</v>
       </c>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>27999</v>
+        <v>11306</v>
       </c>
       <c r="AA57">
-        <v>-60.25</v>
+        <v>106.25</v>
       </c>
       <c r="AB57">
-        <v>-79.75</v>
+        <v>77.25</v>
       </c>
       <c r="AC57">
-        <v>-57.5</v>
+        <v>68.75</v>
       </c>
       <c r="AD57">
-        <v>-53.5</v>
+        <v>21.25</v>
       </c>
       <c r="AE57">
-        <v>-25.75</v>
+        <v>46.5</v>
       </c>
       <c r="AF57">
-        <v>-41.75</v>
+        <v>69</v>
       </c>
       <c r="AG57">
-        <v>-76.25</v>
+        <v>43.5</v>
       </c>
       <c r="AH57">
-        <v>-89.25</v>
+        <v>63</v>
       </c>
       <c r="AI57">
-        <v>-33.75</v>
+        <v>66.5</v>
       </c>
       <c r="AJ57">
-        <v>-47.25</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>27984</v>
+        <v>36665</v>
       </c>
       <c r="AA58">
-        <v>753.75</v>
+        <v>-14.5</v>
       </c>
       <c r="AB58">
-        <v>842.75</v>
+        <v>-21.25</v>
       </c>
       <c r="AC58">
-        <v>1028.5</v>
+        <v>-4.75</v>
       </c>
       <c r="AD58">
-        <v>1017.25</v>
+        <v>10</v>
       </c>
       <c r="AE58">
-        <v>970</v>
+        <v>-49.25</v>
       </c>
       <c r="AF58">
-        <v>865.5</v>
+        <v>-92.5</v>
       </c>
       <c r="AG58">
-        <v>824</v>
+        <v>-171</v>
       </c>
       <c r="AH58">
-        <v>810</v>
+        <v>-149.75</v>
       </c>
       <c r="AI58">
-        <v>764</v>
+        <v>-169.25</v>
       </c>
       <c r="AJ58">
-        <v>375</v>
+        <v>-217.75</v>
       </c>
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>12101</v>
+        <v>11254</v>
       </c>
       <c r="AA59">
-        <v>278.25</v>
+        <v>44.75</v>
       </c>
       <c r="AB59">
-        <v>261.5</v>
+        <v>47</v>
       </c>
       <c r="AC59">
-        <v>268</v>
+        <v>30.75</v>
       </c>
       <c r="AD59">
-        <v>245</v>
+        <v>30.5</v>
       </c>
       <c r="AE59">
-        <v>243.75</v>
+        <v>29</v>
       </c>
       <c r="AF59">
-        <v>248.5</v>
+        <v>30</v>
       </c>
       <c r="AG59">
-        <v>239</v>
+        <v>12.25</v>
       </c>
       <c r="AH59">
-        <v>225</v>
+        <v>9.75</v>
       </c>
       <c r="AI59">
-        <v>241.75</v>
+        <v>34.25</v>
       </c>
       <c r="AJ59">
-        <v>223.75</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>11046</v>
+        <v>11256</v>
       </c>
       <c r="AA60">
-        <v>-2</v>
+        <v>222.75</v>
       </c>
       <c r="AB60">
-        <v>-19</v>
+        <v>-95.75</v>
       </c>
       <c r="AC60">
-        <v>0.25</v>
+        <v>-51.25</v>
       </c>
       <c r="AD60">
-        <v>-3</v>
+        <v>27.5</v>
       </c>
       <c r="AE60">
-        <v>111.75</v>
+        <v>21.75</v>
       </c>
       <c r="AF60">
-        <v>8.25</v>
+        <v>30.75</v>
       </c>
       <c r="AG60">
-        <v>34</v>
+        <v>71.5</v>
       </c>
       <c r="AH60">
-        <v>8.75</v>
+        <v>36.75</v>
       </c>
       <c r="AI60">
-        <v>-11</v>
+        <v>68</v>
       </c>
       <c r="AJ60">
-        <v>-117</v>
+        <v>-44.75</v>
       </c>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>26126</v>
+        <v>11456</v>
       </c>
       <c r="AA61">
-        <v>-53</v>
+        <v>137.5</v>
       </c>
       <c r="AB61">
-        <v>-29</v>
+        <v>-108.5</v>
       </c>
       <c r="AC61">
-        <v>-35</v>
+        <v>-178</v>
       </c>
       <c r="AD61">
-        <v>-59.25</v>
+        <v>-103.25</v>
       </c>
       <c r="AE61">
-        <v>-48.25</v>
+        <v>-151.75</v>
       </c>
       <c r="AF61">
-        <v>-49</v>
+        <v>-172.75</v>
       </c>
       <c r="AG61">
-        <v>-76.25</v>
+        <v>10.25</v>
       </c>
       <c r="AH61">
-        <v>-72.75</v>
+        <v>-15.25</v>
       </c>
       <c r="AI61">
-        <v>-62</v>
+        <v>54.25</v>
       </c>
       <c r="AJ61">
-        <v>-150.25</v>
+        <v>-29.25</v>
       </c>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>27983</v>
+        <v>36667</v>
       </c>
       <c r="AA62">
-        <v>463.25</v>
+        <v>25</v>
       </c>
       <c r="AB62">
-        <v>226.5</v>
+        <v>52.25</v>
       </c>
       <c r="AC62">
-        <v>58.75</v>
+        <v>79.75</v>
       </c>
       <c r="AD62">
-        <v>-68.75</v>
+        <v>90.75</v>
       </c>
       <c r="AE62">
-        <v>100.75</v>
+        <v>47.75</v>
       </c>
       <c r="AF62">
-        <v>-214</v>
+        <v>6.75</v>
       </c>
       <c r="AG62">
-        <v>-302</v>
+        <v>-60.75</v>
       </c>
       <c r="AH62">
-        <v>-123</v>
+        <v>-49.25</v>
       </c>
       <c r="AI62">
-        <v>-129.75</v>
+        <v>-70.75</v>
       </c>
       <c r="AJ62">
-        <v>-322.5</v>
+        <v>-134.25</v>
       </c>
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>11268</v>
+        <v>26125</v>
       </c>
       <c r="AA63">
-        <v>69</v>
+        <v>3.5</v>
       </c>
       <c r="AB63">
-        <v>48</v>
+        <v>21.75</v>
       </c>
       <c r="AC63">
-        <v>148.75</v>
+        <v>15.5</v>
       </c>
       <c r="AD63">
-        <v>103.75</v>
+        <v>33.25</v>
       </c>
       <c r="AE63">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="AF63">
-        <v>71.5</v>
+        <v>14</v>
       </c>
       <c r="AG63">
-        <v>-34</v>
+        <v>22.25</v>
       </c>
       <c r="AH63">
-        <v>-6.5</v>
+        <v>29.25</v>
       </c>
       <c r="AI63">
-        <v>-31.75</v>
+        <v>19.5</v>
       </c>
       <c r="AJ63">
-        <v>-97.75</v>
+        <v>-24.25</v>
       </c>
     </row>
   </sheetData>
@@ -2834,7 +2834,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:CT63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3136,632 +3138,632 @@
     </row>
     <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>11181</v>
+        <v>11158</v>
       </c>
       <c r="AA2">
-        <v>1.0105699999999942</v>
+        <v>-17.599249999999998</v>
       </c>
       <c r="AB2">
-        <v>1.6896699999999925</v>
+        <v>-19.699369999999995</v>
       </c>
       <c r="AC2">
-        <v>0.24343999999999966</v>
+        <v>-20.712249999999997</v>
       </c>
       <c r="AD2">
-        <v>0.48716999999999189</v>
+        <v>-21.977990000000005</v>
       </c>
       <c r="AE2">
-        <v>1.1647400000000019</v>
+        <v>-20.833449999999999</v>
       </c>
       <c r="AF2">
-        <v>-9.3207700000000031</v>
+        <v>-19.456600000000002</v>
       </c>
       <c r="AG2">
-        <v>-10.99971</v>
+        <v>-20.44876</v>
       </c>
       <c r="AH2">
-        <v>1.5190800000000024</v>
+        <v>-21.239049999999999</v>
       </c>
       <c r="AI2">
-        <v>5.7684099999999958</v>
+        <v>-17.42306</v>
       </c>
       <c r="AJ2">
-        <v>8.3374499999999969</v>
+        <v>-18.083559999999999</v>
       </c>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>26126</v>
+        <v>26129</v>
       </c>
       <c r="AA3">
-        <v>-5.0694000000000017</v>
+        <v>-3.206389999999999</v>
       </c>
       <c r="AB3">
-        <v>-4.8285300000000078</v>
+        <v>-3.9872099999999975</v>
       </c>
       <c r="AC3">
-        <v>-4.1748599999999954</v>
+        <v>-4.9303699999999964</v>
       </c>
       <c r="AD3">
-        <v>-5.8125300000000024</v>
+        <v>-4.9788599999999974</v>
       </c>
       <c r="AE3">
-        <v>-0.30366999999999678</v>
+        <v>-5.6937800000000038</v>
       </c>
       <c r="AF3">
-        <v>8.3652900000000017</v>
+        <v>-5.653330000000004</v>
       </c>
       <c r="AG3">
-        <v>13.243690000000001</v>
+        <v>-5.5425599999999946</v>
       </c>
       <c r="AH3">
-        <v>10.131730000000005</v>
+        <v>-4.8259599999999949</v>
       </c>
       <c r="AI3">
-        <v>7.5103800000000049</v>
+        <v>-4.3869199999999964</v>
       </c>
       <c r="AJ3">
-        <v>4.3202500000000015</v>
+        <v>-2.2679800000000085</v>
       </c>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>11456</v>
+        <v>27985</v>
       </c>
       <c r="AA4">
-        <v>-0.48713000000000761</v>
+        <v>4.7270599999999945</v>
       </c>
       <c r="AB4">
-        <v>-1.6707199999999887</v>
+        <v>3.7395400000000052</v>
       </c>
       <c r="AC4">
-        <v>-1.6644100000000037</v>
+        <v>3.2152900000000031</v>
       </c>
       <c r="AD4">
-        <v>-3.9917000000000016</v>
+        <v>2.4536999999999978</v>
       </c>
       <c r="AE4">
-        <v>-3.1716499999999996</v>
+        <v>2.7599000000000018</v>
       </c>
       <c r="AF4">
-        <v>6.6604600000000005</v>
+        <v>3.2860800000000054</v>
       </c>
       <c r="AG4">
-        <v>8.5009900000000016</v>
+        <v>3.9787300000000059</v>
       </c>
       <c r="AH4">
-        <v>15.368449999999996</v>
+        <v>3.1709900000000033</v>
       </c>
       <c r="AI4">
-        <v>8.4690999999999974</v>
+        <v>4.2747300000000052</v>
       </c>
       <c r="AJ4">
-        <v>6.9305200000000013</v>
+        <v>6.698360000000001</v>
       </c>
     </row>
     <row r="5" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>11085</v>
+        <v>11290</v>
       </c>
       <c r="AA5">
-        <v>-2.2928400000000053</v>
+        <v>-3.1963399999999993</v>
       </c>
       <c r="AB5">
-        <v>28.665369999999996</v>
+        <v>-3.4407899999999998</v>
       </c>
       <c r="AC5">
-        <v>10.508869999999995</v>
+        <v>-5.0892499999999998</v>
       </c>
       <c r="AD5">
-        <v>14.025469999999999</v>
+        <v>-9.7239800000000045</v>
       </c>
       <c r="AE5">
-        <v>-1.1989300000000043</v>
+        <v>-11.643799999999999</v>
       </c>
       <c r="AF5">
-        <v>-1.5</v>
+        <v>-11.496590000000005</v>
       </c>
       <c r="AG5">
-        <v>14.355159999999998</v>
+        <v>-9.1944999999999979</v>
       </c>
       <c r="AH5">
-        <v>-2.9738900000000044</v>
+        <v>-0.37131000000000114</v>
       </c>
       <c r="AI5">
-        <v>-3.2004699999999957</v>
+        <v>4.6342599999999976</v>
       </c>
       <c r="AJ5">
-        <v>-3</v>
+        <v>0.12794000000000239</v>
       </c>
     </row>
     <row r="6" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>36675</v>
+        <v>11341</v>
       </c>
       <c r="AA6">
-        <v>-2.8603300000000047</v>
+        <v>5.0517699999999905</v>
       </c>
       <c r="AB6">
-        <v>-4.9575499999999977</v>
+        <v>5.9128699999999981</v>
       </c>
       <c r="AC6">
-        <v>-5.2865699999999975</v>
+        <v>3.4627100000000013</v>
       </c>
       <c r="AD6">
-        <v>-5.9890300000000067</v>
+        <v>2.5297099999999944</v>
       </c>
       <c r="AE6">
-        <v>-6.0376699999999985</v>
+        <v>5.1176300000000055</v>
       </c>
       <c r="AF6">
-        <v>-6.7141900000000021</v>
+        <v>7.629170000000002</v>
       </c>
       <c r="AG6">
-        <v>-6.1428300000000036</v>
+        <v>7.4782900000000012</v>
       </c>
       <c r="AH6">
-        <v>-6.1681800000000067</v>
+        <v>5.7387300000000039</v>
       </c>
       <c r="AI6">
-        <v>-5.3041300000000078</v>
+        <v>6.8829099999999954</v>
       </c>
       <c r="AJ6">
-        <v>-4.575019999999995</v>
+        <v>6.1588600000000042</v>
       </c>
     </row>
     <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>28013</v>
+        <v>11290</v>
       </c>
       <c r="AA7">
-        <v>0.58600000000000563</v>
+        <v>-8.8260199999999998</v>
       </c>
       <c r="AB7">
-        <v>-1.2289800000000071</v>
+        <v>-7.5041299999999964</v>
       </c>
       <c r="AC7">
-        <v>-1.0609599999999944</v>
+        <v>-8.5319199999999995</v>
       </c>
       <c r="AD7">
-        <v>-1.3744900000000015</v>
+        <v>-8.5572099999999978</v>
       </c>
       <c r="AE7">
-        <v>-1.7129800000000017</v>
+        <v>-8.0876499999999965</v>
       </c>
       <c r="AF7">
-        <v>-0.40611999999999426</v>
+        <v>-8.484250000000003</v>
       </c>
       <c r="AG7">
-        <v>-0.33104000000000156</v>
+        <v>-9.1637199999999979</v>
       </c>
       <c r="AH7">
-        <v>-6.1319999999994934E-2</v>
+        <v>-8.3531599999999955</v>
       </c>
       <c r="AI7">
-        <v>-0.33036999999999495</v>
+        <v>-8.6678799999999967</v>
       </c>
       <c r="AJ7">
-        <v>-0.19598000000000582</v>
+        <v>-9.0984100000000012</v>
       </c>
     </row>
     <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>27997</v>
+        <v>11302</v>
       </c>
       <c r="AA8">
-        <v>0.21105000000000018</v>
+        <v>-0.31048000000000542</v>
       </c>
       <c r="AB8">
-        <v>-1.5837699999999941</v>
+        <v>-3.0025400000000033</v>
       </c>
       <c r="AC8">
-        <v>-1.6325300000000027</v>
+        <v>-3.9570300000000032</v>
       </c>
       <c r="AD8">
-        <v>-3.627830000000003</v>
+        <v>-5.2165900000000036</v>
       </c>
       <c r="AE8">
-        <v>-8.3976199999999963</v>
+        <v>-4.7776599999999974</v>
       </c>
       <c r="AF8">
-        <v>-1.8428100000000001</v>
+        <v>-4.616109999999999</v>
       </c>
       <c r="AG8">
-        <v>-1.7058900000000037</v>
+        <v>-4.0497399999999999</v>
       </c>
       <c r="AH8">
-        <v>-1.0001999999999995</v>
+        <v>-4.590919999999997</v>
       </c>
       <c r="AI8">
-        <v>-0.35125000000000028</v>
+        <v>-4.1666000000000025</v>
       </c>
       <c r="AJ8">
-        <v>1.3601000000000028</v>
+        <v>-3.5561500000000024</v>
       </c>
     </row>
     <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>11254</v>
+        <v>11300</v>
       </c>
       <c r="AA9">
-        <v>7.442930000000004</v>
+        <v>58.003549999999997</v>
       </c>
       <c r="AB9">
-        <v>5.590209999999999</v>
+        <v>57.822780000000002</v>
       </c>
       <c r="AC9">
-        <v>5.7052400000000034</v>
+        <v>57.792080000000006</v>
       </c>
       <c r="AD9">
-        <v>5.5283100000000047</v>
+        <v>57.441330000000008</v>
       </c>
       <c r="AE9">
-        <v>5.0120100000000036</v>
+        <v>57.589500000000001</v>
       </c>
       <c r="AF9">
-        <v>5.3081999999999994</v>
+        <v>57.686140000000002</v>
       </c>
       <c r="AG9">
-        <v>3.703559999999996</v>
+        <v>57.837230000000005</v>
       </c>
       <c r="AH9">
-        <v>4.5289199999999994</v>
+        <v>57.978999999999999</v>
       </c>
       <c r="AI9">
-        <v>6.7412000000000063</v>
+        <v>58.031040000000004</v>
       </c>
       <c r="AJ9">
-        <v>6.9970699999999937</v>
+        <v>58.532559999999997</v>
       </c>
     </row>
     <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>38806</v>
+        <v>11456</v>
       </c>
       <c r="AA10">
-        <v>-1.5539999999999949</v>
+        <v>10.533250000000002</v>
       </c>
       <c r="AB10">
-        <v>-3.7164500000000018</v>
+        <v>10.204069999999994</v>
       </c>
       <c r="AC10">
-        <v>-4.6717199999999934</v>
+        <v>9.9988600000000005</v>
       </c>
       <c r="AD10">
-        <v>-5.6412499999999994</v>
+        <v>9.3898999999999972</v>
       </c>
       <c r="AE10">
-        <v>-5.3373300000000015</v>
+        <v>9.8537600000000012</v>
       </c>
       <c r="AF10">
-        <v>-5.5470900000000043</v>
+        <v>15.174030000000002</v>
       </c>
       <c r="AG10">
-        <v>-5.7366400000000013</v>
+        <v>17.459389999999999</v>
       </c>
       <c r="AH10">
-        <v>-5.5629599999999968</v>
+        <v>19.49324</v>
       </c>
       <c r="AI10">
-        <v>-4.6665500000000009</v>
+        <v>16.157159999999998</v>
       </c>
       <c r="AJ10">
-        <v>-2.473869999999998</v>
+        <v>17.790030000000002</v>
       </c>
     </row>
     <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>26125</v>
+        <v>28006</v>
       </c>
       <c r="AA11">
-        <v>-10.456600000000002</v>
+        <v>1.5934099999999987</v>
       </c>
       <c r="AB11">
-        <v>-12.941800000000001</v>
+        <v>1.163090000000004</v>
       </c>
       <c r="AC11">
-        <v>-11.711509999999997</v>
+        <v>-0.5203599999999966</v>
       </c>
       <c r="AD11">
-        <v>-10.214099999999998</v>
+        <v>-1.864530000000002</v>
       </c>
       <c r="AE11">
-        <v>-12.415640000000003</v>
+        <v>-0.53444000000000358</v>
       </c>
       <c r="AF11">
-        <v>-11.537770000000002</v>
+        <v>-0.9673000000000016</v>
       </c>
       <c r="AG11">
-        <v>-12.938640000000003</v>
+        <v>-0.53704000000000462</v>
       </c>
       <c r="AH11">
-        <v>-12.413979999999999</v>
+        <v>-1.0307999999999993</v>
       </c>
       <c r="AI11">
-        <v>-10.24868</v>
+        <v>-0.88429000000000002</v>
       </c>
       <c r="AJ11">
-        <v>-12.449240000000003</v>
+        <v>0.9532999999999987</v>
       </c>
     </row>
     <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>36674</v>
+        <v>11289</v>
       </c>
       <c r="AA12">
-        <v>56.449180000000005</v>
+        <v>11.809730000000002</v>
       </c>
       <c r="AB12">
-        <v>55.725290000000001</v>
+        <v>5.6717100000000045</v>
       </c>
       <c r="AC12">
-        <v>49.999690000000001</v>
+        <v>4.7123399999999975</v>
       </c>
       <c r="AD12">
-        <v>48.893329999999999</v>
+        <v>4.382559999999998</v>
       </c>
       <c r="AE12">
-        <v>47.310229999999997</v>
+        <v>4.3481699999999961</v>
       </c>
       <c r="AF12">
-        <v>43.839859999999994</v>
+        <v>3.7703400000000045</v>
       </c>
       <c r="AG12">
-        <v>40.255759999999995</v>
+        <v>3.3003900000000073</v>
       </c>
       <c r="AH12">
-        <v>40.13147</v>
+        <v>3.6001100000000008</v>
       </c>
       <c r="AI12">
-        <v>39.602129999999995</v>
+        <v>4.7898899999999998</v>
       </c>
       <c r="AJ12">
-        <v>42.633490000000002</v>
+        <v>6.0396400000000057</v>
       </c>
     </row>
     <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>32464</v>
+        <v>11415</v>
       </c>
       <c r="AA13">
-        <v>46.843859999999999</v>
+        <v>50.867719999999998</v>
       </c>
       <c r="AB13">
-        <v>45.948209999999996</v>
+        <v>49.241869999999999</v>
       </c>
       <c r="AC13">
-        <v>45.08361</v>
+        <v>47.88841</v>
       </c>
       <c r="AD13">
-        <v>45.340330000000002</v>
+        <v>49.62265</v>
       </c>
       <c r="AE13">
-        <v>43.780359999999995</v>
+        <v>49.256909999999998</v>
       </c>
       <c r="AF13">
-        <v>44.14958</v>
+        <v>48.228359999999995</v>
       </c>
       <c r="AG13">
-        <v>43.588209999999997</v>
+        <v>47.199059999999996</v>
       </c>
       <c r="AH13">
-        <v>44.42736</v>
+        <v>48.514809999999997</v>
       </c>
       <c r="AI13">
-        <v>44.121009999999998</v>
+        <v>46.332450000000001</v>
       </c>
       <c r="AJ13">
-        <v>47.054470000000002</v>
+        <v>50.449719999999999</v>
       </c>
     </row>
     <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>11300</v>
+        <v>11046</v>
       </c>
       <c r="AA14">
-        <v>58.003549999999997</v>
+        <v>15.341619999999992</v>
       </c>
       <c r="AB14">
-        <v>57.822780000000002</v>
+        <v>13.800759999999997</v>
       </c>
       <c r="AC14">
-        <v>57.792080000000006</v>
+        <v>13.254350000000002</v>
       </c>
       <c r="AD14">
-        <v>57.441330000000008</v>
+        <v>13.261420000000001</v>
       </c>
       <c r="AE14">
-        <v>57.589500000000001</v>
+        <v>13.031559999999999</v>
       </c>
       <c r="AF14">
-        <v>57.686140000000002</v>
+        <v>12.864800000000002</v>
       </c>
       <c r="AG14">
-        <v>57.837230000000005</v>
+        <v>12.894719999999992</v>
       </c>
       <c r="AH14">
-        <v>57.978999999999999</v>
+        <v>13.485579999999999</v>
       </c>
       <c r="AI14">
-        <v>58.031040000000004</v>
+        <v>14.818069999999992</v>
       </c>
       <c r="AJ14">
-        <v>58.532559999999997</v>
+        <v>15.10857</v>
       </c>
     </row>
     <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>11341</v>
+        <v>26138</v>
       </c>
       <c r="AA15">
-        <v>5.0517699999999905</v>
+        <v>5.8459000000000003</v>
       </c>
       <c r="AB15">
-        <v>5.9128699999999981</v>
+        <v>5.5072199999999967</v>
       </c>
       <c r="AC15">
-        <v>3.4627100000000013</v>
+        <v>5.4174399999999991</v>
       </c>
       <c r="AD15">
-        <v>2.5297099999999944</v>
+        <v>5.0501900000000006</v>
       </c>
       <c r="AE15">
-        <v>5.1176300000000055</v>
+        <v>5.1671400000000034</v>
       </c>
       <c r="AF15">
-        <v>7.629170000000002</v>
+        <v>5.2464500000000029</v>
       </c>
       <c r="AG15">
-        <v>7.4782900000000012</v>
+        <v>4.8314599999999999</v>
       </c>
       <c r="AH15">
-        <v>5.7387300000000039</v>
+        <v>5.2009400000000028</v>
       </c>
       <c r="AI15">
-        <v>6.8829099999999954</v>
+        <v>5.2837300000000056</v>
       </c>
       <c r="AJ15">
-        <v>6.1588600000000042</v>
+        <v>5.9402400000000029</v>
       </c>
     </row>
     <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>11153</v>
+        <v>36669</v>
       </c>
       <c r="AA16">
-        <v>-7.828569999999992</v>
+        <v>-18.895229999999998</v>
       </c>
       <c r="AB16">
-        <v>-5.9259599999999963</v>
+        <v>-17.552859999999995</v>
       </c>
       <c r="AC16">
-        <v>-12.254530000000003</v>
+        <v>-19.593670000000003</v>
       </c>
       <c r="AD16">
-        <v>-14.960290000000001</v>
+        <v>-20.271790000000003</v>
       </c>
       <c r="AE16">
-        <v>-15.751220000000004</v>
+        <v>-18.53537</v>
       </c>
       <c r="AF16">
-        <v>-24.102550000000001</v>
+        <v>-19.402149999999999</v>
       </c>
       <c r="AG16">
-        <v>-17.191890000000001</v>
+        <v>-18.343200000000003</v>
       </c>
       <c r="AH16">
-        <v>-11.138840000000002</v>
+        <v>-19.561170000000004</v>
       </c>
       <c r="AI16">
-        <v>-7.4106900000000024</v>
+        <v>-16.907800000000002</v>
       </c>
       <c r="AJ16">
-        <v>-3.2835400000000021</v>
+        <v>-18.280709999999999</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>11289</v>
+        <v>11383</v>
       </c>
       <c r="AA17">
-        <v>11.809730000000002</v>
+        <v>-12.602880000000006</v>
       </c>
       <c r="AB17">
-        <v>5.6717100000000045</v>
+        <v>-12.540709999999997</v>
       </c>
       <c r="AC17">
-        <v>4.7123399999999975</v>
+        <v>-10.710059999999999</v>
       </c>
       <c r="AD17">
-        <v>4.382559999999998</v>
+        <v>-11.188109999999995</v>
       </c>
       <c r="AE17">
-        <v>4.3481699999999961</v>
+        <v>-10.668819999999997</v>
       </c>
       <c r="AF17">
-        <v>3.7703400000000045</v>
+        <v>-1.3244800000000012</v>
       </c>
       <c r="AG17">
-        <v>3.3003900000000073</v>
+        <v>5.2167099999999991</v>
       </c>
       <c r="AH17">
-        <v>3.6001100000000008</v>
+        <v>4.5024699999999953</v>
       </c>
       <c r="AI17">
-        <v>4.7898899999999998</v>
+        <v>4.3045300000000069</v>
       </c>
       <c r="AJ17">
-        <v>6.0396400000000057</v>
+        <v>5.14846</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>11182</v>
+        <v>11208</v>
       </c>
       <c r="AA18">
-        <v>6.4774599999999936</v>
+        <v>59.501130000000003</v>
       </c>
       <c r="AB18">
-        <v>-0.38116999999999734</v>
+        <v>59.380990000000004</v>
       </c>
       <c r="AC18">
-        <v>2.2950099999999907</v>
+        <v>58.970359999999999</v>
       </c>
       <c r="AD18">
-        <v>0.94656999999999414</v>
+        <v>58.880299999999998</v>
       </c>
       <c r="AE18">
-        <v>1.3876400000000046</v>
+        <v>58.867509999999996</v>
       </c>
       <c r="AF18">
-        <v>1.8642199999999889</v>
+        <v>58.858990000000006</v>
       </c>
       <c r="AG18">
-        <v>1.1823300000000074</v>
+        <v>59.05856</v>
       </c>
       <c r="AH18">
-        <v>1.0862000000000052</v>
+        <v>59.136049999999997</v>
       </c>
       <c r="AI18">
-        <v>1.3648199999999946</v>
+        <v>59.152919999999995</v>
       </c>
       <c r="AJ18">
-        <v>2.576580000000007</v>
+        <v>59.407890000000002</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>11302</v>
+        <v>36664</v>
       </c>
       <c r="AA19">
-        <v>-0.31048000000000542</v>
+        <v>-0.55143000000000342</v>
       </c>
       <c r="AB19">
-        <v>-3.0025400000000033</v>
+        <v>-1.8645099999999957</v>
       </c>
       <c r="AC19">
-        <v>-3.9570300000000032</v>
+        <v>8.82000000000005E-2</v>
       </c>
       <c r="AD19">
-        <v>-5.2165900000000036</v>
+        <v>3.0771099999999976</v>
       </c>
       <c r="AE19">
-        <v>-4.7776599999999974</v>
+        <v>2.693950000000001</v>
       </c>
       <c r="AF19">
-        <v>-4.616109999999999</v>
+        <v>9.4194099999999992</v>
       </c>
       <c r="AG19">
-        <v>-4.0497399999999999</v>
+        <v>11.327849999999998</v>
       </c>
       <c r="AH19">
-        <v>-4.590919999999997</v>
+        <v>8.5725400000000036</v>
       </c>
       <c r="AI19">
-        <v>-4.1666000000000025</v>
+        <v>7.6738500000000016</v>
       </c>
       <c r="AJ19">
-        <v>-3.5561500000000024</v>
+        <v>6.1145199999999988</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.3">
@@ -3801,1507 +3803,1507 @@
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>11383</v>
+        <v>38805</v>
       </c>
       <c r="AA21">
-        <v>-12.602880000000006</v>
+        <v>-10.094790000000003</v>
       </c>
       <c r="AB21">
-        <v>-12.540709999999997</v>
+        <v>-11.179759999999995</v>
       </c>
       <c r="AC21">
-        <v>-10.710059999999999</v>
+        <v>-11.835930000000005</v>
       </c>
       <c r="AD21">
-        <v>-11.188109999999995</v>
+        <v>-12.343930000000007</v>
       </c>
       <c r="AE21">
-        <v>-10.668819999999997</v>
+        <v>-12.551450000000003</v>
       </c>
       <c r="AF21">
-        <v>-1.3244800000000012</v>
+        <v>-12.629559999999998</v>
       </c>
       <c r="AG21">
-        <v>5.2167099999999991</v>
+        <v>-12.715150000000001</v>
       </c>
       <c r="AH21">
-        <v>4.5024699999999953</v>
+        <v>-12.073099999999997</v>
       </c>
       <c r="AI21">
-        <v>4.3045300000000069</v>
+        <v>-12.017869999999995</v>
       </c>
       <c r="AJ21">
-        <v>5.14846</v>
+        <v>-11.245759999999997</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>27985</v>
+        <v>27983</v>
       </c>
       <c r="AA22">
-        <v>4.7270599999999945</v>
+        <v>-1.5334099999999964</v>
       </c>
       <c r="AB22">
-        <v>3.7395400000000052</v>
+        <v>-4.276219999999995</v>
       </c>
       <c r="AC22">
-        <v>3.2152900000000031</v>
+        <v>-6.1851699999999923</v>
       </c>
       <c r="AD22">
-        <v>2.4536999999999978</v>
+        <v>-6.1276599999999988</v>
       </c>
       <c r="AE22">
-        <v>2.7599000000000018</v>
+        <v>-7.0916500000000013</v>
       </c>
       <c r="AF22">
-        <v>3.2860800000000054</v>
+        <v>-6.3664899999999989</v>
       </c>
       <c r="AG22">
-        <v>3.9787300000000059</v>
+        <v>6.2969099999999969</v>
       </c>
       <c r="AH22">
-        <v>3.1709900000000033</v>
+        <v>13.984130000000007</v>
       </c>
       <c r="AI22">
-        <v>4.2747300000000052</v>
+        <v>6.9287500000000009</v>
       </c>
       <c r="AJ22">
-        <v>6.698360000000001</v>
+        <v>6.212619999999994</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>11256</v>
+        <v>36668</v>
       </c>
       <c r="AA23">
-        <v>-8.303219999999996</v>
+        <v>-6.3525400000000047</v>
       </c>
       <c r="AB23">
-        <v>-5.8834000000000017</v>
+        <v>-5.4891099999999966</v>
       </c>
       <c r="AC23">
-        <v>-12.102419999999995</v>
+        <v>-5.6503500000000031</v>
       </c>
       <c r="AD23">
-        <v>-18.330629999999999</v>
+        <v>-6.2455699999999936</v>
       </c>
       <c r="AE23">
-        <v>-17.079090000000001</v>
+        <v>-5.1625500000000031</v>
       </c>
       <c r="AF23">
-        <v>-27.717410000000001</v>
+        <v>-2.9501300000000015</v>
       </c>
       <c r="AG23">
-        <v>-17.596719999999998</v>
+        <v>-1.508890000000001</v>
       </c>
       <c r="AH23">
-        <v>-7.0438100000000006</v>
+        <v>0.24934999999999974</v>
       </c>
       <c r="AI23">
-        <v>-0.76148000000000593</v>
+        <v>-0.98519999999999897</v>
       </c>
       <c r="AJ23">
-        <v>1.8254999999999981</v>
+        <v>-1.603190000000005</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>26115</v>
+        <v>27999</v>
       </c>
       <c r="AA24">
-        <v>2.015749999999997</v>
+        <v>19.655459999999998</v>
       </c>
       <c r="AB24">
-        <v>1.7645099999999942</v>
+        <v>20.145619999999994</v>
       </c>
       <c r="AC24">
-        <v>0.14249999999999829</v>
+        <v>20.036209999999997</v>
       </c>
       <c r="AD24">
-        <v>-0.78331000000000017</v>
+        <v>19.174690000000005</v>
       </c>
       <c r="AE24">
-        <v>0.85604000000000013</v>
+        <v>18.559649999999998</v>
       </c>
       <c r="AF24">
-        <v>-0.41743000000000308</v>
+        <v>17.099569999999993</v>
       </c>
       <c r="AG24">
-        <v>-0.44274999999999665</v>
+        <v>17.263159999999999</v>
       </c>
       <c r="AH24">
-        <v>-0.25926999999999367</v>
+        <v>18.186780000000006</v>
       </c>
       <c r="AI24">
-        <v>1.0078199999999953</v>
+        <v>18.974819999999994</v>
       </c>
       <c r="AJ24">
-        <v>1.7695099999999968</v>
+        <v>19.097499999999997</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>11383</v>
+        <v>11485</v>
       </c>
       <c r="AA25">
-        <v>-2.3049900000000036</v>
+        <v>7.5253900000000016</v>
       </c>
       <c r="AB25">
-        <v>-1.9957300000000018</v>
+        <v>6.6373800000000074</v>
       </c>
       <c r="AC25">
-        <v>-4.2531900000000036</v>
+        <v>5.8839199999999892</v>
       </c>
       <c r="AD25">
-        <v>-8.084699999999998</v>
+        <v>4.9998800000000045</v>
       </c>
       <c r="AE25">
-        <v>-9.7312900000000013</v>
+        <v>4.6651300000000049</v>
       </c>
       <c r="AF25">
-        <v>-3.731669999999994</v>
+        <v>5.1594699999999989</v>
       </c>
       <c r="AG25">
-        <v>-5.8456599999999952</v>
+        <v>4.1291999999999973</v>
       </c>
       <c r="AH25">
-        <v>5.4783199999999965</v>
+        <v>4.3885099999999966</v>
       </c>
       <c r="AI25">
-        <v>6.9684099999999987</v>
+        <v>5.801959999999994</v>
       </c>
       <c r="AJ25">
-        <v>5.6328400000000016</v>
+        <v>7.7599400000000003</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>28016</v>
+        <v>26115</v>
       </c>
       <c r="AA26">
-        <v>7.4068500000000057</v>
+        <v>2.015749999999997</v>
       </c>
       <c r="AB26">
-        <v>6.5093200000000024</v>
+        <v>1.7645099999999942</v>
       </c>
       <c r="AC26">
-        <v>4.526680000000006</v>
+        <v>0.14249999999999829</v>
       </c>
       <c r="AD26">
-        <v>4.3068099999999987</v>
+        <v>-0.78331000000000017</v>
       </c>
       <c r="AE26">
-        <v>3.7112300000000076</v>
+        <v>0.85604000000000013</v>
       </c>
       <c r="AF26">
-        <v>4.3758300000000077</v>
+        <v>-0.41743000000000308</v>
       </c>
       <c r="AG26">
-        <v>4.3130499999999969</v>
+        <v>-0.44274999999999665</v>
       </c>
       <c r="AH26">
-        <v>4.9876000000000005</v>
+        <v>-0.25926999999999367</v>
       </c>
       <c r="AI26">
-        <v>5.3455500000000029</v>
+        <v>1.0078199999999953</v>
       </c>
       <c r="AJ26">
-        <v>5.5441500000000019</v>
+        <v>1.7695099999999968</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>27998</v>
+        <v>26114</v>
       </c>
       <c r="AA27">
-        <v>4.3825400000000059</v>
+        <v>1.8537099999999924</v>
       </c>
       <c r="AB27">
-        <v>2.468910000000001</v>
+        <v>0.52854999999999563</v>
       </c>
       <c r="AC27">
-        <v>1.4742099999999994</v>
+        <v>9.5000000000311502E-4</v>
       </c>
       <c r="AD27">
-        <v>1.1668000000000021</v>
+        <v>-2.1983800000000073</v>
       </c>
       <c r="AE27">
-        <v>2.0413199999999918</v>
+        <v>-1.5322000000000031</v>
       </c>
       <c r="AF27">
-        <v>2.3897800000000018</v>
+        <v>6.2263599999999997</v>
       </c>
       <c r="AG27">
-        <v>3.1768099999999961</v>
+        <v>12.310140000000004</v>
       </c>
       <c r="AH27">
-        <v>2.4692999999999969</v>
+        <v>20.028469999999999</v>
       </c>
       <c r="AI27">
-        <v>3.7571099999999973</v>
+        <v>10.012259999999998</v>
       </c>
       <c r="AJ27">
-        <v>4.3974199999999968</v>
+        <v>6.8035600000000045</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>36668</v>
+        <v>11436</v>
       </c>
       <c r="AA28">
-        <v>-9.3159599999999969</v>
+        <v>69.758859999999999</v>
       </c>
       <c r="AB28">
-        <v>-11.521349999999998</v>
+        <v>69.436689999999999</v>
       </c>
       <c r="AC28">
-        <v>-13.845930000000003</v>
+        <v>69.002679999999998</v>
       </c>
       <c r="AD28">
-        <v>-13.453189999999999</v>
+        <v>69.062539999999998</v>
       </c>
       <c r="AE28">
-        <v>-13.864980000000003</v>
+        <v>68.665549999999996</v>
       </c>
       <c r="AF28">
-        <v>-12.125269999999993</v>
+        <v>68.394099999999995</v>
       </c>
       <c r="AG28">
-        <v>-10.709180000000003</v>
+        <v>68.498840000000001</v>
       </c>
       <c r="AH28">
-        <v>-12.173299999999998</v>
+        <v>68.608590000000007</v>
       </c>
       <c r="AI28">
-        <v>-13.076560000000001</v>
+        <v>68.987160000000003</v>
       </c>
       <c r="AJ28">
-        <v>-9.9630199999999931</v>
+        <v>69.753159999999994</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>11415</v>
+        <v>11181</v>
       </c>
       <c r="AA29">
-        <v>50.867719999999998</v>
+        <v>-12.373870000000004</v>
       </c>
       <c r="AB29">
-        <v>49.241869999999999</v>
+        <v>-11.154709999999994</v>
       </c>
       <c r="AC29">
-        <v>47.88841</v>
+        <v>-15.777999999999999</v>
       </c>
       <c r="AD29">
-        <v>49.62265</v>
+        <v>-8.2942700000000045</v>
       </c>
       <c r="AE29">
-        <v>49.256909999999998</v>
+        <v>-10.21161</v>
       </c>
       <c r="AF29">
-        <v>48.228359999999995</v>
+        <v>-19.379930000000002</v>
       </c>
       <c r="AG29">
-        <v>47.199059999999996</v>
+        <v>-25.599080000000001</v>
       </c>
       <c r="AH29">
-        <v>48.514809999999997</v>
+        <v>-12.538270000000004</v>
       </c>
       <c r="AI29">
-        <v>46.332450000000001</v>
+        <v>-10.221080000000001</v>
       </c>
       <c r="AJ29">
-        <v>50.449719999999999</v>
+        <v>-3.7222999999999971</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>26114</v>
+        <v>36675</v>
       </c>
       <c r="AA30">
-        <v>1.8537099999999924</v>
+        <v>-2.8603300000000047</v>
       </c>
       <c r="AB30">
-        <v>0.52854999999999563</v>
+        <v>-4.9575499999999977</v>
       </c>
       <c r="AC30">
-        <v>9.5000000000311502E-4</v>
+        <v>-5.2865699999999975</v>
       </c>
       <c r="AD30">
-        <v>-2.1983800000000073</v>
+        <v>-5.9890300000000067</v>
       </c>
       <c r="AE30">
-        <v>-1.5322000000000031</v>
+        <v>-6.0376699999999985</v>
       </c>
       <c r="AF30">
-        <v>6.2263599999999997</v>
+        <v>-6.7141900000000021</v>
       </c>
       <c r="AG30">
-        <v>12.310140000000004</v>
+        <v>-6.1428300000000036</v>
       </c>
       <c r="AH30">
-        <v>20.028469999999999</v>
+        <v>-6.1681800000000067</v>
       </c>
       <c r="AI30">
-        <v>10.012259999999998</v>
+        <v>-5.3041300000000078</v>
       </c>
       <c r="AJ30">
-        <v>6.8035600000000045</v>
+        <v>-4.575019999999995</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>11456</v>
+        <v>26120</v>
       </c>
       <c r="AA31">
-        <v>10.533250000000002</v>
+        <v>-22.442240000000002</v>
       </c>
       <c r="AB31">
-        <v>10.204069999999994</v>
+        <v>-22.543150000000001</v>
       </c>
       <c r="AC31">
-        <v>9.9988600000000005</v>
+        <v>-22.579350000000002</v>
       </c>
       <c r="AD31">
-        <v>9.3898999999999972</v>
+        <v>-22.557559999999999</v>
       </c>
       <c r="AE31">
-        <v>9.8537600000000012</v>
+        <v>-22.596109999999996</v>
       </c>
       <c r="AF31">
-        <v>15.174030000000002</v>
+        <v>-22.753459999999997</v>
       </c>
       <c r="AG31">
-        <v>17.459389999999999</v>
+        <v>-22.86805</v>
       </c>
       <c r="AH31">
-        <v>19.49324</v>
+        <v>-22.771690000000003</v>
       </c>
       <c r="AI31">
-        <v>16.157159999999998</v>
+        <v>-22.589740000000003</v>
       </c>
       <c r="AJ31">
-        <v>17.790030000000002</v>
+        <v>-22.10012</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>26115</v>
+        <v>11088</v>
       </c>
       <c r="AA32">
-        <v>-5.3103599999999958</v>
+        <v>9.3398499999999984</v>
       </c>
       <c r="AB32">
-        <v>-4.6680300000000017</v>
+        <v>8.7482100000000003</v>
       </c>
       <c r="AC32">
-        <v>-5.8385499999999979</v>
+        <v>7.706230000000005</v>
       </c>
       <c r="AD32">
-        <v>-3.6104400000000041</v>
+        <v>7.2364699999999971</v>
       </c>
       <c r="AE32">
-        <v>-6.1669800000000023</v>
+        <v>7.0194099999999935</v>
       </c>
       <c r="AF32">
-        <v>-8.3895099999999942</v>
+        <v>8.307469999999995</v>
       </c>
       <c r="AG32">
-        <v>-10.584030000000006</v>
+        <v>5.9174300000000102</v>
       </c>
       <c r="AH32">
-        <v>-6.541569999999993</v>
+        <v>6.7164700000000011</v>
       </c>
       <c r="AI32">
-        <v>-7.7676699999999954</v>
+        <v>9.4319500000000005</v>
       </c>
       <c r="AJ32">
-        <v>-7.9693100000000001</v>
+        <v>10.112399999999994</v>
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>27986</v>
+        <v>11383</v>
       </c>
       <c r="AA33">
-        <v>2.008899999999997</v>
+        <v>-2.3049900000000036</v>
       </c>
       <c r="AB33">
-        <v>-2.2007900000000049</v>
+        <v>-1.9957300000000018</v>
       </c>
       <c r="AC33">
-        <v>-2.1223699999999965</v>
+        <v>-4.2531900000000036</v>
       </c>
       <c r="AD33">
-        <v>-0.47944999999999993</v>
+        <v>-8.084699999999998</v>
       </c>
       <c r="AE33">
-        <v>0.9432599999999951</v>
+        <v>-9.7312900000000013</v>
       </c>
       <c r="AF33">
-        <v>-0.44066999999999723</v>
+        <v>-3.731669999999994</v>
       </c>
       <c r="AG33">
-        <v>-1.8171999999999997</v>
+        <v>-5.8456599999999952</v>
       </c>
       <c r="AH33">
-        <v>0.75721999999999667</v>
+        <v>5.4783199999999965</v>
       </c>
       <c r="AI33">
-        <v>0.49104000000000525</v>
+        <v>6.9684099999999987</v>
       </c>
       <c r="AJ33">
-        <v>2.7505600000000001</v>
+        <v>5.6328400000000016</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>11254</v>
+        <v>36666</v>
       </c>
       <c r="AA34">
-        <v>2.2047800000000066</v>
+        <v>-5.3786500000000004</v>
       </c>
       <c r="AB34">
-        <v>0.53775000000000261</v>
+        <v>-6.3015499999999989</v>
       </c>
       <c r="AC34">
-        <v>-0.51245999999999725</v>
+        <v>-7.1595800000000054</v>
       </c>
       <c r="AD34">
-        <v>-0.44415999999999656</v>
+        <v>-6.6094399999999993</v>
       </c>
       <c r="AE34">
-        <v>-0.30459000000000458</v>
+        <v>-6.5128500000000003</v>
       </c>
       <c r="AF34">
-        <v>-0.94958000000000453</v>
+        <v>-3.2865699999999975</v>
       </c>
       <c r="AG34">
-        <v>-3.0916699999999935</v>
+        <v>1.1824000000000012</v>
       </c>
       <c r="AH34">
-        <v>-0.60888000000000631</v>
+        <v>1.7078500000000005</v>
       </c>
       <c r="AI34">
-        <v>-1.2928899999999999</v>
+        <v>-0.16346999999999667</v>
       </c>
       <c r="AJ34">
-        <v>0.78250999999999493</v>
+        <v>1.290469999999992</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>11436</v>
+        <v>11268</v>
       </c>
       <c r="AA35">
-        <v>69.758859999999999</v>
+        <v>-3.7015499999999975</v>
       </c>
       <c r="AB35">
-        <v>69.436689999999999</v>
+        <v>-4.8134099999999975</v>
       </c>
       <c r="AC35">
-        <v>69.002679999999998</v>
+        <v>-4.9698899999999995</v>
       </c>
       <c r="AD35">
-        <v>69.062539999999998</v>
+        <v>-6.4652400000000014</v>
       </c>
       <c r="AE35">
-        <v>68.665549999999996</v>
+        <v>-6.5636300000000034</v>
       </c>
       <c r="AF35">
-        <v>68.394099999999995</v>
+        <v>-6.2177000000000007</v>
       </c>
       <c r="AG35">
-        <v>68.498840000000001</v>
+        <v>-6.3569499999999977</v>
       </c>
       <c r="AH35">
-        <v>68.608590000000007</v>
+        <v>-5.9085499999999982</v>
       </c>
       <c r="AI35">
-        <v>68.987160000000003</v>
+        <v>-8.0285500000000027</v>
       </c>
       <c r="AJ35">
-        <v>69.753159999999994</v>
+        <v>-5.803919999999998</v>
       </c>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>38805</v>
+        <v>26126</v>
       </c>
       <c r="AA36">
-        <v>-10.094790000000003</v>
+        <v>-5.0694000000000017</v>
       </c>
       <c r="AB36">
-        <v>-11.179759999999995</v>
+        <v>-4.8285300000000078</v>
       </c>
       <c r="AC36">
-        <v>-11.835930000000005</v>
+        <v>-4.1748599999999954</v>
       </c>
       <c r="AD36">
-        <v>-12.343930000000007</v>
+        <v>-5.8125300000000024</v>
       </c>
       <c r="AE36">
-        <v>-12.551450000000003</v>
+        <v>-0.30366999999999678</v>
       </c>
       <c r="AF36">
-        <v>-12.629559999999998</v>
+        <v>8.3652900000000017</v>
       </c>
       <c r="AG36">
-        <v>-12.715150000000001</v>
+        <v>13.243690000000001</v>
       </c>
       <c r="AH36">
-        <v>-12.073099999999997</v>
+        <v>10.131730000000005</v>
       </c>
       <c r="AI36">
-        <v>-12.017869999999995</v>
+        <v>7.5103800000000049</v>
       </c>
       <c r="AJ36">
-        <v>-11.245759999999997</v>
+        <v>4.3202500000000015</v>
       </c>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36668</v>
+        <v>28013</v>
       </c>
       <c r="AA37">
-        <v>-6.3525400000000047</v>
+        <v>0.58600000000000563</v>
       </c>
       <c r="AB37">
-        <v>-5.4891099999999966</v>
+        <v>-1.2289800000000071</v>
       </c>
       <c r="AC37">
-        <v>-5.6503500000000031</v>
+        <v>-1.0609599999999944</v>
       </c>
       <c r="AD37">
-        <v>-6.2455699999999936</v>
+        <v>-1.3744900000000015</v>
       </c>
       <c r="AE37">
-        <v>-5.1625500000000031</v>
+        <v>-1.7129800000000017</v>
       </c>
       <c r="AF37">
-        <v>-2.9501300000000015</v>
+        <v>-0.40611999999999426</v>
       </c>
       <c r="AG37">
-        <v>-1.508890000000001</v>
+        <v>-0.33104000000000156</v>
       </c>
       <c r="AH37">
-        <v>0.24934999999999974</v>
+        <v>-6.1319999999994934E-2</v>
       </c>
       <c r="AI37">
-        <v>-0.98519999999999897</v>
+        <v>-0.33036999999999495</v>
       </c>
       <c r="AJ37">
-        <v>-1.603190000000005</v>
+        <v>-0.19598000000000582</v>
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>28006</v>
+        <v>11182</v>
       </c>
       <c r="AA38">
-        <v>1.5934099999999987</v>
+        <v>6.4774599999999936</v>
       </c>
       <c r="AB38">
-        <v>1.163090000000004</v>
+        <v>-0.38116999999999734</v>
       </c>
       <c r="AC38">
-        <v>-0.5203599999999966</v>
+        <v>2.2950099999999907</v>
       </c>
       <c r="AD38">
-        <v>-1.864530000000002</v>
+        <v>0.94656999999999414</v>
       </c>
       <c r="AE38">
-        <v>-0.53444000000000358</v>
+        <v>1.3876400000000046</v>
       </c>
       <c r="AF38">
-        <v>-0.9673000000000016</v>
+        <v>1.8642199999999889</v>
       </c>
       <c r="AG38">
-        <v>-0.53704000000000462</v>
+        <v>1.1823300000000074</v>
       </c>
       <c r="AH38">
-        <v>-1.0307999999999993</v>
+        <v>1.0862000000000052</v>
       </c>
       <c r="AI38">
-        <v>-0.88429000000000002</v>
+        <v>1.3648199999999946</v>
       </c>
       <c r="AJ38">
-        <v>0.9532999999999987</v>
+        <v>2.576580000000007</v>
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>26120</v>
+        <v>11181</v>
       </c>
       <c r="AA39">
-        <v>-22.442240000000002</v>
+        <v>1.0105699999999942</v>
       </c>
       <c r="AB39">
-        <v>-22.543150000000001</v>
+        <v>1.6896699999999925</v>
       </c>
       <c r="AC39">
-        <v>-22.579350000000002</v>
+        <v>0.24343999999999966</v>
       </c>
       <c r="AD39">
-        <v>-22.557559999999999</v>
+        <v>0.48716999999999189</v>
       </c>
       <c r="AE39">
-        <v>-22.596109999999996</v>
+        <v>1.1647400000000019</v>
       </c>
       <c r="AF39">
-        <v>-22.753459999999997</v>
+        <v>-9.3207700000000031</v>
       </c>
       <c r="AG39">
-        <v>-22.86805</v>
+        <v>-10.99971</v>
       </c>
       <c r="AH39">
-        <v>-22.771690000000003</v>
+        <v>1.5190800000000024</v>
       </c>
       <c r="AI39">
-        <v>-22.589740000000003</v>
+        <v>5.7684099999999958</v>
       </c>
       <c r="AJ39">
-        <v>-22.10012</v>
+        <v>8.3374499999999969</v>
       </c>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>11485</v>
+        <v>26126</v>
       </c>
       <c r="AA40">
-        <v>7.5253900000000016</v>
+        <v>-12.728719999999996</v>
       </c>
       <c r="AB40">
-        <v>6.6373800000000074</v>
+        <v>-13.345840000000003</v>
       </c>
       <c r="AC40">
-        <v>5.8839199999999892</v>
+        <v>-12.391169999999995</v>
       </c>
       <c r="AD40">
-        <v>4.9998800000000045</v>
+        <v>-11.312930000000001</v>
       </c>
       <c r="AE40">
-        <v>4.6651300000000049</v>
+        <v>-11.582059999999998</v>
       </c>
       <c r="AF40">
-        <v>5.1594699999999989</v>
+        <v>-9.2935699999999954</v>
       </c>
       <c r="AG40">
-        <v>4.1291999999999973</v>
+        <v>-3.4142699999999948</v>
       </c>
       <c r="AH40">
-        <v>4.3885099999999966</v>
+        <v>-5.3952900000000028</v>
       </c>
       <c r="AI40">
-        <v>5.801959999999994</v>
+        <v>-7.0753900000000058</v>
       </c>
       <c r="AJ40">
-        <v>7.7599400000000003</v>
+        <v>-4.3881000000000014</v>
       </c>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>36665</v>
+        <v>11254</v>
       </c>
       <c r="AA41">
-        <v>-2.0985800000000054</v>
+        <v>7.442930000000004</v>
       </c>
       <c r="AB41">
-        <v>-3.4814800000000048</v>
+        <v>5.590209999999999</v>
       </c>
       <c r="AC41">
-        <v>-3.9757999999999996</v>
+        <v>5.7052400000000034</v>
       </c>
       <c r="AD41">
-        <v>-4.4393600000000006</v>
+        <v>5.5283100000000047</v>
       </c>
       <c r="AE41">
-        <v>-4.3793300000000031</v>
+        <v>5.0120100000000036</v>
       </c>
       <c r="AF41">
-        <v>-4.5699199999999962</v>
+        <v>5.3081999999999994</v>
       </c>
       <c r="AG41">
-        <v>-5.0299900000000051</v>
+        <v>3.703559999999996</v>
       </c>
       <c r="AH41">
-        <v>-5.8536900000000003</v>
+        <v>4.5289199999999994</v>
       </c>
       <c r="AI41">
-        <v>-4.7135499999999979</v>
+        <v>6.7412000000000063</v>
       </c>
       <c r="AJ41">
-        <v>-3.0121199999999959</v>
+        <v>6.9970699999999937</v>
       </c>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>26116</v>
+        <v>32464</v>
       </c>
       <c r="AA42">
-        <v>47.496659999999999</v>
+        <v>46.843859999999999</v>
       </c>
       <c r="AB42">
-        <v>47.124320000000004</v>
+        <v>45.948209999999996</v>
       </c>
       <c r="AC42">
-        <v>46.49221</v>
+        <v>45.08361</v>
       </c>
       <c r="AD42">
-        <v>46.39864</v>
+        <v>45.340330000000002</v>
       </c>
       <c r="AE42">
-        <v>45.330090000000006</v>
+        <v>43.780359999999995</v>
       </c>
       <c r="AF42">
-        <v>45.941699999999997</v>
+        <v>44.14958</v>
       </c>
       <c r="AG42">
-        <v>45.66516</v>
+        <v>43.588209999999997</v>
       </c>
       <c r="AH42">
-        <v>46.191859999999998</v>
+        <v>44.42736</v>
       </c>
       <c r="AI42">
-        <v>45.603380000000001</v>
+        <v>44.121009999999998</v>
       </c>
       <c r="AJ42">
-        <v>46.97963</v>
+        <v>47.054470000000002</v>
       </c>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>11088</v>
+        <v>26116</v>
       </c>
       <c r="AA43">
-        <v>9.3398499999999984</v>
+        <v>47.496659999999999</v>
       </c>
       <c r="AB43">
-        <v>8.7482100000000003</v>
+        <v>47.124320000000004</v>
       </c>
       <c r="AC43">
-        <v>7.706230000000005</v>
+        <v>46.49221</v>
       </c>
       <c r="AD43">
-        <v>7.2364699999999971</v>
+        <v>46.39864</v>
       </c>
       <c r="AE43">
-        <v>7.0194099999999935</v>
+        <v>45.330090000000006</v>
       </c>
       <c r="AF43">
-        <v>8.307469999999995</v>
+        <v>45.941699999999997</v>
       </c>
       <c r="AG43">
-        <v>5.9174300000000102</v>
+        <v>45.66516</v>
       </c>
       <c r="AH43">
-        <v>6.7164700000000011</v>
+        <v>46.191859999999998</v>
       </c>
       <c r="AI43">
-        <v>9.4319500000000005</v>
+        <v>45.603380000000001</v>
       </c>
       <c r="AJ43">
-        <v>10.112399999999994</v>
+        <v>46.97963</v>
       </c>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>36667</v>
+        <v>27997</v>
       </c>
       <c r="AA44">
-        <v>-8.7982000000000014</v>
+        <v>0.21105000000000018</v>
       </c>
       <c r="AB44">
-        <v>-10.460760000000001</v>
+        <v>-1.5837699999999941</v>
       </c>
       <c r="AC44">
-        <v>-11.417299999999997</v>
+        <v>-1.6325300000000027</v>
       </c>
       <c r="AD44">
-        <v>-12.409790000000001</v>
+        <v>-3.627830000000003</v>
       </c>
       <c r="AE44">
-        <v>-12.83569</v>
+        <v>-8.3976199999999963</v>
       </c>
       <c r="AF44">
-        <v>-12.806130000000003</v>
+        <v>-1.8428100000000001</v>
       </c>
       <c r="AG44">
-        <v>-13.996069999999996</v>
+        <v>-1.7058900000000037</v>
       </c>
       <c r="AH44">
-        <v>-14.049430000000008</v>
+        <v>-1.0001999999999995</v>
       </c>
       <c r="AI44">
-        <v>-13.672880000000006</v>
+        <v>-0.35125000000000028</v>
       </c>
       <c r="AJ44">
-        <v>-12.240990000000004</v>
+        <v>1.3601000000000028</v>
       </c>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>11290</v>
+        <v>38806</v>
       </c>
       <c r="AA45">
-        <v>-3.1963399999999993</v>
+        <v>-1.5539999999999949</v>
       </c>
       <c r="AB45">
-        <v>-3.4407899999999998</v>
+        <v>-3.7164500000000018</v>
       </c>
       <c r="AC45">
-        <v>-5.0892499999999998</v>
+        <v>-4.6717199999999934</v>
       </c>
       <c r="AD45">
-        <v>-9.7239800000000045</v>
+        <v>-5.6412499999999994</v>
       </c>
       <c r="AE45">
-        <v>-11.643799999999999</v>
+        <v>-5.3373300000000015</v>
       </c>
       <c r="AF45">
-        <v>-11.496590000000005</v>
+        <v>-5.5470900000000043</v>
       </c>
       <c r="AG45">
-        <v>-9.1944999999999979</v>
+        <v>-5.7366400000000013</v>
       </c>
       <c r="AH45">
-        <v>-0.37131000000000114</v>
+        <v>-5.5629599999999968</v>
       </c>
       <c r="AI45">
-        <v>4.6342599999999976</v>
+        <v>-4.6665500000000009</v>
       </c>
       <c r="AJ45">
-        <v>0.12794000000000239</v>
+        <v>-2.473869999999998</v>
       </c>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>26138</v>
+        <v>11153</v>
       </c>
       <c r="AA46">
-        <v>5.8459000000000003</v>
+        <v>-7.828569999999992</v>
       </c>
       <c r="AB46">
-        <v>5.5072199999999967</v>
+        <v>-5.9259599999999963</v>
       </c>
       <c r="AC46">
-        <v>5.4174399999999991</v>
+        <v>-12.254530000000003</v>
       </c>
       <c r="AD46">
-        <v>5.0501900000000006</v>
+        <v>-14.960290000000001</v>
       </c>
       <c r="AE46">
-        <v>5.1671400000000034</v>
+        <v>-15.751220000000004</v>
       </c>
       <c r="AF46">
-        <v>5.2464500000000029</v>
+        <v>-24.102550000000001</v>
       </c>
       <c r="AG46">
-        <v>4.8314599999999999</v>
+        <v>-17.191890000000001</v>
       </c>
       <c r="AH46">
-        <v>5.2009400000000028</v>
+        <v>-11.138840000000002</v>
       </c>
       <c r="AI46">
-        <v>5.2837300000000056</v>
+        <v>-7.4106900000000024</v>
       </c>
       <c r="AJ46">
-        <v>5.9402400000000029</v>
+        <v>-3.2835400000000021</v>
       </c>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>27999</v>
+        <v>27998</v>
       </c>
       <c r="AA47">
-        <v>6.2054800000000014</v>
+        <v>4.3825400000000059</v>
       </c>
       <c r="AB47">
-        <v>3.5176999999999978</v>
+        <v>2.468910000000001</v>
       </c>
       <c r="AC47">
-        <v>3.4885400000000004</v>
+        <v>1.4742099999999994</v>
       </c>
       <c r="AD47">
-        <v>0.83153000000000787</v>
+        <v>1.1668000000000021</v>
       </c>
       <c r="AE47">
-        <v>0.77080999999999733</v>
+        <v>2.0413199999999918</v>
       </c>
       <c r="AF47">
-        <v>3.9506500000000031</v>
+        <v>2.3897800000000018</v>
       </c>
       <c r="AG47">
-        <v>4.5021699999999925</v>
+        <v>3.1768099999999961</v>
       </c>
       <c r="AH47">
-        <v>4.5328400000000002</v>
+        <v>2.4692999999999969</v>
       </c>
       <c r="AI47">
-        <v>5.7559199999999962</v>
+        <v>3.7571099999999973</v>
       </c>
       <c r="AJ47">
-        <v>7.9063900000000018</v>
+        <v>4.3974199999999968</v>
       </c>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>11208</v>
+        <v>28016</v>
       </c>
       <c r="AA48">
-        <v>59.501130000000003</v>
+        <v>7.4068500000000057</v>
       </c>
       <c r="AB48">
-        <v>59.380990000000004</v>
+        <v>6.5093200000000024</v>
       </c>
       <c r="AC48">
-        <v>58.970359999999999</v>
+        <v>4.526680000000006</v>
       </c>
       <c r="AD48">
-        <v>58.880299999999998</v>
+        <v>4.3068099999999987</v>
       </c>
       <c r="AE48">
-        <v>58.867509999999996</v>
+        <v>3.7112300000000076</v>
       </c>
       <c r="AF48">
-        <v>58.858990000000006</v>
+        <v>4.3758300000000077</v>
       </c>
       <c r="AG48">
-        <v>59.05856</v>
+        <v>4.3130499999999969</v>
       </c>
       <c r="AH48">
-        <v>59.136049999999997</v>
+        <v>4.9876000000000005</v>
       </c>
       <c r="AI48">
-        <v>59.152919999999995</v>
+        <v>5.3455500000000029</v>
       </c>
       <c r="AJ48">
-        <v>59.407890000000002</v>
+        <v>5.5441500000000019</v>
       </c>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>11290</v>
+        <v>27986</v>
       </c>
       <c r="AA49">
-        <v>-8.8260199999999998</v>
+        <v>2.008899999999997</v>
       </c>
       <c r="AB49">
-        <v>-7.5041299999999964</v>
+        <v>-2.2007900000000049</v>
       </c>
       <c r="AC49">
-        <v>-8.5319199999999995</v>
+        <v>-2.1223699999999965</v>
       </c>
       <c r="AD49">
-        <v>-8.5572099999999978</v>
+        <v>-0.47944999999999993</v>
       </c>
       <c r="AE49">
-        <v>-8.0876499999999965</v>
+        <v>0.9432599999999951</v>
       </c>
       <c r="AF49">
-        <v>-8.484250000000003</v>
+        <v>-0.44066999999999723</v>
       </c>
       <c r="AG49">
-        <v>-9.1637199999999979</v>
+        <v>-1.8171999999999997</v>
       </c>
       <c r="AH49">
-        <v>-8.3531599999999955</v>
+        <v>0.75721999999999667</v>
       </c>
       <c r="AI49">
-        <v>-8.6678799999999967</v>
+        <v>0.49104000000000525</v>
       </c>
       <c r="AJ49">
-        <v>-9.0984100000000012</v>
+        <v>2.7505600000000001</v>
       </c>
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>36669</v>
+        <v>12101</v>
       </c>
       <c r="AA50">
-        <v>-18.895229999999998</v>
+        <v>43.637079999999997</v>
       </c>
       <c r="AB50">
-        <v>-17.552859999999995</v>
+        <v>43.609949999999998</v>
       </c>
       <c r="AC50">
-        <v>-19.593670000000003</v>
+        <v>43.145559999999996</v>
       </c>
       <c r="AD50">
-        <v>-20.271790000000003</v>
+        <v>43.115780000000001</v>
       </c>
       <c r="AE50">
-        <v>-18.53537</v>
+        <v>43.360820000000004</v>
       </c>
       <c r="AF50">
-        <v>-19.402149999999999</v>
+        <v>43.139449999999997</v>
       </c>
       <c r="AG50">
-        <v>-18.343200000000003</v>
+        <v>43.199449999999999</v>
       </c>
       <c r="AH50">
-        <v>-19.561170000000004</v>
+        <v>43.445609999999995</v>
       </c>
       <c r="AI50">
-        <v>-16.907800000000002</v>
+        <v>43.348480000000002</v>
       </c>
       <c r="AJ50">
-        <v>-18.280709999999999</v>
+        <v>44.212490000000003</v>
       </c>
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>11306</v>
+        <v>27999</v>
       </c>
       <c r="AA51">
-        <v>33.830800000000004</v>
+        <v>6.2054800000000014</v>
       </c>
       <c r="AB51">
-        <v>42.475499999999997</v>
+        <v>3.5176999999999978</v>
       </c>
       <c r="AC51">
-        <v>35.710059999999999</v>
+        <v>3.4885400000000004</v>
       </c>
       <c r="AD51">
-        <v>40.493470000000002</v>
+        <v>0.83153000000000787</v>
       </c>
       <c r="AE51">
-        <v>38.83164</v>
+        <v>0.77080999999999733</v>
       </c>
       <c r="AF51">
-        <v>35.415759999999999</v>
+        <v>3.9506500000000031</v>
       </c>
       <c r="AG51">
-        <v>31.480990000000002</v>
+        <v>4.5021699999999925</v>
       </c>
       <c r="AH51">
-        <v>30.612859999999998</v>
+        <v>4.5328400000000002</v>
       </c>
       <c r="AI51">
-        <v>36.494240000000005</v>
+        <v>5.7559199999999962</v>
       </c>
       <c r="AJ51">
-        <v>19.210379999999997</v>
+        <v>7.9063900000000018</v>
       </c>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>26129</v>
+        <v>26115</v>
       </c>
       <c r="AA52">
-        <v>-3.206389999999999</v>
+        <v>-5.3103599999999958</v>
       </c>
       <c r="AB52">
-        <v>-3.9872099999999975</v>
+        <v>-4.6680300000000017</v>
       </c>
       <c r="AC52">
-        <v>-4.9303699999999964</v>
+        <v>-5.8385499999999979</v>
       </c>
       <c r="AD52">
-        <v>-4.9788599999999974</v>
+        <v>-3.6104400000000041</v>
       </c>
       <c r="AE52">
-        <v>-5.6937800000000038</v>
+        <v>-6.1669800000000023</v>
       </c>
       <c r="AF52">
-        <v>-5.653330000000004</v>
+        <v>-8.3895099999999942</v>
       </c>
       <c r="AG52">
-        <v>-5.5425599999999946</v>
+        <v>-10.584030000000006</v>
       </c>
       <c r="AH52">
-        <v>-4.8259599999999949</v>
+        <v>-6.541569999999993</v>
       </c>
       <c r="AI52">
-        <v>-4.3869199999999964</v>
+        <v>-7.7676699999999954</v>
       </c>
       <c r="AJ52">
-        <v>-2.2679800000000085</v>
+        <v>-7.9693100000000001</v>
       </c>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>36664</v>
+        <v>36674</v>
       </c>
       <c r="AA53">
-        <v>-0.55143000000000342</v>
+        <v>56.449180000000005</v>
       </c>
       <c r="AB53">
-        <v>-1.8645099999999957</v>
+        <v>55.725290000000001</v>
       </c>
       <c r="AC53">
-        <v>8.82000000000005E-2</v>
+        <v>49.999690000000001</v>
       </c>
       <c r="AD53">
-        <v>3.0771099999999976</v>
+        <v>48.893329999999999</v>
       </c>
       <c r="AE53">
-        <v>2.693950000000001</v>
+        <v>47.310229999999997</v>
       </c>
       <c r="AF53">
-        <v>9.4194099999999992</v>
+        <v>43.839859999999994</v>
       </c>
       <c r="AG53">
-        <v>11.327849999999998</v>
+        <v>40.255759999999995</v>
       </c>
       <c r="AH53">
-        <v>8.5725400000000036</v>
+        <v>40.13147</v>
       </c>
       <c r="AI53">
-        <v>7.6738500000000016</v>
+        <v>39.602129999999995</v>
       </c>
       <c r="AJ53">
-        <v>6.1145199999999988</v>
+        <v>42.633490000000002</v>
       </c>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>11181</v>
+        <v>11085</v>
       </c>
       <c r="AA54">
-        <v>-12.373870000000004</v>
+        <v>-2.2928400000000053</v>
       </c>
       <c r="AB54">
-        <v>-11.154709999999994</v>
+        <v>28.665369999999996</v>
       </c>
       <c r="AC54">
-        <v>-15.777999999999999</v>
+        <v>10.508869999999995</v>
       </c>
       <c r="AD54">
-        <v>-8.2942700000000045</v>
+        <v>14.025469999999999</v>
       </c>
       <c r="AE54">
-        <v>-10.21161</v>
+        <v>-1.1989300000000043</v>
       </c>
       <c r="AF54">
-        <v>-19.379930000000002</v>
+        <v>-1.5</v>
       </c>
       <c r="AG54">
-        <v>-25.599080000000001</v>
+        <v>14.355159999999998</v>
       </c>
       <c r="AH54">
-        <v>-12.538270000000004</v>
+        <v>-2.9738900000000044</v>
       </c>
       <c r="AI54">
-        <v>-10.221080000000001</v>
+        <v>-3.2004699999999957</v>
       </c>
       <c r="AJ54">
-        <v>-3.7222999999999971</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>36666</v>
+        <v>27984</v>
       </c>
       <c r="AA55">
-        <v>-5.3786500000000004</v>
+        <v>32.771080000000005</v>
       </c>
       <c r="AB55">
-        <v>-6.3015499999999989</v>
+        <v>31.611080000000001</v>
       </c>
       <c r="AC55">
-        <v>-7.1595800000000054</v>
+        <v>27.852090000000004</v>
       </c>
       <c r="AD55">
-        <v>-6.6094399999999993</v>
+        <v>28.225680000000004</v>
       </c>
       <c r="AE55">
-        <v>-6.5128500000000003</v>
+        <v>27.548310000000001</v>
       </c>
       <c r="AF55">
-        <v>-3.2865699999999975</v>
+        <v>26.659610000000001</v>
       </c>
       <c r="AG55">
-        <v>1.1824000000000012</v>
+        <v>27.662880000000001</v>
       </c>
       <c r="AH55">
-        <v>1.7078500000000005</v>
+        <v>30.407609999999998</v>
       </c>
       <c r="AI55">
-        <v>-0.16346999999999667</v>
+        <v>31.284380000000006</v>
       </c>
       <c r="AJ55">
-        <v>1.290469999999992</v>
+        <v>33.307450000000003</v>
       </c>
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>11158</v>
+        <v>36668</v>
       </c>
       <c r="AA56">
-        <v>-17.599249999999998</v>
+        <v>-9.3159599999999969</v>
       </c>
       <c r="AB56">
-        <v>-19.699369999999995</v>
+        <v>-11.521349999999998</v>
       </c>
       <c r="AC56">
-        <v>-20.712249999999997</v>
+        <v>-13.845930000000003</v>
       </c>
       <c r="AD56">
-        <v>-21.977990000000005</v>
+        <v>-13.453189999999999</v>
       </c>
       <c r="AE56">
-        <v>-20.833449999999999</v>
+        <v>-13.864980000000003</v>
       </c>
       <c r="AF56">
-        <v>-19.456600000000002</v>
+        <v>-12.125269999999993</v>
       </c>
       <c r="AG56">
-        <v>-20.44876</v>
+        <v>-10.709180000000003</v>
       </c>
       <c r="AH56">
-        <v>-21.239049999999999</v>
+        <v>-12.173299999999998</v>
       </c>
       <c r="AI56">
-        <v>-17.42306</v>
+        <v>-13.076560000000001</v>
       </c>
       <c r="AJ56">
-        <v>-18.083559999999999</v>
+        <v>-9.9630199999999931</v>
       </c>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>27999</v>
+        <v>11306</v>
       </c>
       <c r="AA57">
-        <v>19.655459999999998</v>
+        <v>33.830800000000004</v>
       </c>
       <c r="AB57">
-        <v>20.145619999999994</v>
+        <v>42.475499999999997</v>
       </c>
       <c r="AC57">
-        <v>20.036209999999997</v>
+        <v>35.710059999999999</v>
       </c>
       <c r="AD57">
-        <v>19.174690000000005</v>
+        <v>40.493470000000002</v>
       </c>
       <c r="AE57">
-        <v>18.559649999999998</v>
+        <v>38.83164</v>
       </c>
       <c r="AF57">
-        <v>17.099569999999993</v>
+        <v>35.415759999999999</v>
       </c>
       <c r="AG57">
-        <v>17.263159999999999</v>
+        <v>31.480990000000002</v>
       </c>
       <c r="AH57">
-        <v>18.186780000000006</v>
+        <v>30.612859999999998</v>
       </c>
       <c r="AI57">
-        <v>18.974819999999994</v>
+        <v>36.494240000000005</v>
       </c>
       <c r="AJ57">
-        <v>19.097499999999997</v>
+        <v>19.210379999999997</v>
       </c>
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>27984</v>
+        <v>36665</v>
       </c>
       <c r="AA58">
-        <v>32.771080000000005</v>
+        <v>-2.0985800000000054</v>
       </c>
       <c r="AB58">
-        <v>31.611080000000001</v>
+        <v>-3.4814800000000048</v>
       </c>
       <c r="AC58">
-        <v>27.852090000000004</v>
+        <v>-3.9757999999999996</v>
       </c>
       <c r="AD58">
-        <v>28.225680000000004</v>
+        <v>-4.4393600000000006</v>
       </c>
       <c r="AE58">
-        <v>27.548310000000001</v>
+        <v>-4.3793300000000031</v>
       </c>
       <c r="AF58">
-        <v>26.659610000000001</v>
+        <v>-4.5699199999999962</v>
       </c>
       <c r="AG58">
-        <v>27.662880000000001</v>
+        <v>-5.0299900000000051</v>
       </c>
       <c r="AH58">
-        <v>30.407609999999998</v>
+        <v>-5.8536900000000003</v>
       </c>
       <c r="AI58">
-        <v>31.284380000000006</v>
+        <v>-4.7135499999999979</v>
       </c>
       <c r="AJ58">
-        <v>33.307450000000003</v>
+        <v>-3.0121199999999959</v>
       </c>
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>12101</v>
+        <v>11254</v>
       </c>
       <c r="AA59">
-        <v>43.637079999999997</v>
+        <v>2.2047800000000066</v>
       </c>
       <c r="AB59">
-        <v>43.609949999999998</v>
+        <v>0.53775000000000261</v>
       </c>
       <c r="AC59">
-        <v>43.145559999999996</v>
+        <v>-0.51245999999999725</v>
       </c>
       <c r="AD59">
-        <v>43.115780000000001</v>
+        <v>-0.44415999999999656</v>
       </c>
       <c r="AE59">
-        <v>43.360820000000004</v>
+        <v>-0.30459000000000458</v>
       </c>
       <c r="AF59">
-        <v>43.139449999999997</v>
+        <v>-0.94958000000000453</v>
       </c>
       <c r="AG59">
-        <v>43.199449999999999</v>
+        <v>-3.0916699999999935</v>
       </c>
       <c r="AH59">
-        <v>43.445609999999995</v>
+        <v>-0.60888000000000631</v>
       </c>
       <c r="AI59">
-        <v>43.348480000000002</v>
+        <v>-1.2928899999999999</v>
       </c>
       <c r="AJ59">
-        <v>44.212490000000003</v>
+        <v>0.78250999999999493</v>
       </c>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>11046</v>
+        <v>11256</v>
       </c>
       <c r="AA60">
-        <v>15.341619999999992</v>
+        <v>-8.303219999999996</v>
       </c>
       <c r="AB60">
-        <v>13.800759999999997</v>
+        <v>-5.8834000000000017</v>
       </c>
       <c r="AC60">
-        <v>13.254350000000002</v>
+        <v>-12.102419999999995</v>
       </c>
       <c r="AD60">
-        <v>13.261420000000001</v>
+        <v>-18.330629999999999</v>
       </c>
       <c r="AE60">
-        <v>13.031559999999999</v>
+        <v>-17.079090000000001</v>
       </c>
       <c r="AF60">
-        <v>12.864800000000002</v>
+        <v>-27.717410000000001</v>
       </c>
       <c r="AG60">
-        <v>12.894719999999992</v>
+        <v>-17.596719999999998</v>
       </c>
       <c r="AH60">
-        <v>13.485579999999999</v>
+        <v>-7.0438100000000006</v>
       </c>
       <c r="AI60">
-        <v>14.818069999999992</v>
+        <v>-0.76148000000000593</v>
       </c>
       <c r="AJ60">
-        <v>15.10857</v>
+        <v>1.8254999999999981</v>
       </c>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>26126</v>
+        <v>11456</v>
       </c>
       <c r="AA61">
-        <v>-12.728719999999996</v>
+        <v>-0.48713000000000761</v>
       </c>
       <c r="AB61">
-        <v>-13.345840000000003</v>
+        <v>-1.6707199999999887</v>
       </c>
       <c r="AC61">
-        <v>-12.391169999999995</v>
+        <v>-1.6644100000000037</v>
       </c>
       <c r="AD61">
-        <v>-11.312930000000001</v>
+        <v>-3.9917000000000016</v>
       </c>
       <c r="AE61">
-        <v>-11.582059999999998</v>
+        <v>-3.1716499999999996</v>
       </c>
       <c r="AF61">
-        <v>-9.2935699999999954</v>
+        <v>6.6604600000000005</v>
       </c>
       <c r="AG61">
-        <v>-3.4142699999999948</v>
+        <v>8.5009900000000016</v>
       </c>
       <c r="AH61">
-        <v>-5.3952900000000028</v>
+        <v>15.368449999999996</v>
       </c>
       <c r="AI61">
-        <v>-7.0753900000000058</v>
+        <v>8.4690999999999974</v>
       </c>
       <c r="AJ61">
-        <v>-4.3881000000000014</v>
+        <v>6.9305200000000013</v>
       </c>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>27983</v>
+        <v>36667</v>
       </c>
       <c r="AA62">
-        <v>-1.5334099999999964</v>
+        <v>-8.7982000000000014</v>
       </c>
       <c r="AB62">
-        <v>-4.276219999999995</v>
+        <v>-10.460760000000001</v>
       </c>
       <c r="AC62">
-        <v>-6.1851699999999923</v>
+        <v>-11.417299999999997</v>
       </c>
       <c r="AD62">
-        <v>-6.1276599999999988</v>
+        <v>-12.409790000000001</v>
       </c>
       <c r="AE62">
-        <v>-7.0916500000000013</v>
+        <v>-12.83569</v>
       </c>
       <c r="AF62">
-        <v>-6.3664899999999989</v>
+        <v>-12.806130000000003</v>
       </c>
       <c r="AG62">
-        <v>6.2969099999999969</v>
+        <v>-13.996069999999996</v>
       </c>
       <c r="AH62">
-        <v>13.984130000000007</v>
+        <v>-14.049430000000008</v>
       </c>
       <c r="AI62">
-        <v>6.9287500000000009</v>
+        <v>-13.672880000000006</v>
       </c>
       <c r="AJ62">
-        <v>6.212619999999994</v>
+        <v>-12.240990000000004</v>
       </c>
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>11268</v>
+        <v>26125</v>
       </c>
       <c r="AA63">
-        <v>-3.7015499999999975</v>
+        <v>-10.456600000000002</v>
       </c>
       <c r="AB63">
-        <v>-4.8134099999999975</v>
+        <v>-12.941800000000001</v>
       </c>
       <c r="AC63">
-        <v>-4.9698899999999995</v>
+        <v>-11.711509999999997</v>
       </c>
       <c r="AD63">
-        <v>-6.4652400000000014</v>
+        <v>-10.214099999999998</v>
       </c>
       <c r="AE63">
-        <v>-6.5636300000000034</v>
+        <v>-12.415640000000003</v>
       </c>
       <c r="AF63">
-        <v>-6.2177000000000007</v>
+        <v>-11.537770000000002</v>
       </c>
       <c r="AG63">
-        <v>-6.3569499999999977</v>
+        <v>-12.938640000000003</v>
       </c>
       <c r="AH63">
-        <v>-5.9085499999999982</v>
+        <v>-12.413979999999999</v>
       </c>
       <c r="AI63">
-        <v>-8.0285500000000027</v>
+        <v>-10.24868</v>
       </c>
       <c r="AJ63">
-        <v>-5.803919999999998</v>
+        <v>-12.449240000000003</v>
       </c>
     </row>
   </sheetData>

--- a/Differences.xlsx
+++ b/Differences.xlsx
@@ -656,177 +656,177 @@
     </row>
     <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>11158</v>
+        <v>11383</v>
       </c>
       <c r="AA2">
-        <v>-7.75</v>
+        <v>184.5</v>
       </c>
       <c r="AB2">
-        <v>-12.25</v>
+        <v>221.5</v>
       </c>
       <c r="AC2">
-        <v>-25.5</v>
+        <v>190.25</v>
       </c>
       <c r="AD2">
-        <v>1.25</v>
+        <v>177.25</v>
       </c>
       <c r="AE2">
-        <v>-5</v>
+        <v>163.25</v>
       </c>
       <c r="AF2">
-        <v>-30.5</v>
+        <v>87.75</v>
       </c>
       <c r="AG2">
-        <v>-53.75</v>
+        <v>89</v>
       </c>
       <c r="AH2">
-        <v>-32</v>
+        <v>85.75</v>
       </c>
       <c r="AI2">
-        <v>-20</v>
+        <v>146</v>
       </c>
       <c r="AJ2">
-        <v>-53.5</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>26129</v>
+        <v>26126</v>
       </c>
       <c r="AA3">
-        <v>409</v>
+        <v>52.5</v>
       </c>
       <c r="AB3">
-        <v>519</v>
+        <v>-240.25</v>
       </c>
       <c r="AC3">
-        <v>627</v>
+        <v>-397.5</v>
       </c>
       <c r="AD3">
-        <v>632</v>
+        <v>-257.5</v>
       </c>
       <c r="AE3">
-        <v>696</v>
+        <v>-258.75</v>
       </c>
       <c r="AF3">
-        <v>693</v>
+        <v>-454.5</v>
       </c>
       <c r="AG3">
-        <v>684</v>
+        <v>-221.75</v>
       </c>
       <c r="AH3">
-        <v>616</v>
+        <v>-218</v>
       </c>
       <c r="AI3">
-        <v>569</v>
+        <v>-197.5</v>
       </c>
       <c r="AJ3">
-        <v>236</v>
+        <v>-220.25</v>
       </c>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>27985</v>
+        <v>27984</v>
       </c>
       <c r="AA4">
-        <v>716</v>
+        <v>753.75</v>
       </c>
       <c r="AB4">
-        <v>799</v>
+        <v>842.75</v>
       </c>
       <c r="AC4">
-        <v>832</v>
+        <v>1028.5</v>
       </c>
       <c r="AD4">
-        <v>881</v>
+        <v>1017.25</v>
       </c>
       <c r="AE4">
-        <v>862</v>
+        <v>970</v>
       </c>
       <c r="AF4">
-        <v>826</v>
+        <v>865.5</v>
       </c>
       <c r="AG4">
-        <v>775</v>
+        <v>824</v>
       </c>
       <c r="AH4">
-        <v>834</v>
+        <v>810</v>
       </c>
       <c r="AI4">
-        <v>751</v>
+        <v>764</v>
       </c>
       <c r="AJ4">
-        <v>478</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>11290</v>
+        <v>11300</v>
       </c>
       <c r="AA5">
-        <v>81.75</v>
+        <v>777</v>
       </c>
       <c r="AB5">
-        <v>-175</v>
+        <v>826</v>
       </c>
       <c r="AC5">
-        <v>-176.75</v>
+        <v>835</v>
       </c>
       <c r="AD5">
-        <v>-100.75</v>
+        <v>926</v>
       </c>
       <c r="AE5">
-        <v>-61.25</v>
+        <v>886</v>
       </c>
       <c r="AF5">
-        <v>-91.25</v>
+        <v>863</v>
       </c>
       <c r="AG5">
-        <v>34</v>
+        <v>821</v>
       </c>
       <c r="AH5">
-        <v>-12.25</v>
+        <v>785</v>
       </c>
       <c r="AI5">
-        <v>-40</v>
+        <v>766</v>
       </c>
       <c r="AJ5">
-        <v>-45</v>
+        <v>612</v>
       </c>
     </row>
     <row r="6" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>11341</v>
+        <v>36674</v>
       </c>
       <c r="AA6">
-        <v>56.5</v>
+        <v>937</v>
       </c>
       <c r="AB6">
-        <v>54</v>
+        <v>1009</v>
       </c>
       <c r="AC6">
-        <v>-9.25</v>
+        <v>1031</v>
       </c>
       <c r="AD6">
-        <v>-25</v>
+        <v>1125</v>
       </c>
       <c r="AE6">
-        <v>-30.5</v>
+        <v>1086</v>
       </c>
       <c r="AF6">
-        <v>33.75</v>
+        <v>1052</v>
       </c>
       <c r="AG6">
-        <v>135.25</v>
+        <v>993</v>
       </c>
       <c r="AH6">
-        <v>55.25</v>
+        <v>944</v>
       </c>
       <c r="AI6">
-        <v>57.5</v>
+        <v>915</v>
       </c>
       <c r="AJ6">
-        <v>-41</v>
+        <v>760</v>
       </c>
     </row>
     <row r="7" spans="1:98" x14ac:dyDescent="0.3">
@@ -834,1994 +834,1994 @@
         <v>11290</v>
       </c>
       <c r="AA7">
-        <v>68.25</v>
+        <v>81.75</v>
       </c>
       <c r="AB7">
-        <v>60.25</v>
+        <v>-175</v>
       </c>
       <c r="AC7">
-        <v>29.25</v>
+        <v>-176.75</v>
       </c>
       <c r="AD7">
-        <v>11</v>
+        <v>-100.75</v>
       </c>
       <c r="AE7">
-        <v>-3.75</v>
+        <v>-61.25</v>
       </c>
       <c r="AF7">
-        <v>-18.25</v>
+        <v>-91.25</v>
       </c>
       <c r="AG7">
-        <v>-25.75</v>
+        <v>34</v>
       </c>
       <c r="AH7">
-        <v>-1.5</v>
+        <v>-12.25</v>
       </c>
       <c r="AI7">
-        <v>36</v>
+        <v>-40</v>
       </c>
       <c r="AJ7">
-        <v>34.25</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>11302</v>
+        <v>11383</v>
       </c>
       <c r="AA8">
-        <v>108.5</v>
+        <v>322.75</v>
       </c>
       <c r="AB8">
-        <v>111.5</v>
+        <v>36</v>
       </c>
       <c r="AC8">
-        <v>213.25</v>
+        <v>83</v>
       </c>
       <c r="AD8">
-        <v>174.5</v>
+        <v>126.75</v>
       </c>
       <c r="AE8">
-        <v>207.25</v>
+        <v>157.5</v>
       </c>
       <c r="AF8">
-        <v>97.75</v>
+        <v>139.25</v>
       </c>
       <c r="AG8">
-        <v>7.25</v>
+        <v>284.5</v>
       </c>
       <c r="AH8">
-        <v>3.25</v>
+        <v>250.75</v>
       </c>
       <c r="AI8">
-        <v>-20</v>
+        <v>203</v>
       </c>
       <c r="AJ8">
-        <v>-81.75</v>
+        <v>205.75</v>
       </c>
     </row>
     <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>11300</v>
+        <v>36675</v>
       </c>
       <c r="AA9">
-        <v>777</v>
+        <v>-21.75</v>
       </c>
       <c r="AB9">
-        <v>826</v>
+        <v>-64</v>
       </c>
       <c r="AC9">
-        <v>835</v>
+        <v>-31.25</v>
       </c>
       <c r="AD9">
-        <v>926</v>
+        <v>-68.5</v>
       </c>
       <c r="AE9">
-        <v>886</v>
+        <v>-50.75</v>
       </c>
       <c r="AF9">
-        <v>863</v>
+        <v>-122.75</v>
       </c>
       <c r="AG9">
-        <v>821</v>
+        <v>-211.25</v>
       </c>
       <c r="AH9">
-        <v>785</v>
+        <v>-218.25</v>
       </c>
       <c r="AI9">
-        <v>766</v>
+        <v>-210</v>
       </c>
       <c r="AJ9">
-        <v>612</v>
+        <v>-260</v>
       </c>
     </row>
     <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>11456</v>
+        <v>27999</v>
       </c>
       <c r="AA10">
-        <v>-43.75</v>
+        <v>-60.25</v>
       </c>
       <c r="AB10">
-        <v>-99.25</v>
+        <v>-79.75</v>
       </c>
       <c r="AC10">
-        <v>-154.75</v>
+        <v>-57.5</v>
       </c>
       <c r="AD10">
-        <v>-152.75</v>
+        <v>-53.5</v>
       </c>
       <c r="AE10">
-        <v>-215</v>
+        <v>-25.75</v>
       </c>
       <c r="AF10">
-        <v>-245.25</v>
+        <v>-41.75</v>
       </c>
       <c r="AG10">
-        <v>-234.5</v>
+        <v>-76.25</v>
       </c>
       <c r="AH10">
-        <v>-200.75</v>
+        <v>-89.25</v>
       </c>
       <c r="AI10">
-        <v>-170.75</v>
+        <v>-33.75</v>
       </c>
       <c r="AJ10">
-        <v>-159.5</v>
+        <v>-47.25</v>
       </c>
     </row>
     <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>28006</v>
+        <v>11456</v>
       </c>
       <c r="AA11">
-        <v>266</v>
+        <v>137.5</v>
       </c>
       <c r="AB11">
-        <v>230.25</v>
+        <v>-108.5</v>
       </c>
       <c r="AC11">
-        <v>191.75</v>
+        <v>-178</v>
       </c>
       <c r="AD11">
-        <v>167.25</v>
+        <v>-103.25</v>
       </c>
       <c r="AE11">
-        <v>109.75</v>
+        <v>-151.75</v>
       </c>
       <c r="AF11">
-        <v>47.25</v>
+        <v>-172.75</v>
       </c>
       <c r="AG11">
-        <v>-3</v>
+        <v>10.25</v>
       </c>
       <c r="AH11">
-        <v>23</v>
+        <v>-15.25</v>
       </c>
       <c r="AI11">
-        <v>27</v>
+        <v>54.25</v>
       </c>
       <c r="AJ11">
-        <v>-115.5</v>
+        <v>-29.25</v>
       </c>
     </row>
     <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11289</v>
+        <v>11046</v>
       </c>
       <c r="AA12">
-        <v>109</v>
+        <v>-2</v>
       </c>
       <c r="AB12">
-        <v>165.25</v>
+        <v>-19</v>
       </c>
       <c r="AC12">
-        <v>117.25</v>
+        <v>0.25</v>
       </c>
       <c r="AD12">
-        <v>112</v>
+        <v>-3</v>
       </c>
       <c r="AE12">
-        <v>147.75</v>
+        <v>111.75</v>
       </c>
       <c r="AF12">
-        <v>128.75</v>
+        <v>8.25</v>
       </c>
       <c r="AG12">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="AH12">
-        <v>30.5</v>
+        <v>8.75</v>
       </c>
       <c r="AI12">
-        <v>79.5</v>
+        <v>-11</v>
       </c>
       <c r="AJ12">
-        <v>-119.75</v>
+        <v>-117</v>
       </c>
     </row>
     <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11415</v>
+        <v>11485</v>
       </c>
       <c r="AA13">
-        <v>65</v>
+        <v>273</v>
       </c>
       <c r="AB13">
-        <v>102</v>
+        <v>255.75</v>
       </c>
       <c r="AC13">
-        <v>109</v>
+        <v>151.75</v>
       </c>
       <c r="AD13">
-        <v>94</v>
+        <v>153.5</v>
       </c>
       <c r="AE13">
-        <v>88</v>
+        <v>246.75</v>
       </c>
       <c r="AF13">
-        <v>106</v>
+        <v>269</v>
       </c>
       <c r="AG13">
-        <v>109</v>
+        <v>190.5</v>
       </c>
       <c r="AH13">
-        <v>104</v>
+        <v>173.75</v>
       </c>
       <c r="AI13">
-        <v>121</v>
+        <v>145.5</v>
       </c>
       <c r="AJ13">
-        <v>70</v>
+        <v>-133.5</v>
       </c>
     </row>
     <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>11046</v>
+        <v>11182</v>
       </c>
       <c r="AA14">
-        <v>-2</v>
+        <v>89.25</v>
       </c>
       <c r="AB14">
-        <v>-19</v>
+        <v>104.75</v>
       </c>
       <c r="AC14">
-        <v>0.25</v>
+        <v>121.75</v>
       </c>
       <c r="AD14">
-        <v>-3</v>
+        <v>91</v>
       </c>
       <c r="AE14">
-        <v>111.75</v>
+        <v>136.25</v>
       </c>
       <c r="AF14">
-        <v>8.25</v>
+        <v>109.5</v>
       </c>
       <c r="AG14">
-        <v>34</v>
+        <v>104.75</v>
       </c>
       <c r="AH14">
-        <v>8.75</v>
+        <v>42</v>
       </c>
       <c r="AI14">
-        <v>-11</v>
+        <v>62.5</v>
       </c>
       <c r="AJ14">
-        <v>-117</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>36669</v>
+        <v>11181</v>
       </c>
       <c r="AA15">
-        <v>-53.25</v>
+        <v>-3</v>
       </c>
       <c r="AB15">
-        <v>-62</v>
+        <v>-82.75</v>
       </c>
       <c r="AC15">
-        <v>-56.75</v>
+        <v>-25.75</v>
       </c>
       <c r="AD15">
-        <v>-62</v>
+        <v>-70.5</v>
       </c>
       <c r="AE15">
-        <v>-115.5</v>
+        <v>-87.5</v>
       </c>
       <c r="AF15">
-        <v>-139.5</v>
+        <v>-24</v>
       </c>
       <c r="AG15">
-        <v>-174.5</v>
+        <v>-35.75</v>
       </c>
       <c r="AH15">
-        <v>-173</v>
+        <v>-33.25</v>
       </c>
       <c r="AI15">
-        <v>-150.75</v>
+        <v>-15.25</v>
       </c>
       <c r="AJ15">
-        <v>-131.5</v>
+        <v>-69.5</v>
       </c>
     </row>
     <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>26138</v>
+        <v>11153</v>
       </c>
       <c r="AA16">
-        <v>345</v>
+        <v>453</v>
       </c>
       <c r="AB16">
-        <v>393</v>
+        <v>245.5</v>
       </c>
       <c r="AC16">
-        <v>405</v>
+        <v>333.5</v>
       </c>
       <c r="AD16">
-        <v>450</v>
+        <v>378.5</v>
       </c>
       <c r="AE16">
-        <v>434</v>
+        <v>374.75</v>
       </c>
       <c r="AF16">
-        <v>424</v>
+        <v>365.5</v>
       </c>
       <c r="AG16">
-        <v>474</v>
+        <v>307</v>
       </c>
       <c r="AH16">
-        <v>428</v>
+        <v>291.25</v>
       </c>
       <c r="AI16">
-        <v>421</v>
+        <v>249.75</v>
       </c>
       <c r="AJ16">
-        <v>324</v>
+        <v>178.25</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>11383</v>
+        <v>26115</v>
       </c>
       <c r="AA17">
-        <v>184.5</v>
+        <v>4.5</v>
       </c>
       <c r="AB17">
-        <v>221.5</v>
+        <v>43.5</v>
       </c>
       <c r="AC17">
-        <v>190.25</v>
+        <v>30</v>
       </c>
       <c r="AD17">
-        <v>177.25</v>
+        <v>15.5</v>
       </c>
       <c r="AE17">
-        <v>163.25</v>
+        <v>27.25</v>
       </c>
       <c r="AF17">
-        <v>87.75</v>
+        <v>43</v>
       </c>
       <c r="AG17">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="AH17">
-        <v>85.75</v>
+        <v>30.75</v>
       </c>
       <c r="AI17">
-        <v>146</v>
+        <v>20.75</v>
       </c>
       <c r="AJ17">
-        <v>94</v>
+        <v>-26.75</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>36664</v>
+        <v>26115</v>
       </c>
       <c r="AA18">
-        <v>-27</v>
+        <v>279.75</v>
       </c>
       <c r="AB18">
-        <v>-328.75</v>
+        <v>212.25</v>
       </c>
       <c r="AC18">
-        <v>-517</v>
+        <v>115.25</v>
       </c>
       <c r="AD18">
-        <v>-781.5</v>
+        <v>153.25</v>
       </c>
       <c r="AE18">
-        <v>-774.5</v>
+        <v>240</v>
       </c>
       <c r="AF18">
-        <v>-939.75</v>
+        <v>230</v>
       </c>
       <c r="AG18">
-        <v>-924</v>
+        <v>158.5</v>
       </c>
       <c r="AH18">
-        <v>-950.5</v>
+        <v>146.25</v>
       </c>
       <c r="AI18">
-        <v>-777.25</v>
+        <v>137.75</v>
       </c>
       <c r="AJ18">
-        <v>-709.5</v>
+        <v>-124.25</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>27975</v>
+        <v>11254</v>
       </c>
       <c r="AA19">
-        <v>471.25</v>
+        <v>37.5</v>
       </c>
       <c r="AB19">
-        <v>186.75</v>
+        <v>54.5</v>
       </c>
       <c r="AC19">
-        <v>44</v>
+        <v>51.25</v>
       </c>
       <c r="AD19">
-        <v>-87.25</v>
+        <v>45.5</v>
       </c>
       <c r="AE19">
-        <v>111.5</v>
+        <v>107.25</v>
       </c>
       <c r="AF19">
-        <v>-27.75</v>
+        <v>71</v>
       </c>
       <c r="AG19">
-        <v>-93.25</v>
+        <v>83.25</v>
       </c>
       <c r="AH19">
-        <v>-65</v>
+        <v>18.25</v>
       </c>
       <c r="AI19">
-        <v>44.75</v>
+        <v>24.5</v>
       </c>
       <c r="AJ19">
-        <v>-328</v>
+        <v>-90.75</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>11208</v>
+        <v>26138</v>
       </c>
       <c r="AA20">
-        <v>142</v>
+        <v>345</v>
       </c>
       <c r="AB20">
-        <v>170</v>
+        <v>393</v>
       </c>
       <c r="AC20">
-        <v>273</v>
+        <v>405</v>
       </c>
       <c r="AD20">
-        <v>291</v>
+        <v>450</v>
       </c>
       <c r="AE20">
-        <v>293</v>
+        <v>434</v>
       </c>
       <c r="AF20">
-        <v>296</v>
+        <v>424</v>
       </c>
       <c r="AG20">
-        <v>244</v>
+        <v>474</v>
       </c>
       <c r="AH20">
-        <v>227</v>
+        <v>428</v>
       </c>
       <c r="AI20">
-        <v>228</v>
+        <v>421</v>
       </c>
       <c r="AJ20">
-        <v>163</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>38805</v>
+        <v>36666</v>
       </c>
       <c r="AA21">
-        <v>29.25</v>
+        <v>-1.5</v>
       </c>
       <c r="AB21">
-        <v>-248.5</v>
+        <v>-283.75</v>
       </c>
       <c r="AC21">
-        <v>-489</v>
+        <v>-529.25</v>
       </c>
       <c r="AD21">
-        <v>-623.75</v>
+        <v>-742.75</v>
       </c>
       <c r="AE21">
-        <v>-723</v>
+        <v>-826.5</v>
       </c>
       <c r="AF21">
-        <v>-939.25</v>
+        <v>-1089.25</v>
       </c>
       <c r="AG21">
-        <v>-903.25</v>
+        <v>-1052.5</v>
       </c>
       <c r="AH21">
-        <v>-863.75</v>
+        <v>-1055.75</v>
       </c>
       <c r="AI21">
-        <v>-684.75</v>
+        <v>-875.25</v>
       </c>
       <c r="AJ21">
-        <v>-653.75</v>
+        <v>-768</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>27983</v>
+        <v>11306</v>
       </c>
       <c r="AA22">
-        <v>463.25</v>
+        <v>106.25</v>
       </c>
       <c r="AB22">
-        <v>226.5</v>
+        <v>77.25</v>
       </c>
       <c r="AC22">
-        <v>58.75</v>
+        <v>68.75</v>
       </c>
       <c r="AD22">
-        <v>-68.75</v>
+        <v>21.25</v>
       </c>
       <c r="AE22">
-        <v>100.75</v>
+        <v>46.5</v>
       </c>
       <c r="AF22">
-        <v>-214</v>
+        <v>69</v>
       </c>
       <c r="AG22">
-        <v>-302</v>
+        <v>43.5</v>
       </c>
       <c r="AH22">
-        <v>-123</v>
+        <v>63</v>
       </c>
       <c r="AI22">
-        <v>-129.75</v>
+        <v>66.5</v>
       </c>
       <c r="AJ22">
-        <v>-322.5</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>36668</v>
+        <v>26116</v>
       </c>
       <c r="AA23">
-        <v>-125.25</v>
+        <v>157</v>
       </c>
       <c r="AB23">
-        <v>-480.5</v>
+        <v>177</v>
       </c>
       <c r="AC23">
-        <v>-812.5</v>
+        <v>218</v>
       </c>
       <c r="AD23">
-        <v>-1057.5</v>
+        <v>221</v>
       </c>
       <c r="AE23">
-        <v>-1166.25</v>
+        <v>268</v>
       </c>
       <c r="AF23">
-        <v>-1392.5</v>
+        <v>239</v>
       </c>
       <c r="AG23">
-        <v>-1326</v>
+        <v>253</v>
       </c>
       <c r="AH23">
-        <v>-1298.5</v>
+        <v>230</v>
       </c>
       <c r="AI23">
-        <v>-1080.5</v>
+        <v>253</v>
       </c>
       <c r="AJ23">
-        <v>-1009.25</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>27999</v>
+        <v>27998</v>
       </c>
       <c r="AA24">
-        <v>-60.25</v>
+        <v>139.75</v>
       </c>
       <c r="AB24">
-        <v>-79.75</v>
+        <v>54</v>
       </c>
       <c r="AC24">
-        <v>-57.5</v>
+        <v>21.25</v>
       </c>
       <c r="AD24">
-        <v>-53.5</v>
+        <v>-50.75</v>
       </c>
       <c r="AE24">
-        <v>-25.75</v>
+        <v>-101</v>
       </c>
       <c r="AF24">
-        <v>-41.75</v>
+        <v>-209.5</v>
       </c>
       <c r="AG24">
-        <v>-76.25</v>
+        <v>-244.25</v>
       </c>
       <c r="AH24">
-        <v>-89.25</v>
+        <v>-223</v>
       </c>
       <c r="AI24">
-        <v>-33.75</v>
+        <v>-167</v>
       </c>
       <c r="AJ24">
-        <v>-47.25</v>
+        <v>-300.5</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>11485</v>
+        <v>27975</v>
       </c>
       <c r="AA25">
-        <v>273</v>
+        <v>471.25</v>
       </c>
       <c r="AB25">
-        <v>255.75</v>
+        <v>186.75</v>
       </c>
       <c r="AC25">
-        <v>151.75</v>
+        <v>44</v>
       </c>
       <c r="AD25">
-        <v>153.5</v>
+        <v>-87.25</v>
       </c>
       <c r="AE25">
-        <v>246.75</v>
+        <v>111.5</v>
       </c>
       <c r="AF25">
-        <v>269</v>
+        <v>-27.75</v>
       </c>
       <c r="AG25">
-        <v>190.5</v>
+        <v>-93.25</v>
       </c>
       <c r="AH25">
-        <v>173.75</v>
+        <v>-65</v>
       </c>
       <c r="AI25">
-        <v>145.5</v>
+        <v>44.75</v>
       </c>
       <c r="AJ25">
-        <v>-133.5</v>
+        <v>-328</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>26115</v>
+        <v>36665</v>
       </c>
       <c r="AA26">
-        <v>279.75</v>
+        <v>-14.5</v>
       </c>
       <c r="AB26">
-        <v>212.25</v>
+        <v>-21.25</v>
       </c>
       <c r="AC26">
-        <v>115.25</v>
+        <v>-4.75</v>
       </c>
       <c r="AD26">
-        <v>153.25</v>
+        <v>10</v>
       </c>
       <c r="AE26">
-        <v>240</v>
+        <v>-49.25</v>
       </c>
       <c r="AF26">
-        <v>230</v>
+        <v>-92.5</v>
       </c>
       <c r="AG26">
-        <v>158.5</v>
+        <v>-171</v>
       </c>
       <c r="AH26">
-        <v>146.25</v>
+        <v>-149.75</v>
       </c>
       <c r="AI26">
-        <v>137.75</v>
+        <v>-169.25</v>
       </c>
       <c r="AJ26">
-        <v>-124.25</v>
+        <v>-217.75</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26114</v>
+        <v>27997</v>
       </c>
       <c r="AA27">
-        <v>116</v>
+        <v>-235</v>
       </c>
       <c r="AB27">
-        <v>-216</v>
+        <v>-53</v>
       </c>
       <c r="AC27">
-        <v>-336.5</v>
+        <v>-22</v>
       </c>
       <c r="AD27">
-        <v>-274.75</v>
+        <v>121</v>
       </c>
       <c r="AE27">
-        <v>-335.75</v>
+        <v>156</v>
       </c>
       <c r="AF27">
-        <v>-414</v>
+        <v>-36</v>
       </c>
       <c r="AG27">
-        <v>-216.5</v>
+        <v>-74</v>
       </c>
       <c r="AH27">
-        <v>-292.75</v>
+        <v>-59</v>
       </c>
       <c r="AI27">
-        <v>-218.25</v>
+        <v>-203</v>
       </c>
       <c r="AJ27">
-        <v>-151.25</v>
+        <v>-453</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>36666</v>
+        <v>11256</v>
       </c>
       <c r="AA28">
-        <v>-1.5</v>
+        <v>222.75</v>
       </c>
       <c r="AB28">
-        <v>-283.75</v>
+        <v>-95.75</v>
       </c>
       <c r="AC28">
-        <v>-529.25</v>
+        <v>-51.25</v>
       </c>
       <c r="AD28">
-        <v>-742.75</v>
+        <v>27.5</v>
       </c>
       <c r="AE28">
-        <v>-826.5</v>
+        <v>21.75</v>
       </c>
       <c r="AF28">
-        <v>-1089.25</v>
+        <v>30.75</v>
       </c>
       <c r="AG28">
-        <v>-1052.5</v>
+        <v>71.5</v>
       </c>
       <c r="AH28">
-        <v>-1055.75</v>
+        <v>36.75</v>
       </c>
       <c r="AI28">
-        <v>-875.25</v>
+        <v>68</v>
       </c>
       <c r="AJ28">
-        <v>-768</v>
+        <v>-44.75</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>36675</v>
+        <v>26126</v>
       </c>
       <c r="AA29">
-        <v>-21.75</v>
+        <v>-53</v>
       </c>
       <c r="AB29">
-        <v>-64</v>
+        <v>-29</v>
       </c>
       <c r="AC29">
-        <v>-31.25</v>
+        <v>-35</v>
       </c>
       <c r="AD29">
-        <v>-68.5</v>
+        <v>-59.25</v>
       </c>
       <c r="AE29">
-        <v>-50.75</v>
+        <v>-48.25</v>
       </c>
       <c r="AF29">
-        <v>-122.75</v>
+        <v>-49</v>
       </c>
       <c r="AG29">
-        <v>-211.25</v>
+        <v>-76.25</v>
       </c>
       <c r="AH29">
-        <v>-218.25</v>
+        <v>-72.75</v>
       </c>
       <c r="AI29">
-        <v>-210</v>
+        <v>-62</v>
       </c>
       <c r="AJ29">
-        <v>-260</v>
+        <v>-150.25</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>26120</v>
+        <v>11341</v>
       </c>
       <c r="AA30">
-        <v>-18</v>
+        <v>56.5</v>
       </c>
       <c r="AB30">
-        <v>-6</v>
+        <v>54</v>
       </c>
       <c r="AC30">
-        <v>-5</v>
+        <v>-9.25</v>
       </c>
       <c r="AD30">
-        <v>-6</v>
+        <v>-25</v>
       </c>
       <c r="AE30">
-        <v>-3</v>
+        <v>-30.5</v>
       </c>
       <c r="AF30">
-        <v>8</v>
+        <v>33.75</v>
       </c>
       <c r="AG30">
-        <v>20</v>
+        <v>135.25</v>
       </c>
       <c r="AH30">
-        <v>13</v>
+        <v>55.25</v>
       </c>
       <c r="AI30">
-        <v>-4</v>
+        <v>57.5</v>
       </c>
       <c r="AJ30">
-        <v>-57</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>11436</v>
+        <v>11456</v>
       </c>
       <c r="AA31">
-        <v>649</v>
+        <v>-43.75</v>
       </c>
       <c r="AB31">
-        <v>716</v>
+        <v>-99.25</v>
       </c>
       <c r="AC31">
-        <v>807</v>
+        <v>-154.75</v>
       </c>
       <c r="AD31">
-        <v>812</v>
+        <v>-152.75</v>
       </c>
       <c r="AE31">
-        <v>866</v>
+        <v>-215</v>
       </c>
       <c r="AF31">
-        <v>913</v>
+        <v>-245.25</v>
       </c>
       <c r="AG31">
-        <v>915</v>
+        <v>-234.5</v>
       </c>
       <c r="AH31">
-        <v>891</v>
+        <v>-200.75</v>
       </c>
       <c r="AI31">
-        <v>820</v>
+        <v>-170.75</v>
       </c>
       <c r="AJ31">
-        <v>642</v>
+        <v>-159.5</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>11383</v>
+        <v>28006</v>
       </c>
       <c r="AA32">
-        <v>322.75</v>
+        <v>266</v>
       </c>
       <c r="AB32">
-        <v>36</v>
+        <v>230.25</v>
       </c>
       <c r="AC32">
-        <v>83</v>
+        <v>191.75</v>
       </c>
       <c r="AD32">
-        <v>126.75</v>
+        <v>167.25</v>
       </c>
       <c r="AE32">
-        <v>157.5</v>
+        <v>109.75</v>
       </c>
       <c r="AF32">
-        <v>139.25</v>
+        <v>47.25</v>
       </c>
       <c r="AG32">
-        <v>284.5</v>
+        <v>-3</v>
       </c>
       <c r="AH32">
-        <v>250.75</v>
+        <v>23</v>
       </c>
       <c r="AI32">
-        <v>203</v>
+        <v>27</v>
       </c>
       <c r="AJ32">
-        <v>205.75</v>
+        <v>-115.5</v>
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>11181</v>
+        <v>12101</v>
       </c>
       <c r="AA33">
-        <v>-3</v>
+        <v>278.25</v>
       </c>
       <c r="AB33">
-        <v>-82.75</v>
+        <v>261.5</v>
       </c>
       <c r="AC33">
-        <v>-25.75</v>
+        <v>268</v>
       </c>
       <c r="AD33">
-        <v>-70.5</v>
+        <v>245</v>
       </c>
       <c r="AE33">
-        <v>-87.5</v>
+        <v>243.75</v>
       </c>
       <c r="AF33">
-        <v>-24</v>
+        <v>248.5</v>
       </c>
       <c r="AG33">
-        <v>-35.75</v>
+        <v>239</v>
       </c>
       <c r="AH33">
-        <v>-33.25</v>
+        <v>225</v>
       </c>
       <c r="AI33">
-        <v>-15.25</v>
+        <v>241.75</v>
       </c>
       <c r="AJ33">
-        <v>-69.5</v>
+        <v>223.75</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>11088</v>
+        <v>36664</v>
       </c>
       <c r="AA34">
-        <v>57.25</v>
+        <v>-27</v>
       </c>
       <c r="AB34">
-        <v>58.25</v>
+        <v>-328.75</v>
       </c>
       <c r="AC34">
-        <v>85.75</v>
+        <v>-517</v>
       </c>
       <c r="AD34">
-        <v>113.25</v>
+        <v>-781.5</v>
       </c>
       <c r="AE34">
-        <v>183.5</v>
+        <v>-774.5</v>
       </c>
       <c r="AF34">
-        <v>119</v>
+        <v>-939.75</v>
       </c>
       <c r="AG34">
-        <v>140.75</v>
+        <v>-924</v>
       </c>
       <c r="AH34">
-        <v>119.25</v>
+        <v>-950.5</v>
       </c>
       <c r="AI34">
-        <v>65.25</v>
+        <v>-777.25</v>
       </c>
       <c r="AJ34">
-        <v>-17.25</v>
+        <v>-709.5</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>11268</v>
+        <v>26114</v>
       </c>
       <c r="AA35">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="AB35">
-        <v>48</v>
+        <v>-216</v>
       </c>
       <c r="AC35">
-        <v>148.75</v>
+        <v>-336.5</v>
       </c>
       <c r="AD35">
-        <v>103.75</v>
+        <v>-274.75</v>
       </c>
       <c r="AE35">
-        <v>172</v>
+        <v>-335.75</v>
       </c>
       <c r="AF35">
-        <v>71.5</v>
+        <v>-414</v>
       </c>
       <c r="AG35">
-        <v>-34</v>
+        <v>-216.5</v>
       </c>
       <c r="AH35">
-        <v>-6.5</v>
+        <v>-292.75</v>
       </c>
       <c r="AI35">
-        <v>-31.75</v>
+        <v>-218.25</v>
       </c>
       <c r="AJ35">
-        <v>-97.75</v>
+        <v>-151.25</v>
       </c>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>26126</v>
+        <v>28013</v>
       </c>
       <c r="AA36">
-        <v>52.5</v>
+        <v>-33.75</v>
       </c>
       <c r="AB36">
-        <v>-240.25</v>
+        <v>-231</v>
       </c>
       <c r="AC36">
-        <v>-397.5</v>
+        <v>-521.25</v>
       </c>
       <c r="AD36">
-        <v>-257.5</v>
+        <v>-399.75</v>
       </c>
       <c r="AE36">
-        <v>-258.75</v>
+        <v>-375.5</v>
       </c>
       <c r="AF36">
-        <v>-454.5</v>
+        <v>-697.25</v>
       </c>
       <c r="AG36">
-        <v>-221.75</v>
+        <v>-713.5</v>
       </c>
       <c r="AH36">
-        <v>-218</v>
+        <v>-682.5</v>
       </c>
       <c r="AI36">
-        <v>-197.5</v>
+        <v>-467</v>
       </c>
       <c r="AJ36">
-        <v>-220.25</v>
+        <v>-436.75</v>
       </c>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>28013</v>
+        <v>36668</v>
       </c>
       <c r="AA37">
-        <v>-33.75</v>
+        <v>-27.75</v>
       </c>
       <c r="AB37">
-        <v>-231</v>
+        <v>-40</v>
       </c>
       <c r="AC37">
-        <v>-521.25</v>
+        <v>-45.75</v>
       </c>
       <c r="AD37">
-        <v>-399.75</v>
+        <v>-89.75</v>
       </c>
       <c r="AE37">
-        <v>-375.5</v>
+        <v>-106.5</v>
       </c>
       <c r="AF37">
-        <v>-697.25</v>
+        <v>-159.5</v>
       </c>
       <c r="AG37">
-        <v>-713.5</v>
+        <v>-174.5</v>
       </c>
       <c r="AH37">
-        <v>-682.5</v>
+        <v>-171.75</v>
       </c>
       <c r="AI37">
-        <v>-467</v>
+        <v>-156.5</v>
       </c>
       <c r="AJ37">
-        <v>-436.75</v>
+        <v>-141.5</v>
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>11182</v>
+        <v>28016</v>
       </c>
       <c r="AA38">
-        <v>89.25</v>
+        <v>0.75</v>
       </c>
       <c r="AB38">
-        <v>104.75</v>
+        <v>-110.25</v>
       </c>
       <c r="AC38">
-        <v>121.75</v>
+        <v>-137.75</v>
       </c>
       <c r="AD38">
-        <v>91</v>
+        <v>-203.25</v>
       </c>
       <c r="AE38">
-        <v>136.25</v>
+        <v>-271.25</v>
       </c>
       <c r="AF38">
-        <v>109.5</v>
+        <v>-356.5</v>
       </c>
       <c r="AG38">
-        <v>104.75</v>
+        <v>-363.5</v>
       </c>
       <c r="AH38">
-        <v>42</v>
+        <v>-375</v>
       </c>
       <c r="AI38">
-        <v>62.5</v>
+        <v>-303.75</v>
       </c>
       <c r="AJ38">
-        <v>-52</v>
+        <v>-353.5</v>
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>11181</v>
+        <v>11436</v>
       </c>
       <c r="AA39">
-        <v>235</v>
+        <v>649</v>
       </c>
       <c r="AB39">
-        <v>-19.25</v>
+        <v>716</v>
       </c>
       <c r="AC39">
-        <v>-19</v>
+        <v>807</v>
       </c>
       <c r="AD39">
-        <v>110.5</v>
+        <v>812</v>
       </c>
       <c r="AE39">
-        <v>97.75</v>
+        <v>866</v>
       </c>
       <c r="AF39">
-        <v>89.5</v>
+        <v>913</v>
       </c>
       <c r="AG39">
-        <v>105.5</v>
+        <v>915</v>
       </c>
       <c r="AH39">
-        <v>82.25</v>
+        <v>891</v>
       </c>
       <c r="AI39">
-        <v>88.75</v>
+        <v>820</v>
       </c>
       <c r="AJ39">
-        <v>9.75</v>
+        <v>642</v>
       </c>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>26126</v>
+        <v>11208</v>
       </c>
       <c r="AA40">
-        <v>-53</v>
+        <v>142</v>
       </c>
       <c r="AB40">
-        <v>-29</v>
+        <v>170</v>
       </c>
       <c r="AC40">
-        <v>-35</v>
+        <v>273</v>
       </c>
       <c r="AD40">
-        <v>-59.25</v>
+        <v>291</v>
       </c>
       <c r="AE40">
-        <v>-48.25</v>
+        <v>293</v>
       </c>
       <c r="AF40">
-        <v>-49</v>
+        <v>296</v>
       </c>
       <c r="AG40">
-        <v>-76.25</v>
+        <v>244</v>
       </c>
       <c r="AH40">
-        <v>-72.75</v>
+        <v>227</v>
       </c>
       <c r="AI40">
-        <v>-62</v>
+        <v>228</v>
       </c>
       <c r="AJ40">
-        <v>-150.25</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>11254</v>
+        <v>27986</v>
       </c>
       <c r="AA41">
-        <v>37.5</v>
+        <v>140.75</v>
       </c>
       <c r="AB41">
-        <v>54.5</v>
+        <v>74.75</v>
       </c>
       <c r="AC41">
-        <v>51.25</v>
+        <v>103.75</v>
       </c>
       <c r="AD41">
-        <v>45.5</v>
+        <v>13</v>
       </c>
       <c r="AE41">
-        <v>107.25</v>
+        <v>-5.75</v>
       </c>
       <c r="AF41">
-        <v>71</v>
+        <v>-149</v>
       </c>
       <c r="AG41">
-        <v>83.25</v>
+        <v>-175.75</v>
       </c>
       <c r="AH41">
-        <v>18.25</v>
+        <v>-168</v>
       </c>
       <c r="AI41">
-        <v>24.5</v>
+        <v>-135.5</v>
       </c>
       <c r="AJ41">
-        <v>-90.75</v>
+        <v>-255</v>
       </c>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>27998</v>
+        <v>36669</v>
       </c>
       <c r="AA42">
-        <v>139.75</v>
+        <v>-53.25</v>
       </c>
       <c r="AB42">
-        <v>54</v>
+        <v>-62</v>
       </c>
       <c r="AC42">
-        <v>21.25</v>
+        <v>-56.75</v>
       </c>
       <c r="AD42">
-        <v>-50.75</v>
+        <v>-62</v>
       </c>
       <c r="AE42">
-        <v>-101</v>
+        <v>-115.5</v>
       </c>
       <c r="AF42">
-        <v>-209.5</v>
+        <v>-139.5</v>
       </c>
       <c r="AG42">
-        <v>-244.25</v>
+        <v>-174.5</v>
       </c>
       <c r="AH42">
-        <v>-223</v>
+        <v>-173</v>
       </c>
       <c r="AI42">
-        <v>-167</v>
+        <v>-150.75</v>
       </c>
       <c r="AJ42">
-        <v>-300.5</v>
+        <v>-131.5</v>
       </c>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>27997</v>
+        <v>26125</v>
       </c>
       <c r="AA43">
-        <v>-235</v>
+        <v>3.5</v>
       </c>
       <c r="AB43">
-        <v>-53</v>
+        <v>21.75</v>
       </c>
       <c r="AC43">
-        <v>-22</v>
+        <v>15.5</v>
       </c>
       <c r="AD43">
-        <v>121</v>
+        <v>33.25</v>
       </c>
       <c r="AE43">
-        <v>156</v>
+        <v>33</v>
       </c>
       <c r="AF43">
-        <v>-36</v>
+        <v>14</v>
       </c>
       <c r="AG43">
-        <v>-74</v>
+        <v>22.25</v>
       </c>
       <c r="AH43">
-        <v>-59</v>
+        <v>29.25</v>
       </c>
       <c r="AI43">
-        <v>-203</v>
+        <v>19.5</v>
       </c>
       <c r="AJ43">
-        <v>-453</v>
+        <v>-24.25</v>
       </c>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>26116</v>
+        <v>11181</v>
       </c>
       <c r="AA44">
-        <v>157</v>
+        <v>235</v>
       </c>
       <c r="AB44">
-        <v>177</v>
+        <v>-19.25</v>
       </c>
       <c r="AC44">
-        <v>218</v>
+        <v>-19</v>
       </c>
       <c r="AD44">
-        <v>221</v>
+        <v>110.5</v>
       </c>
       <c r="AE44">
-        <v>268</v>
+        <v>97.75</v>
       </c>
       <c r="AF44">
-        <v>239</v>
+        <v>89.5</v>
       </c>
       <c r="AG44">
-        <v>253</v>
+        <v>105.5</v>
       </c>
       <c r="AH44">
-        <v>230</v>
+        <v>82.25</v>
       </c>
       <c r="AI44">
-        <v>253</v>
+        <v>88.75</v>
       </c>
       <c r="AJ44">
-        <v>188</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>38806</v>
+        <v>27999</v>
       </c>
       <c r="AA45">
-        <v>-51.75</v>
+        <v>317.75</v>
       </c>
       <c r="AB45">
-        <v>-38.75</v>
+        <v>189.5</v>
       </c>
       <c r="AC45">
-        <v>-35.5</v>
+        <v>-79.5</v>
       </c>
       <c r="AD45">
-        <v>-34.75</v>
+        <v>38</v>
       </c>
       <c r="AE45">
-        <v>-96.5</v>
+        <v>136</v>
       </c>
       <c r="AF45">
-        <v>-167.25</v>
+        <v>-264.75</v>
       </c>
       <c r="AG45">
-        <v>-278.5</v>
+        <v>-341.25</v>
       </c>
       <c r="AH45">
-        <v>-253.25</v>
+        <v>-256.5</v>
       </c>
       <c r="AI45">
-        <v>-253.75</v>
+        <v>-194.25</v>
       </c>
       <c r="AJ45">
-        <v>-284.25</v>
+        <v>-373</v>
       </c>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>32464</v>
+        <v>26129</v>
       </c>
       <c r="AA46">
-        <v>198</v>
+        <v>409</v>
       </c>
       <c r="AB46">
-        <v>232</v>
+        <v>519</v>
       </c>
       <c r="AC46">
-        <v>272</v>
+        <v>627</v>
       </c>
       <c r="AD46">
-        <v>274</v>
+        <v>632</v>
       </c>
       <c r="AE46">
-        <v>326</v>
+        <v>696</v>
       </c>
       <c r="AF46">
-        <v>309</v>
+        <v>693</v>
       </c>
       <c r="AG46">
-        <v>331</v>
+        <v>684</v>
       </c>
       <c r="AH46">
-        <v>302</v>
+        <v>616</v>
       </c>
       <c r="AI46">
-        <v>313</v>
+        <v>569</v>
       </c>
       <c r="AJ46">
-        <v>187</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>11153</v>
+        <v>27985</v>
       </c>
       <c r="AA47">
-        <v>453</v>
+        <v>716</v>
       </c>
       <c r="AB47">
-        <v>245.5</v>
+        <v>799</v>
       </c>
       <c r="AC47">
-        <v>333.5</v>
+        <v>832</v>
       </c>
       <c r="AD47">
-        <v>378.5</v>
+        <v>881</v>
       </c>
       <c r="AE47">
-        <v>374.75</v>
+        <v>862</v>
       </c>
       <c r="AF47">
-        <v>365.5</v>
+        <v>826</v>
       </c>
       <c r="AG47">
-        <v>307</v>
+        <v>775</v>
       </c>
       <c r="AH47">
-        <v>291.25</v>
+        <v>834</v>
       </c>
       <c r="AI47">
-        <v>249.75</v>
+        <v>751</v>
       </c>
       <c r="AJ47">
-        <v>178.25</v>
+        <v>478</v>
       </c>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>28016</v>
+        <v>11302</v>
       </c>
       <c r="AA48">
-        <v>0.75</v>
+        <v>108.5</v>
       </c>
       <c r="AB48">
-        <v>-110.25</v>
+        <v>111.5</v>
       </c>
       <c r="AC48">
-        <v>-137.75</v>
+        <v>213.25</v>
       </c>
       <c r="AD48">
-        <v>-203.25</v>
+        <v>174.5</v>
       </c>
       <c r="AE48">
-        <v>-271.25</v>
+        <v>207.25</v>
       </c>
       <c r="AF48">
-        <v>-356.5</v>
+        <v>97.75</v>
       </c>
       <c r="AG48">
-        <v>-363.5</v>
+        <v>7.25</v>
       </c>
       <c r="AH48">
-        <v>-375</v>
+        <v>3.25</v>
       </c>
       <c r="AI48">
-        <v>-303.75</v>
+        <v>-20</v>
       </c>
       <c r="AJ48">
-        <v>-353.5</v>
+        <v>-81.75</v>
       </c>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>27986</v>
+        <v>36667</v>
       </c>
       <c r="AA49">
-        <v>140.75</v>
+        <v>25</v>
       </c>
       <c r="AB49">
-        <v>74.75</v>
+        <v>52.25</v>
       </c>
       <c r="AC49">
-        <v>103.75</v>
+        <v>79.75</v>
       </c>
       <c r="AD49">
-        <v>13</v>
+        <v>90.75</v>
       </c>
       <c r="AE49">
-        <v>-5.75</v>
+        <v>47.75</v>
       </c>
       <c r="AF49">
-        <v>-149</v>
+        <v>6.75</v>
       </c>
       <c r="AG49">
-        <v>-175.75</v>
+        <v>-60.75</v>
       </c>
       <c r="AH49">
-        <v>-168</v>
+        <v>-49.25</v>
       </c>
       <c r="AI49">
-        <v>-135.5</v>
+        <v>-70.75</v>
       </c>
       <c r="AJ49">
-        <v>-255</v>
+        <v>-134.25</v>
       </c>
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>12101</v>
+        <v>11158</v>
       </c>
       <c r="AA50">
-        <v>278.25</v>
+        <v>-7.75</v>
       </c>
       <c r="AB50">
-        <v>261.5</v>
+        <v>-12.25</v>
       </c>
       <c r="AC50">
-        <v>268</v>
+        <v>-25.5</v>
       </c>
       <c r="AD50">
-        <v>245</v>
+        <v>1.25</v>
       </c>
       <c r="AE50">
-        <v>243.75</v>
+        <v>-5</v>
       </c>
       <c r="AF50">
-        <v>248.5</v>
+        <v>-30.5</v>
       </c>
       <c r="AG50">
-        <v>239</v>
+        <v>-53.75</v>
       </c>
       <c r="AH50">
-        <v>225</v>
+        <v>-32</v>
       </c>
       <c r="AI50">
-        <v>241.75</v>
+        <v>-20</v>
       </c>
       <c r="AJ50">
-        <v>223.75</v>
+        <v>-53.5</v>
       </c>
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>27999</v>
+        <v>26120</v>
       </c>
       <c r="AA51">
-        <v>317.75</v>
+        <v>-18</v>
       </c>
       <c r="AB51">
-        <v>189.5</v>
+        <v>-6</v>
       </c>
       <c r="AC51">
-        <v>-79.5</v>
+        <v>-5</v>
       </c>
       <c r="AD51">
-        <v>38</v>
+        <v>-6</v>
       </c>
       <c r="AE51">
-        <v>136</v>
+        <v>-3</v>
       </c>
       <c r="AF51">
-        <v>-264.75</v>
+        <v>8</v>
       </c>
       <c r="AG51">
-        <v>-341.25</v>
+        <v>20</v>
       </c>
       <c r="AH51">
-        <v>-256.5</v>
+        <v>13</v>
       </c>
       <c r="AI51">
-        <v>-194.25</v>
+        <v>-4</v>
       </c>
       <c r="AJ51">
-        <v>-373</v>
+        <v>-57</v>
       </c>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>26115</v>
+        <v>11268</v>
       </c>
       <c r="AA52">
-        <v>4.5</v>
+        <v>69</v>
       </c>
       <c r="AB52">
-        <v>43.5</v>
+        <v>48</v>
       </c>
       <c r="AC52">
-        <v>30</v>
+        <v>148.75</v>
       </c>
       <c r="AD52">
-        <v>15.5</v>
+        <v>103.75</v>
       </c>
       <c r="AE52">
-        <v>27.25</v>
+        <v>172</v>
       </c>
       <c r="AF52">
-        <v>43</v>
+        <v>71.5</v>
       </c>
       <c r="AG52">
-        <v>43</v>
+        <v>-34</v>
       </c>
       <c r="AH52">
-        <v>30.75</v>
+        <v>-6.5</v>
       </c>
       <c r="AI52">
-        <v>20.75</v>
+        <v>-31.75</v>
       </c>
       <c r="AJ52">
-        <v>-26.75</v>
+        <v>-97.75</v>
       </c>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>36674</v>
+        <v>11290</v>
       </c>
       <c r="AA53">
-        <v>937</v>
+        <v>68.25</v>
       </c>
       <c r="AB53">
-        <v>1009</v>
+        <v>60.25</v>
       </c>
       <c r="AC53">
-        <v>1031</v>
+        <v>29.25</v>
       </c>
       <c r="AD53">
-        <v>1125</v>
+        <v>11</v>
       </c>
       <c r="AE53">
-        <v>1086</v>
+        <v>-3.75</v>
       </c>
       <c r="AF53">
-        <v>1052</v>
+        <v>-18.25</v>
       </c>
       <c r="AG53">
-        <v>993</v>
+        <v>-25.75</v>
       </c>
       <c r="AH53">
-        <v>944</v>
+        <v>-1.5</v>
       </c>
       <c r="AI53">
-        <v>915</v>
+        <v>36</v>
       </c>
       <c r="AJ53">
-        <v>760</v>
+        <v>34.25</v>
       </c>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>11085</v>
+        <v>27983</v>
       </c>
       <c r="AA54">
-        <v>-1.5</v>
+        <v>463.25</v>
       </c>
       <c r="AB54">
-        <v>0.5</v>
+        <v>226.5</v>
       </c>
       <c r="AC54">
-        <v>0.5</v>
+        <v>58.75</v>
       </c>
       <c r="AD54">
-        <v>-1.5</v>
+        <v>-68.75</v>
       </c>
       <c r="AE54">
-        <v>-0.75</v>
+        <v>100.75</v>
       </c>
       <c r="AF54">
-        <v>-3.5</v>
+        <v>-214</v>
       </c>
       <c r="AG54">
-        <v>-2.25</v>
+        <v>-302</v>
       </c>
       <c r="AH54">
-        <v>-6</v>
+        <v>-123</v>
       </c>
       <c r="AI54">
-        <v>-3.5</v>
+        <v>-129.75</v>
       </c>
       <c r="AJ54">
-        <v>-7</v>
+        <v>-322.5</v>
       </c>
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>27984</v>
+        <v>11085</v>
       </c>
       <c r="AA55">
-        <v>753.75</v>
+        <v>-1.5</v>
       </c>
       <c r="AB55">
-        <v>842.75</v>
+        <v>0.5</v>
       </c>
       <c r="AC55">
-        <v>1028.5</v>
+        <v>0.5</v>
       </c>
       <c r="AD55">
-        <v>1017.25</v>
+        <v>-1.5</v>
       </c>
       <c r="AE55">
-        <v>970</v>
+        <v>-0.75</v>
       </c>
       <c r="AF55">
-        <v>865.5</v>
+        <v>-3.5</v>
       </c>
       <c r="AG55">
-        <v>824</v>
+        <v>-2.25</v>
       </c>
       <c r="AH55">
-        <v>810</v>
+        <v>-6</v>
       </c>
       <c r="AI55">
-        <v>764</v>
+        <v>-3.5</v>
       </c>
       <c r="AJ55">
-        <v>375</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>36668</v>
+        <v>11088</v>
       </c>
       <c r="AA56">
-        <v>-27.75</v>
+        <v>57.25</v>
       </c>
       <c r="AB56">
-        <v>-40</v>
+        <v>58.25</v>
       </c>
       <c r="AC56">
-        <v>-45.75</v>
+        <v>85.75</v>
       </c>
       <c r="AD56">
-        <v>-89.75</v>
+        <v>113.25</v>
       </c>
       <c r="AE56">
-        <v>-106.5</v>
+        <v>183.5</v>
       </c>
       <c r="AF56">
-        <v>-159.5</v>
+        <v>119</v>
       </c>
       <c r="AG56">
-        <v>-174.5</v>
+        <v>140.75</v>
       </c>
       <c r="AH56">
-        <v>-171.75</v>
+        <v>119.25</v>
       </c>
       <c r="AI56">
-        <v>-156.5</v>
+        <v>65.25</v>
       </c>
       <c r="AJ56">
-        <v>-141.5</v>
+        <v>-17.25</v>
       </c>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>11306</v>
+        <v>38806</v>
       </c>
       <c r="AA57">
-        <v>106.25</v>
+        <v>-51.75</v>
       </c>
       <c r="AB57">
-        <v>77.25</v>
+        <v>-38.75</v>
       </c>
       <c r="AC57">
-        <v>68.75</v>
+        <v>-35.5</v>
       </c>
       <c r="AD57">
-        <v>21.25</v>
+        <v>-34.75</v>
       </c>
       <c r="AE57">
-        <v>46.5</v>
+        <v>-96.5</v>
       </c>
       <c r="AF57">
-        <v>69</v>
+        <v>-167.25</v>
       </c>
       <c r="AG57">
-        <v>43.5</v>
+        <v>-278.5</v>
       </c>
       <c r="AH57">
-        <v>63</v>
+        <v>-253.25</v>
       </c>
       <c r="AI57">
-        <v>66.5</v>
+        <v>-253.75</v>
       </c>
       <c r="AJ57">
-        <v>54.5</v>
+        <v>-284.25</v>
       </c>
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>36665</v>
+        <v>11254</v>
       </c>
       <c r="AA58">
-        <v>-14.5</v>
+        <v>44.75</v>
       </c>
       <c r="AB58">
-        <v>-21.25</v>
+        <v>47</v>
       </c>
       <c r="AC58">
-        <v>-4.75</v>
+        <v>30.75</v>
       </c>
       <c r="AD58">
-        <v>10</v>
+        <v>30.5</v>
       </c>
       <c r="AE58">
-        <v>-49.25</v>
+        <v>29</v>
       </c>
       <c r="AF58">
-        <v>-92.5</v>
+        <v>30</v>
       </c>
       <c r="AG58">
-        <v>-171</v>
+        <v>12.25</v>
       </c>
       <c r="AH58">
-        <v>-149.75</v>
+        <v>9.75</v>
       </c>
       <c r="AI58">
-        <v>-169.25</v>
+        <v>34.25</v>
       </c>
       <c r="AJ58">
-        <v>-217.75</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>11254</v>
+        <v>11415</v>
       </c>
       <c r="AA59">
-        <v>44.75</v>
+        <v>65</v>
       </c>
       <c r="AB59">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="AC59">
-        <v>30.75</v>
+        <v>109</v>
       </c>
       <c r="AD59">
-        <v>30.5</v>
+        <v>94</v>
       </c>
       <c r="AE59">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="AF59">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="AG59">
-        <v>12.25</v>
+        <v>109</v>
       </c>
       <c r="AH59">
-        <v>9.75</v>
+        <v>104</v>
       </c>
       <c r="AI59">
-        <v>34.25</v>
+        <v>121</v>
       </c>
       <c r="AJ59">
-        <v>11.5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>11256</v>
+        <v>32464</v>
       </c>
       <c r="AA60">
-        <v>222.75</v>
+        <v>198</v>
       </c>
       <c r="AB60">
-        <v>-95.75</v>
+        <v>232</v>
       </c>
       <c r="AC60">
-        <v>-51.25</v>
+        <v>272</v>
       </c>
       <c r="AD60">
-        <v>27.5</v>
+        <v>274</v>
       </c>
       <c r="AE60">
-        <v>21.75</v>
+        <v>326</v>
       </c>
       <c r="AF60">
-        <v>30.75</v>
+        <v>309</v>
       </c>
       <c r="AG60">
-        <v>71.5</v>
+        <v>331</v>
       </c>
       <c r="AH60">
-        <v>36.75</v>
+        <v>302</v>
       </c>
       <c r="AI60">
-        <v>68</v>
+        <v>313</v>
       </c>
       <c r="AJ60">
-        <v>-44.75</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>11456</v>
+        <v>38805</v>
       </c>
       <c r="AA61">
-        <v>137.5</v>
+        <v>29.25</v>
       </c>
       <c r="AB61">
-        <v>-108.5</v>
+        <v>-248.5</v>
       </c>
       <c r="AC61">
-        <v>-178</v>
+        <v>-489</v>
       </c>
       <c r="AD61">
-        <v>-103.25</v>
+        <v>-623.75</v>
       </c>
       <c r="AE61">
-        <v>-151.75</v>
+        <v>-723</v>
       </c>
       <c r="AF61">
-        <v>-172.75</v>
+        <v>-939.25</v>
       </c>
       <c r="AG61">
-        <v>10.25</v>
+        <v>-903.25</v>
       </c>
       <c r="AH61">
-        <v>-15.25</v>
+        <v>-863.75</v>
       </c>
       <c r="AI61">
-        <v>54.25</v>
+        <v>-684.75</v>
       </c>
       <c r="AJ61">
-        <v>-29.25</v>
+        <v>-653.75</v>
       </c>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>36667</v>
+        <v>11289</v>
       </c>
       <c r="AA62">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="AB62">
-        <v>52.25</v>
+        <v>165.25</v>
       </c>
       <c r="AC62">
-        <v>79.75</v>
+        <v>117.25</v>
       </c>
       <c r="AD62">
-        <v>90.75</v>
+        <v>112</v>
       </c>
       <c r="AE62">
-        <v>47.75</v>
+        <v>147.75</v>
       </c>
       <c r="AF62">
-        <v>6.75</v>
+        <v>128.75</v>
       </c>
       <c r="AG62">
-        <v>-60.75</v>
+        <v>113</v>
       </c>
       <c r="AH62">
-        <v>-49.25</v>
+        <v>30.5</v>
       </c>
       <c r="AI62">
-        <v>-70.75</v>
+        <v>79.5</v>
       </c>
       <c r="AJ62">
-        <v>-134.25</v>
+        <v>-119.75</v>
       </c>
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>26125</v>
+        <v>36668</v>
       </c>
       <c r="AA63">
-        <v>3.5</v>
+        <v>-125.25</v>
       </c>
       <c r="AB63">
-        <v>21.75</v>
+        <v>-480.5</v>
       </c>
       <c r="AC63">
-        <v>15.5</v>
+        <v>-812.5</v>
       </c>
       <c r="AD63">
-        <v>33.25</v>
+        <v>-1057.5</v>
       </c>
       <c r="AE63">
-        <v>33</v>
+        <v>-1166.25</v>
       </c>
       <c r="AF63">
-        <v>14</v>
+        <v>-1392.5</v>
       </c>
       <c r="AG63">
-        <v>22.25</v>
+        <v>-1326</v>
       </c>
       <c r="AH63">
-        <v>29.25</v>
+        <v>-1298.5</v>
       </c>
       <c r="AI63">
-        <v>19.5</v>
+        <v>-1080.5</v>
       </c>
       <c r="AJ63">
-        <v>-24.25</v>
+        <v>-1009.25</v>
       </c>
     </row>
   </sheetData>
@@ -3138,177 +3138,177 @@
     </row>
     <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>11158</v>
+        <v>11383</v>
       </c>
       <c r="AA2">
-        <v>-17.599249999999998</v>
+        <v>-12.602880000000006</v>
       </c>
       <c r="AB2">
-        <v>-19.699369999999995</v>
+        <v>-12.540709999999997</v>
       </c>
       <c r="AC2">
-        <v>-20.712249999999997</v>
+        <v>-10.710059999999999</v>
       </c>
       <c r="AD2">
-        <v>-21.977990000000005</v>
+        <v>-11.188109999999995</v>
       </c>
       <c r="AE2">
-        <v>-20.833449999999999</v>
+        <v>-10.668819999999997</v>
       </c>
       <c r="AF2">
-        <v>-19.456600000000002</v>
+        <v>-1.3244800000000012</v>
       </c>
       <c r="AG2">
-        <v>-20.44876</v>
+        <v>5.2167099999999991</v>
       </c>
       <c r="AH2">
-        <v>-21.239049999999999</v>
+        <v>4.5024699999999953</v>
       </c>
       <c r="AI2">
-        <v>-17.42306</v>
+        <v>4.3045300000000069</v>
       </c>
       <c r="AJ2">
-        <v>-18.083559999999999</v>
+        <v>5.14846</v>
       </c>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>26129</v>
+        <v>26126</v>
       </c>
       <c r="AA3">
-        <v>-3.206389999999999</v>
+        <v>-5.0694000000000017</v>
       </c>
       <c r="AB3">
-        <v>-3.9872099999999975</v>
+        <v>-4.8285300000000078</v>
       </c>
       <c r="AC3">
-        <v>-4.9303699999999964</v>
+        <v>-4.1748599999999954</v>
       </c>
       <c r="AD3">
-        <v>-4.9788599999999974</v>
+        <v>-5.8125300000000024</v>
       </c>
       <c r="AE3">
-        <v>-5.6937800000000038</v>
+        <v>-0.30366999999999678</v>
       </c>
       <c r="AF3">
-        <v>-5.653330000000004</v>
+        <v>8.3652900000000017</v>
       </c>
       <c r="AG3">
-        <v>-5.5425599999999946</v>
+        <v>13.243690000000001</v>
       </c>
       <c r="AH3">
-        <v>-4.8259599999999949</v>
+        <v>10.131730000000005</v>
       </c>
       <c r="AI3">
-        <v>-4.3869199999999964</v>
+        <v>7.5103800000000049</v>
       </c>
       <c r="AJ3">
-        <v>-2.2679800000000085</v>
+        <v>4.3202500000000015</v>
       </c>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>27985</v>
+        <v>27984</v>
       </c>
       <c r="AA4">
-        <v>4.7270599999999945</v>
+        <v>32.771080000000005</v>
       </c>
       <c r="AB4">
-        <v>3.7395400000000052</v>
+        <v>31.611080000000001</v>
       </c>
       <c r="AC4">
-        <v>3.2152900000000031</v>
+        <v>27.852090000000004</v>
       </c>
       <c r="AD4">
-        <v>2.4536999999999978</v>
+        <v>28.225680000000004</v>
       </c>
       <c r="AE4">
-        <v>2.7599000000000018</v>
+        <v>27.548310000000001</v>
       </c>
       <c r="AF4">
-        <v>3.2860800000000054</v>
+        <v>26.659610000000001</v>
       </c>
       <c r="AG4">
-        <v>3.9787300000000059</v>
+        <v>27.662880000000001</v>
       </c>
       <c r="AH4">
-        <v>3.1709900000000033</v>
+        <v>30.407609999999998</v>
       </c>
       <c r="AI4">
-        <v>4.2747300000000052</v>
+        <v>31.284380000000006</v>
       </c>
       <c r="AJ4">
-        <v>6.698360000000001</v>
+        <v>33.307450000000003</v>
       </c>
     </row>
     <row r="5" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>11290</v>
+        <v>11300</v>
       </c>
       <c r="AA5">
-        <v>-3.1963399999999993</v>
+        <v>58.003549999999997</v>
       </c>
       <c r="AB5">
-        <v>-3.4407899999999998</v>
+        <v>57.822780000000002</v>
       </c>
       <c r="AC5">
-        <v>-5.0892499999999998</v>
+        <v>57.792080000000006</v>
       </c>
       <c r="AD5">
-        <v>-9.7239800000000045</v>
+        <v>57.441330000000008</v>
       </c>
       <c r="AE5">
-        <v>-11.643799999999999</v>
+        <v>57.589500000000001</v>
       </c>
       <c r="AF5">
-        <v>-11.496590000000005</v>
+        <v>57.686140000000002</v>
       </c>
       <c r="AG5">
-        <v>-9.1944999999999979</v>
+        <v>57.837230000000005</v>
       </c>
       <c r="AH5">
-        <v>-0.37131000000000114</v>
+        <v>57.978999999999999</v>
       </c>
       <c r="AI5">
-        <v>4.6342599999999976</v>
+        <v>58.031040000000004</v>
       </c>
       <c r="AJ5">
-        <v>0.12794000000000239</v>
+        <v>58.532559999999997</v>
       </c>
     </row>
     <row r="6" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>11341</v>
+        <v>36674</v>
       </c>
       <c r="AA6">
-        <v>5.0517699999999905</v>
+        <v>56.449180000000005</v>
       </c>
       <c r="AB6">
-        <v>5.9128699999999981</v>
+        <v>55.725290000000001</v>
       </c>
       <c r="AC6">
-        <v>3.4627100000000013</v>
+        <v>49.999690000000001</v>
       </c>
       <c r="AD6">
-        <v>2.5297099999999944</v>
+        <v>48.893329999999999</v>
       </c>
       <c r="AE6">
-        <v>5.1176300000000055</v>
+        <v>47.310229999999997</v>
       </c>
       <c r="AF6">
-        <v>7.629170000000002</v>
+        <v>43.839859999999994</v>
       </c>
       <c r="AG6">
-        <v>7.4782900000000012</v>
+        <v>40.255759999999995</v>
       </c>
       <c r="AH6">
-        <v>5.7387300000000039</v>
+        <v>40.13147</v>
       </c>
       <c r="AI6">
-        <v>6.8829099999999954</v>
+        <v>39.602129999999995</v>
       </c>
       <c r="AJ6">
-        <v>6.1588600000000042</v>
+        <v>42.633490000000002</v>
       </c>
     </row>
     <row r="7" spans="1:98" x14ac:dyDescent="0.3">
@@ -3316,1994 +3316,1994 @@
         <v>11290</v>
       </c>
       <c r="AA7">
-        <v>-8.8260199999999998</v>
+        <v>-3.1963399999999993</v>
       </c>
       <c r="AB7">
-        <v>-7.5041299999999964</v>
+        <v>-3.4407899999999998</v>
       </c>
       <c r="AC7">
-        <v>-8.5319199999999995</v>
+        <v>-5.0892499999999998</v>
       </c>
       <c r="AD7">
-        <v>-8.5572099999999978</v>
+        <v>-9.7239800000000045</v>
       </c>
       <c r="AE7">
-        <v>-8.0876499999999965</v>
+        <v>-11.643799999999999</v>
       </c>
       <c r="AF7">
-        <v>-8.484250000000003</v>
+        <v>-11.496590000000005</v>
       </c>
       <c r="AG7">
-        <v>-9.1637199999999979</v>
+        <v>-9.1944999999999979</v>
       </c>
       <c r="AH7">
-        <v>-8.3531599999999955</v>
+        <v>-0.37131000000000114</v>
       </c>
       <c r="AI7">
-        <v>-8.6678799999999967</v>
+        <v>4.6342599999999976</v>
       </c>
       <c r="AJ7">
-        <v>-9.0984100000000012</v>
+        <v>0.12794000000000239</v>
       </c>
     </row>
     <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>11302</v>
+        <v>11383</v>
       </c>
       <c r="AA8">
-        <v>-0.31048000000000542</v>
+        <v>-2.3049900000000036</v>
       </c>
       <c r="AB8">
-        <v>-3.0025400000000033</v>
+        <v>-1.9957300000000018</v>
       </c>
       <c r="AC8">
-        <v>-3.9570300000000032</v>
+        <v>-4.2531900000000036</v>
       </c>
       <c r="AD8">
-        <v>-5.2165900000000036</v>
+        <v>-8.084699999999998</v>
       </c>
       <c r="AE8">
-        <v>-4.7776599999999974</v>
+        <v>-9.7312900000000013</v>
       </c>
       <c r="AF8">
-        <v>-4.616109999999999</v>
+        <v>-3.731669999999994</v>
       </c>
       <c r="AG8">
-        <v>-4.0497399999999999</v>
+        <v>-5.8456599999999952</v>
       </c>
       <c r="AH8">
-        <v>-4.590919999999997</v>
+        <v>5.4783199999999965</v>
       </c>
       <c r="AI8">
-        <v>-4.1666000000000025</v>
+        <v>6.9684099999999987</v>
       </c>
       <c r="AJ8">
-        <v>-3.5561500000000024</v>
+        <v>5.6328400000000016</v>
       </c>
     </row>
     <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>11300</v>
+        <v>36675</v>
       </c>
       <c r="AA9">
-        <v>58.003549999999997</v>
+        <v>-2.8603300000000047</v>
       </c>
       <c r="AB9">
-        <v>57.822780000000002</v>
+        <v>-4.9575499999999977</v>
       </c>
       <c r="AC9">
-        <v>57.792080000000006</v>
+        <v>-5.2865699999999975</v>
       </c>
       <c r="AD9">
-        <v>57.441330000000008</v>
+        <v>-5.9890300000000067</v>
       </c>
       <c r="AE9">
-        <v>57.589500000000001</v>
+        <v>-6.0376699999999985</v>
       </c>
       <c r="AF9">
-        <v>57.686140000000002</v>
+        <v>-6.7141900000000021</v>
       </c>
       <c r="AG9">
-        <v>57.837230000000005</v>
+        <v>-6.1428300000000036</v>
       </c>
       <c r="AH9">
-        <v>57.978999999999999</v>
+        <v>-6.1681800000000067</v>
       </c>
       <c r="AI9">
-        <v>58.031040000000004</v>
+        <v>-5.3041300000000078</v>
       </c>
       <c r="AJ9">
-        <v>58.532559999999997</v>
+        <v>-4.575019999999995</v>
       </c>
     </row>
     <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>11456</v>
+        <v>27999</v>
       </c>
       <c r="AA10">
-        <v>10.533250000000002</v>
+        <v>19.655459999999998</v>
       </c>
       <c r="AB10">
-        <v>10.204069999999994</v>
+        <v>20.145619999999994</v>
       </c>
       <c r="AC10">
-        <v>9.9988600000000005</v>
+        <v>20.036209999999997</v>
       </c>
       <c r="AD10">
-        <v>9.3898999999999972</v>
+        <v>19.174690000000005</v>
       </c>
       <c r="AE10">
-        <v>9.8537600000000012</v>
+        <v>18.559649999999998</v>
       </c>
       <c r="AF10">
-        <v>15.174030000000002</v>
+        <v>17.099569999999993</v>
       </c>
       <c r="AG10">
-        <v>17.459389999999999</v>
+        <v>17.263159999999999</v>
       </c>
       <c r="AH10">
-        <v>19.49324</v>
+        <v>18.186780000000006</v>
       </c>
       <c r="AI10">
-        <v>16.157159999999998</v>
+        <v>18.974819999999994</v>
       </c>
       <c r="AJ10">
-        <v>17.790030000000002</v>
+        <v>19.097499999999997</v>
       </c>
     </row>
     <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>28006</v>
+        <v>11456</v>
       </c>
       <c r="AA11">
-        <v>1.5934099999999987</v>
+        <v>-0.48713000000000761</v>
       </c>
       <c r="AB11">
-        <v>1.163090000000004</v>
+        <v>-1.6707199999999887</v>
       </c>
       <c r="AC11">
-        <v>-0.5203599999999966</v>
+        <v>-1.6644100000000037</v>
       </c>
       <c r="AD11">
-        <v>-1.864530000000002</v>
+        <v>-3.9917000000000016</v>
       </c>
       <c r="AE11">
-        <v>-0.53444000000000358</v>
+        <v>-3.1716499999999996</v>
       </c>
       <c r="AF11">
-        <v>-0.9673000000000016</v>
+        <v>6.6604600000000005</v>
       </c>
       <c r="AG11">
-        <v>-0.53704000000000462</v>
+        <v>8.5009900000000016</v>
       </c>
       <c r="AH11">
-        <v>-1.0307999999999993</v>
+        <v>15.368449999999996</v>
       </c>
       <c r="AI11">
-        <v>-0.88429000000000002</v>
+        <v>8.4690999999999974</v>
       </c>
       <c r="AJ11">
-        <v>0.9532999999999987</v>
+        <v>6.9305200000000013</v>
       </c>
     </row>
     <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11289</v>
+        <v>11046</v>
       </c>
       <c r="AA12">
-        <v>11.809730000000002</v>
+        <v>15.341619999999992</v>
       </c>
       <c r="AB12">
-        <v>5.6717100000000045</v>
+        <v>13.800759999999997</v>
       </c>
       <c r="AC12">
-        <v>4.7123399999999975</v>
+        <v>13.254350000000002</v>
       </c>
       <c r="AD12">
-        <v>4.382559999999998</v>
+        <v>13.261420000000001</v>
       </c>
       <c r="AE12">
-        <v>4.3481699999999961</v>
+        <v>13.031559999999999</v>
       </c>
       <c r="AF12">
-        <v>3.7703400000000045</v>
+        <v>12.864800000000002</v>
       </c>
       <c r="AG12">
-        <v>3.3003900000000073</v>
+        <v>12.894719999999992</v>
       </c>
       <c r="AH12">
-        <v>3.6001100000000008</v>
+        <v>13.485579999999999</v>
       </c>
       <c r="AI12">
-        <v>4.7898899999999998</v>
+        <v>14.818069999999992</v>
       </c>
       <c r="AJ12">
-        <v>6.0396400000000057</v>
+        <v>15.10857</v>
       </c>
     </row>
     <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11415</v>
+        <v>11485</v>
       </c>
       <c r="AA13">
-        <v>50.867719999999998</v>
+        <v>7.5253900000000016</v>
       </c>
       <c r="AB13">
-        <v>49.241869999999999</v>
+        <v>6.6373800000000074</v>
       </c>
       <c r="AC13">
-        <v>47.88841</v>
+        <v>5.8839199999999892</v>
       </c>
       <c r="AD13">
-        <v>49.62265</v>
+        <v>4.9998800000000045</v>
       </c>
       <c r="AE13">
-        <v>49.256909999999998</v>
+        <v>4.6651300000000049</v>
       </c>
       <c r="AF13">
-        <v>48.228359999999995</v>
+        <v>5.1594699999999989</v>
       </c>
       <c r="AG13">
-        <v>47.199059999999996</v>
+        <v>4.1291999999999973</v>
       </c>
       <c r="AH13">
-        <v>48.514809999999997</v>
+        <v>4.3885099999999966</v>
       </c>
       <c r="AI13">
-        <v>46.332450000000001</v>
+        <v>5.801959999999994</v>
       </c>
       <c r="AJ13">
-        <v>50.449719999999999</v>
+        <v>7.7599400000000003</v>
       </c>
     </row>
     <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>11046</v>
+        <v>11182</v>
       </c>
       <c r="AA14">
-        <v>15.341619999999992</v>
+        <v>6.4774599999999936</v>
       </c>
       <c r="AB14">
-        <v>13.800759999999997</v>
+        <v>-0.38116999999999734</v>
       </c>
       <c r="AC14">
-        <v>13.254350000000002</v>
+        <v>2.2950099999999907</v>
       </c>
       <c r="AD14">
-        <v>13.261420000000001</v>
+        <v>0.94656999999999414</v>
       </c>
       <c r="AE14">
-        <v>13.031559999999999</v>
+        <v>1.3876400000000046</v>
       </c>
       <c r="AF14">
-        <v>12.864800000000002</v>
+        <v>1.8642199999999889</v>
       </c>
       <c r="AG14">
-        <v>12.894719999999992</v>
+        <v>1.1823300000000074</v>
       </c>
       <c r="AH14">
-        <v>13.485579999999999</v>
+        <v>1.0862000000000052</v>
       </c>
       <c r="AI14">
-        <v>14.818069999999992</v>
+        <v>1.3648199999999946</v>
       </c>
       <c r="AJ14">
-        <v>15.10857</v>
+        <v>2.576580000000007</v>
       </c>
     </row>
     <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>26138</v>
+        <v>11181</v>
       </c>
       <c r="AA15">
-        <v>5.8459000000000003</v>
+        <v>-12.373870000000004</v>
       </c>
       <c r="AB15">
-        <v>5.5072199999999967</v>
+        <v>-11.154709999999994</v>
       </c>
       <c r="AC15">
-        <v>5.4174399999999991</v>
+        <v>-15.777999999999999</v>
       </c>
       <c r="AD15">
-        <v>5.0501900000000006</v>
+        <v>-8.2942700000000045</v>
       </c>
       <c r="AE15">
-        <v>5.1671400000000034</v>
+        <v>-10.21161</v>
       </c>
       <c r="AF15">
-        <v>5.2464500000000029</v>
+        <v>-19.379930000000002</v>
       </c>
       <c r="AG15">
-        <v>4.8314599999999999</v>
+        <v>-25.599080000000001</v>
       </c>
       <c r="AH15">
-        <v>5.2009400000000028</v>
+        <v>-12.538270000000004</v>
       </c>
       <c r="AI15">
-        <v>5.2837300000000056</v>
+        <v>-10.221080000000001</v>
       </c>
       <c r="AJ15">
-        <v>5.9402400000000029</v>
+        <v>-3.7222999999999971</v>
       </c>
     </row>
     <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>36669</v>
+        <v>26115</v>
       </c>
       <c r="AA16">
-        <v>-18.895229999999998</v>
+        <v>-5.3103599999999958</v>
       </c>
       <c r="AB16">
-        <v>-17.552859999999995</v>
+        <v>-4.6680300000000017</v>
       </c>
       <c r="AC16">
-        <v>-19.593670000000003</v>
+        <v>-5.8385499999999979</v>
       </c>
       <c r="AD16">
-        <v>-20.271790000000003</v>
+        <v>-3.6104400000000041</v>
       </c>
       <c r="AE16">
-        <v>-18.53537</v>
+        <v>-6.1669800000000023</v>
       </c>
       <c r="AF16">
-        <v>-19.402149999999999</v>
+        <v>-8.3895099999999942</v>
       </c>
       <c r="AG16">
-        <v>-18.343200000000003</v>
+        <v>-10.584030000000006</v>
       </c>
       <c r="AH16">
-        <v>-19.561170000000004</v>
+        <v>-6.541569999999993</v>
       </c>
       <c r="AI16">
-        <v>-16.907800000000002</v>
+        <v>-7.7676699999999954</v>
       </c>
       <c r="AJ16">
-        <v>-18.280709999999999</v>
+        <v>-7.9693100000000001</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>11383</v>
+        <v>26115</v>
       </c>
       <c r="AA17">
-        <v>-12.602880000000006</v>
+        <v>2.015749999999997</v>
       </c>
       <c r="AB17">
-        <v>-12.540709999999997</v>
+        <v>1.7645099999999942</v>
       </c>
       <c r="AC17">
-        <v>-10.710059999999999</v>
+        <v>0.14249999999999829</v>
       </c>
       <c r="AD17">
-        <v>-11.188109999999995</v>
+        <v>-0.78331000000000017</v>
       </c>
       <c r="AE17">
-        <v>-10.668819999999997</v>
+        <v>0.85604000000000013</v>
       </c>
       <c r="AF17">
-        <v>-1.3244800000000012</v>
+        <v>-0.41743000000000308</v>
       </c>
       <c r="AG17">
-        <v>5.2167099999999991</v>
+        <v>-0.44274999999999665</v>
       </c>
       <c r="AH17">
-        <v>4.5024699999999953</v>
+        <v>-0.25926999999999367</v>
       </c>
       <c r="AI17">
-        <v>4.3045300000000069</v>
+        <v>1.0078199999999953</v>
       </c>
       <c r="AJ17">
-        <v>5.14846</v>
+        <v>1.7695099999999968</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>11208</v>
+        <v>11254</v>
       </c>
       <c r="AA18">
-        <v>59.501130000000003</v>
+        <v>7.442930000000004</v>
       </c>
       <c r="AB18">
-        <v>59.380990000000004</v>
+        <v>5.590209999999999</v>
       </c>
       <c r="AC18">
-        <v>58.970359999999999</v>
+        <v>5.7052400000000034</v>
       </c>
       <c r="AD18">
-        <v>58.880299999999998</v>
+        <v>5.5283100000000047</v>
       </c>
       <c r="AE18">
-        <v>58.867509999999996</v>
+        <v>5.0120100000000036</v>
       </c>
       <c r="AF18">
-        <v>58.858990000000006</v>
+        <v>5.3081999999999994</v>
       </c>
       <c r="AG18">
-        <v>59.05856</v>
+        <v>3.703559999999996</v>
       </c>
       <c r="AH18">
-        <v>59.136049999999997</v>
+        <v>4.5289199999999994</v>
       </c>
       <c r="AI18">
-        <v>59.152919999999995</v>
+        <v>6.7412000000000063</v>
       </c>
       <c r="AJ18">
-        <v>59.407890000000002</v>
+        <v>6.9970699999999937</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>36664</v>
+        <v>26138</v>
       </c>
       <c r="AA19">
-        <v>-0.55143000000000342</v>
+        <v>5.8459000000000003</v>
       </c>
       <c r="AB19">
-        <v>-1.8645099999999957</v>
+        <v>5.5072199999999967</v>
       </c>
       <c r="AC19">
-        <v>8.82000000000005E-2</v>
+        <v>5.4174399999999991</v>
       </c>
       <c r="AD19">
-        <v>3.0771099999999976</v>
+        <v>5.0501900000000006</v>
       </c>
       <c r="AE19">
-        <v>2.693950000000001</v>
+        <v>5.1671400000000034</v>
       </c>
       <c r="AF19">
-        <v>9.4194099999999992</v>
+        <v>5.2464500000000029</v>
       </c>
       <c r="AG19">
-        <v>11.327849999999998</v>
+        <v>4.8314599999999999</v>
       </c>
       <c r="AH19">
-        <v>8.5725400000000036</v>
+        <v>5.2009400000000028</v>
       </c>
       <c r="AI19">
-        <v>7.6738500000000016</v>
+        <v>5.2837300000000056</v>
       </c>
       <c r="AJ19">
-        <v>6.1145199999999988</v>
+        <v>5.9402400000000029</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>27975</v>
+        <v>36666</v>
       </c>
       <c r="AA20">
-        <v>0.98406999999999556</v>
+        <v>-5.3786500000000004</v>
       </c>
       <c r="AB20">
-        <v>-4.3749199999999959</v>
+        <v>-6.3015499999999989</v>
       </c>
       <c r="AC20">
-        <v>-17.771130000000007</v>
+        <v>-7.1595800000000054</v>
       </c>
       <c r="AD20">
-        <v>-16.344530000000006</v>
+        <v>-6.6094399999999993</v>
       </c>
       <c r="AE20">
-        <v>-18.088819999999998</v>
+        <v>-6.5128500000000003</v>
       </c>
       <c r="AF20">
-        <v>-0.12989999999999924</v>
+        <v>-3.2865699999999975</v>
       </c>
       <c r="AG20">
-        <v>9.6979599999999948</v>
+        <v>1.1824000000000012</v>
       </c>
       <c r="AH20">
-        <v>21.267309999999995</v>
+        <v>1.7078500000000005</v>
       </c>
       <c r="AI20">
-        <v>18.29504</v>
+        <v>-0.16346999999999667</v>
       </c>
       <c r="AJ20">
-        <v>8.1728099999999984</v>
+        <v>1.290469999999992</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>38805</v>
+        <v>11306</v>
       </c>
       <c r="AA21">
-        <v>-10.094790000000003</v>
+        <v>33.830800000000004</v>
       </c>
       <c r="AB21">
-        <v>-11.179759999999995</v>
+        <v>42.475499999999997</v>
       </c>
       <c r="AC21">
-        <v>-11.835930000000005</v>
+        <v>35.710059999999999</v>
       </c>
       <c r="AD21">
-        <v>-12.343930000000007</v>
+        <v>40.493470000000002</v>
       </c>
       <c r="AE21">
-        <v>-12.551450000000003</v>
+        <v>38.83164</v>
       </c>
       <c r="AF21">
-        <v>-12.629559999999998</v>
+        <v>35.415759999999999</v>
       </c>
       <c r="AG21">
-        <v>-12.715150000000001</v>
+        <v>31.480990000000002</v>
       </c>
       <c r="AH21">
-        <v>-12.073099999999997</v>
+        <v>30.612859999999998</v>
       </c>
       <c r="AI21">
-        <v>-12.017869999999995</v>
+        <v>36.494240000000005</v>
       </c>
       <c r="AJ21">
-        <v>-11.245759999999997</v>
+        <v>19.210379999999997</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>27983</v>
+        <v>26116</v>
       </c>
       <c r="AA22">
-        <v>-1.5334099999999964</v>
+        <v>47.496659999999999</v>
       </c>
       <c r="AB22">
-        <v>-4.276219999999995</v>
+        <v>47.124320000000004</v>
       </c>
       <c r="AC22">
-        <v>-6.1851699999999923</v>
+        <v>46.49221</v>
       </c>
       <c r="AD22">
-        <v>-6.1276599999999988</v>
+        <v>46.39864</v>
       </c>
       <c r="AE22">
-        <v>-7.0916500000000013</v>
+        <v>45.330090000000006</v>
       </c>
       <c r="AF22">
-        <v>-6.3664899999999989</v>
+        <v>45.941699999999997</v>
       </c>
       <c r="AG22">
-        <v>6.2969099999999969</v>
+        <v>45.66516</v>
       </c>
       <c r="AH22">
-        <v>13.984130000000007</v>
+        <v>46.191859999999998</v>
       </c>
       <c r="AI22">
-        <v>6.9287500000000009</v>
+        <v>45.603380000000001</v>
       </c>
       <c r="AJ22">
-        <v>6.212619999999994</v>
+        <v>46.97963</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>36668</v>
+        <v>27998</v>
       </c>
       <c r="AA23">
-        <v>-6.3525400000000047</v>
+        <v>4.3825400000000059</v>
       </c>
       <c r="AB23">
-        <v>-5.4891099999999966</v>
+        <v>2.468910000000001</v>
       </c>
       <c r="AC23">
-        <v>-5.6503500000000031</v>
+        <v>1.4742099999999994</v>
       </c>
       <c r="AD23">
-        <v>-6.2455699999999936</v>
+        <v>1.1668000000000021</v>
       </c>
       <c r="AE23">
-        <v>-5.1625500000000031</v>
+        <v>2.0413199999999918</v>
       </c>
       <c r="AF23">
-        <v>-2.9501300000000015</v>
+        <v>2.3897800000000018</v>
       </c>
       <c r="AG23">
-        <v>-1.508890000000001</v>
+        <v>3.1768099999999961</v>
       </c>
       <c r="AH23">
-        <v>0.24934999999999974</v>
+        <v>2.4692999999999969</v>
       </c>
       <c r="AI23">
-        <v>-0.98519999999999897</v>
+        <v>3.7571099999999973</v>
       </c>
       <c r="AJ23">
-        <v>-1.603190000000005</v>
+        <v>4.3974199999999968</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>27999</v>
+        <v>27975</v>
       </c>
       <c r="AA24">
-        <v>19.655459999999998</v>
+        <v>0.98406999999999556</v>
       </c>
       <c r="AB24">
-        <v>20.145619999999994</v>
+        <v>-4.3749199999999959</v>
       </c>
       <c r="AC24">
-        <v>20.036209999999997</v>
+        <v>-17.771130000000007</v>
       </c>
       <c r="AD24">
-        <v>19.174690000000005</v>
+        <v>-16.344530000000006</v>
       </c>
       <c r="AE24">
-        <v>18.559649999999998</v>
+        <v>-18.088819999999998</v>
       </c>
       <c r="AF24">
-        <v>17.099569999999993</v>
+        <v>-0.12989999999999924</v>
       </c>
       <c r="AG24">
-        <v>17.263159999999999</v>
+        <v>9.6979599999999948</v>
       </c>
       <c r="AH24">
-        <v>18.186780000000006</v>
+        <v>21.267309999999995</v>
       </c>
       <c r="AI24">
-        <v>18.974819999999994</v>
+        <v>18.29504</v>
       </c>
       <c r="AJ24">
-        <v>19.097499999999997</v>
+        <v>8.1728099999999984</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>11485</v>
+        <v>36665</v>
       </c>
       <c r="AA25">
-        <v>7.5253900000000016</v>
+        <v>-2.0985800000000054</v>
       </c>
       <c r="AB25">
-        <v>6.6373800000000074</v>
+        <v>-3.4814800000000048</v>
       </c>
       <c r="AC25">
-        <v>5.8839199999999892</v>
+        <v>-3.9757999999999996</v>
       </c>
       <c r="AD25">
-        <v>4.9998800000000045</v>
+        <v>-4.4393600000000006</v>
       </c>
       <c r="AE25">
-        <v>4.6651300000000049</v>
+        <v>-4.3793300000000031</v>
       </c>
       <c r="AF25">
-        <v>5.1594699999999989</v>
+        <v>-4.5699199999999962</v>
       </c>
       <c r="AG25">
-        <v>4.1291999999999973</v>
+        <v>-5.0299900000000051</v>
       </c>
       <c r="AH25">
-        <v>4.3885099999999966</v>
+        <v>-5.8536900000000003</v>
       </c>
       <c r="AI25">
-        <v>5.801959999999994</v>
+        <v>-4.7135499999999979</v>
       </c>
       <c r="AJ25">
-        <v>7.7599400000000003</v>
+        <v>-3.0121199999999959</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>26115</v>
+        <v>27997</v>
       </c>
       <c r="AA26">
-        <v>2.015749999999997</v>
+        <v>0.21105000000000018</v>
       </c>
       <c r="AB26">
-        <v>1.7645099999999942</v>
+        <v>-1.5837699999999941</v>
       </c>
       <c r="AC26">
-        <v>0.14249999999999829</v>
+        <v>-1.6325300000000027</v>
       </c>
       <c r="AD26">
-        <v>-0.78331000000000017</v>
+        <v>-3.627830000000003</v>
       </c>
       <c r="AE26">
-        <v>0.85604000000000013</v>
+        <v>-8.3976199999999963</v>
       </c>
       <c r="AF26">
-        <v>-0.41743000000000308</v>
+        <v>-1.8428100000000001</v>
       </c>
       <c r="AG26">
-        <v>-0.44274999999999665</v>
+        <v>-1.7058900000000037</v>
       </c>
       <c r="AH26">
-        <v>-0.25926999999999367</v>
+        <v>-1.0001999999999995</v>
       </c>
       <c r="AI26">
-        <v>1.0078199999999953</v>
+        <v>-0.35125000000000028</v>
       </c>
       <c r="AJ26">
-        <v>1.7695099999999968</v>
+        <v>1.3601000000000028</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26114</v>
+        <v>11256</v>
       </c>
       <c r="AA27">
-        <v>1.8537099999999924</v>
+        <v>-8.303219999999996</v>
       </c>
       <c r="AB27">
-        <v>0.52854999999999563</v>
+        <v>-5.8834000000000017</v>
       </c>
       <c r="AC27">
-        <v>9.5000000000311502E-4</v>
+        <v>-12.102419999999995</v>
       </c>
       <c r="AD27">
-        <v>-2.1983800000000073</v>
+        <v>-18.330629999999999</v>
       </c>
       <c r="AE27">
-        <v>-1.5322000000000031</v>
+        <v>-17.079090000000001</v>
       </c>
       <c r="AF27">
-        <v>6.2263599999999997</v>
+        <v>-27.717410000000001</v>
       </c>
       <c r="AG27">
-        <v>12.310140000000004</v>
+        <v>-17.596719999999998</v>
       </c>
       <c r="AH27">
-        <v>20.028469999999999</v>
+        <v>-7.0438100000000006</v>
       </c>
       <c r="AI27">
-        <v>10.012259999999998</v>
+        <v>-0.76148000000000593</v>
       </c>
       <c r="AJ27">
-        <v>6.8035600000000045</v>
+        <v>1.8254999999999981</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>11436</v>
+        <v>26126</v>
       </c>
       <c r="AA28">
-        <v>69.758859999999999</v>
+        <v>-12.728719999999996</v>
       </c>
       <c r="AB28">
-        <v>69.436689999999999</v>
+        <v>-13.345840000000003</v>
       </c>
       <c r="AC28">
-        <v>69.002679999999998</v>
+        <v>-12.391169999999995</v>
       </c>
       <c r="AD28">
-        <v>69.062539999999998</v>
+        <v>-11.312930000000001</v>
       </c>
       <c r="AE28">
-        <v>68.665549999999996</v>
+        <v>-11.582059999999998</v>
       </c>
       <c r="AF28">
-        <v>68.394099999999995</v>
+        <v>-9.2935699999999954</v>
       </c>
       <c r="AG28">
-        <v>68.498840000000001</v>
+        <v>-3.4142699999999948</v>
       </c>
       <c r="AH28">
-        <v>68.608590000000007</v>
+        <v>-5.3952900000000028</v>
       </c>
       <c r="AI28">
-        <v>68.987160000000003</v>
+        <v>-7.0753900000000058</v>
       </c>
       <c r="AJ28">
-        <v>69.753159999999994</v>
+        <v>-4.3881000000000014</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>11181</v>
+        <v>11341</v>
       </c>
       <c r="AA29">
-        <v>-12.373870000000004</v>
+        <v>5.0517699999999905</v>
       </c>
       <c r="AB29">
-        <v>-11.154709999999994</v>
+        <v>5.9128699999999981</v>
       </c>
       <c r="AC29">
-        <v>-15.777999999999999</v>
+        <v>3.4627100000000013</v>
       </c>
       <c r="AD29">
-        <v>-8.2942700000000045</v>
+        <v>2.5297099999999944</v>
       </c>
       <c r="AE29">
-        <v>-10.21161</v>
+        <v>5.1176300000000055</v>
       </c>
       <c r="AF29">
-        <v>-19.379930000000002</v>
+        <v>7.629170000000002</v>
       </c>
       <c r="AG29">
-        <v>-25.599080000000001</v>
+        <v>7.4782900000000012</v>
       </c>
       <c r="AH29">
-        <v>-12.538270000000004</v>
+        <v>5.7387300000000039</v>
       </c>
       <c r="AI29">
-        <v>-10.221080000000001</v>
+        <v>6.8829099999999954</v>
       </c>
       <c r="AJ29">
-        <v>-3.7222999999999971</v>
+        <v>6.1588600000000042</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>36675</v>
+        <v>11456</v>
       </c>
       <c r="AA30">
-        <v>-2.8603300000000047</v>
+        <v>10.533250000000002</v>
       </c>
       <c r="AB30">
-        <v>-4.9575499999999977</v>
+        <v>10.204069999999994</v>
       </c>
       <c r="AC30">
-        <v>-5.2865699999999975</v>
+        <v>9.9988600000000005</v>
       </c>
       <c r="AD30">
-        <v>-5.9890300000000067</v>
+        <v>9.3898999999999972</v>
       </c>
       <c r="AE30">
-        <v>-6.0376699999999985</v>
+        <v>9.8537600000000012</v>
       </c>
       <c r="AF30">
-        <v>-6.7141900000000021</v>
+        <v>15.174030000000002</v>
       </c>
       <c r="AG30">
-        <v>-6.1428300000000036</v>
+        <v>17.459389999999999</v>
       </c>
       <c r="AH30">
-        <v>-6.1681800000000067</v>
+        <v>19.49324</v>
       </c>
       <c r="AI30">
-        <v>-5.3041300000000078</v>
+        <v>16.157159999999998</v>
       </c>
       <c r="AJ30">
-        <v>-4.575019999999995</v>
+        <v>17.790030000000002</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>26120</v>
+        <v>28006</v>
       </c>
       <c r="AA31">
-        <v>-22.442240000000002</v>
+        <v>1.5934099999999987</v>
       </c>
       <c r="AB31">
-        <v>-22.543150000000001</v>
+        <v>1.163090000000004</v>
       </c>
       <c r="AC31">
-        <v>-22.579350000000002</v>
+        <v>-0.5203599999999966</v>
       </c>
       <c r="AD31">
-        <v>-22.557559999999999</v>
+        <v>-1.864530000000002</v>
       </c>
       <c r="AE31">
-        <v>-22.596109999999996</v>
+        <v>-0.53444000000000358</v>
       </c>
       <c r="AF31">
-        <v>-22.753459999999997</v>
+        <v>-0.9673000000000016</v>
       </c>
       <c r="AG31">
-        <v>-22.86805</v>
+        <v>-0.53704000000000462</v>
       </c>
       <c r="AH31">
-        <v>-22.771690000000003</v>
+        <v>-1.0307999999999993</v>
       </c>
       <c r="AI31">
-        <v>-22.589740000000003</v>
+        <v>-0.88429000000000002</v>
       </c>
       <c r="AJ31">
-        <v>-22.10012</v>
+        <v>0.9532999999999987</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>11088</v>
+        <v>12101</v>
       </c>
       <c r="AA32">
-        <v>9.3398499999999984</v>
+        <v>43.637079999999997</v>
       </c>
       <c r="AB32">
-        <v>8.7482100000000003</v>
+        <v>43.609949999999998</v>
       </c>
       <c r="AC32">
-        <v>7.706230000000005</v>
+        <v>43.145559999999996</v>
       </c>
       <c r="AD32">
-        <v>7.2364699999999971</v>
+        <v>43.115780000000001</v>
       </c>
       <c r="AE32">
-        <v>7.0194099999999935</v>
+        <v>43.360820000000004</v>
       </c>
       <c r="AF32">
-        <v>8.307469999999995</v>
+        <v>43.139449999999997</v>
       </c>
       <c r="AG32">
-        <v>5.9174300000000102</v>
+        <v>43.199449999999999</v>
       </c>
       <c r="AH32">
-        <v>6.7164700000000011</v>
+        <v>43.445609999999995</v>
       </c>
       <c r="AI32">
-        <v>9.4319500000000005</v>
+        <v>43.348480000000002</v>
       </c>
       <c r="AJ32">
-        <v>10.112399999999994</v>
+        <v>44.212490000000003</v>
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>11383</v>
+        <v>36664</v>
       </c>
       <c r="AA33">
-        <v>-2.3049900000000036</v>
+        <v>-0.55143000000000342</v>
       </c>
       <c r="AB33">
-        <v>-1.9957300000000018</v>
+        <v>-1.8645099999999957</v>
       </c>
       <c r="AC33">
-        <v>-4.2531900000000036</v>
+        <v>8.82000000000005E-2</v>
       </c>
       <c r="AD33">
-        <v>-8.084699999999998</v>
+        <v>3.0771099999999976</v>
       </c>
       <c r="AE33">
-        <v>-9.7312900000000013</v>
+        <v>2.693950000000001</v>
       </c>
       <c r="AF33">
-        <v>-3.731669999999994</v>
+        <v>9.4194099999999992</v>
       </c>
       <c r="AG33">
-        <v>-5.8456599999999952</v>
+        <v>11.327849999999998</v>
       </c>
       <c r="AH33">
-        <v>5.4783199999999965</v>
+        <v>8.5725400000000036</v>
       </c>
       <c r="AI33">
-        <v>6.9684099999999987</v>
+        <v>7.6738500000000016</v>
       </c>
       <c r="AJ33">
-        <v>5.6328400000000016</v>
+        <v>6.1145199999999988</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>36666</v>
+        <v>26114</v>
       </c>
       <c r="AA34">
-        <v>-5.3786500000000004</v>
+        <v>1.8537099999999924</v>
       </c>
       <c r="AB34">
-        <v>-6.3015499999999989</v>
+        <v>0.52854999999999563</v>
       </c>
       <c r="AC34">
-        <v>-7.1595800000000054</v>
+        <v>9.5000000000311502E-4</v>
       </c>
       <c r="AD34">
-        <v>-6.6094399999999993</v>
+        <v>-2.1983800000000073</v>
       </c>
       <c r="AE34">
-        <v>-6.5128500000000003</v>
+        <v>-1.5322000000000031</v>
       </c>
       <c r="AF34">
-        <v>-3.2865699999999975</v>
+        <v>6.2263599999999997</v>
       </c>
       <c r="AG34">
-        <v>1.1824000000000012</v>
+        <v>12.310140000000004</v>
       </c>
       <c r="AH34">
-        <v>1.7078500000000005</v>
+        <v>20.028469999999999</v>
       </c>
       <c r="AI34">
-        <v>-0.16346999999999667</v>
+        <v>10.012259999999998</v>
       </c>
       <c r="AJ34">
-        <v>1.290469999999992</v>
+        <v>6.8035600000000045</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>11268</v>
+        <v>28013</v>
       </c>
       <c r="AA35">
-        <v>-3.7015499999999975</v>
+        <v>0.58600000000000563</v>
       </c>
       <c r="AB35">
-        <v>-4.8134099999999975</v>
+        <v>-1.2289800000000071</v>
       </c>
       <c r="AC35">
-        <v>-4.9698899999999995</v>
+        <v>-1.0609599999999944</v>
       </c>
       <c r="AD35">
-        <v>-6.4652400000000014</v>
+        <v>-1.3744900000000015</v>
       </c>
       <c r="AE35">
-        <v>-6.5636300000000034</v>
+        <v>-1.7129800000000017</v>
       </c>
       <c r="AF35">
-        <v>-6.2177000000000007</v>
+        <v>-0.40611999999999426</v>
       </c>
       <c r="AG35">
-        <v>-6.3569499999999977</v>
+        <v>-0.33104000000000156</v>
       </c>
       <c r="AH35">
-        <v>-5.9085499999999982</v>
+        <v>-6.1319999999994934E-2</v>
       </c>
       <c r="AI35">
-        <v>-8.0285500000000027</v>
+        <v>-0.33036999999999495</v>
       </c>
       <c r="AJ35">
-        <v>-5.803919999999998</v>
+        <v>-0.19598000000000582</v>
       </c>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>26126</v>
+        <v>36668</v>
       </c>
       <c r="AA36">
-        <v>-5.0694000000000017</v>
+        <v>-9.3159599999999969</v>
       </c>
       <c r="AB36">
-        <v>-4.8285300000000078</v>
+        <v>-11.521349999999998</v>
       </c>
       <c r="AC36">
-        <v>-4.1748599999999954</v>
+        <v>-13.845930000000003</v>
       </c>
       <c r="AD36">
-        <v>-5.8125300000000024</v>
+        <v>-13.453189999999999</v>
       </c>
       <c r="AE36">
-        <v>-0.30366999999999678</v>
+        <v>-13.864980000000003</v>
       </c>
       <c r="AF36">
-        <v>8.3652900000000017</v>
+        <v>-12.125269999999993</v>
       </c>
       <c r="AG36">
-        <v>13.243690000000001</v>
+        <v>-10.709180000000003</v>
       </c>
       <c r="AH36">
-        <v>10.131730000000005</v>
+        <v>-12.173299999999998</v>
       </c>
       <c r="AI36">
-        <v>7.5103800000000049</v>
+        <v>-13.076560000000001</v>
       </c>
       <c r="AJ36">
-        <v>4.3202500000000015</v>
+        <v>-9.9630199999999931</v>
       </c>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>28013</v>
+        <v>28016</v>
       </c>
       <c r="AA37">
-        <v>0.58600000000000563</v>
+        <v>7.4068500000000057</v>
       </c>
       <c r="AB37">
-        <v>-1.2289800000000071</v>
+        <v>6.5093200000000024</v>
       </c>
       <c r="AC37">
-        <v>-1.0609599999999944</v>
+        <v>4.526680000000006</v>
       </c>
       <c r="AD37">
-        <v>-1.3744900000000015</v>
+        <v>4.3068099999999987</v>
       </c>
       <c r="AE37">
-        <v>-1.7129800000000017</v>
+        <v>3.7112300000000076</v>
       </c>
       <c r="AF37">
-        <v>-0.40611999999999426</v>
+        <v>4.3758300000000077</v>
       </c>
       <c r="AG37">
-        <v>-0.33104000000000156</v>
+        <v>4.3130499999999969</v>
       </c>
       <c r="AH37">
-        <v>-6.1319999999994934E-2</v>
+        <v>4.9876000000000005</v>
       </c>
       <c r="AI37">
-        <v>-0.33036999999999495</v>
+        <v>5.3455500000000029</v>
       </c>
       <c r="AJ37">
-        <v>-0.19598000000000582</v>
+        <v>5.5441500000000019</v>
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>11182</v>
+        <v>11436</v>
       </c>
       <c r="AA38">
-        <v>6.4774599999999936</v>
+        <v>69.758859999999999</v>
       </c>
       <c r="AB38">
-        <v>-0.38116999999999734</v>
+        <v>69.436689999999999</v>
       </c>
       <c r="AC38">
-        <v>2.2950099999999907</v>
+        <v>69.002679999999998</v>
       </c>
       <c r="AD38">
-        <v>0.94656999999999414</v>
+        <v>69.062539999999998</v>
       </c>
       <c r="AE38">
-        <v>1.3876400000000046</v>
+        <v>68.665549999999996</v>
       </c>
       <c r="AF38">
-        <v>1.8642199999999889</v>
+        <v>68.394099999999995</v>
       </c>
       <c r="AG38">
-        <v>1.1823300000000074</v>
+        <v>68.498840000000001</v>
       </c>
       <c r="AH38">
-        <v>1.0862000000000052</v>
+        <v>68.608590000000007</v>
       </c>
       <c r="AI38">
-        <v>1.3648199999999946</v>
+        <v>68.987160000000003</v>
       </c>
       <c r="AJ38">
-        <v>2.576580000000007</v>
+        <v>69.753159999999994</v>
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>11181</v>
+        <v>11208</v>
       </c>
       <c r="AA39">
-        <v>1.0105699999999942</v>
+        <v>59.501130000000003</v>
       </c>
       <c r="AB39">
-        <v>1.6896699999999925</v>
+        <v>59.380990000000004</v>
       </c>
       <c r="AC39">
-        <v>0.24343999999999966</v>
+        <v>58.970359999999999</v>
       </c>
       <c r="AD39">
-        <v>0.48716999999999189</v>
+        <v>58.880299999999998</v>
       </c>
       <c r="AE39">
-        <v>1.1647400000000019</v>
+        <v>58.867509999999996</v>
       </c>
       <c r="AF39">
-        <v>-9.3207700000000031</v>
+        <v>58.858990000000006</v>
       </c>
       <c r="AG39">
-        <v>-10.99971</v>
+        <v>59.05856</v>
       </c>
       <c r="AH39">
-        <v>1.5190800000000024</v>
+        <v>59.136049999999997</v>
       </c>
       <c r="AI39">
-        <v>5.7684099999999958</v>
+        <v>59.152919999999995</v>
       </c>
       <c r="AJ39">
-        <v>8.3374499999999969</v>
+        <v>59.407890000000002</v>
       </c>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>26126</v>
+        <v>26125</v>
       </c>
       <c r="AA40">
-        <v>-12.728719999999996</v>
+        <v>-10.456600000000002</v>
       </c>
       <c r="AB40">
-        <v>-13.345840000000003</v>
+        <v>-12.941800000000001</v>
       </c>
       <c r="AC40">
-        <v>-12.391169999999995</v>
+        <v>-11.711509999999997</v>
       </c>
       <c r="AD40">
-        <v>-11.312930000000001</v>
+        <v>-10.214099999999998</v>
       </c>
       <c r="AE40">
-        <v>-11.582059999999998</v>
+        <v>-12.415640000000003</v>
       </c>
       <c r="AF40">
-        <v>-9.2935699999999954</v>
+        <v>-11.537770000000002</v>
       </c>
       <c r="AG40">
-        <v>-3.4142699999999948</v>
+        <v>-12.938640000000003</v>
       </c>
       <c r="AH40">
-        <v>-5.3952900000000028</v>
+        <v>-12.413979999999999</v>
       </c>
       <c r="AI40">
-        <v>-7.0753900000000058</v>
+        <v>-10.24868</v>
       </c>
       <c r="AJ40">
-        <v>-4.3881000000000014</v>
+        <v>-12.449240000000003</v>
       </c>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>11254</v>
+        <v>36669</v>
       </c>
       <c r="AA41">
-        <v>7.442930000000004</v>
+        <v>-18.895229999999998</v>
       </c>
       <c r="AB41">
-        <v>5.590209999999999</v>
+        <v>-17.552859999999995</v>
       </c>
       <c r="AC41">
-        <v>5.7052400000000034</v>
+        <v>-19.593670000000003</v>
       </c>
       <c r="AD41">
-        <v>5.5283100000000047</v>
+        <v>-20.271790000000003</v>
       </c>
       <c r="AE41">
-        <v>5.0120100000000036</v>
+        <v>-18.53537</v>
       </c>
       <c r="AF41">
-        <v>5.3081999999999994</v>
+        <v>-19.402149999999999</v>
       </c>
       <c r="AG41">
-        <v>3.703559999999996</v>
+        <v>-18.343200000000003</v>
       </c>
       <c r="AH41">
-        <v>4.5289199999999994</v>
+        <v>-19.561170000000004</v>
       </c>
       <c r="AI41">
-        <v>6.7412000000000063</v>
+        <v>-16.907800000000002</v>
       </c>
       <c r="AJ41">
-        <v>6.9970699999999937</v>
+        <v>-18.280709999999999</v>
       </c>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>32464</v>
+        <v>27986</v>
       </c>
       <c r="AA42">
-        <v>46.843859999999999</v>
+        <v>2.008899999999997</v>
       </c>
       <c r="AB42">
-        <v>45.948209999999996</v>
+        <v>-2.2007900000000049</v>
       </c>
       <c r="AC42">
-        <v>45.08361</v>
+        <v>-2.1223699999999965</v>
       </c>
       <c r="AD42">
-        <v>45.340330000000002</v>
+        <v>-0.47944999999999993</v>
       </c>
       <c r="AE42">
-        <v>43.780359999999995</v>
+        <v>0.9432599999999951</v>
       </c>
       <c r="AF42">
-        <v>44.14958</v>
+        <v>-0.44066999999999723</v>
       </c>
       <c r="AG42">
-        <v>43.588209999999997</v>
+        <v>-1.8171999999999997</v>
       </c>
       <c r="AH42">
-        <v>44.42736</v>
+        <v>0.75721999999999667</v>
       </c>
       <c r="AI42">
-        <v>44.121009999999998</v>
+        <v>0.49104000000000525</v>
       </c>
       <c r="AJ42">
-        <v>47.054470000000002</v>
+        <v>2.7505600000000001</v>
       </c>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>26116</v>
+        <v>11181</v>
       </c>
       <c r="AA43">
-        <v>47.496659999999999</v>
+        <v>1.0105699999999942</v>
       </c>
       <c r="AB43">
-        <v>47.124320000000004</v>
+        <v>1.6896699999999925</v>
       </c>
       <c r="AC43">
-        <v>46.49221</v>
+        <v>0.24343999999999966</v>
       </c>
       <c r="AD43">
-        <v>46.39864</v>
+        <v>0.48716999999999189</v>
       </c>
       <c r="AE43">
-        <v>45.330090000000006</v>
+        <v>1.1647400000000019</v>
       </c>
       <c r="AF43">
-        <v>45.941699999999997</v>
+        <v>-9.3207700000000031</v>
       </c>
       <c r="AG43">
-        <v>45.66516</v>
+        <v>-10.99971</v>
       </c>
       <c r="AH43">
-        <v>46.191859999999998</v>
+        <v>1.5190800000000024</v>
       </c>
       <c r="AI43">
-        <v>45.603380000000001</v>
+        <v>5.7684099999999958</v>
       </c>
       <c r="AJ43">
-        <v>46.97963</v>
+        <v>8.3374499999999969</v>
       </c>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>27997</v>
+        <v>11415</v>
       </c>
       <c r="AA44">
-        <v>0.21105000000000018</v>
+        <v>50.867719999999998</v>
       </c>
       <c r="AB44">
-        <v>-1.5837699999999941</v>
+        <v>49.241869999999999</v>
       </c>
       <c r="AC44">
-        <v>-1.6325300000000027</v>
+        <v>47.88841</v>
       </c>
       <c r="AD44">
-        <v>-3.627830000000003</v>
+        <v>49.62265</v>
       </c>
       <c r="AE44">
-        <v>-8.3976199999999963</v>
+        <v>49.256909999999998</v>
       </c>
       <c r="AF44">
-        <v>-1.8428100000000001</v>
+        <v>48.228359999999995</v>
       </c>
       <c r="AG44">
-        <v>-1.7058900000000037</v>
+        <v>47.199059999999996</v>
       </c>
       <c r="AH44">
-        <v>-1.0001999999999995</v>
+        <v>48.514809999999997</v>
       </c>
       <c r="AI44">
-        <v>-0.35125000000000028</v>
+        <v>46.332450000000001</v>
       </c>
       <c r="AJ44">
-        <v>1.3601000000000028</v>
+        <v>50.449719999999999</v>
       </c>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>38806</v>
+        <v>26129</v>
       </c>
       <c r="AA45">
-        <v>-1.5539999999999949</v>
+        <v>-3.206389999999999</v>
       </c>
       <c r="AB45">
-        <v>-3.7164500000000018</v>
+        <v>-3.9872099999999975</v>
       </c>
       <c r="AC45">
-        <v>-4.6717199999999934</v>
+        <v>-4.9303699999999964</v>
       </c>
       <c r="AD45">
-        <v>-5.6412499999999994</v>
+        <v>-4.9788599999999974</v>
       </c>
       <c r="AE45">
-        <v>-5.3373300000000015</v>
+        <v>-5.6937800000000038</v>
       </c>
       <c r="AF45">
-        <v>-5.5470900000000043</v>
+        <v>-5.653330000000004</v>
       </c>
       <c r="AG45">
-        <v>-5.7366400000000013</v>
+        <v>-5.5425599999999946</v>
       </c>
       <c r="AH45">
-        <v>-5.5629599999999968</v>
+        <v>-4.8259599999999949</v>
       </c>
       <c r="AI45">
-        <v>-4.6665500000000009</v>
+        <v>-4.3869199999999964</v>
       </c>
       <c r="AJ45">
-        <v>-2.473869999999998</v>
+        <v>-2.2679800000000085</v>
       </c>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>11153</v>
+        <v>27999</v>
       </c>
       <c r="AA46">
-        <v>-7.828569999999992</v>
+        <v>6.2054800000000014</v>
       </c>
       <c r="AB46">
-        <v>-5.9259599999999963</v>
+        <v>3.5176999999999978</v>
       </c>
       <c r="AC46">
-        <v>-12.254530000000003</v>
+        <v>3.4885400000000004</v>
       </c>
       <c r="AD46">
-        <v>-14.960290000000001</v>
+        <v>0.83153000000000787</v>
       </c>
       <c r="AE46">
-        <v>-15.751220000000004</v>
+        <v>0.77080999999999733</v>
       </c>
       <c r="AF46">
-        <v>-24.102550000000001</v>
+        <v>3.9506500000000031</v>
       </c>
       <c r="AG46">
-        <v>-17.191890000000001</v>
+        <v>4.5021699999999925</v>
       </c>
       <c r="AH46">
-        <v>-11.138840000000002</v>
+        <v>4.5328400000000002</v>
       </c>
       <c r="AI46">
-        <v>-7.4106900000000024</v>
+        <v>5.7559199999999962</v>
       </c>
       <c r="AJ46">
-        <v>-3.2835400000000021</v>
+        <v>7.9063900000000018</v>
       </c>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>27998</v>
+        <v>27985</v>
       </c>
       <c r="AA47">
-        <v>4.3825400000000059</v>
+        <v>4.7270599999999945</v>
       </c>
       <c r="AB47">
-        <v>2.468910000000001</v>
+        <v>3.7395400000000052</v>
       </c>
       <c r="AC47">
-        <v>1.4742099999999994</v>
+        <v>3.2152900000000031</v>
       </c>
       <c r="AD47">
-        <v>1.1668000000000021</v>
+        <v>2.4536999999999978</v>
       </c>
       <c r="AE47">
-        <v>2.0413199999999918</v>
+        <v>2.7599000000000018</v>
       </c>
       <c r="AF47">
-        <v>2.3897800000000018</v>
+        <v>3.2860800000000054</v>
       </c>
       <c r="AG47">
-        <v>3.1768099999999961</v>
+        <v>3.9787300000000059</v>
       </c>
       <c r="AH47">
-        <v>2.4692999999999969</v>
+        <v>3.1709900000000033</v>
       </c>
       <c r="AI47">
-        <v>3.7571099999999973</v>
+        <v>4.2747300000000052</v>
       </c>
       <c r="AJ47">
-        <v>4.3974199999999968</v>
+        <v>6.698360000000001</v>
       </c>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>28016</v>
+        <v>11302</v>
       </c>
       <c r="AA48">
-        <v>7.4068500000000057</v>
+        <v>-0.31048000000000542</v>
       </c>
       <c r="AB48">
-        <v>6.5093200000000024</v>
+        <v>-3.0025400000000033</v>
       </c>
       <c r="AC48">
-        <v>4.526680000000006</v>
+        <v>-3.9570300000000032</v>
       </c>
       <c r="AD48">
-        <v>4.3068099999999987</v>
+        <v>-5.2165900000000036</v>
       </c>
       <c r="AE48">
-        <v>3.7112300000000076</v>
+        <v>-4.7776599999999974</v>
       </c>
       <c r="AF48">
-        <v>4.3758300000000077</v>
+        <v>-4.616109999999999</v>
       </c>
       <c r="AG48">
-        <v>4.3130499999999969</v>
+        <v>-4.0497399999999999</v>
       </c>
       <c r="AH48">
-        <v>4.9876000000000005</v>
+        <v>-4.590919999999997</v>
       </c>
       <c r="AI48">
-        <v>5.3455500000000029</v>
+        <v>-4.1666000000000025</v>
       </c>
       <c r="AJ48">
-        <v>5.5441500000000019</v>
+        <v>-3.5561500000000024</v>
       </c>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>27986</v>
+        <v>11158</v>
       </c>
       <c r="AA49">
-        <v>2.008899999999997</v>
+        <v>-17.599249999999998</v>
       </c>
       <c r="AB49">
-        <v>-2.2007900000000049</v>
+        <v>-19.699369999999995</v>
       </c>
       <c r="AC49">
-        <v>-2.1223699999999965</v>
+        <v>-20.712249999999997</v>
       </c>
       <c r="AD49">
-        <v>-0.47944999999999993</v>
+        <v>-21.977990000000005</v>
       </c>
       <c r="AE49">
-        <v>0.9432599999999951</v>
+        <v>-20.833449999999999</v>
       </c>
       <c r="AF49">
-        <v>-0.44066999999999723</v>
+        <v>-19.456600000000002</v>
       </c>
       <c r="AG49">
-        <v>-1.8171999999999997</v>
+        <v>-20.44876</v>
       </c>
       <c r="AH49">
-        <v>0.75721999999999667</v>
+        <v>-21.239049999999999</v>
       </c>
       <c r="AI49">
-        <v>0.49104000000000525</v>
+        <v>-17.42306</v>
       </c>
       <c r="AJ49">
-        <v>2.7505600000000001</v>
+        <v>-18.083559999999999</v>
       </c>
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>12101</v>
+        <v>36667</v>
       </c>
       <c r="AA50">
-        <v>43.637079999999997</v>
+        <v>-8.7982000000000014</v>
       </c>
       <c r="AB50">
-        <v>43.609949999999998</v>
+        <v>-10.460760000000001</v>
       </c>
       <c r="AC50">
-        <v>43.145559999999996</v>
+        <v>-11.417299999999997</v>
       </c>
       <c r="AD50">
-        <v>43.115780000000001</v>
+        <v>-12.409790000000001</v>
       </c>
       <c r="AE50">
-        <v>43.360820000000004</v>
+        <v>-12.83569</v>
       </c>
       <c r="AF50">
-        <v>43.139449999999997</v>
+        <v>-12.806130000000003</v>
       </c>
       <c r="AG50">
-        <v>43.199449999999999</v>
+        <v>-13.996069999999996</v>
       </c>
       <c r="AH50">
-        <v>43.445609999999995</v>
+        <v>-14.049430000000008</v>
       </c>
       <c r="AI50">
-        <v>43.348480000000002</v>
+        <v>-13.672880000000006</v>
       </c>
       <c r="AJ50">
-        <v>44.212490000000003</v>
+        <v>-12.240990000000004</v>
       </c>
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>27999</v>
+        <v>26120</v>
       </c>
       <c r="AA51">
-        <v>6.2054800000000014</v>
+        <v>-22.442240000000002</v>
       </c>
       <c r="AB51">
-        <v>3.5176999999999978</v>
+        <v>-22.543150000000001</v>
       </c>
       <c r="AC51">
-        <v>3.4885400000000004</v>
+        <v>-22.579350000000002</v>
       </c>
       <c r="AD51">
-        <v>0.83153000000000787</v>
+        <v>-22.557559999999999</v>
       </c>
       <c r="AE51">
-        <v>0.77080999999999733</v>
+        <v>-22.596109999999996</v>
       </c>
       <c r="AF51">
-        <v>3.9506500000000031</v>
+        <v>-22.753459999999997</v>
       </c>
       <c r="AG51">
-        <v>4.5021699999999925</v>
+        <v>-22.86805</v>
       </c>
       <c r="AH51">
-        <v>4.5328400000000002</v>
+        <v>-22.771690000000003</v>
       </c>
       <c r="AI51">
-        <v>5.7559199999999962</v>
+        <v>-22.589740000000003</v>
       </c>
       <c r="AJ51">
-        <v>7.9063900000000018</v>
+        <v>-22.10012</v>
       </c>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>26115</v>
+        <v>11268</v>
       </c>
       <c r="AA52">
-        <v>-5.3103599999999958</v>
+        <v>-3.7015499999999975</v>
       </c>
       <c r="AB52">
-        <v>-4.6680300000000017</v>
+        <v>-4.8134099999999975</v>
       </c>
       <c r="AC52">
-        <v>-5.8385499999999979</v>
+        <v>-4.9698899999999995</v>
       </c>
       <c r="AD52">
-        <v>-3.6104400000000041</v>
+        <v>-6.4652400000000014</v>
       </c>
       <c r="AE52">
-        <v>-6.1669800000000023</v>
+        <v>-6.5636300000000034</v>
       </c>
       <c r="AF52">
-        <v>-8.3895099999999942</v>
+        <v>-6.2177000000000007</v>
       </c>
       <c r="AG52">
-        <v>-10.584030000000006</v>
+        <v>-6.3569499999999977</v>
       </c>
       <c r="AH52">
-        <v>-6.541569999999993</v>
+        <v>-5.9085499999999982</v>
       </c>
       <c r="AI52">
-        <v>-7.7676699999999954</v>
+        <v>-8.0285500000000027</v>
       </c>
       <c r="AJ52">
-        <v>-7.9693100000000001</v>
+        <v>-5.803919999999998</v>
       </c>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>36674</v>
+        <v>11085</v>
       </c>
       <c r="AA53">
-        <v>56.449180000000005</v>
+        <v>-2.2928400000000053</v>
       </c>
       <c r="AB53">
-        <v>55.725290000000001</v>
+        <v>28.665369999999996</v>
       </c>
       <c r="AC53">
-        <v>49.999690000000001</v>
+        <v>10.508869999999995</v>
       </c>
       <c r="AD53">
-        <v>48.893329999999999</v>
+        <v>14.025469999999999</v>
       </c>
       <c r="AE53">
-        <v>47.310229999999997</v>
+        <v>-1.1989300000000043</v>
       </c>
       <c r="AF53">
-        <v>43.839859999999994</v>
+        <v>-1.5</v>
       </c>
       <c r="AG53">
-        <v>40.255759999999995</v>
+        <v>14.355159999999998</v>
       </c>
       <c r="AH53">
-        <v>40.13147</v>
+        <v>-2.9738900000000044</v>
       </c>
       <c r="AI53">
-        <v>39.602129999999995</v>
+        <v>-3.2004699999999957</v>
       </c>
       <c r="AJ53">
-        <v>42.633490000000002</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>11085</v>
+        <v>27983</v>
       </c>
       <c r="AA54">
-        <v>-2.2928400000000053</v>
+        <v>-1.5334099999999964</v>
       </c>
       <c r="AB54">
-        <v>28.665369999999996</v>
+        <v>-4.276219999999995</v>
       </c>
       <c r="AC54">
-        <v>10.508869999999995</v>
+        <v>-6.1851699999999923</v>
       </c>
       <c r="AD54">
-        <v>14.025469999999999</v>
+        <v>-6.1276599999999988</v>
       </c>
       <c r="AE54">
-        <v>-1.1989300000000043</v>
+        <v>-7.0916500000000013</v>
       </c>
       <c r="AF54">
-        <v>-1.5</v>
+        <v>-6.3664899999999989</v>
       </c>
       <c r="AG54">
-        <v>14.355159999999998</v>
+        <v>6.2969099999999969</v>
       </c>
       <c r="AH54">
-        <v>-2.9738900000000044</v>
+        <v>13.984130000000007</v>
       </c>
       <c r="AI54">
-        <v>-3.2004699999999957</v>
+        <v>6.9287500000000009</v>
       </c>
       <c r="AJ54">
-        <v>-3</v>
+        <v>6.212619999999994</v>
       </c>
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>27984</v>
+        <v>11290</v>
       </c>
       <c r="AA55">
-        <v>32.771080000000005</v>
+        <v>-8.8260199999999998</v>
       </c>
       <c r="AB55">
-        <v>31.611080000000001</v>
+        <v>-7.5041299999999964</v>
       </c>
       <c r="AC55">
-        <v>27.852090000000004</v>
+        <v>-8.5319199999999995</v>
       </c>
       <c r="AD55">
-        <v>28.225680000000004</v>
+        <v>-8.5572099999999978</v>
       </c>
       <c r="AE55">
-        <v>27.548310000000001</v>
+        <v>-8.0876499999999965</v>
       </c>
       <c r="AF55">
-        <v>26.659610000000001</v>
+        <v>-8.484250000000003</v>
       </c>
       <c r="AG55">
-        <v>27.662880000000001</v>
+        <v>-9.1637199999999979</v>
       </c>
       <c r="AH55">
-        <v>30.407609999999998</v>
+        <v>-8.3531599999999955</v>
       </c>
       <c r="AI55">
-        <v>31.284380000000006</v>
+        <v>-8.6678799999999967</v>
       </c>
       <c r="AJ55">
-        <v>33.307450000000003</v>
+        <v>-9.0984100000000012</v>
       </c>
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>36668</v>
+        <v>11088</v>
       </c>
       <c r="AA56">
-        <v>-9.3159599999999969</v>
+        <v>9.3398499999999984</v>
       </c>
       <c r="AB56">
-        <v>-11.521349999999998</v>
+        <v>8.7482100000000003</v>
       </c>
       <c r="AC56">
-        <v>-13.845930000000003</v>
+        <v>7.706230000000005</v>
       </c>
       <c r="AD56">
-        <v>-13.453189999999999</v>
+        <v>7.2364699999999971</v>
       </c>
       <c r="AE56">
-        <v>-13.864980000000003</v>
+        <v>7.0194099999999935</v>
       </c>
       <c r="AF56">
-        <v>-12.125269999999993</v>
+        <v>8.307469999999995</v>
       </c>
       <c r="AG56">
-        <v>-10.709180000000003</v>
+        <v>5.9174300000000102</v>
       </c>
       <c r="AH56">
-        <v>-12.173299999999998</v>
+        <v>6.7164700000000011</v>
       </c>
       <c r="AI56">
-        <v>-13.076560000000001</v>
+        <v>9.4319500000000005</v>
       </c>
       <c r="AJ56">
-        <v>-9.9630199999999931</v>
+        <v>10.112399999999994</v>
       </c>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>11306</v>
+        <v>38806</v>
       </c>
       <c r="AA57">
-        <v>33.830800000000004</v>
+        <v>-1.5539999999999949</v>
       </c>
       <c r="AB57">
-        <v>42.475499999999997</v>
+        <v>-3.7164500000000018</v>
       </c>
       <c r="AC57">
-        <v>35.710059999999999</v>
+        <v>-4.6717199999999934</v>
       </c>
       <c r="AD57">
-        <v>40.493470000000002</v>
+        <v>-5.6412499999999994</v>
       </c>
       <c r="AE57">
-        <v>38.83164</v>
+        <v>-5.3373300000000015</v>
       </c>
       <c r="AF57">
-        <v>35.415759999999999</v>
+        <v>-5.5470900000000043</v>
       </c>
       <c r="AG57">
-        <v>31.480990000000002</v>
+        <v>-5.7366400000000013</v>
       </c>
       <c r="AH57">
-        <v>30.612859999999998</v>
+        <v>-5.5629599999999968</v>
       </c>
       <c r="AI57">
-        <v>36.494240000000005</v>
+        <v>-4.6665500000000009</v>
       </c>
       <c r="AJ57">
-        <v>19.210379999999997</v>
+        <v>-2.473869999999998</v>
       </c>
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>36665</v>
+        <v>11254</v>
       </c>
       <c r="AA58">
-        <v>-2.0985800000000054</v>
+        <v>2.2047800000000066</v>
       </c>
       <c r="AB58">
-        <v>-3.4814800000000048</v>
+        <v>0.53775000000000261</v>
       </c>
       <c r="AC58">
-        <v>-3.9757999999999996</v>
+        <v>-0.51245999999999725</v>
       </c>
       <c r="AD58">
-        <v>-4.4393600000000006</v>
+        <v>-0.44415999999999656</v>
       </c>
       <c r="AE58">
-        <v>-4.3793300000000031</v>
+        <v>-0.30459000000000458</v>
       </c>
       <c r="AF58">
-        <v>-4.5699199999999962</v>
+        <v>-0.94958000000000453</v>
       </c>
       <c r="AG58">
-        <v>-5.0299900000000051</v>
+        <v>-3.0916699999999935</v>
       </c>
       <c r="AH58">
-        <v>-5.8536900000000003</v>
+        <v>-0.60888000000000631</v>
       </c>
       <c r="AI58">
-        <v>-4.7135499999999979</v>
+        <v>-1.2928899999999999</v>
       </c>
       <c r="AJ58">
-        <v>-3.0121199999999959</v>
+        <v>0.78250999999999493</v>
       </c>
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>11254</v>
+        <v>11153</v>
       </c>
       <c r="AA59">
-        <v>2.2047800000000066</v>
+        <v>-7.828569999999992</v>
       </c>
       <c r="AB59">
-        <v>0.53775000000000261</v>
+        <v>-5.9259599999999963</v>
       </c>
       <c r="AC59">
-        <v>-0.51245999999999725</v>
+        <v>-12.254530000000003</v>
       </c>
       <c r="AD59">
-        <v>-0.44415999999999656</v>
+        <v>-14.960290000000001</v>
       </c>
       <c r="AE59">
-        <v>-0.30459000000000458</v>
+        <v>-15.751220000000004</v>
       </c>
       <c r="AF59">
-        <v>-0.94958000000000453</v>
+        <v>-24.102550000000001</v>
       </c>
       <c r="AG59">
-        <v>-3.0916699999999935</v>
+        <v>-17.191890000000001</v>
       </c>
       <c r="AH59">
-        <v>-0.60888000000000631</v>
+        <v>-11.138840000000002</v>
       </c>
       <c r="AI59">
-        <v>-1.2928899999999999</v>
+        <v>-7.4106900000000024</v>
       </c>
       <c r="AJ59">
-        <v>0.78250999999999493</v>
+        <v>-3.2835400000000021</v>
       </c>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>11256</v>
+        <v>32464</v>
       </c>
       <c r="AA60">
-        <v>-8.303219999999996</v>
+        <v>46.843859999999999</v>
       </c>
       <c r="AB60">
-        <v>-5.8834000000000017</v>
+        <v>45.948209999999996</v>
       </c>
       <c r="AC60">
-        <v>-12.102419999999995</v>
+        <v>45.08361</v>
       </c>
       <c r="AD60">
-        <v>-18.330629999999999</v>
+        <v>45.340330000000002</v>
       </c>
       <c r="AE60">
-        <v>-17.079090000000001</v>
+        <v>43.780359999999995</v>
       </c>
       <c r="AF60">
-        <v>-27.717410000000001</v>
+        <v>44.14958</v>
       </c>
       <c r="AG60">
-        <v>-17.596719999999998</v>
+        <v>43.588209999999997</v>
       </c>
       <c r="AH60">
-        <v>-7.0438100000000006</v>
+        <v>44.42736</v>
       </c>
       <c r="AI60">
-        <v>-0.76148000000000593</v>
+        <v>44.121009999999998</v>
       </c>
       <c r="AJ60">
-        <v>1.8254999999999981</v>
+        <v>47.054470000000002</v>
       </c>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>11456</v>
+        <v>38805</v>
       </c>
       <c r="AA61">
-        <v>-0.48713000000000761</v>
+        <v>-10.094790000000003</v>
       </c>
       <c r="AB61">
-        <v>-1.6707199999999887</v>
+        <v>-11.179759999999995</v>
       </c>
       <c r="AC61">
-        <v>-1.6644100000000037</v>
+        <v>-11.835930000000005</v>
       </c>
       <c r="AD61">
-        <v>-3.9917000000000016</v>
+        <v>-12.343930000000007</v>
       </c>
       <c r="AE61">
-        <v>-3.1716499999999996</v>
+        <v>-12.551450000000003</v>
       </c>
       <c r="AF61">
-        <v>6.6604600000000005</v>
+        <v>-12.629559999999998</v>
       </c>
       <c r="AG61">
-        <v>8.5009900000000016</v>
+        <v>-12.715150000000001</v>
       </c>
       <c r="AH61">
-        <v>15.368449999999996</v>
+        <v>-12.073099999999997</v>
       </c>
       <c r="AI61">
-        <v>8.4690999999999974</v>
+        <v>-12.017869999999995</v>
       </c>
       <c r="AJ61">
-        <v>6.9305200000000013</v>
+        <v>-11.245759999999997</v>
       </c>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>36667</v>
+        <v>11289</v>
       </c>
       <c r="AA62">
-        <v>-8.7982000000000014</v>
+        <v>11.809730000000002</v>
       </c>
       <c r="AB62">
-        <v>-10.460760000000001</v>
+        <v>5.6717100000000045</v>
       </c>
       <c r="AC62">
-        <v>-11.417299999999997</v>
+        <v>4.7123399999999975</v>
       </c>
       <c r="AD62">
-        <v>-12.409790000000001</v>
+        <v>4.382559999999998</v>
       </c>
       <c r="AE62">
-        <v>-12.83569</v>
+        <v>4.3481699999999961</v>
       </c>
       <c r="AF62">
-        <v>-12.806130000000003</v>
+        <v>3.7703400000000045</v>
       </c>
       <c r="AG62">
-        <v>-13.996069999999996</v>
+        <v>3.3003900000000073</v>
       </c>
       <c r="AH62">
-        <v>-14.049430000000008</v>
+        <v>3.6001100000000008</v>
       </c>
       <c r="AI62">
-        <v>-13.672880000000006</v>
+        <v>4.7898899999999998</v>
       </c>
       <c r="AJ62">
-        <v>-12.240990000000004</v>
+        <v>6.0396400000000057</v>
       </c>
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>26125</v>
+        <v>36668</v>
       </c>
       <c r="AA63">
-        <v>-10.456600000000002</v>
+        <v>-6.3525400000000047</v>
       </c>
       <c r="AB63">
-        <v>-12.941800000000001</v>
+        <v>-5.4891099999999966</v>
       </c>
       <c r="AC63">
-        <v>-11.711509999999997</v>
+        <v>-5.6503500000000031</v>
       </c>
       <c r="AD63">
-        <v>-10.214099999999998</v>
+        <v>-6.2455699999999936</v>
       </c>
       <c r="AE63">
-        <v>-12.415640000000003</v>
+        <v>-5.1625500000000031</v>
       </c>
       <c r="AF63">
-        <v>-11.537770000000002</v>
+        <v>-2.9501300000000015</v>
       </c>
       <c r="AG63">
-        <v>-12.938640000000003</v>
+        <v>-1.508890000000001</v>
       </c>
       <c r="AH63">
-        <v>-12.413979999999999</v>
+        <v>0.24934999999999974</v>
       </c>
       <c r="AI63">
-        <v>-10.24868</v>
+        <v>-0.98519999999999897</v>
       </c>
       <c r="AJ63">
-        <v>-12.449240000000003</v>
+        <v>-1.603190000000005</v>
       </c>
     </row>
   </sheetData>

--- a/Differences.xlsx
+++ b/Differences.xlsx
@@ -700,2686 +700,2686 @@
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>27977</v>
+        <v>27987</v>
       </c>
       <c r="B3">
-        <v>27975</v>
+        <v>27985</v>
       </c>
       <c r="AA3">
-        <v>719.25</v>
+        <v>862</v>
       </c>
       <c r="AB3">
-        <v>337.75</v>
+        <v>826</v>
       </c>
       <c r="AC3">
-        <v>2</v>
+        <v>775</v>
       </c>
       <c r="AD3">
-        <v>-155.25</v>
+        <v>834</v>
       </c>
       <c r="AE3">
-        <v>-10.5</v>
+        <v>751</v>
       </c>
       <c r="AF3">
-        <v>-480.75</v>
+        <v>478</v>
       </c>
       <c r="AG3">
-        <v>-1400.2466199999999</v>
+        <v>-29.991620000000001</v>
       </c>
       <c r="AH3">
-        <v>-1350.97774</v>
+        <v>-29.967580000000002</v>
       </c>
       <c r="AI3">
-        <v>-1239.2235499999999</v>
+        <v>-29.952680000000001</v>
       </c>
       <c r="AJ3">
-        <v>-1270.97216</v>
+        <v>-29.92726</v>
       </c>
       <c r="AK3">
-        <v>-1324.9516799999999</v>
+        <v>-29.919060000000002</v>
       </c>
       <c r="AL3">
-        <v>-1322.6727100000001</v>
+        <v>-29.86863</v>
       </c>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>26119</v>
+        <v>36663</v>
       </c>
       <c r="B4">
-        <v>26125</v>
+        <v>36665</v>
       </c>
       <c r="AA4">
-        <v>47.5</v>
+        <v>86.5</v>
       </c>
       <c r="AB4">
-        <v>29.75</v>
+        <v>10.75</v>
       </c>
       <c r="AC4">
-        <v>36.5</v>
+        <v>-70.75</v>
       </c>
       <c r="AD4">
-        <v>29.25</v>
+        <v>-18</v>
       </c>
       <c r="AE4">
-        <v>19</v>
+        <v>-109.25</v>
       </c>
       <c r="AF4">
-        <v>-21</v>
+        <v>-204.5</v>
       </c>
       <c r="AG4">
-        <v>-43.75</v>
+        <v>-376</v>
       </c>
       <c r="AH4">
-        <v>-35.748429999999999</v>
+        <v>-380.74982999999997</v>
       </c>
       <c r="AI4">
-        <v>-31.499030000000001</v>
+        <v>-348.25</v>
       </c>
       <c r="AJ4">
-        <v>-41.249009999999998</v>
+        <v>-324.74963000000002</v>
       </c>
       <c r="AK4">
-        <v>-48.997059999999998</v>
+        <v>-322.49943999999999</v>
       </c>
       <c r="AL4">
-        <v>-42.496160000000003</v>
+        <v>-392.74876</v>
       </c>
     </row>
     <row r="5" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>11333</v>
+        <v>36674</v>
       </c>
       <c r="B5">
-        <v>11383</v>
+        <v>36668</v>
       </c>
       <c r="AA5">
-        <v>478.75</v>
+        <v>-10.25</v>
       </c>
       <c r="AB5">
-        <v>226</v>
+        <v>-436.5</v>
       </c>
       <c r="AC5">
-        <v>264</v>
+        <v>-842.5</v>
       </c>
       <c r="AD5">
-        <v>106.75</v>
+        <v>-1211.5</v>
       </c>
       <c r="AE5">
-        <v>-14.5</v>
+        <v>-1308.25</v>
       </c>
       <c r="AF5">
-        <v>-7.75</v>
+        <v>-1586.5</v>
       </c>
       <c r="AG5">
-        <v>-1019.49319</v>
+        <v>-2009</v>
       </c>
       <c r="AH5">
-        <v>-918.18669999999997</v>
+        <v>-1925.4998800000001</v>
       </c>
       <c r="AI5">
-        <v>-850.86338000000001</v>
+        <v>-1703.4995899999999</v>
       </c>
       <c r="AJ5">
-        <v>-869.0598</v>
+        <v>-1539.2483099999999</v>
       </c>
       <c r="AK5">
-        <v>-805.79566</v>
+        <v>-1349.2479800000001</v>
       </c>
       <c r="AL5">
-        <v>-791.71857</v>
+        <v>-1280.9945399999999</v>
       </c>
     </row>
     <row r="6" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>26115</v>
+        <v>11429</v>
       </c>
       <c r="B6">
-        <v>11485</v>
+        <v>11456</v>
       </c>
       <c r="AA6">
-        <v>513</v>
+        <v>-43.75</v>
       </c>
       <c r="AB6">
-        <v>492.75</v>
+        <v>-99.25</v>
       </c>
       <c r="AC6">
-        <v>287.75</v>
+        <v>-154.75</v>
       </c>
       <c r="AD6">
-        <v>219.5</v>
+        <v>-152.75</v>
       </c>
       <c r="AE6">
-        <v>220.75</v>
+        <v>-215</v>
       </c>
       <c r="AF6">
-        <v>-121</v>
+        <v>-245.25</v>
       </c>
       <c r="AG6">
-        <v>-957.5</v>
+        <v>-315.49675000000002</v>
       </c>
       <c r="AH6">
-        <v>-930.25</v>
+        <v>-281.74209999999999</v>
       </c>
       <c r="AI6">
-        <v>-882.5</v>
+        <v>-251.74196000000001</v>
       </c>
       <c r="AJ6">
-        <v>-886.5</v>
+        <v>-239.49146999999999</v>
       </c>
       <c r="AK6">
-        <v>-957</v>
+        <v>-194.98872</v>
       </c>
       <c r="AL6">
-        <v>-1029</v>
+        <v>-191.74069</v>
       </c>
     </row>
     <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>11359</v>
+        <v>11459</v>
       </c>
       <c r="B7">
-        <v>11383</v>
+        <v>11436</v>
       </c>
       <c r="AA7">
-        <v>227.5</v>
+        <v>866</v>
       </c>
       <c r="AB7">
-        <v>182.5</v>
+        <v>913</v>
       </c>
       <c r="AC7">
-        <v>148.25</v>
+        <v>915</v>
       </c>
       <c r="AD7">
-        <v>122.25</v>
+        <v>891</v>
       </c>
       <c r="AE7">
-        <v>122.25</v>
+        <v>820</v>
       </c>
       <c r="AF7">
-        <v>31.75</v>
+        <v>642</v>
       </c>
       <c r="AG7">
-        <v>-265.99284</v>
+        <v>4.0499999999999998E-3</v>
       </c>
       <c r="AH7">
-        <v>-252.21822</v>
+        <v>1.814E-2</v>
       </c>
       <c r="AI7">
-        <v>-199.935</v>
+        <v>1.7139999999999999E-2</v>
       </c>
       <c r="AJ7">
-        <v>-212.91737000000001</v>
+        <v>1.6049999999999998E-2</v>
       </c>
       <c r="AK7">
-        <v>-203.65464</v>
+        <v>3.143E-2</v>
       </c>
       <c r="AL7">
-        <v>-206.38049000000001</v>
+        <v>5.1520000000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>11158</v>
+        <v>26116</v>
       </c>
       <c r="B8">
-        <v>11088</v>
+        <v>26126</v>
       </c>
       <c r="AA8">
-        <v>236.25</v>
+        <v>-8</v>
       </c>
       <c r="AB8">
-        <v>179.25</v>
+        <v>-21</v>
       </c>
       <c r="AC8">
-        <v>144.75</v>
+        <v>-18</v>
       </c>
       <c r="AD8">
-        <v>141.25</v>
+        <v>-37.25</v>
       </c>
       <c r="AE8">
-        <v>101.5</v>
+        <v>-48.25</v>
       </c>
       <c r="AF8">
-        <v>-20</v>
+        <v>-132</v>
       </c>
       <c r="AG8">
-        <v>-516.25</v>
+        <v>-178.24943999999999</v>
       </c>
       <c r="AH8">
-        <v>-532.74913000000004</v>
+        <v>-156.74696</v>
       </c>
       <c r="AI8">
-        <v>-470.74896000000001</v>
+        <v>-152.99708999999999</v>
       </c>
       <c r="AJ8">
-        <v>-491.25</v>
+        <v>-166.24659</v>
       </c>
       <c r="AK8">
-        <v>-486.99887000000001</v>
+        <v>-148.99168</v>
       </c>
       <c r="AL8">
-        <v>-528.49785999999995</v>
+        <v>-119.74383</v>
       </c>
     </row>
     <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>11171</v>
+        <v>11432</v>
       </c>
       <c r="B9">
-        <v>11158</v>
+        <v>11456</v>
       </c>
       <c r="AA9">
-        <v>17.25</v>
+        <v>424.5</v>
       </c>
       <c r="AB9">
-        <v>1.75</v>
+        <v>75.5</v>
       </c>
       <c r="AC9">
-        <v>-14.5</v>
+        <v>27</v>
       </c>
       <c r="AD9">
-        <v>-7.75</v>
+        <v>-209.25</v>
       </c>
       <c r="AE9">
-        <v>-13</v>
+        <v>-304.75</v>
       </c>
       <c r="AF9">
-        <v>-57.5</v>
+        <v>-446.75</v>
       </c>
       <c r="AG9">
-        <v>-139.74941999999999</v>
+        <v>-1725.74576</v>
       </c>
       <c r="AH9">
-        <v>-119.9919</v>
+        <v>-1564.2260200000001</v>
       </c>
       <c r="AI9">
-        <v>-94.993170000000006</v>
+        <v>-1442.7143699999999</v>
       </c>
       <c r="AJ9">
-        <v>-107.48927999999999</v>
+        <v>-1401.22443</v>
       </c>
       <c r="AK9">
-        <v>-108.23443</v>
+        <v>-1311.21081</v>
       </c>
       <c r="AL9">
-        <v>-93.979950000000002</v>
+        <v>-1244.9513400000001</v>
       </c>
     </row>
     <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>11289</v>
+        <v>11267</v>
       </c>
       <c r="B10">
-        <v>11254</v>
+        <v>11300</v>
       </c>
       <c r="AA10">
-        <v>199.5</v>
+        <v>886</v>
       </c>
       <c r="AB10">
-        <v>157.5</v>
+        <v>863</v>
       </c>
       <c r="AC10">
-        <v>104.25</v>
+        <v>821</v>
       </c>
       <c r="AD10">
-        <v>74.5</v>
+        <v>785</v>
       </c>
       <c r="AE10">
-        <v>77.25</v>
+        <v>766</v>
       </c>
       <c r="AF10">
-        <v>-54</v>
+        <v>612</v>
       </c>
       <c r="AG10">
-        <v>-590.74964</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="AH10">
-        <v>-621.74644000000001</v>
+        <v>8.7400000000000012E-3</v>
       </c>
       <c r="AI10">
-        <v>-561.49077</v>
+        <v>1.2490000000000001E-2</v>
       </c>
       <c r="AJ10">
-        <v>-574.74059999999997</v>
+        <v>1.2830000000000001E-2</v>
       </c>
       <c r="AK10">
-        <v>-579.23721</v>
+        <v>1.8720000000000001E-2</v>
       </c>
       <c r="AL10">
-        <v>-642.98532999999998</v>
+        <v>1.772E-2</v>
       </c>
     </row>
     <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>26139</v>
+        <v>26119</v>
       </c>
       <c r="B11">
-        <v>26129</v>
+        <v>26125</v>
       </c>
       <c r="AA11">
-        <v>696</v>
+        <v>47.5</v>
       </c>
       <c r="AB11">
-        <v>693</v>
+        <v>29.75</v>
       </c>
       <c r="AC11">
-        <v>684</v>
+        <v>36.5</v>
       </c>
       <c r="AD11">
-        <v>616</v>
+        <v>29.25</v>
       </c>
       <c r="AE11">
-        <v>569</v>
+        <v>19</v>
       </c>
       <c r="AF11">
-        <v>236</v>
+        <v>-21</v>
       </c>
       <c r="AG11">
-        <v>-89.993260000000006</v>
+        <v>-43.75</v>
       </c>
       <c r="AH11">
-        <v>-89.977980000000002</v>
+        <v>-35.748429999999999</v>
       </c>
       <c r="AI11">
-        <v>-89.97475</v>
+        <v>-31.499030000000001</v>
       </c>
       <c r="AJ11">
-        <v>-89.960599999999999</v>
+        <v>-41.249009999999998</v>
       </c>
       <c r="AK11">
-        <v>-89.947289999999995</v>
+        <v>-48.997059999999998</v>
       </c>
       <c r="AL11">
-        <v>-89.942760000000007</v>
+        <v>-42.496160000000003</v>
       </c>
     </row>
     <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11235</v>
+        <v>11484</v>
       </c>
       <c r="B12">
-        <v>11208</v>
+        <v>26114</v>
       </c>
       <c r="AA12">
-        <v>293</v>
+        <v>401</v>
       </c>
       <c r="AB12">
-        <v>296</v>
+        <v>-18</v>
       </c>
       <c r="AC12">
-        <v>244</v>
+        <v>-140.5</v>
       </c>
       <c r="AD12">
-        <v>227</v>
+        <v>-387.75</v>
       </c>
       <c r="AE12">
-        <v>228</v>
+        <v>-476.75</v>
       </c>
       <c r="AF12">
-        <v>163</v>
+        <v>-669</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>-2022.4981399999999</v>
       </c>
       <c r="AH12">
-        <v>9.1999999999999992E-4</v>
+        <v>-1932.7021400000001</v>
       </c>
       <c r="AI12">
-        <v>1.8699999999999999E-3</v>
+        <v>-1805.21064</v>
       </c>
       <c r="AJ12">
-        <v>1.5100000000000001E-3</v>
+        <v>-1616.1986999999999</v>
       </c>
       <c r="AK12">
-        <v>3.3799999999999998E-3</v>
+        <v>-1557.1628000000001</v>
       </c>
       <c r="AL12">
-        <v>3.8299999999999996E-3</v>
+        <v>-1499.46264</v>
       </c>
     </row>
     <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>26117</v>
+        <v>11167</v>
       </c>
       <c r="B13">
-        <v>26115</v>
+        <v>11181</v>
       </c>
       <c r="AA13">
-        <v>43.5</v>
+        <v>9</v>
       </c>
       <c r="AB13">
-        <v>58.5</v>
+        <v>12.25</v>
       </c>
       <c r="AC13">
-        <v>50</v>
+        <v>-24.75</v>
       </c>
       <c r="AD13">
-        <v>43.5</v>
+        <v>-45.5</v>
       </c>
       <c r="AE13">
-        <v>30.25</v>
+        <v>-46.5</v>
       </c>
       <c r="AF13">
-        <v>-21</v>
+        <v>-89</v>
       </c>
       <c r="AG13">
-        <v>-39.998339999999999</v>
+        <v>-207.73629</v>
       </c>
       <c r="AH13">
-        <v>-48.248829999999998</v>
+        <v>-210.20047</v>
       </c>
       <c r="AI13">
-        <v>-48.24727</v>
+        <v>-203.18538000000001</v>
       </c>
       <c r="AJ13">
-        <v>-43.748710000000003</v>
+        <v>-197.41638</v>
       </c>
       <c r="AK13">
-        <v>-50.24541</v>
+        <v>-199.7062</v>
       </c>
       <c r="AL13">
-        <v>-57.495710000000003</v>
+        <v>-180.60166000000001</v>
       </c>
     </row>
     <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>11085</v>
+        <v>11088</v>
       </c>
       <c r="B14">
-        <v>11153</v>
+        <v>11046</v>
       </c>
       <c r="AA14">
-        <v>604</v>
+        <v>178</v>
       </c>
       <c r="AB14">
-        <v>527.5</v>
+        <v>106</v>
       </c>
       <c r="AC14">
-        <v>394.5</v>
+        <v>69.25</v>
       </c>
       <c r="AD14">
-        <v>311.5</v>
+        <v>27</v>
       </c>
       <c r="AE14">
-        <v>223.75</v>
+        <v>45.75</v>
       </c>
       <c r="AF14">
-        <v>-6.5</v>
+        <v>-124.75</v>
       </c>
       <c r="AG14">
-        <v>-989.98973999999998</v>
+        <v>-626.99987999999996</v>
       </c>
       <c r="AH14">
-        <v>-916.70162000000005</v>
+        <v>-642.24879999999996</v>
       </c>
       <c r="AI14">
-        <v>-884.16878999999994</v>
+        <v>-562.99832000000004</v>
       </c>
       <c r="AJ14">
-        <v>-822.61145999999997</v>
+        <v>-591.99901999999997</v>
       </c>
       <c r="AK14">
-        <v>-827.69269999999995</v>
+        <v>-582.49734999999998</v>
       </c>
       <c r="AL14">
-        <v>-792.31344000000001</v>
+        <v>-634.74815999999998</v>
       </c>
     </row>
     <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>36667</v>
+        <v>36675</v>
       </c>
       <c r="B15">
-        <v>36669</v>
+        <v>11302</v>
       </c>
       <c r="AA15">
-        <v>-62.25</v>
+        <v>390.5</v>
       </c>
       <c r="AB15">
-        <v>-75</v>
+        <v>254.5</v>
       </c>
       <c r="AC15">
-        <v>-84.75</v>
+        <v>155.25</v>
       </c>
       <c r="AD15">
-        <v>-93</v>
+        <v>128.5</v>
       </c>
       <c r="AE15">
-        <v>-105.5</v>
+        <v>74.25</v>
       </c>
       <c r="AF15">
-        <v>-137.5</v>
+        <v>-128.25</v>
       </c>
       <c r="AG15">
-        <v>-186.5</v>
+        <v>-462.75</v>
       </c>
       <c r="AH15">
-        <v>-189</v>
+        <v>-482.74932999999999</v>
       </c>
       <c r="AI15">
-        <v>-163.74941000000001</v>
+        <v>-440</v>
       </c>
       <c r="AJ15">
-        <v>-140.5</v>
+        <v>-351.74874999999997</v>
       </c>
       <c r="AK15">
-        <v>-105.24915</v>
+        <v>-297.49849</v>
       </c>
       <c r="AL15">
-        <v>-90.497979999999998</v>
+        <v>-383.74624999999997</v>
       </c>
     </row>
     <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>11306</v>
+        <v>11235</v>
       </c>
       <c r="B16">
-        <v>12101</v>
+        <v>11208</v>
       </c>
       <c r="AA16">
-        <v>285.25</v>
+        <v>293</v>
       </c>
       <c r="AB16">
-        <v>277.5</v>
+        <v>296</v>
       </c>
       <c r="AC16">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="AD16">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AE16">
-        <v>244.75</v>
+        <v>228</v>
       </c>
       <c r="AF16">
-        <v>217.5</v>
+        <v>163</v>
       </c>
       <c r="AG16">
-        <v>-105.98721999999999</v>
+        <v>0</v>
       </c>
       <c r="AH16">
-        <v>-110.98183</v>
+        <v>9.1999999999999992E-4</v>
       </c>
       <c r="AI16">
-        <v>-99.217680000000001</v>
+        <v>1.8699999999999999E-3</v>
       </c>
       <c r="AJ16">
-        <v>-92.203280000000007</v>
+        <v>1.5100000000000001E-3</v>
       </c>
       <c r="AK16">
-        <v>-86.687709999999996</v>
+        <v>3.3799999999999998E-3</v>
       </c>
       <c r="AL16">
-        <v>-95.693420000000003</v>
+        <v>3.8299999999999996E-3</v>
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>11432</v>
+        <v>11171</v>
       </c>
       <c r="B17">
-        <v>11456</v>
+        <v>11158</v>
       </c>
       <c r="AA17">
-        <v>424.5</v>
+        <v>17.25</v>
       </c>
       <c r="AB17">
-        <v>75.5</v>
+        <v>1.75</v>
       </c>
       <c r="AC17">
-        <v>27</v>
+        <v>-14.5</v>
       </c>
       <c r="AD17">
-        <v>-209.25</v>
+        <v>-7.75</v>
       </c>
       <c r="AE17">
-        <v>-304.75</v>
+        <v>-13</v>
       </c>
       <c r="AF17">
-        <v>-446.75</v>
+        <v>-57.5</v>
       </c>
       <c r="AG17">
-        <v>-1725.74576</v>
+        <v>-139.74941999999999</v>
       </c>
       <c r="AH17">
-        <v>-1564.2260200000001</v>
+        <v>-119.9919</v>
       </c>
       <c r="AI17">
-        <v>-1442.7143699999999</v>
+        <v>-94.993170000000006</v>
       </c>
       <c r="AJ17">
-        <v>-1401.22443</v>
+        <v>-107.48927999999999</v>
       </c>
       <c r="AK17">
-        <v>-1311.21081</v>
+        <v>-108.23443</v>
       </c>
       <c r="AL17">
-        <v>-1244.9513400000001</v>
+        <v>-93.979950000000002</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>26128</v>
+        <v>26123</v>
       </c>
       <c r="B18">
-        <v>26138</v>
+        <v>26115</v>
       </c>
       <c r="AA18">
-        <v>434</v>
+        <v>491.75</v>
       </c>
       <c r="AB18">
-        <v>424</v>
+        <v>425.25</v>
       </c>
       <c r="AC18">
-        <v>474</v>
+        <v>234.25</v>
       </c>
       <c r="AD18">
-        <v>428</v>
+        <v>193.25</v>
       </c>
       <c r="AE18">
-        <v>421</v>
+        <v>200</v>
       </c>
       <c r="AF18">
-        <v>324</v>
+        <v>-107</v>
       </c>
       <c r="AG18">
-        <v>-149.99681000000001</v>
+        <v>-905.49860999999999</v>
       </c>
       <c r="AH18">
-        <v>-149.99162000000001</v>
+        <v>-876.74764000000005</v>
       </c>
       <c r="AI18">
-        <v>-149.98501999999999</v>
+        <v>-825.24483999999995</v>
       </c>
       <c r="AJ18">
-        <v>-149.97458</v>
+        <v>-844.24734000000001</v>
       </c>
       <c r="AK18">
-        <v>-149.95988</v>
+        <v>-899.98631999999998</v>
       </c>
       <c r="AL18">
-        <v>-149.95418000000001</v>
+        <v>-954.24284</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>27985</v>
+        <v>27984</v>
       </c>
       <c r="B19">
-        <v>27983</v>
+        <v>27986</v>
       </c>
       <c r="AA19">
-        <v>756.25</v>
+        <v>315.75</v>
       </c>
       <c r="AB19">
-        <v>376.5</v>
+        <v>82.75</v>
       </c>
       <c r="AC19">
-        <v>32.75</v>
+        <v>-74.25</v>
       </c>
       <c r="AD19">
-        <v>-103.75</v>
+        <v>-119</v>
       </c>
       <c r="AE19">
-        <v>-14.25</v>
+        <v>-133.75</v>
       </c>
       <c r="AF19">
-        <v>-687</v>
+        <v>-392</v>
       </c>
       <c r="AG19">
-        <v>-1833.9832899999999</v>
+        <v>-859.74045999999998</v>
       </c>
       <c r="AH19">
-        <v>-1707.8871099999999</v>
+        <v>-859.91443000000004</v>
       </c>
       <c r="AI19">
-        <v>-1627.5645999999999</v>
+        <v>-753.37864000000002</v>
       </c>
       <c r="AJ19">
-        <v>-1443.2192700000001</v>
+        <v>-710.79435999999998</v>
       </c>
       <c r="AK19">
-        <v>-1529.94578</v>
+        <v>-685.45622000000003</v>
       </c>
       <c r="AL19">
-        <v>-1526.7631899999999</v>
+        <v>-661.56448999999998</v>
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>26119</v>
+        <v>38806</v>
       </c>
       <c r="B20">
-        <v>32464</v>
+        <v>36667</v>
       </c>
       <c r="AA20">
-        <v>326</v>
+        <v>156</v>
       </c>
       <c r="AB20">
-        <v>309</v>
+        <v>95.25</v>
       </c>
       <c r="AC20">
-        <v>331</v>
+        <v>6.75</v>
       </c>
       <c r="AD20">
-        <v>302</v>
+        <v>43.75</v>
       </c>
       <c r="AE20">
-        <v>313</v>
+        <v>-25.25</v>
       </c>
       <c r="AF20">
-        <v>187</v>
+        <v>-139.25</v>
       </c>
       <c r="AG20">
-        <v>2.0300000000000001E-3</v>
+        <v>-303.75</v>
       </c>
       <c r="AH20">
-        <v>4.1900000000000001E-3</v>
+        <v>-315.24981000000002</v>
       </c>
       <c r="AI20">
-        <v>1.58E-3</v>
+        <v>-279.74991</v>
       </c>
       <c r="AJ20">
-        <v>2.1199999999999999E-3</v>
+        <v>-257.24991</v>
       </c>
       <c r="AK20">
-        <v>9.0500000000000008E-3</v>
+        <v>-241.24922000000001</v>
       </c>
       <c r="AL20">
-        <v>1.155E-2</v>
+        <v>-225.49777</v>
       </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>11153</v>
+        <v>36666</v>
       </c>
       <c r="B21">
-        <v>11181</v>
+        <v>36664</v>
       </c>
       <c r="AA21">
-        <v>358</v>
+        <v>82</v>
       </c>
       <c r="AB21">
-        <v>213.75</v>
+        <v>-280.75</v>
       </c>
       <c r="AC21">
-        <v>90</v>
+        <v>-573</v>
       </c>
       <c r="AD21">
-        <v>35.5</v>
+        <v>-896.5</v>
       </c>
       <c r="AE21">
-        <v>-32.25</v>
+        <v>-941.5</v>
       </c>
       <c r="AF21">
-        <v>-202.5</v>
+        <v>-1102.75</v>
       </c>
       <c r="AG21">
-        <v>-1071.49269</v>
+        <v>-1519.9984899999999</v>
       </c>
       <c r="AH21">
-        <v>-1001.65172</v>
+        <v>-1486.49315</v>
       </c>
       <c r="AI21">
-        <v>-914.00210000000004</v>
+        <v>-1289.23965</v>
       </c>
       <c r="AJ21">
-        <v>-922.91494</v>
+        <v>-1177.4823899999999</v>
       </c>
       <c r="AK21">
-        <v>-896.77963</v>
+        <v>-1023.728</v>
       </c>
       <c r="AL21">
-        <v>-852.65678000000003</v>
+        <v>-994.97487999999998</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>36668</v>
+        <v>26117</v>
       </c>
       <c r="B22">
-        <v>38805</v>
+        <v>26115</v>
       </c>
       <c r="AA22">
-        <v>167.25</v>
+        <v>43.5</v>
       </c>
       <c r="AB22">
-        <v>-187.5</v>
+        <v>58.5</v>
       </c>
       <c r="AC22">
-        <v>-526</v>
+        <v>50</v>
       </c>
       <c r="AD22">
-        <v>-780.75</v>
+        <v>43.5</v>
       </c>
       <c r="AE22">
-        <v>-886</v>
+        <v>30.25</v>
       </c>
       <c r="AF22">
-        <v>-1145.25</v>
+        <v>-21</v>
       </c>
       <c r="AG22">
-        <v>-1602.25</v>
+        <v>-39.998339999999999</v>
       </c>
       <c r="AH22">
-        <v>-1517.75</v>
+        <v>-48.248829999999998</v>
       </c>
       <c r="AI22">
-        <v>-1320.75</v>
+        <v>-48.24727</v>
       </c>
       <c r="AJ22">
-        <v>-1196.75</v>
+        <v>-43.748710000000003</v>
       </c>
       <c r="AK22">
-        <v>-1048.75</v>
+        <v>-50.24541</v>
       </c>
       <c r="AL22">
-        <v>-993.75</v>
+        <v>-57.495710000000003</v>
       </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>27998</v>
+        <v>38805</v>
       </c>
       <c r="B23">
-        <v>28006</v>
+        <v>36666</v>
       </c>
       <c r="AA23">
-        <v>455</v>
+        <v>159.5</v>
       </c>
       <c r="AB23">
-        <v>330.25</v>
+        <v>-221.75</v>
       </c>
       <c r="AC23">
-        <v>121.75</v>
+        <v>-557.25</v>
       </c>
       <c r="AD23">
-        <v>83.25</v>
+        <v>-895.75</v>
       </c>
       <c r="AE23">
-        <v>7.75</v>
+        <v>-999.5</v>
       </c>
       <c r="AF23">
-        <v>-205.75</v>
+        <v>-1289.25</v>
       </c>
       <c r="AG23">
-        <v>-876.99918000000002</v>
+        <v>-1760.5</v>
       </c>
       <c r="AH23">
-        <v>-849.99602000000004</v>
+        <v>-1708.7328</v>
       </c>
       <c r="AI23">
-        <v>-781.99525000000006</v>
+        <v>-1511.2113099999999</v>
       </c>
       <c r="AJ23">
-        <v>-763.49383999999998</v>
+        <v>-1319.96928</v>
       </c>
       <c r="AK23">
-        <v>-761.74226999999996</v>
+        <v>-1142.94919</v>
       </c>
       <c r="AL23">
-        <v>-735.73695999999995</v>
+        <v>-1107.4642200000001</v>
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>28017</v>
+        <v>27996</v>
       </c>
       <c r="B24">
-        <v>28013</v>
+        <v>27998</v>
       </c>
       <c r="AA24">
-        <v>88.25</v>
+        <v>349.75</v>
       </c>
       <c r="AB24">
-        <v>-416</v>
+        <v>133</v>
       </c>
       <c r="AC24">
-        <v>-608.25</v>
+        <v>-75.75</v>
       </c>
       <c r="AD24">
-        <v>-641.75</v>
+        <v>-171.75</v>
       </c>
       <c r="AE24">
-        <v>-605.5</v>
+        <v>-211</v>
       </c>
       <c r="AF24">
-        <v>-732.25</v>
+        <v>-478.5</v>
       </c>
       <c r="AG24">
-        <v>-1460.49819</v>
+        <v>-1178.24785</v>
       </c>
       <c r="AH24">
-        <v>-1426.48954</v>
+        <v>-1145.99137</v>
       </c>
       <c r="AI24">
-        <v>-1167.9836700000001</v>
+        <v>-1017.98387</v>
       </c>
       <c r="AJ24">
-        <v>-1114.73119</v>
+        <v>-972.47200999999995</v>
       </c>
       <c r="AK24">
-        <v>-1145.4760100000001</v>
+        <v>-940.21252000000004</v>
       </c>
       <c r="AL24">
-        <v>-1108.73136</v>
+        <v>-913.6902</v>
       </c>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>36675</v>
+        <v>11289</v>
       </c>
       <c r="B25">
-        <v>11302</v>
+        <v>11254</v>
       </c>
       <c r="AA25">
-        <v>390.5</v>
+        <v>199.5</v>
       </c>
       <c r="AB25">
-        <v>254.5</v>
+        <v>157.5</v>
       </c>
       <c r="AC25">
-        <v>155.25</v>
+        <v>104.25</v>
       </c>
       <c r="AD25">
-        <v>128.5</v>
+        <v>74.5</v>
       </c>
       <c r="AE25">
-        <v>74.25</v>
+        <v>77.25</v>
       </c>
       <c r="AF25">
-        <v>-128.25</v>
+        <v>-54</v>
       </c>
       <c r="AG25">
-        <v>-462.75</v>
+        <v>-590.74964</v>
       </c>
       <c r="AH25">
-        <v>-482.74932999999999</v>
+        <v>-621.74644000000001</v>
       </c>
       <c r="AI25">
-        <v>-440</v>
+        <v>-561.49077</v>
       </c>
       <c r="AJ25">
-        <v>-351.74874999999997</v>
+        <v>-574.74059999999997</v>
       </c>
       <c r="AK25">
-        <v>-297.49849</v>
+        <v>-579.23721</v>
       </c>
       <c r="AL25">
-        <v>-383.74624999999997</v>
+        <v>-642.98532999999998</v>
       </c>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>36663</v>
+        <v>27977</v>
       </c>
       <c r="B26">
-        <v>36665</v>
+        <v>27975</v>
       </c>
       <c r="AA26">
-        <v>86.5</v>
+        <v>719.25</v>
       </c>
       <c r="AB26">
-        <v>10.75</v>
+        <v>337.75</v>
       </c>
       <c r="AC26">
-        <v>-70.75</v>
+        <v>2</v>
       </c>
       <c r="AD26">
-        <v>-18</v>
+        <v>-155.25</v>
       </c>
       <c r="AE26">
-        <v>-109.25</v>
+        <v>-10.5</v>
       </c>
       <c r="AF26">
-        <v>-204.5</v>
+        <v>-480.75</v>
       </c>
       <c r="AG26">
-        <v>-376</v>
+        <v>-1400.2466199999999</v>
       </c>
       <c r="AH26">
-        <v>-380.74982999999997</v>
+        <v>-1350.97774</v>
       </c>
       <c r="AI26">
-        <v>-348.25</v>
+        <v>-1239.2235499999999</v>
       </c>
       <c r="AJ26">
-        <v>-324.74963000000002</v>
+        <v>-1270.97216</v>
       </c>
       <c r="AK26">
-        <v>-322.49943999999999</v>
+        <v>-1324.9516799999999</v>
       </c>
       <c r="AL26">
-        <v>-392.74876</v>
+        <v>-1322.6727100000001</v>
       </c>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26123</v>
+        <v>11359</v>
       </c>
       <c r="B27">
-        <v>26115</v>
+        <v>11383</v>
       </c>
       <c r="AA27">
-        <v>491.75</v>
+        <v>227.5</v>
       </c>
       <c r="AB27">
-        <v>425.25</v>
+        <v>182.5</v>
       </c>
       <c r="AC27">
-        <v>234.25</v>
+        <v>148.25</v>
       </c>
       <c r="AD27">
-        <v>193.25</v>
+        <v>122.25</v>
       </c>
       <c r="AE27">
-        <v>200</v>
+        <v>122.25</v>
       </c>
       <c r="AF27">
-        <v>-107</v>
+        <v>31.75</v>
       </c>
       <c r="AG27">
-        <v>-905.49860999999999</v>
+        <v>-265.99284</v>
       </c>
       <c r="AH27">
-        <v>-876.74764000000005</v>
+        <v>-252.21822</v>
       </c>
       <c r="AI27">
-        <v>-825.24483999999995</v>
+        <v>-199.935</v>
       </c>
       <c r="AJ27">
-        <v>-844.24734000000001</v>
+        <v>-212.91737000000001</v>
       </c>
       <c r="AK27">
-        <v>-899.98631999999998</v>
+        <v>-203.65464</v>
       </c>
       <c r="AL27">
-        <v>-954.24284</v>
+        <v>-206.38049000000001</v>
       </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>11256</v>
+        <v>11271</v>
       </c>
       <c r="B28">
         <v>11290</v>
       </c>
       <c r="AA28">
-        <v>281.75</v>
+        <v>71.25</v>
       </c>
       <c r="AB28">
-        <v>65</v>
+        <v>54.25</v>
       </c>
       <c r="AC28">
-        <v>22.25</v>
+        <v>30.25</v>
       </c>
       <c r="AD28">
-        <v>-120.75</v>
+        <v>2</v>
       </c>
       <c r="AE28">
-        <v>-222.25</v>
+        <v>-14.75</v>
       </c>
       <c r="AF28">
-        <v>-302.25</v>
+        <v>-21.25</v>
       </c>
       <c r="AG28">
-        <v>-1233.9939400000001</v>
+        <v>-227.69588999999999</v>
       </c>
       <c r="AH28">
-        <v>-1146.2147</v>
+        <v>-197.39698999999999</v>
       </c>
       <c r="AI28">
-        <v>-1057.9345900000001</v>
+        <v>-157.88082</v>
       </c>
       <c r="AJ28">
-        <v>-1052.9221700000001</v>
+        <v>-158.62896000000001</v>
       </c>
       <c r="AK28">
-        <v>-1037.6759199999999</v>
+        <v>-162.13417999999999</v>
       </c>
       <c r="AL28">
-        <v>-1003.6589</v>
+        <v>-143.87633</v>
       </c>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>26116</v>
+        <v>27640</v>
       </c>
       <c r="B29">
-        <v>26126</v>
+        <v>27999</v>
       </c>
       <c r="AA29">
-        <v>-8</v>
+        <v>18.75</v>
       </c>
       <c r="AB29">
-        <v>-21</v>
+        <v>2.25</v>
       </c>
       <c r="AC29">
-        <v>-18</v>
+        <v>-36.5</v>
       </c>
       <c r="AD29">
-        <v>-37.25</v>
+        <v>-62.5</v>
       </c>
       <c r="AE29">
-        <v>-48.25</v>
+        <v>-31.75</v>
       </c>
       <c r="AF29">
-        <v>-132</v>
+        <v>-85.75</v>
       </c>
       <c r="AG29">
-        <v>-178.24943999999999</v>
+        <v>-174.25</v>
       </c>
       <c r="AH29">
-        <v>-156.74696</v>
+        <v>-171.25</v>
       </c>
       <c r="AI29">
-        <v>-152.99708999999999</v>
+        <v>-121.74954</v>
       </c>
       <c r="AJ29">
-        <v>-166.24659</v>
+        <v>-113.24918</v>
       </c>
       <c r="AK29">
-        <v>-148.99168</v>
+        <v>-112.74785</v>
       </c>
       <c r="AL29">
-        <v>-119.74383</v>
+        <v>-109.24160999999999</v>
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>11429</v>
+        <v>32464</v>
       </c>
       <c r="B30">
-        <v>11456</v>
+        <v>26120</v>
       </c>
       <c r="AA30">
-        <v>-43.75</v>
+        <v>-3</v>
       </c>
       <c r="AB30">
-        <v>-99.25</v>
+        <v>8</v>
       </c>
       <c r="AC30">
-        <v>-154.75</v>
+        <v>20</v>
       </c>
       <c r="AD30">
-        <v>-152.75</v>
+        <v>13</v>
       </c>
       <c r="AE30">
-        <v>-215</v>
+        <v>-4</v>
       </c>
       <c r="AF30">
-        <v>-245.25</v>
+        <v>-57</v>
       </c>
       <c r="AG30">
-        <v>-315.49675000000002</v>
+        <v>-60</v>
       </c>
       <c r="AH30">
-        <v>-281.74209999999999</v>
+        <v>-59.998550000000002</v>
       </c>
       <c r="AI30">
-        <v>-251.74196000000001</v>
+        <v>-59.998100000000001</v>
       </c>
       <c r="AJ30">
-        <v>-239.49146999999999</v>
+        <v>-59.995730000000002</v>
       </c>
       <c r="AK30">
-        <v>-194.98872</v>
+        <v>-59.996470000000002</v>
       </c>
       <c r="AL30">
-        <v>-191.74069</v>
+        <v>-59.994630000000001</v>
       </c>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>27987</v>
+        <v>11333</v>
       </c>
       <c r="B31">
-        <v>27985</v>
+        <v>11383</v>
       </c>
       <c r="AA31">
-        <v>862</v>
+        <v>478.75</v>
       </c>
       <c r="AB31">
-        <v>826</v>
+        <v>226</v>
       </c>
       <c r="AC31">
-        <v>775</v>
+        <v>264</v>
       </c>
       <c r="AD31">
-        <v>834</v>
+        <v>106.75</v>
       </c>
       <c r="AE31">
-        <v>751</v>
+        <v>-14.5</v>
       </c>
       <c r="AF31">
-        <v>478</v>
+        <v>-7.75</v>
       </c>
       <c r="AG31">
-        <v>-29.991620000000001</v>
+        <v>-1019.49319</v>
       </c>
       <c r="AH31">
-        <v>-29.967580000000002</v>
+        <v>-918.18669999999997</v>
       </c>
       <c r="AI31">
-        <v>-29.952680000000001</v>
+        <v>-850.86338000000001</v>
       </c>
       <c r="AJ31">
-        <v>-29.92726</v>
+        <v>-869.0598</v>
       </c>
       <c r="AK31">
-        <v>-29.919060000000002</v>
+        <v>-805.79566</v>
       </c>
       <c r="AL31">
-        <v>-29.86863</v>
+        <v>-791.71857</v>
       </c>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>27999</v>
+        <v>36668</v>
       </c>
       <c r="B32">
-        <v>27997</v>
+        <v>38805</v>
       </c>
       <c r="AA32">
-        <v>156</v>
+        <v>167.25</v>
       </c>
       <c r="AB32">
-        <v>-36</v>
+        <v>-187.5</v>
       </c>
       <c r="AC32">
-        <v>-74</v>
+        <v>-526</v>
       </c>
       <c r="AD32">
-        <v>-59</v>
+        <v>-780.75</v>
       </c>
       <c r="AE32">
-        <v>-203</v>
+        <v>-886</v>
       </c>
       <c r="AF32">
-        <v>-453</v>
+        <v>-1145.25</v>
       </c>
       <c r="AG32">
-        <v>-1289.91921</v>
+        <v>-1602.25</v>
       </c>
       <c r="AH32">
-        <v>-1289.65599</v>
+        <v>-1517.75</v>
       </c>
       <c r="AI32">
-        <v>-1289.53359</v>
+        <v>-1320.75</v>
       </c>
       <c r="AJ32">
-        <v>-1289.3737599999999</v>
+        <v>-1196.75</v>
       </c>
       <c r="AK32">
-        <v>-1288.4203199999999</v>
+        <v>-1048.75</v>
       </c>
       <c r="AL32">
-        <v>-1288.5267899999999</v>
+        <v>-993.75</v>
       </c>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>27640</v>
+        <v>36673</v>
       </c>
       <c r="B33">
-        <v>27999</v>
+        <v>36675</v>
       </c>
       <c r="AA33">
-        <v>18.75</v>
+        <v>122.25</v>
       </c>
       <c r="AB33">
-        <v>2.25</v>
+        <v>22</v>
       </c>
       <c r="AC33">
-        <v>-36.5</v>
+        <v>-77.25</v>
       </c>
       <c r="AD33">
-        <v>-62.5</v>
+        <v>-91.5</v>
       </c>
       <c r="AE33">
-        <v>-31.75</v>
+        <v>-129.75</v>
       </c>
       <c r="AF33">
-        <v>-85.75</v>
+        <v>-257.75</v>
       </c>
       <c r="AG33">
-        <v>-174.25</v>
+        <v>-451.24995999999999</v>
       </c>
       <c r="AH33">
-        <v>-171.25</v>
+        <v>-461.24880000000002</v>
       </c>
       <c r="AI33">
-        <v>-121.74954</v>
+        <v>-415.99838</v>
       </c>
       <c r="AJ33">
-        <v>-113.24918</v>
+        <v>-385.99907999999999</v>
       </c>
       <c r="AK33">
-        <v>-112.74785</v>
+        <v>-380.74815000000001</v>
       </c>
       <c r="AL33">
-        <v>-109.24160999999999</v>
+        <v>-364.495</v>
       </c>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>27996</v>
+        <v>11341</v>
       </c>
       <c r="B34">
-        <v>27998</v>
+        <v>11289</v>
       </c>
       <c r="AA34">
-        <v>349.75</v>
+        <v>293</v>
       </c>
       <c r="AB34">
-        <v>133</v>
+        <v>268.25</v>
       </c>
       <c r="AC34">
-        <v>-75.75</v>
+        <v>192.25</v>
       </c>
       <c r="AD34">
-        <v>-171.75</v>
+        <v>128</v>
       </c>
       <c r="AE34">
-        <v>-211</v>
+        <v>138.75</v>
       </c>
       <c r="AF34">
-        <v>-478.5</v>
+        <v>-73.25</v>
       </c>
       <c r="AG34">
-        <v>-1178.24785</v>
+        <v>-707.99297999999999</v>
       </c>
       <c r="AH34">
-        <v>-1145.99137</v>
+        <v>-743.46906000000001</v>
       </c>
       <c r="AI34">
-        <v>-1017.98387</v>
+        <v>-649.43510000000003</v>
       </c>
       <c r="AJ34">
-        <v>-972.47200999999995</v>
+        <v>-680.67836999999997</v>
       </c>
       <c r="AK34">
-        <v>-940.21252000000004</v>
+        <v>-695.84694999999999</v>
       </c>
       <c r="AL34">
-        <v>-913.6902</v>
+        <v>-766.81876999999997</v>
       </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>38805</v>
+        <v>11070</v>
       </c>
       <c r="B35">
-        <v>36666</v>
+        <v>11085</v>
       </c>
       <c r="AA35">
-        <v>159.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AB35">
-        <v>-221.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AC35">
-        <v>-557.25</v>
+        <v>0.5</v>
       </c>
       <c r="AD35">
-        <v>-895.75</v>
+        <v>-1.5</v>
       </c>
       <c r="AE35">
-        <v>-999.5</v>
+        <v>-1.75</v>
       </c>
       <c r="AF35">
-        <v>-1289.25</v>
+        <v>-3.5</v>
       </c>
       <c r="AG35">
-        <v>-1760.5</v>
+        <v>-4.25</v>
       </c>
       <c r="AH35">
-        <v>-1708.7328</v>
+        <v>-7</v>
       </c>
       <c r="AI35">
-        <v>-1511.2113099999999</v>
+        <v>-4.5</v>
       </c>
       <c r="AJ35">
-        <v>-1319.96928</v>
+        <v>-6.9999799999999999</v>
       </c>
       <c r="AK35">
-        <v>-1142.94919</v>
+        <v>-5.7493100000000004</v>
       </c>
       <c r="AL35">
-        <v>-1107.4642200000001</v>
+        <v>-5.7496099999999997</v>
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>36672</v>
+        <v>26124</v>
       </c>
       <c r="B36">
-        <v>36668</v>
+        <v>26126</v>
       </c>
       <c r="AA36">
-        <v>-4.75</v>
+        <v>357.5</v>
       </c>
       <c r="AB36">
-        <v>-35</v>
+        <v>-105.25</v>
       </c>
       <c r="AC36">
-        <v>-58.75</v>
+        <v>-203.5</v>
       </c>
       <c r="AD36">
-        <v>-103.75</v>
+        <v>-306.5</v>
       </c>
       <c r="AE36">
-        <v>-124.5</v>
+        <v>-404.75</v>
       </c>
       <c r="AF36">
-        <v>-172.5</v>
+        <v>-644.5</v>
       </c>
       <c r="AG36">
-        <v>-192.5</v>
+        <v>-1794.74937</v>
       </c>
       <c r="AH36">
-        <v>-190.74974</v>
+        <v>-1678.99542</v>
       </c>
       <c r="AI36">
-        <v>-169.49972</v>
+        <v>-1583.49351</v>
       </c>
       <c r="AJ36">
-        <v>-147.49938</v>
+        <v>-1466.2411400000001</v>
       </c>
       <c r="AK36">
-        <v>-123.74966000000001</v>
+        <v>-1428.9840799999999</v>
       </c>
       <c r="AL36">
-        <v>-134.74870000000001</v>
+        <v>-1371.2275400000001</v>
       </c>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>26124</v>
+        <v>12101</v>
       </c>
       <c r="B37">
-        <v>26126</v>
+        <v>11306</v>
       </c>
       <c r="AA37">
-        <v>357.5</v>
+        <v>158.25</v>
       </c>
       <c r="AB37">
-        <v>-105.25</v>
+        <v>131.25</v>
       </c>
       <c r="AC37">
-        <v>-203.5</v>
+        <v>117.75</v>
       </c>
       <c r="AD37">
-        <v>-306.5</v>
+        <v>77.25</v>
       </c>
       <c r="AE37">
-        <v>-404.75</v>
+        <v>62.5</v>
       </c>
       <c r="AF37">
-        <v>-644.5</v>
+        <v>52</v>
       </c>
       <c r="AG37">
-        <v>-1794.74937</v>
+        <v>-255.48059000000001</v>
       </c>
       <c r="AH37">
-        <v>-1678.99542</v>
+        <v>-235.76230000000001</v>
       </c>
       <c r="AI37">
-        <v>-1583.49351</v>
+        <v>-207.03898000000001</v>
       </c>
       <c r="AJ37">
-        <v>-1466.2411400000001</v>
+        <v>-198.58803</v>
       </c>
       <c r="AK37">
-        <v>-1428.9840799999999</v>
+        <v>-197.01572999999999</v>
       </c>
       <c r="AL37">
-        <v>-1371.2275400000001</v>
+        <v>-210.27712</v>
       </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>12101</v>
+        <v>11181</v>
       </c>
       <c r="B38">
-        <v>11306</v>
+        <v>11256</v>
       </c>
       <c r="AA38">
-        <v>158.25</v>
+        <v>377.75</v>
       </c>
       <c r="AB38">
-        <v>131.25</v>
+        <v>210.25</v>
       </c>
       <c r="AC38">
-        <v>117.75</v>
+        <v>83.75</v>
       </c>
       <c r="AD38">
-        <v>77.25</v>
+        <v>-17.5</v>
       </c>
       <c r="AE38">
-        <v>62.5</v>
+        <v>-74.25</v>
       </c>
       <c r="AF38">
-        <v>52</v>
+        <v>-298.25</v>
       </c>
       <c r="AG38">
-        <v>-255.48059000000001</v>
+        <v>-1288.49695</v>
       </c>
       <c r="AH38">
-        <v>-235.76230000000001</v>
+        <v>-1226.2190599999999</v>
       </c>
       <c r="AI38">
-        <v>-207.03898000000001</v>
+        <v>-1124.9044899999999</v>
       </c>
       <c r="AJ38">
-        <v>-198.58803</v>
+        <v>-1116.5879500000001</v>
       </c>
       <c r="AK38">
-        <v>-197.01572999999999</v>
+        <v>-1097.28577</v>
       </c>
       <c r="AL38">
-        <v>-210.27712</v>
+        <v>-1066.65743</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>11384</v>
+        <v>11441</v>
       </c>
       <c r="B39">
-        <v>11341</v>
+        <v>11415</v>
       </c>
       <c r="AA39">
-        <v>175.5</v>
+        <v>88</v>
       </c>
       <c r="AB39">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="AC39">
-        <v>71.75</v>
+        <v>109</v>
       </c>
       <c r="AD39">
-        <v>-21</v>
+        <v>104</v>
       </c>
       <c r="AE39">
-        <v>-30.5</v>
+        <v>121</v>
       </c>
       <c r="AF39">
-        <v>-120.25</v>
+        <v>70</v>
       </c>
       <c r="AG39">
-        <v>-560.74938999999995</v>
+        <v>1.5499999999999999E-3</v>
       </c>
       <c r="AH39">
-        <v>-586.74775999999997</v>
+        <v>1.171E-2</v>
       </c>
       <c r="AI39">
-        <v>-540.49431000000004</v>
+        <v>2.3099999999999999E-2</v>
       </c>
       <c r="AJ39">
-        <v>-540.99428999999998</v>
+        <v>3.1060000000000001E-2</v>
       </c>
       <c r="AK39">
-        <v>-539.73221000000001</v>
+        <v>3.8589999999999999E-2</v>
       </c>
       <c r="AL39">
-        <v>-560.72753</v>
+        <v>8.115E-2</v>
       </c>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>11070</v>
+        <v>26128</v>
       </c>
       <c r="B40">
-        <v>11085</v>
+        <v>26138</v>
       </c>
       <c r="AA40">
-        <v>-0.5</v>
+        <v>434</v>
       </c>
       <c r="AB40">
-        <v>-0.5</v>
+        <v>424</v>
       </c>
       <c r="AC40">
-        <v>0.5</v>
+        <v>474</v>
       </c>
       <c r="AD40">
-        <v>-1.5</v>
+        <v>428</v>
       </c>
       <c r="AE40">
-        <v>-1.75</v>
+        <v>421</v>
       </c>
       <c r="AF40">
-        <v>-3.5</v>
+        <v>324</v>
       </c>
       <c r="AG40">
-        <v>-4.25</v>
+        <v>-149.99681000000001</v>
       </c>
       <c r="AH40">
-        <v>-7</v>
+        <v>-149.99162000000001</v>
       </c>
       <c r="AI40">
-        <v>-4.5</v>
+        <v>-149.98501999999999</v>
       </c>
       <c r="AJ40">
-        <v>-6.9999799999999999</v>
+        <v>-149.97458</v>
       </c>
       <c r="AK40">
-        <v>-5.7493100000000004</v>
+        <v>-149.95988</v>
       </c>
       <c r="AL40">
-        <v>-5.7496099999999997</v>
+        <v>-149.95418000000001</v>
       </c>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>11267</v>
+        <v>27985</v>
       </c>
       <c r="B41">
-        <v>11300</v>
+        <v>27983</v>
       </c>
       <c r="AA41">
-        <v>886</v>
+        <v>756.25</v>
       </c>
       <c r="AB41">
-        <v>863</v>
+        <v>376.5</v>
       </c>
       <c r="AC41">
-        <v>821</v>
+        <v>32.75</v>
       </c>
       <c r="AD41">
-        <v>785</v>
+        <v>-103.75</v>
       </c>
       <c r="AE41">
-        <v>766</v>
+        <v>-14.25</v>
       </c>
       <c r="AF41">
-        <v>612</v>
+        <v>-687</v>
       </c>
       <c r="AG41">
-        <v>1.6000000000000001E-3</v>
+        <v>-1833.9832899999999</v>
       </c>
       <c r="AH41">
-        <v>8.7400000000000012E-3</v>
+        <v>-1707.8871099999999</v>
       </c>
       <c r="AI41">
-        <v>1.2490000000000001E-2</v>
+        <v>-1627.5645999999999</v>
       </c>
       <c r="AJ41">
-        <v>1.2830000000000001E-2</v>
+        <v>-1443.2192700000001</v>
       </c>
       <c r="AK41">
-        <v>1.8720000000000001E-2</v>
+        <v>-1529.94578</v>
       </c>
       <c r="AL41">
-        <v>1.772E-2</v>
+        <v>-1526.7631899999999</v>
       </c>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>28003</v>
+        <v>11254</v>
       </c>
       <c r="B42">
-        <v>27999</v>
+        <v>11182</v>
       </c>
       <c r="AA42">
-        <v>614.75</v>
+        <v>251.25</v>
       </c>
       <c r="AB42">
-        <v>106.5</v>
+        <v>218.75</v>
       </c>
       <c r="AC42">
-        <v>-150.5</v>
+        <v>179.75</v>
       </c>
       <c r="AD42">
-        <v>-141</v>
+        <v>114</v>
       </c>
       <c r="AE42">
-        <v>-201</v>
+        <v>128.25</v>
       </c>
       <c r="AF42">
-        <v>-650.75</v>
+        <v>-29.5</v>
       </c>
       <c r="AG42">
-        <v>-1453.25</v>
+        <v>-667.24302</v>
       </c>
       <c r="AH42">
-        <v>-1413.5</v>
+        <v>-698.84559999999999</v>
       </c>
       <c r="AI42">
-        <v>-1196.249</v>
+        <v>-628.38558999999998</v>
       </c>
       <c r="AJ42">
-        <v>-1126.9992500000001</v>
+        <v>-627.79539</v>
       </c>
       <c r="AK42">
-        <v>-1150.24143</v>
+        <v>-652.53931999999998</v>
       </c>
       <c r="AL42">
-        <v>-1103.73081</v>
+        <v>-710.43124999999998</v>
       </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>11441</v>
+        <v>26119</v>
       </c>
       <c r="B43">
-        <v>11415</v>
+        <v>32464</v>
       </c>
       <c r="AA43">
-        <v>88</v>
+        <v>326</v>
       </c>
       <c r="AB43">
-        <v>106</v>
+        <v>309</v>
       </c>
       <c r="AC43">
-        <v>109</v>
+        <v>331</v>
       </c>
       <c r="AD43">
-        <v>104</v>
+        <v>302</v>
       </c>
       <c r="AE43">
-        <v>121</v>
+        <v>313</v>
       </c>
       <c r="AF43">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="AG43">
-        <v>1.5499999999999999E-3</v>
+        <v>2.0300000000000001E-3</v>
       </c>
       <c r="AH43">
-        <v>1.171E-2</v>
+        <v>4.1900000000000001E-3</v>
       </c>
       <c r="AI43">
-        <v>2.3099999999999999E-2</v>
+        <v>1.58E-3</v>
       </c>
       <c r="AJ43">
-        <v>3.1060000000000001E-2</v>
+        <v>2.1199999999999999E-3</v>
       </c>
       <c r="AK43">
-        <v>3.8589999999999999E-2</v>
+        <v>9.0500000000000008E-3</v>
       </c>
       <c r="AL43">
-        <v>8.115E-2</v>
+        <v>1.155E-2</v>
       </c>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>11341</v>
+        <v>28012</v>
       </c>
       <c r="B44">
-        <v>11289</v>
+        <v>28016</v>
       </c>
       <c r="AA44">
-        <v>293</v>
+        <v>157.75</v>
       </c>
       <c r="AB44">
-        <v>268.25</v>
+        <v>-20.25</v>
       </c>
       <c r="AC44">
-        <v>192.25</v>
+        <v>-185.75</v>
       </c>
       <c r="AD44">
-        <v>128</v>
+        <v>-282.25</v>
       </c>
       <c r="AE44">
-        <v>138.75</v>
+        <v>-346.25</v>
       </c>
       <c r="AF44">
-        <v>-73.25</v>
+        <v>-502.5</v>
       </c>
       <c r="AG44">
-        <v>-707.99297999999999</v>
+        <v>-1029.4997900000001</v>
       </c>
       <c r="AH44">
-        <v>-743.46906000000001</v>
+        <v>-1000.99331</v>
       </c>
       <c r="AI44">
-        <v>-649.43510000000003</v>
+        <v>-906.73783000000003</v>
       </c>
       <c r="AJ44">
-        <v>-680.67836999999997</v>
+        <v>-856.47559000000001</v>
       </c>
       <c r="AK44">
-        <v>-695.84694999999999</v>
+        <v>-815.97551999999996</v>
       </c>
       <c r="AL44">
-        <v>-766.81876999999997</v>
+        <v>-766.95555999999999</v>
       </c>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>11088</v>
+        <v>27999</v>
       </c>
       <c r="B45">
-        <v>11046</v>
+        <v>27997</v>
       </c>
       <c r="AA45">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="AB45">
-        <v>106</v>
+        <v>-36</v>
       </c>
       <c r="AC45">
-        <v>69.25</v>
+        <v>-74</v>
       </c>
       <c r="AD45">
-        <v>27</v>
+        <v>-59</v>
       </c>
       <c r="AE45">
-        <v>45.75</v>
+        <v>-203</v>
       </c>
       <c r="AF45">
-        <v>-124.75</v>
+        <v>-453</v>
       </c>
       <c r="AG45">
-        <v>-626.99987999999996</v>
+        <v>-1289.91921</v>
       </c>
       <c r="AH45">
-        <v>-642.24879999999996</v>
+        <v>-1289.65599</v>
       </c>
       <c r="AI45">
-        <v>-562.99832000000004</v>
+        <v>-1289.53359</v>
       </c>
       <c r="AJ45">
-        <v>-591.99901999999997</v>
+        <v>-1289.3737599999999</v>
       </c>
       <c r="AK45">
-        <v>-582.49734999999998</v>
+        <v>-1288.4203199999999</v>
       </c>
       <c r="AL45">
-        <v>-634.74815999999998</v>
+        <v>-1288.5267899999999</v>
       </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>11300</v>
+        <v>11302</v>
       </c>
       <c r="B46">
-        <v>36674</v>
+        <v>11268</v>
       </c>
       <c r="AA46">
-        <v>1086</v>
+        <v>324</v>
       </c>
       <c r="AB46">
-        <v>1052</v>
+        <v>211</v>
       </c>
       <c r="AC46">
-        <v>993</v>
+        <v>91.75</v>
       </c>
       <c r="AD46">
-        <v>944</v>
+        <v>83.75</v>
       </c>
       <c r="AE46">
-        <v>915</v>
+        <v>57</v>
       </c>
       <c r="AF46">
-        <v>760</v>
+        <v>-96.5</v>
       </c>
       <c r="AG46">
-        <v>0.15675</v>
+        <v>-410.99946999999997</v>
       </c>
       <c r="AH46">
-        <v>0.53701999999999994</v>
+        <v>-409.49851999999998</v>
       </c>
       <c r="AI46">
-        <v>0.66688999999999998</v>
+        <v>-384.74785000000003</v>
       </c>
       <c r="AJ46">
-        <v>2.3695900000000001</v>
+        <v>-354.74657999999999</v>
       </c>
       <c r="AK46">
-        <v>2.5226900000000003</v>
+        <v>-332.24507</v>
       </c>
       <c r="AL46">
-        <v>21.29505</v>
+        <v>-341.49434000000002</v>
       </c>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>11459</v>
+        <v>11269</v>
       </c>
       <c r="B47">
-        <v>11436</v>
+        <v>11254</v>
       </c>
       <c r="AA47">
-        <v>866</v>
+        <v>52.75</v>
       </c>
       <c r="AB47">
-        <v>913</v>
+        <v>55</v>
       </c>
       <c r="AC47">
-        <v>915</v>
+        <v>39.75</v>
       </c>
       <c r="AD47">
-        <v>891</v>
+        <v>23.5</v>
       </c>
       <c r="AE47">
-        <v>820</v>
+        <v>37</v>
       </c>
       <c r="AF47">
-        <v>642</v>
+        <v>8</v>
       </c>
       <c r="AG47">
-        <v>4.0499999999999998E-3</v>
+        <v>-93.749660000000006</v>
       </c>
       <c r="AH47">
-        <v>1.814E-2</v>
+        <v>-84.231790000000004</v>
       </c>
       <c r="AI47">
-        <v>1.7139999999999999E-2</v>
+        <v>-65.736239999999995</v>
       </c>
       <c r="AJ47">
-        <v>1.6049999999999998E-2</v>
+        <v>-70.476889999999997</v>
       </c>
       <c r="AK47">
-        <v>3.143E-2</v>
+        <v>-69.476489999999998</v>
       </c>
       <c r="AL47">
-        <v>5.1520000000000003E-2</v>
+        <v>-82.215199999999996</v>
       </c>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>11254</v>
+        <v>28003</v>
       </c>
       <c r="B48">
-        <v>11182</v>
+        <v>27999</v>
       </c>
       <c r="AA48">
-        <v>251.25</v>
+        <v>614.75</v>
       </c>
       <c r="AB48">
-        <v>218.75</v>
+        <v>106.5</v>
       </c>
       <c r="AC48">
-        <v>179.75</v>
+        <v>-150.5</v>
       </c>
       <c r="AD48">
-        <v>114</v>
+        <v>-141</v>
       </c>
       <c r="AE48">
-        <v>128.25</v>
+        <v>-201</v>
       </c>
       <c r="AF48">
-        <v>-29.5</v>
+        <v>-650.75</v>
       </c>
       <c r="AG48">
-        <v>-667.24302</v>
+        <v>-1453.25</v>
       </c>
       <c r="AH48">
-        <v>-698.84559999999999</v>
+        <v>-1413.5</v>
       </c>
       <c r="AI48">
-        <v>-628.38558999999998</v>
+        <v>-1196.249</v>
       </c>
       <c r="AJ48">
-        <v>-627.79539</v>
+        <v>-1126.9992500000001</v>
       </c>
       <c r="AK48">
-        <v>-652.53931999999998</v>
+        <v>-1150.24143</v>
       </c>
       <c r="AL48">
-        <v>-710.43124999999998</v>
+        <v>-1103.73081</v>
       </c>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>11302</v>
+        <v>26139</v>
       </c>
       <c r="B49">
-        <v>11268</v>
+        <v>26129</v>
       </c>
       <c r="AA49">
-        <v>324</v>
+        <v>696</v>
       </c>
       <c r="AB49">
-        <v>211</v>
+        <v>693</v>
       </c>
       <c r="AC49">
-        <v>91.75</v>
+        <v>684</v>
       </c>
       <c r="AD49">
-        <v>83.75</v>
+        <v>616</v>
       </c>
       <c r="AE49">
-        <v>57</v>
+        <v>569</v>
       </c>
       <c r="AF49">
-        <v>-96.5</v>
+        <v>236</v>
       </c>
       <c r="AG49">
-        <v>-410.99946999999997</v>
+        <v>-89.993260000000006</v>
       </c>
       <c r="AH49">
-        <v>-409.49851999999998</v>
+        <v>-89.977980000000002</v>
       </c>
       <c r="AI49">
-        <v>-384.74785000000003</v>
+        <v>-89.97475</v>
       </c>
       <c r="AJ49">
-        <v>-354.74657999999999</v>
+        <v>-89.960599999999999</v>
       </c>
       <c r="AK49">
-        <v>-332.24507</v>
+        <v>-89.947289999999995</v>
       </c>
       <c r="AL49">
-        <v>-341.49434000000002</v>
+        <v>-89.942760000000007</v>
       </c>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>27982</v>
+        <v>28017</v>
       </c>
       <c r="B50">
-        <v>27984</v>
+        <v>28013</v>
       </c>
       <c r="AA50">
-        <v>1125.75</v>
+        <v>88.25</v>
       </c>
       <c r="AB50">
-        <v>966.75</v>
+        <v>-416</v>
       </c>
       <c r="AC50">
-        <v>870.5</v>
+        <v>-608.25</v>
       </c>
       <c r="AD50">
-        <v>844.25</v>
+        <v>-641.75</v>
       </c>
       <c r="AE50">
-        <v>747</v>
+        <v>-605.5</v>
       </c>
       <c r="AF50">
-        <v>323.5</v>
+        <v>-732.25</v>
       </c>
       <c r="AG50">
-        <v>-437.93158</v>
+        <v>-1460.49819</v>
       </c>
       <c r="AH50">
-        <v>-434.64458000000002</v>
+        <v>-1426.48954</v>
       </c>
       <c r="AI50">
-        <v>-382.61608999999999</v>
+        <v>-1167.9836700000001</v>
       </c>
       <c r="AJ50">
-        <v>-380.36457999999999</v>
+        <v>-1114.73119</v>
       </c>
       <c r="AK50">
-        <v>-349.00128000000001</v>
+        <v>-1145.4760100000001</v>
       </c>
       <c r="AL50">
-        <v>-334.51792999999998</v>
+        <v>-1108.73136</v>
       </c>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>11271</v>
+        <v>11158</v>
       </c>
       <c r="B51">
-        <v>11290</v>
+        <v>11088</v>
       </c>
       <c r="AA51">
-        <v>71.25</v>
+        <v>236.25</v>
       </c>
       <c r="AB51">
-        <v>54.25</v>
+        <v>179.25</v>
       </c>
       <c r="AC51">
-        <v>30.25</v>
+        <v>144.75</v>
       </c>
       <c r="AD51">
-        <v>2</v>
+        <v>141.25</v>
       </c>
       <c r="AE51">
-        <v>-14.75</v>
+        <v>101.5</v>
       </c>
       <c r="AF51">
-        <v>-21.25</v>
+        <v>-20</v>
       </c>
       <c r="AG51">
-        <v>-227.69588999999999</v>
+        <v>-516.25</v>
       </c>
       <c r="AH51">
-        <v>-197.39698999999999</v>
+        <v>-532.74913000000004</v>
       </c>
       <c r="AI51">
-        <v>-157.88082</v>
+        <v>-470.74896000000001</v>
       </c>
       <c r="AJ51">
-        <v>-158.62896000000001</v>
+        <v>-491.25</v>
       </c>
       <c r="AK51">
-        <v>-162.13417999999999</v>
+        <v>-486.99887000000001</v>
       </c>
       <c r="AL51">
-        <v>-143.87633</v>
+        <v>-528.49785999999995</v>
       </c>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>36665</v>
+        <v>11256</v>
       </c>
       <c r="B52">
-        <v>38806</v>
+        <v>11290</v>
       </c>
       <c r="AA52">
-        <v>77.25</v>
+        <v>281.75</v>
       </c>
       <c r="AB52">
-        <v>-1.75</v>
+        <v>65</v>
       </c>
       <c r="AC52">
-        <v>-116.5</v>
+        <v>22.25</v>
       </c>
       <c r="AD52">
-        <v>-68.75</v>
+        <v>-120.75</v>
       </c>
       <c r="AE52">
-        <v>-172.5</v>
+        <v>-222.25</v>
       </c>
       <c r="AF52">
-        <v>-318.25</v>
+        <v>-302.25</v>
       </c>
       <c r="AG52">
-        <v>-517.5</v>
+        <v>-1233.9939400000001</v>
       </c>
       <c r="AH52">
-        <v>-526.25</v>
+        <v>-1146.2147</v>
       </c>
       <c r="AI52">
-        <v>-460.75</v>
+        <v>-1057.9345900000001</v>
       </c>
       <c r="AJ52">
-        <v>-399.25</v>
+        <v>-1052.9221700000001</v>
       </c>
       <c r="AK52">
-        <v>-365.74975999999998</v>
+        <v>-1037.6759199999999</v>
       </c>
       <c r="AL52">
-        <v>-325.5</v>
+        <v>-1003.6589</v>
       </c>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>38806</v>
+        <v>27998</v>
       </c>
       <c r="B53">
-        <v>36667</v>
+        <v>28006</v>
       </c>
       <c r="AA53">
-        <v>156</v>
+        <v>455</v>
       </c>
       <c r="AB53">
-        <v>95.25</v>
+        <v>330.25</v>
       </c>
       <c r="AC53">
-        <v>6.75</v>
+        <v>121.75</v>
       </c>
       <c r="AD53">
-        <v>43.75</v>
+        <v>83.25</v>
       </c>
       <c r="AE53">
-        <v>-25.25</v>
+        <v>7.75</v>
       </c>
       <c r="AF53">
-        <v>-139.25</v>
+        <v>-205.75</v>
       </c>
       <c r="AG53">
-        <v>-303.75</v>
+        <v>-876.99918000000002</v>
       </c>
       <c r="AH53">
-        <v>-315.24981000000002</v>
+        <v>-849.99602000000004</v>
       </c>
       <c r="AI53">
-        <v>-279.74991</v>
+        <v>-781.99525000000006</v>
       </c>
       <c r="AJ53">
-        <v>-257.24991</v>
+        <v>-763.49383999999998</v>
       </c>
       <c r="AK53">
-        <v>-241.24922000000001</v>
+        <v>-761.74226999999996</v>
       </c>
       <c r="AL53">
-        <v>-225.49777</v>
+        <v>-735.73695999999995</v>
       </c>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>36666</v>
+        <v>36672</v>
       </c>
       <c r="B54">
-        <v>36664</v>
+        <v>36668</v>
       </c>
       <c r="AA54">
-        <v>82</v>
+        <v>-4.75</v>
       </c>
       <c r="AB54">
-        <v>-280.75</v>
+        <v>-35</v>
       </c>
       <c r="AC54">
-        <v>-573</v>
+        <v>-58.75</v>
       </c>
       <c r="AD54">
-        <v>-896.5</v>
+        <v>-103.75</v>
       </c>
       <c r="AE54">
-        <v>-941.5</v>
+        <v>-124.5</v>
       </c>
       <c r="AF54">
-        <v>-1102.75</v>
+        <v>-172.5</v>
       </c>
       <c r="AG54">
-        <v>-1519.9984899999999</v>
+        <v>-192.5</v>
       </c>
       <c r="AH54">
-        <v>-1486.49315</v>
+        <v>-190.74974</v>
       </c>
       <c r="AI54">
-        <v>-1289.23965</v>
+        <v>-169.49972</v>
       </c>
       <c r="AJ54">
-        <v>-1177.4823899999999</v>
+        <v>-147.49938</v>
       </c>
       <c r="AK54">
-        <v>-1023.728</v>
+        <v>-123.74966000000001</v>
       </c>
       <c r="AL54">
-        <v>-994.97487999999998</v>
+        <v>-134.74870000000001</v>
       </c>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>11269</v>
+        <v>11085</v>
       </c>
       <c r="B55">
-        <v>11254</v>
+        <v>11153</v>
       </c>
       <c r="AA55">
-        <v>52.75</v>
+        <v>604</v>
       </c>
       <c r="AB55">
-        <v>55</v>
+        <v>527.5</v>
       </c>
       <c r="AC55">
-        <v>39.75</v>
+        <v>394.5</v>
       </c>
       <c r="AD55">
-        <v>23.5</v>
+        <v>311.5</v>
       </c>
       <c r="AE55">
-        <v>37</v>
+        <v>223.75</v>
       </c>
       <c r="AF55">
-        <v>8</v>
+        <v>-6.5</v>
       </c>
       <c r="AG55">
-        <v>-93.749660000000006</v>
+        <v>-989.98973999999998</v>
       </c>
       <c r="AH55">
-        <v>-84.231790000000004</v>
+        <v>-916.70162000000005</v>
       </c>
       <c r="AI55">
-        <v>-65.736239999999995</v>
+        <v>-884.16878999999994</v>
       </c>
       <c r="AJ55">
-        <v>-70.476889999999997</v>
+        <v>-822.61145999999997</v>
       </c>
       <c r="AK55">
-        <v>-69.476489999999998</v>
+        <v>-827.69269999999995</v>
       </c>
       <c r="AL55">
-        <v>-82.215199999999996</v>
+        <v>-792.31344000000001</v>
       </c>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>11167</v>
+        <v>36665</v>
       </c>
       <c r="B56">
-        <v>11181</v>
+        <v>38806</v>
       </c>
       <c r="AA56">
-        <v>9</v>
+        <v>77.25</v>
       </c>
       <c r="AB56">
-        <v>12.25</v>
+        <v>-1.75</v>
       </c>
       <c r="AC56">
-        <v>-24.75</v>
+        <v>-116.5</v>
       </c>
       <c r="AD56">
-        <v>-45.5</v>
+        <v>-68.75</v>
       </c>
       <c r="AE56">
-        <v>-46.5</v>
+        <v>-172.5</v>
       </c>
       <c r="AF56">
-        <v>-89</v>
+        <v>-318.25</v>
       </c>
       <c r="AG56">
-        <v>-207.73629</v>
+        <v>-517.5</v>
       </c>
       <c r="AH56">
-        <v>-210.20047</v>
+        <v>-526.25</v>
       </c>
       <c r="AI56">
-        <v>-203.18538000000001</v>
+        <v>-460.75</v>
       </c>
       <c r="AJ56">
-        <v>-197.41638</v>
+        <v>-399.25</v>
       </c>
       <c r="AK56">
-        <v>-199.7062</v>
+        <v>-365.74975999999998</v>
       </c>
       <c r="AL56">
-        <v>-180.60166000000001</v>
+        <v>-325.5</v>
       </c>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>32464</v>
+        <v>11384</v>
       </c>
       <c r="B57">
-        <v>26120</v>
+        <v>11341</v>
       </c>
       <c r="AA57">
-        <v>-3</v>
+        <v>175.5</v>
       </c>
       <c r="AB57">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="AC57">
-        <v>20</v>
+        <v>71.75</v>
       </c>
       <c r="AD57">
-        <v>13</v>
+        <v>-21</v>
       </c>
       <c r="AE57">
-        <v>-4</v>
+        <v>-30.5</v>
       </c>
       <c r="AF57">
-        <v>-57</v>
+        <v>-120.25</v>
       </c>
       <c r="AG57">
-        <v>-60</v>
+        <v>-560.74938999999995</v>
       </c>
       <c r="AH57">
-        <v>-59.998550000000002</v>
+        <v>-586.74775999999997</v>
       </c>
       <c r="AI57">
-        <v>-59.998100000000001</v>
+        <v>-540.49431000000004</v>
       </c>
       <c r="AJ57">
-        <v>-59.995730000000002</v>
+        <v>-540.99428999999998</v>
       </c>
       <c r="AK57">
-        <v>-59.996470000000002</v>
+        <v>-539.73221000000001</v>
       </c>
       <c r="AL57">
-        <v>-59.994630000000001</v>
+        <v>-560.72753</v>
       </c>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>36673</v>
+        <v>11306</v>
       </c>
       <c r="B58">
-        <v>36675</v>
+        <v>12101</v>
       </c>
       <c r="AA58">
-        <v>122.25</v>
+        <v>285.25</v>
       </c>
       <c r="AB58">
-        <v>22</v>
+        <v>277.5</v>
       </c>
       <c r="AC58">
-        <v>-77.25</v>
+        <v>265</v>
       </c>
       <c r="AD58">
-        <v>-91.5</v>
+        <v>234</v>
       </c>
       <c r="AE58">
-        <v>-129.75</v>
+        <v>244.75</v>
       </c>
       <c r="AF58">
-        <v>-257.75</v>
+        <v>217.5</v>
       </c>
       <c r="AG58">
-        <v>-451.24995999999999</v>
+        <v>-105.98721999999999</v>
       </c>
       <c r="AH58">
-        <v>-461.24880000000002</v>
+        <v>-110.98183</v>
       </c>
       <c r="AI58">
-        <v>-415.99838</v>
+        <v>-99.217680000000001</v>
       </c>
       <c r="AJ58">
-        <v>-385.99907999999999</v>
+        <v>-92.203280000000007</v>
       </c>
       <c r="AK58">
-        <v>-380.74815000000001</v>
+        <v>-86.687709999999996</v>
       </c>
       <c r="AL58">
-        <v>-364.495</v>
+        <v>-95.693420000000003</v>
       </c>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>27984</v>
+        <v>26115</v>
       </c>
       <c r="B59">
-        <v>27986</v>
+        <v>11485</v>
       </c>
       <c r="AA59">
-        <v>315.75</v>
+        <v>513</v>
       </c>
       <c r="AB59">
-        <v>82.75</v>
+        <v>492.75</v>
       </c>
       <c r="AC59">
-        <v>-74.25</v>
+        <v>287.75</v>
       </c>
       <c r="AD59">
-        <v>-119</v>
+        <v>219.5</v>
       </c>
       <c r="AE59">
-        <v>-133.75</v>
+        <v>220.75</v>
       </c>
       <c r="AF59">
-        <v>-392</v>
+        <v>-121</v>
       </c>
       <c r="AG59">
-        <v>-859.74045999999998</v>
+        <v>-957.5</v>
       </c>
       <c r="AH59">
-        <v>-859.91443000000004</v>
+        <v>-930.25</v>
       </c>
       <c r="AI59">
-        <v>-753.37864000000002</v>
+        <v>-882.5</v>
       </c>
       <c r="AJ59">
-        <v>-710.79435999999998</v>
+        <v>-886.5</v>
       </c>
       <c r="AK59">
-        <v>-685.45622000000003</v>
+        <v>-957</v>
       </c>
       <c r="AL59">
-        <v>-661.56448999999998</v>
+        <v>-1029</v>
       </c>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>36674</v>
+        <v>11153</v>
       </c>
       <c r="B60">
-        <v>36668</v>
+        <v>11181</v>
       </c>
       <c r="AA60">
-        <v>-10.25</v>
+        <v>358</v>
       </c>
       <c r="AB60">
-        <v>-436.5</v>
+        <v>213.75</v>
       </c>
       <c r="AC60">
-        <v>-842.5</v>
+        <v>90</v>
       </c>
       <c r="AD60">
-        <v>-1211.5</v>
+        <v>35.5</v>
       </c>
       <c r="AE60">
-        <v>-1308.25</v>
+        <v>-32.25</v>
       </c>
       <c r="AF60">
-        <v>-1586.5</v>
+        <v>-202.5</v>
       </c>
       <c r="AG60">
-        <v>-2009</v>
+        <v>-1071.49269</v>
       </c>
       <c r="AH60">
-        <v>-1925.4998800000001</v>
+        <v>-1001.65172</v>
       </c>
       <c r="AI60">
-        <v>-1703.4995899999999</v>
+        <v>-914.00210000000004</v>
       </c>
       <c r="AJ60">
-        <v>-1539.2483099999999</v>
+        <v>-922.91494</v>
       </c>
       <c r="AK60">
-        <v>-1349.2479800000001</v>
+        <v>-896.77963</v>
       </c>
       <c r="AL60">
-        <v>-1280.9945399999999</v>
+        <v>-852.65678000000003</v>
       </c>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>28012</v>
+        <v>36667</v>
       </c>
       <c r="B61">
-        <v>28016</v>
+        <v>36669</v>
       </c>
       <c r="AA61">
-        <v>157.75</v>
+        <v>-62.25</v>
       </c>
       <c r="AB61">
-        <v>-20.25</v>
+        <v>-75</v>
       </c>
       <c r="AC61">
-        <v>-185.75</v>
+        <v>-84.75</v>
       </c>
       <c r="AD61">
-        <v>-282.25</v>
+        <v>-93</v>
       </c>
       <c r="AE61">
-        <v>-346.25</v>
+        <v>-105.5</v>
       </c>
       <c r="AF61">
-        <v>-502.5</v>
+        <v>-137.5</v>
       </c>
       <c r="AG61">
-        <v>-1029.4997900000001</v>
+        <v>-186.5</v>
       </c>
       <c r="AH61">
-        <v>-1000.99331</v>
+        <v>-189</v>
       </c>
       <c r="AI61">
-        <v>-906.73783000000003</v>
+        <v>-163.74941000000001</v>
       </c>
       <c r="AJ61">
-        <v>-856.47559000000001</v>
+        <v>-140.5</v>
       </c>
       <c r="AK61">
-        <v>-815.97551999999996</v>
+        <v>-105.24915</v>
       </c>
       <c r="AL61">
-        <v>-766.95555999999999</v>
+        <v>-90.497979999999998</v>
       </c>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>11181</v>
+        <v>27982</v>
       </c>
       <c r="B62">
-        <v>11256</v>
+        <v>27984</v>
       </c>
       <c r="AA62">
-        <v>377.75</v>
+        <v>1125.75</v>
       </c>
       <c r="AB62">
-        <v>210.25</v>
+        <v>966.75</v>
       </c>
       <c r="AC62">
-        <v>83.75</v>
+        <v>870.5</v>
       </c>
       <c r="AD62">
-        <v>-17.5</v>
+        <v>844.25</v>
       </c>
       <c r="AE62">
-        <v>-74.25</v>
+        <v>747</v>
       </c>
       <c r="AF62">
-        <v>-298.25</v>
+        <v>323.5</v>
       </c>
       <c r="AG62">
-        <v>-1288.49695</v>
+        <v>-437.93158</v>
       </c>
       <c r="AH62">
-        <v>-1226.2190599999999</v>
+        <v>-434.64458000000002</v>
       </c>
       <c r="AI62">
-        <v>-1124.9044899999999</v>
+        <v>-382.61608999999999</v>
       </c>
       <c r="AJ62">
-        <v>-1116.5879500000001</v>
+        <v>-380.36457999999999</v>
       </c>
       <c r="AK62">
-        <v>-1097.28577</v>
+        <v>-349.00128000000001</v>
       </c>
       <c r="AL62">
-        <v>-1066.65743</v>
+        <v>-334.51792999999998</v>
       </c>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>11484</v>
+        <v>11300</v>
       </c>
       <c r="B63">
-        <v>26114</v>
+        <v>36674</v>
       </c>
       <c r="AA63">
-        <v>401</v>
+        <v>1086</v>
       </c>
       <c r="AB63">
-        <v>-18</v>
+        <v>1052</v>
       </c>
       <c r="AC63">
-        <v>-140.5</v>
+        <v>993</v>
       </c>
       <c r="AD63">
-        <v>-387.75</v>
+        <v>944</v>
       </c>
       <c r="AE63">
-        <v>-476.75</v>
+        <v>915</v>
       </c>
       <c r="AF63">
-        <v>-669</v>
+        <v>760</v>
       </c>
       <c r="AG63">
-        <v>-2022.4981399999999</v>
+        <v>0.15675</v>
       </c>
       <c r="AH63">
-        <v>-1932.7021400000001</v>
+        <v>0.53701999999999994</v>
       </c>
       <c r="AI63">
-        <v>-1805.21064</v>
+        <v>0.66688999999999998</v>
       </c>
       <c r="AJ63">
-        <v>-1616.1986999999999</v>
+        <v>2.3695900000000001</v>
       </c>
       <c r="AK63">
-        <v>-1557.1628000000001</v>
+        <v>2.5226900000000003</v>
       </c>
       <c r="AL63">
-        <v>-1499.46264</v>
+        <v>21.29505</v>
       </c>
     </row>
   </sheetData>
@@ -3740,1542 +3740,1542 @@
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>27977</v>
+        <v>27987</v>
       </c>
       <c r="B3">
-        <v>27975</v>
+        <v>27985</v>
       </c>
       <c r="AA3">
-        <v>-1.7711300000000065</v>
+        <v>3.2152900000000031</v>
       </c>
       <c r="AB3">
-        <v>-6.094530000000006</v>
+        <v>2.4536999999999978</v>
       </c>
       <c r="AC3">
-        <v>-18.838819999999998</v>
+        <v>2.7599000000000018</v>
       </c>
       <c r="AD3">
-        <v>-17.129899999999999</v>
+        <v>3.2860800000000054</v>
       </c>
       <c r="AE3">
-        <v>-16.302040000000005</v>
+        <v>3.9787300000000059</v>
       </c>
       <c r="AF3">
-        <v>1.7673099999999948</v>
+        <v>3.1709900000000033</v>
       </c>
       <c r="AG3">
-        <v>10.04504</v>
+        <v>4.2747300000000052</v>
       </c>
       <c r="AH3">
-        <v>24.922809999999998</v>
+        <v>6.698360000000001</v>
       </c>
       <c r="AI3">
-        <v>235.75</v>
+        <v>194</v>
       </c>
       <c r="AJ3">
-        <v>826</v>
+        <v>564</v>
       </c>
       <c r="AK3">
-        <v>971.5</v>
+        <v>648</v>
       </c>
       <c r="AL3">
-        <v>1092.25</v>
+        <v>689</v>
       </c>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>26119</v>
+        <v>36663</v>
       </c>
       <c r="B4">
-        <v>26125</v>
+        <v>36665</v>
       </c>
       <c r="AA4">
-        <v>-10.711509999999997</v>
+        <v>-2.4757999999999996</v>
       </c>
       <c r="AB4">
-        <v>-13.214099999999998</v>
+        <v>-3.6893600000000006</v>
       </c>
       <c r="AC4">
-        <v>-11.915640000000003</v>
+        <v>-3.8793300000000031</v>
       </c>
       <c r="AD4">
-        <v>-10.037770000000002</v>
+        <v>-4.3199199999999962</v>
       </c>
       <c r="AE4">
-        <v>-12.438640000000003</v>
+        <v>-4.2799900000000051</v>
       </c>
       <c r="AF4">
-        <v>-11.663979999999999</v>
+        <v>-4.6036900000000003</v>
       </c>
       <c r="AG4">
-        <v>-12.74868</v>
+        <v>-4.9635499999999979</v>
       </c>
       <c r="AH4">
-        <v>-11.949240000000003</v>
+        <v>-5.5121199999999959</v>
       </c>
       <c r="AI4">
-        <v>-24.75</v>
+        <v>-25.25</v>
       </c>
       <c r="AJ4">
-        <v>-15.25</v>
+        <v>48.25</v>
       </c>
       <c r="AK4">
-        <v>-21.75</v>
+        <v>57.5</v>
       </c>
       <c r="AL4">
-        <v>-19.25</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="5" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>11333</v>
+        <v>36674</v>
       </c>
       <c r="B5">
-        <v>11383</v>
+        <v>36668</v>
       </c>
       <c r="AA5">
-        <v>-4.2531900000000036</v>
+        <v>-6.6503500000000031</v>
       </c>
       <c r="AB5">
-        <v>-7.834699999999998</v>
+        <v>-5.9955699999999936</v>
       </c>
       <c r="AC5">
-        <v>-9.2312900000000013</v>
+        <v>-5.9125500000000031</v>
       </c>
       <c r="AD5">
-        <v>-9.981669999999994</v>
+        <v>-5.9501300000000015</v>
       </c>
       <c r="AE5">
-        <v>-15.345659999999995</v>
+        <v>-4.758890000000001</v>
       </c>
       <c r="AF5">
-        <v>-0.77168000000000347</v>
+        <v>-2.5006500000000003</v>
       </c>
       <c r="AG5">
-        <v>7.2184099999999987</v>
+        <v>-1.235199999999999</v>
       </c>
       <c r="AH5">
-        <v>9.1328400000000016</v>
+        <v>0.646809999999995</v>
       </c>
       <c r="AI5">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="AJ5">
-        <v>731.25</v>
+        <v>400</v>
       </c>
       <c r="AK5">
-        <v>905</v>
+        <v>517</v>
       </c>
       <c r="AL5">
-        <v>1015.25</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>26115</v>
+        <v>11429</v>
       </c>
       <c r="B6">
-        <v>11485</v>
+        <v>11456</v>
       </c>
       <c r="AA6">
-        <v>6.6339199999999892</v>
+        <v>10.498860000000001</v>
       </c>
       <c r="AB6">
-        <v>5.9998800000000045</v>
+        <v>10.139899999999997</v>
       </c>
       <c r="AC6">
-        <v>5.6651300000000049</v>
+        <v>9.8537600000000012</v>
       </c>
       <c r="AD6">
-        <v>4.4094699999999989</v>
+        <v>9.4240300000000019</v>
       </c>
       <c r="AE6">
-        <v>4.1291999999999973</v>
+        <v>9.9593899999999991</v>
       </c>
       <c r="AF6">
-        <v>5.3885099999999966</v>
+        <v>15.24324</v>
       </c>
       <c r="AG6">
-        <v>4.801959999999994</v>
+        <v>17.407159999999998</v>
       </c>
       <c r="AH6">
-        <v>6.0099400000000003</v>
+        <v>19.540030000000002</v>
       </c>
       <c r="AI6">
-        <v>191.5</v>
+        <v>0.25</v>
       </c>
       <c r="AJ6">
-        <v>629.25</v>
+        <v>40.75</v>
       </c>
       <c r="AK6">
-        <v>686.5</v>
+        <v>39</v>
       </c>
       <c r="AL6">
-        <v>751</v>
+        <v>35.25</v>
       </c>
     </row>
     <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>11359</v>
+        <v>11459</v>
       </c>
       <c r="B7">
-        <v>11383</v>
+        <v>11436</v>
       </c>
       <c r="AA7">
-        <v>-13.460059999999999</v>
+        <v>69.002679999999998</v>
       </c>
       <c r="AB7">
-        <v>-12.438109999999995</v>
+        <v>69.062539999999998</v>
       </c>
       <c r="AC7">
-        <v>-10.668819999999997</v>
+        <v>68.665549999999996</v>
       </c>
       <c r="AD7">
-        <v>-11.074480000000001</v>
+        <v>68.394099999999995</v>
       </c>
       <c r="AE7">
-        <v>-10.533290000000001</v>
+        <v>68.498840000000001</v>
       </c>
       <c r="AF7">
-        <v>-0.74753000000000469</v>
+        <v>68.608590000000007</v>
       </c>
       <c r="AG7">
-        <v>6.0545300000000069</v>
+        <v>68.987160000000003</v>
       </c>
       <c r="AH7">
-        <v>4.89846</v>
+        <v>69.753159999999994</v>
       </c>
       <c r="AI7">
-        <v>111.75</v>
+        <v>161</v>
       </c>
       <c r="AJ7">
-        <v>177.25</v>
+        <v>543</v>
       </c>
       <c r="AK7">
-        <v>282.25</v>
+        <v>565</v>
       </c>
       <c r="AL7">
-        <v>288.5</v>
+        <v>649</v>
       </c>
     </row>
     <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>11158</v>
+        <v>26116</v>
       </c>
       <c r="B8">
-        <v>11088</v>
+        <v>26126</v>
       </c>
       <c r="AA8">
-        <v>8.206230000000005</v>
+        <v>-13.641169999999995</v>
       </c>
       <c r="AB8">
-        <v>7.7364699999999971</v>
+        <v>-12.562930000000001</v>
       </c>
       <c r="AC8">
-        <v>7.5194099999999935</v>
+        <v>-12.582059999999998</v>
       </c>
       <c r="AD8">
-        <v>7.307469999999995</v>
+        <v>-12.293569999999995</v>
       </c>
       <c r="AE8">
-        <v>6.6674300000000102</v>
+        <v>-11.914269999999995</v>
       </c>
       <c r="AF8">
-        <v>7.9664700000000011</v>
+        <v>-8.8952900000000028</v>
       </c>
       <c r="AG8">
-        <v>6.9319500000000005</v>
+        <v>-3.0753900000000058</v>
       </c>
       <c r="AH8">
-        <v>8.1123999999999938</v>
+        <v>-3.8881000000000014</v>
       </c>
       <c r="AI8">
-        <v>37.5</v>
+        <v>-35</v>
       </c>
       <c r="AJ8">
-        <v>282.75</v>
+        <v>-22</v>
       </c>
       <c r="AK8">
-        <v>335.25</v>
+        <v>-33.5</v>
       </c>
       <c r="AL8">
-        <v>379</v>
+        <v>-19.5</v>
       </c>
     </row>
     <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>11171</v>
+        <v>11267</v>
       </c>
       <c r="B9">
-        <v>11158</v>
+        <v>11300</v>
       </c>
       <c r="AA9">
-        <v>-18.212249999999997</v>
+        <v>57.792080000000006</v>
       </c>
       <c r="AB9">
-        <v>-20.727990000000005</v>
+        <v>57.441330000000008</v>
       </c>
       <c r="AC9">
-        <v>-21.333449999999999</v>
+        <v>57.589500000000001</v>
       </c>
       <c r="AD9">
-        <v>-21.706600000000002</v>
+        <v>57.686140000000002</v>
       </c>
       <c r="AE9">
-        <v>-20.69876</v>
+        <v>57.837230000000005</v>
       </c>
       <c r="AF9">
-        <v>-19.739049999999999</v>
+        <v>57.978999999999999</v>
       </c>
       <c r="AG9">
-        <v>-20.42306</v>
+        <v>58.031040000000004</v>
       </c>
       <c r="AH9">
-        <v>-20.333559999999999</v>
+        <v>58.532559999999997</v>
       </c>
       <c r="AI9">
-        <v>-41.75</v>
+        <v>236</v>
       </c>
       <c r="AJ9">
-        <v>-30</v>
+        <v>565</v>
       </c>
       <c r="AK9">
-        <v>-12.75</v>
+        <v>660</v>
       </c>
       <c r="AL9">
-        <v>-12.75</v>
+        <v>777</v>
       </c>
     </row>
     <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>11289</v>
+        <v>11432</v>
       </c>
       <c r="B10">
-        <v>11254</v>
+        <v>11456</v>
       </c>
       <c r="AA10">
-        <v>6.2052400000000034</v>
+        <v>-2.1644100000000037</v>
       </c>
       <c r="AB10">
-        <v>4.7783100000000047</v>
+        <v>-3.9917000000000016</v>
       </c>
       <c r="AC10">
-        <v>5.7620100000000036</v>
+        <v>-3.1716499999999996</v>
       </c>
       <c r="AD10">
-        <v>5.5581999999999994</v>
+        <v>-3.8395399999999995</v>
       </c>
       <c r="AE10">
-        <v>4.453559999999996</v>
+        <v>-4.4990099999999984</v>
       </c>
       <c r="AF10">
-        <v>5.0289199999999994</v>
+        <v>7.8684499999999957</v>
       </c>
       <c r="AG10">
-        <v>4.4912000000000063</v>
+        <v>11.719099999999997</v>
       </c>
       <c r="AH10">
-        <v>5.7470699999999937</v>
+        <v>17.180520000000001</v>
       </c>
       <c r="AI10">
-        <v>51.25</v>
+        <v>280.75</v>
       </c>
       <c r="AJ10">
-        <v>301.75</v>
+        <v>944</v>
       </c>
       <c r="AK10">
-        <v>339.5</v>
+        <v>1185</v>
       </c>
       <c r="AL10">
-        <v>391.5</v>
+        <v>1302.5</v>
       </c>
     </row>
     <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>26139</v>
+        <v>26119</v>
       </c>
       <c r="B11">
-        <v>26129</v>
+        <v>26125</v>
       </c>
       <c r="AA11">
-        <v>-4.9303699999999964</v>
+        <v>-10.711509999999997</v>
       </c>
       <c r="AB11">
-        <v>-4.9788599999999974</v>
+        <v>-13.214099999999998</v>
       </c>
       <c r="AC11">
-        <v>-5.6937800000000038</v>
+        <v>-11.915640000000003</v>
       </c>
       <c r="AD11">
-        <v>-5.653330000000004</v>
+        <v>-10.037770000000002</v>
       </c>
       <c r="AE11">
-        <v>-5.5425599999999946</v>
+        <v>-12.438640000000003</v>
       </c>
       <c r="AF11">
-        <v>-4.8259599999999949</v>
+        <v>-11.663979999999999</v>
       </c>
       <c r="AG11">
-        <v>-4.3869199999999964</v>
+        <v>-12.74868</v>
       </c>
       <c r="AH11">
-        <v>-2.2679800000000085</v>
+        <v>-11.949240000000003</v>
       </c>
       <c r="AI11">
-        <v>114</v>
+        <v>-24.75</v>
       </c>
       <c r="AJ11">
-        <v>311</v>
+        <v>-15.25</v>
       </c>
       <c r="AK11">
-        <v>354</v>
+        <v>-21.75</v>
       </c>
       <c r="AL11">
-        <v>432</v>
+        <v>-19.25</v>
       </c>
     </row>
     <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11235</v>
+        <v>11484</v>
       </c>
       <c r="B12">
-        <v>11208</v>
+        <v>26114</v>
       </c>
       <c r="AA12">
-        <v>58.970359999999999</v>
+        <v>9.5000000000311502E-4</v>
       </c>
       <c r="AB12">
-        <v>58.880299999999998</v>
+        <v>-2.6983800000000073</v>
       </c>
       <c r="AC12">
-        <v>58.867509999999996</v>
+        <v>-1.7822000000000031</v>
       </c>
       <c r="AD12">
-        <v>58.858990000000006</v>
+        <v>-2.0236400000000003</v>
       </c>
       <c r="AE12">
-        <v>59.05856</v>
+        <v>-2.9398599999999959</v>
       </c>
       <c r="AF12">
-        <v>59.136049999999997</v>
+        <v>7.7784699999999987</v>
       </c>
       <c r="AG12">
-        <v>59.152919999999995</v>
+        <v>15.762259999999998</v>
       </c>
       <c r="AH12">
-        <v>59.407890000000002</v>
+        <v>22.053560000000004</v>
       </c>
       <c r="AI12">
-        <v>32</v>
+        <v>295.25</v>
       </c>
       <c r="AJ12">
-        <v>109</v>
+        <v>1018.75</v>
       </c>
       <c r="AK12">
-        <v>140</v>
+        <v>1246.25</v>
       </c>
       <c r="AL12">
-        <v>142</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>26117</v>
+        <v>11167</v>
       </c>
       <c r="B13">
-        <v>26115</v>
+        <v>11181</v>
       </c>
       <c r="AA13">
-        <v>-6.0885499999999979</v>
+        <v>-14.527999999999999</v>
       </c>
       <c r="AB13">
-        <v>-4.3604400000000041</v>
+        <v>-15.794270000000004</v>
       </c>
       <c r="AC13">
-        <v>-5.9169800000000023</v>
+        <v>-15.21161</v>
       </c>
       <c r="AD13">
-        <v>-4.3895099999999942</v>
+        <v>-19.629930000000002</v>
       </c>
       <c r="AE13">
-        <v>-6.5840300000000056</v>
+        <v>-20.599080000000001</v>
       </c>
       <c r="AF13">
-        <v>-8.291569999999993</v>
+        <v>-8.0382700000000042</v>
       </c>
       <c r="AG13">
-        <v>-10.267669999999995</v>
+        <v>-15.971080000000001</v>
       </c>
       <c r="AH13">
-        <v>-5.2193100000000001</v>
+        <v>-9.9722999999999971</v>
       </c>
       <c r="AI13">
-        <v>-29.25</v>
+        <v>9.25</v>
       </c>
       <c r="AJ13">
-        <v>-37.5</v>
+        <v>68.75</v>
       </c>
       <c r="AK13">
-        <v>-36.5</v>
+        <v>57.75</v>
       </c>
       <c r="AL13">
-        <v>-39</v>
+        <v>71.25</v>
       </c>
     </row>
     <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>11085</v>
+        <v>11088</v>
       </c>
       <c r="B14">
-        <v>11153</v>
+        <v>11046</v>
       </c>
       <c r="AA14">
-        <v>-13.004530000000003</v>
+        <v>14.254350000000002</v>
       </c>
       <c r="AB14">
-        <v>-15.460290000000001</v>
+        <v>12.761420000000001</v>
       </c>
       <c r="AC14">
-        <v>-16.251220000000004</v>
+        <v>13.031559999999999</v>
       </c>
       <c r="AD14">
-        <v>-23.852550000000001</v>
+        <v>13.364800000000002</v>
       </c>
       <c r="AE14">
-        <v>-16.191890000000001</v>
+        <v>12.644719999999992</v>
       </c>
       <c r="AF14">
-        <v>-10.888840000000002</v>
+        <v>12.485579999999999</v>
       </c>
       <c r="AG14">
-        <v>-7.6606900000000024</v>
+        <v>13.818069999999992</v>
       </c>
       <c r="AH14">
-        <v>-5.0335400000000021</v>
+        <v>14.85857</v>
       </c>
       <c r="AI14">
-        <v>147.25</v>
+        <v>32</v>
       </c>
       <c r="AJ14">
-        <v>733.75</v>
+        <v>279.75</v>
       </c>
       <c r="AK14">
-        <v>967.25</v>
+        <v>341</v>
       </c>
       <c r="AL14">
-        <v>1068</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>36667</v>
+        <v>36675</v>
       </c>
       <c r="B15">
-        <v>36669</v>
+        <v>11302</v>
       </c>
       <c r="AA15">
-        <v>-19.343670000000003</v>
+        <v>-0.95703000000000316</v>
       </c>
       <c r="AB15">
-        <v>-18.021790000000003</v>
+        <v>-3.4665900000000036</v>
       </c>
       <c r="AC15">
-        <v>-19.03537</v>
+        <v>-4.0276599999999974</v>
       </c>
       <c r="AD15">
-        <v>-19.902149999999999</v>
+        <v>-5.116109999999999</v>
       </c>
       <c r="AE15">
-        <v>-18.843200000000003</v>
+        <v>-4.5497399999999999</v>
       </c>
       <c r="AF15">
-        <v>-19.311170000000004</v>
+        <v>-4.590919999999997</v>
       </c>
       <c r="AG15">
-        <v>-18.157800000000002</v>
+        <v>-3.9166000000000025</v>
       </c>
       <c r="AH15">
-        <v>-19.530709999999999</v>
+        <v>-4.0561500000000024</v>
       </c>
       <c r="AI15">
-        <v>-60.75</v>
+        <v>8.75</v>
       </c>
       <c r="AJ15">
-        <v>-56</v>
+        <v>179</v>
       </c>
       <c r="AK15">
-        <v>-56.25</v>
+        <v>215.25</v>
       </c>
       <c r="AL15">
-        <v>-52.25</v>
+        <v>209.5</v>
       </c>
     </row>
     <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>11306</v>
+        <v>11235</v>
       </c>
       <c r="B16">
-        <v>12101</v>
+        <v>11208</v>
       </c>
       <c r="AA16">
-        <v>43.145559999999996</v>
+        <v>58.970359999999999</v>
       </c>
       <c r="AB16">
-        <v>43.115780000000001</v>
+        <v>58.880299999999998</v>
       </c>
       <c r="AC16">
-        <v>43.360820000000004</v>
+        <v>58.867509999999996</v>
       </c>
       <c r="AD16">
-        <v>43.139449999999997</v>
+        <v>58.858990000000006</v>
       </c>
       <c r="AE16">
-        <v>43.199449999999999</v>
+        <v>59.05856</v>
       </c>
       <c r="AF16">
-        <v>43.445609999999995</v>
+        <v>59.136049999999997</v>
       </c>
       <c r="AG16">
-        <v>43.348480000000002</v>
+        <v>59.152919999999995</v>
       </c>
       <c r="AH16">
-        <v>44.212490000000003</v>
+        <v>59.407890000000002</v>
       </c>
       <c r="AI16">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="AJ16">
-        <v>206</v>
+        <v>109</v>
       </c>
       <c r="AK16">
-        <v>281</v>
+        <v>140</v>
       </c>
       <c r="AL16">
-        <v>333</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>11432</v>
+        <v>11171</v>
       </c>
       <c r="B17">
-        <v>11456</v>
+        <v>11158</v>
       </c>
       <c r="AA17">
-        <v>-2.1644100000000037</v>
+        <v>-18.212249999999997</v>
       </c>
       <c r="AB17">
-        <v>-3.9917000000000016</v>
+        <v>-20.727990000000005</v>
       </c>
       <c r="AC17">
-        <v>-3.1716499999999996</v>
+        <v>-21.333449999999999</v>
       </c>
       <c r="AD17">
-        <v>-3.8395399999999995</v>
+        <v>-21.706600000000002</v>
       </c>
       <c r="AE17">
-        <v>-4.4990099999999984</v>
+        <v>-20.69876</v>
       </c>
       <c r="AF17">
-        <v>7.8684499999999957</v>
+        <v>-19.739049999999999</v>
       </c>
       <c r="AG17">
-        <v>11.719099999999997</v>
+        <v>-20.42306</v>
       </c>
       <c r="AH17">
-        <v>17.180520000000001</v>
+        <v>-20.333559999999999</v>
       </c>
       <c r="AI17">
-        <v>280.75</v>
+        <v>-41.75</v>
       </c>
       <c r="AJ17">
-        <v>944</v>
+        <v>-30</v>
       </c>
       <c r="AK17">
-        <v>1185</v>
+        <v>-12.75</v>
       </c>
       <c r="AL17">
-        <v>1302.5</v>
+        <v>-12.75</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>26128</v>
+        <v>26123</v>
       </c>
       <c r="B18">
-        <v>26138</v>
+        <v>26115</v>
       </c>
       <c r="AA18">
-        <v>5.4174399999999991</v>
+        <v>1.3924999999999983</v>
       </c>
       <c r="AB18">
-        <v>5.0501900000000006</v>
+        <v>1.2166899999999998</v>
       </c>
       <c r="AC18">
-        <v>5.1671400000000034</v>
+        <v>-0.14395999999999987</v>
       </c>
       <c r="AD18">
-        <v>5.2464500000000029</v>
+        <v>-1.1674300000000031</v>
       </c>
       <c r="AE18">
-        <v>4.8314599999999999</v>
+        <v>0.55725000000000335</v>
       </c>
       <c r="AF18">
-        <v>5.2009400000000028</v>
+        <v>-0.25926999999999367</v>
       </c>
       <c r="AG18">
-        <v>5.2837300000000056</v>
+        <v>7.8199999999952752E-3</v>
       </c>
       <c r="AH18">
-        <v>5.9402400000000029</v>
+        <v>1.0195099999999968</v>
       </c>
       <c r="AI18">
-        <v>40</v>
+        <v>164.75</v>
       </c>
       <c r="AJ18">
-        <v>266</v>
+        <v>602.5</v>
       </c>
       <c r="AK18">
-        <v>379</v>
+        <v>650</v>
       </c>
       <c r="AL18">
-        <v>437</v>
+        <v>729.25</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>27985</v>
+        <v>27984</v>
       </c>
       <c r="B19">
-        <v>27983</v>
+        <v>27986</v>
       </c>
       <c r="AA19">
-        <v>-3.6851699999999923</v>
+        <v>-1.3723699999999965</v>
       </c>
       <c r="AB19">
-        <v>-6.1276599999999988</v>
+        <v>-3.7294499999999999</v>
       </c>
       <c r="AC19">
-        <v>-6.8416500000000013</v>
+        <v>-0.3067400000000049</v>
       </c>
       <c r="AD19">
-        <v>-5.8664899999999989</v>
+        <v>1.0593300000000028</v>
       </c>
       <c r="AE19">
-        <v>-6.2030900000000031</v>
+        <v>0.1828000000000003</v>
       </c>
       <c r="AF19">
-        <v>-6.2658699999999925</v>
+        <v>-0.24278000000000333</v>
       </c>
       <c r="AG19">
-        <v>6.6787500000000009</v>
+        <v>-8.9599999999947499E-3</v>
       </c>
       <c r="AH19">
-        <v>17.712619999999994</v>
+        <v>2.7505600000000001</v>
       </c>
       <c r="AI19">
-        <v>324.25</v>
+        <v>118</v>
       </c>
       <c r="AJ19">
-        <v>1001.75</v>
+        <v>410</v>
       </c>
       <c r="AK19">
-        <v>1164</v>
+        <v>447</v>
       </c>
       <c r="AL19">
-        <v>1258.5</v>
+        <v>509</v>
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>26119</v>
+        <v>38806</v>
       </c>
       <c r="B20">
-        <v>32464</v>
+        <v>36667</v>
       </c>
       <c r="AA20">
-        <v>45.08361</v>
+        <v>-9.1672999999999973</v>
       </c>
       <c r="AB20">
-        <v>45.340330000000002</v>
+        <v>-10.659790000000001</v>
       </c>
       <c r="AC20">
-        <v>43.780359999999995</v>
+        <v>-11.33569</v>
       </c>
       <c r="AD20">
-        <v>44.14958</v>
+        <v>-12.306130000000003</v>
       </c>
       <c r="AE20">
-        <v>43.588209999999997</v>
+        <v>-12.746069999999996</v>
       </c>
       <c r="AF20">
-        <v>44.42736</v>
+        <v>-12.799430000000008</v>
       </c>
       <c r="AG20">
-        <v>44.121009999999998</v>
+        <v>-13.922880000000006</v>
       </c>
       <c r="AH20">
-        <v>47.054470000000002</v>
+        <v>-13.740990000000004</v>
       </c>
       <c r="AI20">
+        <v>-30.25</v>
+      </c>
+      <c r="AJ20">
+        <v>57</v>
+      </c>
+      <c r="AK20">
         <v>64</v>
       </c>
-      <c r="AJ20">
-        <v>156</v>
-      </c>
-      <c r="AK20">
-        <v>185</v>
-      </c>
       <c r="AL20">
-        <v>198</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>11153</v>
+        <v>36666</v>
       </c>
       <c r="B21">
-        <v>11181</v>
+        <v>36664</v>
       </c>
       <c r="AA21">
-        <v>-1.5065600000000003</v>
+        <v>-0.9117999999999995</v>
       </c>
       <c r="AB21">
-        <v>-5.5128300000000081</v>
+        <v>-2.1728900000000024</v>
       </c>
       <c r="AC21">
-        <v>-1.8352599999999981</v>
+        <v>-5.6049999999999045E-2</v>
       </c>
       <c r="AD21">
-        <v>-9.0707700000000031</v>
+        <v>3.1694099999999992</v>
       </c>
       <c r="AE21">
-        <v>-6.7497100000000003</v>
+        <v>3.077849999999998</v>
       </c>
       <c r="AF21">
-        <v>3.5190800000000024</v>
+        <v>9.8225400000000036</v>
       </c>
       <c r="AG21">
-        <v>1.5184099999999958</v>
+        <v>11.673850000000002</v>
       </c>
       <c r="AH21">
-        <v>5.3374499999999969</v>
+        <v>8.8645199999999988</v>
       </c>
       <c r="AI21">
-        <v>113</v>
+        <v>19.25</v>
       </c>
       <c r="AJ21">
-        <v>650</v>
+        <v>333.5</v>
       </c>
       <c r="AK21">
-        <v>853.75</v>
+        <v>410.5</v>
       </c>
       <c r="AL21">
-        <v>946.75</v>
+        <v>514.5</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>36668</v>
+        <v>11289</v>
       </c>
       <c r="B22">
-        <v>38805</v>
+        <v>11254</v>
       </c>
       <c r="AA22">
-        <v>-10.335930000000005</v>
+        <v>6.2052400000000034</v>
       </c>
       <c r="AB22">
-        <v>-11.593930000000007</v>
+        <v>4.7783100000000047</v>
       </c>
       <c r="AC22">
-        <v>-12.051450000000003</v>
+        <v>5.7620100000000036</v>
       </c>
       <c r="AD22">
-        <v>-12.129559999999998</v>
+        <v>5.5581999999999994</v>
       </c>
       <c r="AE22">
-        <v>-12.215150000000001</v>
+        <v>4.453559999999996</v>
       </c>
       <c r="AF22">
-        <v>-12.323099999999997</v>
+        <v>5.0289199999999994</v>
       </c>
       <c r="AG22">
-        <v>-12.517869999999995</v>
+        <v>4.4912000000000063</v>
       </c>
       <c r="AH22">
-        <v>-11.745759999999997</v>
+        <v>5.7470699999999937</v>
       </c>
       <c r="AI22">
-        <v>49.5</v>
+        <v>51.25</v>
       </c>
       <c r="AJ22">
-        <v>389</v>
+        <v>301.75</v>
       </c>
       <c r="AK22">
-        <v>497.75</v>
+        <v>339.5</v>
       </c>
       <c r="AL22">
-        <v>598</v>
+        <v>391.5</v>
       </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23">
+        <v>27996</v>
+      </c>
+      <c r="B23">
         <v>27998</v>
       </c>
-      <c r="B23">
-        <v>28006</v>
-      </c>
       <c r="AA23">
-        <v>0.2296400000000034</v>
+        <v>3.2242099999999994</v>
       </c>
       <c r="AB23">
-        <v>0.13546999999999798</v>
+        <v>1.6668000000000021</v>
       </c>
       <c r="AC23">
-        <v>-0.28444000000000358</v>
+        <v>1.7913199999999918</v>
       </c>
       <c r="AD23">
-        <v>-1.4673000000000016</v>
+        <v>1.6397800000000018</v>
       </c>
       <c r="AE23">
-        <v>-0.28704000000000462</v>
+        <v>2.1768099999999961</v>
       </c>
       <c r="AF23">
-        <v>-0.78079999999999927</v>
+        <v>2.4692999999999969</v>
       </c>
       <c r="AG23">
-        <v>-0.13429000000000002</v>
+        <v>3.5071099999999973</v>
       </c>
       <c r="AH23">
-        <v>0.2032999999999987</v>
+        <v>3.3974199999999968</v>
       </c>
       <c r="AI23">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="AJ23">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="AK23">
-        <v>540.5</v>
+        <v>591.25</v>
       </c>
       <c r="AL23">
-        <v>658.75</v>
+        <v>691.5</v>
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>28017</v>
+        <v>26117</v>
       </c>
       <c r="B24">
-        <v>28013</v>
+        <v>26115</v>
       </c>
       <c r="AA24">
-        <v>0.43904000000000565</v>
+        <v>-6.0885499999999979</v>
       </c>
       <c r="AB24">
-        <v>-1.8744900000000015</v>
+        <v>-4.3604400000000041</v>
       </c>
       <c r="AC24">
-        <v>-1.7129800000000017</v>
+        <v>-5.9169800000000023</v>
       </c>
       <c r="AD24">
-        <v>0.34388000000000574</v>
+        <v>-4.3895099999999942</v>
       </c>
       <c r="AE24">
-        <v>-0.58104000000000156</v>
+        <v>-6.5840300000000056</v>
       </c>
       <c r="AF24">
-        <v>-0.56131999999999493</v>
+        <v>-8.291569999999993</v>
       </c>
       <c r="AG24">
-        <v>-8.0369999999994945E-2</v>
+        <v>-10.267669999999995</v>
       </c>
       <c r="AH24">
-        <v>0.30401999999999418</v>
+        <v>-5.2193100000000001</v>
       </c>
       <c r="AI24">
-        <v>284</v>
+        <v>-29.25</v>
       </c>
       <c r="AJ24">
-        <v>684</v>
+        <v>-37.5</v>
       </c>
       <c r="AK24">
-        <v>747.25</v>
+        <v>-36.5</v>
       </c>
       <c r="AL24">
-        <v>746</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>36663</v>
+        <v>38805</v>
       </c>
       <c r="B25">
-        <v>36665</v>
+        <v>36666</v>
       </c>
       <c r="AA25">
-        <v>-2.4757999999999996</v>
+        <v>-5.6595800000000054</v>
       </c>
       <c r="AB25">
-        <v>-3.6893600000000006</v>
+        <v>-6.8594399999999993</v>
       </c>
       <c r="AC25">
-        <v>-3.8793300000000031</v>
+        <v>-7.5128500000000003</v>
       </c>
       <c r="AD25">
-        <v>-4.3199199999999962</v>
+        <v>-6.2865699999999975</v>
       </c>
       <c r="AE25">
-        <v>-4.2799900000000051</v>
+        <v>-6.0675999999999988</v>
       </c>
       <c r="AF25">
-        <v>-4.6036900000000003</v>
+        <v>-3.0421499999999995</v>
       </c>
       <c r="AG25">
-        <v>-4.9635499999999979</v>
+        <v>1.3365300000000033</v>
       </c>
       <c r="AH25">
-        <v>-5.5121199999999959</v>
+        <v>2.040469999999992</v>
       </c>
       <c r="AI25">
-        <v>-25.25</v>
+        <v>26.5</v>
       </c>
       <c r="AJ25">
-        <v>48.25</v>
+        <v>402.75</v>
       </c>
       <c r="AK25">
-        <v>57.5</v>
+        <v>487.5</v>
       </c>
       <c r="AL25">
-        <v>88.5</v>
+        <v>593.25</v>
       </c>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>36675</v>
+        <v>27977</v>
       </c>
       <c r="B26">
-        <v>11302</v>
+        <v>27975</v>
       </c>
       <c r="AA26">
-        <v>-0.95703000000000316</v>
+        <v>-1.7711300000000065</v>
       </c>
       <c r="AB26">
-        <v>-3.4665900000000036</v>
+        <v>-6.094530000000006</v>
       </c>
       <c r="AC26">
-        <v>-4.0276599999999974</v>
+        <v>-18.838819999999998</v>
       </c>
       <c r="AD26">
-        <v>-5.116109999999999</v>
+        <v>-17.129899999999999</v>
       </c>
       <c r="AE26">
-        <v>-4.5497399999999999</v>
+        <v>-16.302040000000005</v>
       </c>
       <c r="AF26">
-        <v>-4.590919999999997</v>
+        <v>1.7673099999999948</v>
       </c>
       <c r="AG26">
-        <v>-3.9166000000000025</v>
+        <v>10.04504</v>
       </c>
       <c r="AH26">
-        <v>-4.0561500000000024</v>
+        <v>24.922809999999998</v>
       </c>
       <c r="AI26">
-        <v>8.75</v>
+        <v>235.75</v>
       </c>
       <c r="AJ26">
-        <v>179</v>
+        <v>826</v>
       </c>
       <c r="AK26">
-        <v>215.25</v>
+        <v>971.5</v>
       </c>
       <c r="AL26">
-        <v>209.5</v>
+        <v>1092.25</v>
       </c>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>11256</v>
+        <v>11359</v>
       </c>
       <c r="B27">
-        <v>11290</v>
+        <v>11383</v>
       </c>
       <c r="AA27">
-        <v>-5.5892499999999998</v>
+        <v>-13.460059999999999</v>
       </c>
       <c r="AB27">
-        <v>-8.9739800000000045</v>
+        <v>-12.438109999999995</v>
       </c>
       <c r="AC27">
-        <v>-9.3937999999999988</v>
+        <v>-10.668819999999997</v>
       </c>
       <c r="AD27">
-        <v>-12.996590000000005</v>
+        <v>-11.074480000000001</v>
       </c>
       <c r="AE27">
-        <v>-16.944499999999998</v>
+        <v>-10.533290000000001</v>
       </c>
       <c r="AF27">
-        <v>-7.3713100000000011</v>
+        <v>-0.74753000000000469</v>
       </c>
       <c r="AG27">
-        <v>1.8842599999999976</v>
+        <v>6.0545300000000069</v>
       </c>
       <c r="AH27">
-        <v>3.6279400000000024</v>
+        <v>4.89846</v>
       </c>
       <c r="AI27">
-        <v>92.5</v>
+        <v>111.75</v>
       </c>
       <c r="AJ27">
-        <v>650.75</v>
+        <v>177.25</v>
       </c>
       <c r="AK27">
-        <v>851</v>
+        <v>282.25</v>
       </c>
       <c r="AL27">
-        <v>915.75</v>
+        <v>288.5</v>
       </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>26123</v>
+        <v>11271</v>
       </c>
       <c r="B28">
-        <v>26115</v>
+        <v>11290</v>
       </c>
       <c r="AA28">
-        <v>1.3924999999999983</v>
+        <v>-8.7819199999999995</v>
       </c>
       <c r="AB28">
-        <v>1.2166899999999998</v>
+        <v>-7.8072099999999978</v>
       </c>
       <c r="AC28">
-        <v>-0.14395999999999987</v>
+        <v>-8.8376499999999965</v>
       </c>
       <c r="AD28">
-        <v>-1.1674300000000031</v>
+        <v>-7.984250000000003</v>
       </c>
       <c r="AE28">
-        <v>0.55725000000000335</v>
+        <v>-7.9137199999999979</v>
       </c>
       <c r="AF28">
-        <v>-0.25926999999999367</v>
+        <v>-8.3531599999999955</v>
       </c>
       <c r="AG28">
-        <v>7.8199999999952752E-3</v>
+        <v>-8.4178799999999967</v>
       </c>
       <c r="AH28">
-        <v>1.0195099999999968</v>
+        <v>-8.0984100000000012</v>
       </c>
       <c r="AI28">
-        <v>164.75</v>
+        <v>68.5</v>
       </c>
       <c r="AJ28">
-        <v>602.5</v>
+        <v>124</v>
       </c>
       <c r="AK28">
-        <v>650</v>
+        <v>148.25</v>
       </c>
       <c r="AL28">
-        <v>729.25</v>
+        <v>142.5</v>
       </c>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>26116</v>
+        <v>27640</v>
       </c>
       <c r="B29">
-        <v>26126</v>
+        <v>27999</v>
       </c>
       <c r="AA29">
-        <v>-13.641169999999995</v>
+        <v>18.286209999999997</v>
       </c>
       <c r="AB29">
-        <v>-12.562930000000001</v>
+        <v>18.674690000000005</v>
       </c>
       <c r="AC29">
-        <v>-12.582059999999998</v>
+        <v>19.559649999999998</v>
       </c>
       <c r="AD29">
-        <v>-12.293569999999995</v>
+        <v>18.599569999999993</v>
       </c>
       <c r="AE29">
-        <v>-11.914269999999995</v>
+        <v>18.513159999999999</v>
       </c>
       <c r="AF29">
-        <v>-8.8952900000000028</v>
+        <v>17.936780000000006</v>
       </c>
       <c r="AG29">
-        <v>-3.0753900000000058</v>
+        <v>17.474819999999994</v>
       </c>
       <c r="AH29">
-        <v>-3.8881000000000014</v>
+        <v>18.597499999999997</v>
       </c>
       <c r="AI29">
-        <v>-35</v>
+        <v>-32</v>
       </c>
       <c r="AJ29">
-        <v>-22</v>
+        <v>-35.5</v>
       </c>
       <c r="AK29">
-        <v>-33.5</v>
+        <v>-29.25</v>
       </c>
       <c r="AL29">
-        <v>-19.5</v>
+        <v>-21.5</v>
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>11429</v>
+        <v>32464</v>
       </c>
       <c r="B30">
-        <v>11456</v>
+        <v>26120</v>
       </c>
       <c r="AA30">
-        <v>10.498860000000001</v>
+        <v>-22.579350000000002</v>
       </c>
       <c r="AB30">
-        <v>10.139899999999997</v>
+        <v>-22.557559999999999</v>
       </c>
       <c r="AC30">
-        <v>9.8537600000000012</v>
+        <v>-22.596109999999996</v>
       </c>
       <c r="AD30">
-        <v>9.4240300000000019</v>
+        <v>-22.753459999999997</v>
       </c>
       <c r="AE30">
-        <v>9.9593899999999991</v>
+        <v>-22.86805</v>
       </c>
       <c r="AF30">
-        <v>15.24324</v>
+        <v>-22.771690000000003</v>
       </c>
       <c r="AG30">
-        <v>17.407159999999998</v>
+        <v>-22.589740000000003</v>
       </c>
       <c r="AH30">
-        <v>19.540030000000002</v>
+        <v>-22.10012</v>
       </c>
       <c r="AI30">
-        <v>0.25</v>
+        <v>-27</v>
       </c>
       <c r="AJ30">
-        <v>40.75</v>
+        <v>-23</v>
       </c>
       <c r="AK30">
-        <v>39</v>
+        <v>-19</v>
       </c>
       <c r="AL30">
-        <v>35.25</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>27987</v>
+        <v>11333</v>
       </c>
       <c r="B31">
-        <v>27985</v>
+        <v>11383</v>
       </c>
       <c r="AA31">
-        <v>3.2152900000000031</v>
+        <v>-4.2531900000000036</v>
       </c>
       <c r="AB31">
-        <v>2.4536999999999978</v>
+        <v>-7.834699999999998</v>
       </c>
       <c r="AC31">
-        <v>2.7599000000000018</v>
+        <v>-9.2312900000000013</v>
       </c>
       <c r="AD31">
-        <v>3.2860800000000054</v>
+        <v>-9.981669999999994</v>
       </c>
       <c r="AE31">
-        <v>3.9787300000000059</v>
+        <v>-15.345659999999995</v>
       </c>
       <c r="AF31">
-        <v>3.1709900000000033</v>
+        <v>-0.77168000000000347</v>
       </c>
       <c r="AG31">
-        <v>4.2747300000000052</v>
+        <v>7.2184099999999987</v>
       </c>
       <c r="AH31">
-        <v>6.698360000000001</v>
+        <v>9.1328400000000016</v>
       </c>
       <c r="AI31">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="AJ31">
-        <v>564</v>
+        <v>731.25</v>
       </c>
       <c r="AK31">
-        <v>648</v>
+        <v>905</v>
       </c>
       <c r="AL31">
-        <v>689</v>
+        <v>1015.25</v>
       </c>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>27999</v>
+        <v>36668</v>
       </c>
       <c r="B32">
-        <v>27997</v>
+        <v>38805</v>
       </c>
       <c r="AA32">
-        <v>-1.6325300000000027</v>
+        <v>-10.335930000000005</v>
       </c>
       <c r="AB32">
-        <v>-3.627830000000003</v>
+        <v>-11.593930000000007</v>
       </c>
       <c r="AC32">
-        <v>-8.3976199999999963</v>
+        <v>-12.051450000000003</v>
       </c>
       <c r="AD32">
-        <v>-1.8428100000000001</v>
+        <v>-12.129559999999998</v>
       </c>
       <c r="AE32">
-        <v>-1.7058900000000037</v>
+        <v>-12.215150000000001</v>
       </c>
       <c r="AF32">
-        <v>-1.0001999999999995</v>
+        <v>-12.323099999999997</v>
       </c>
       <c r="AG32">
-        <v>-0.35125000000000028</v>
+        <v>-12.517869999999995</v>
       </c>
       <c r="AH32">
-        <v>1.3601000000000028</v>
+        <v>-11.745759999999997</v>
       </c>
       <c r="AI32">
-        <v>354</v>
+        <v>49.5</v>
       </c>
       <c r="AJ32">
-        <v>877</v>
+        <v>389</v>
       </c>
       <c r="AK32">
-        <v>946</v>
+        <v>497.75</v>
       </c>
       <c r="AL32">
-        <v>993</v>
+        <v>598</v>
       </c>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>27640</v>
+        <v>36673</v>
       </c>
       <c r="B33">
-        <v>27999</v>
+        <v>36675</v>
       </c>
       <c r="AA33">
-        <v>18.286209999999997</v>
+        <v>-3.2865699999999975</v>
       </c>
       <c r="AB33">
-        <v>18.674690000000005</v>
+        <v>-5.2390300000000067</v>
       </c>
       <c r="AC33">
-        <v>19.559649999999998</v>
+        <v>-5.2876699999999985</v>
       </c>
       <c r="AD33">
-        <v>18.599569999999993</v>
+        <v>-5.9641900000000021</v>
       </c>
       <c r="AE33">
-        <v>18.513159999999999</v>
+        <v>-5.8928300000000036</v>
       </c>
       <c r="AF33">
-        <v>17.936780000000006</v>
+        <v>-6.6681800000000067</v>
       </c>
       <c r="AG33">
-        <v>17.474819999999994</v>
+        <v>-6.0541300000000078</v>
       </c>
       <c r="AH33">
-        <v>18.597499999999997</v>
+        <v>-5.825019999999995</v>
       </c>
       <c r="AI33">
-        <v>-32</v>
+        <v>-29.75</v>
       </c>
       <c r="AJ33">
-        <v>-35.5</v>
+        <v>49.75</v>
       </c>
       <c r="AK33">
-        <v>-29.25</v>
+        <v>67.75</v>
       </c>
       <c r="AL33">
-        <v>-21.5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>27996</v>
+        <v>11070</v>
       </c>
       <c r="B34">
-        <v>27998</v>
+        <v>11085</v>
       </c>
       <c r="AA34">
-        <v>3.2242099999999994</v>
+        <v>-2.7411300000000054</v>
       </c>
       <c r="AB34">
-        <v>1.6668000000000021</v>
+        <v>29.275469999999999</v>
       </c>
       <c r="AC34">
-        <v>1.7913199999999918</v>
+        <v>10.801069999999996</v>
       </c>
       <c r="AD34">
-        <v>1.6397800000000018</v>
+        <v>14.25</v>
       </c>
       <c r="AE34">
-        <v>2.1768099999999961</v>
+        <v>-1.3948400000000021</v>
       </c>
       <c r="AF34">
-        <v>2.4692999999999969</v>
+        <v>-1.7238900000000044</v>
       </c>
       <c r="AG34">
-        <v>3.5071099999999973</v>
+        <v>14.049530000000004</v>
       </c>
       <c r="AH34">
-        <v>3.3974199999999968</v>
+        <v>-2.75</v>
       </c>
       <c r="AI34">
-        <v>134</v>
+        <v>-62.5</v>
       </c>
       <c r="AJ34">
-        <v>512</v>
+        <v>-63</v>
       </c>
       <c r="AK34">
-        <v>591.25</v>
+        <v>-60.75</v>
       </c>
       <c r="AL34">
-        <v>691.5</v>
+        <v>-59.25</v>
       </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>38805</v>
+        <v>11341</v>
       </c>
       <c r="B35">
-        <v>36666</v>
+        <v>11289</v>
       </c>
       <c r="AA35">
-        <v>-5.6595800000000054</v>
+        <v>10.712339999999998</v>
       </c>
       <c r="AB35">
-        <v>-6.8594399999999993</v>
+        <v>5.132559999999998</v>
       </c>
       <c r="AC35">
-        <v>-7.5128500000000003</v>
+        <v>4.8481699999999961</v>
       </c>
       <c r="AD35">
-        <v>-6.2865699999999975</v>
+        <v>4.2703400000000045</v>
       </c>
       <c r="AE35">
-        <v>-6.0675999999999988</v>
+        <v>3.8003900000000073</v>
       </c>
       <c r="AF35">
-        <v>-3.0421499999999995</v>
+        <v>3.8501100000000008</v>
       </c>
       <c r="AG35">
-        <v>1.3365300000000033</v>
+        <v>3.7898899999999998</v>
       </c>
       <c r="AH35">
-        <v>2.040469999999992</v>
+        <v>4.7896400000000057</v>
       </c>
       <c r="AI35">
-        <v>26.5</v>
+        <v>95.25</v>
       </c>
       <c r="AJ35">
-        <v>402.75</v>
+        <v>367.5</v>
       </c>
       <c r="AK35">
-        <v>487.5</v>
+        <v>444.25</v>
       </c>
       <c r="AL35">
-        <v>593.25</v>
+        <v>490.75</v>
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>36672</v>
+        <v>26124</v>
       </c>
       <c r="B36">
-        <v>36668</v>
+        <v>26126</v>
       </c>
       <c r="AA36">
-        <v>-9.5959300000000027</v>
+        <v>-6.1748599999999954</v>
       </c>
       <c r="AB36">
-        <v>-11.953189999999999</v>
+        <v>-6.5625300000000024</v>
       </c>
       <c r="AC36">
-        <v>-13.864980000000003</v>
+        <v>-5.5536699999999968</v>
       </c>
       <c r="AD36">
-        <v>-13.125269999999993</v>
+        <v>-5.1347099999999983</v>
       </c>
       <c r="AE36">
-        <v>-13.709180000000003</v>
+        <v>-0.75630999999999915</v>
       </c>
       <c r="AF36">
-        <v>-12.173299999999998</v>
+        <v>8.1317300000000046</v>
       </c>
       <c r="AG36">
-        <v>-10.576560000000001</v>
+        <v>15.010380000000005</v>
       </c>
       <c r="AH36">
-        <v>-11.963019999999993</v>
+        <v>11.820250000000001</v>
       </c>
       <c r="AI36">
-        <v>-63.75</v>
+        <v>194.75</v>
       </c>
       <c r="AJ36">
-        <v>-63.75</v>
+        <v>843.5</v>
       </c>
       <c r="AK36">
-        <v>-63.25</v>
+        <v>1040.5</v>
       </c>
       <c r="AL36">
-        <v>-56.5</v>
+        <v>1169.25</v>
       </c>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>26124</v>
+        <v>11181</v>
       </c>
       <c r="B37">
-        <v>26126</v>
+        <v>11256</v>
       </c>
       <c r="AA37">
-        <v>-6.1748599999999954</v>
+        <v>-12.852419999999995</v>
       </c>
       <c r="AB37">
-        <v>-6.5625300000000024</v>
+        <v>-17.830629999999999</v>
       </c>
       <c r="AC37">
-        <v>-5.5536699999999968</v>
+        <v>-16.579090000000001</v>
       </c>
       <c r="AD37">
-        <v>-5.1347099999999983</v>
+        <v>-27.717410000000001</v>
       </c>
       <c r="AE37">
-        <v>-0.75630999999999915</v>
+        <v>-23.596719999999998</v>
       </c>
       <c r="AF37">
-        <v>8.1317300000000046</v>
+        <v>-14.793810000000001</v>
       </c>
       <c r="AG37">
-        <v>15.010380000000005</v>
+        <v>-4.7614800000000059</v>
       </c>
       <c r="AH37">
-        <v>11.820250000000001</v>
+        <v>2.0754999999999981</v>
       </c>
       <c r="AI37">
-        <v>194.75</v>
+        <v>164.5</v>
       </c>
       <c r="AJ37">
-        <v>843.5</v>
+        <v>754.25</v>
       </c>
       <c r="AK37">
-        <v>1040.5</v>
+        <v>968.25</v>
       </c>
       <c r="AL37">
-        <v>1169.25</v>
+        <v>1068.5</v>
       </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.3">
@@ -5324,1102 +5324,1102 @@
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>11384</v>
+        <v>11441</v>
       </c>
       <c r="B39">
-        <v>11341</v>
+        <v>11415</v>
       </c>
       <c r="AA39">
-        <v>3.9627100000000013</v>
+        <v>47.88841</v>
       </c>
       <c r="AB39">
-        <v>5.2797099999999944</v>
+        <v>49.62265</v>
       </c>
       <c r="AC39">
-        <v>3.6176300000000055</v>
+        <v>49.256909999999998</v>
       </c>
       <c r="AD39">
-        <v>2.379170000000002</v>
+        <v>48.228359999999995</v>
       </c>
       <c r="AE39">
-        <v>4.2282900000000012</v>
+        <v>47.199059999999996</v>
       </c>
       <c r="AF39">
-        <v>7.7387300000000039</v>
+        <v>48.514809999999997</v>
       </c>
       <c r="AG39">
-        <v>8.3829099999999954</v>
+        <v>46.332450000000001</v>
       </c>
       <c r="AH39">
-        <v>6.9088600000000042</v>
+        <v>50.449719999999999</v>
       </c>
       <c r="AI39">
-        <v>55.5</v>
+        <v>40</v>
       </c>
       <c r="AJ39">
-        <v>322</v>
+        <v>53</v>
       </c>
       <c r="AK39">
-        <v>355</v>
+        <v>55</v>
       </c>
       <c r="AL39">
-        <v>415.5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>11070</v>
+        <v>26128</v>
       </c>
       <c r="B40">
-        <v>11085</v>
+        <v>26138</v>
       </c>
       <c r="AA40">
-        <v>-2.7411300000000054</v>
+        <v>5.4174399999999991</v>
       </c>
       <c r="AB40">
-        <v>29.275469999999999</v>
+        <v>5.0501900000000006</v>
       </c>
       <c r="AC40">
-        <v>10.801069999999996</v>
+        <v>5.1671400000000034</v>
       </c>
       <c r="AD40">
-        <v>14.25</v>
+        <v>5.2464500000000029</v>
       </c>
       <c r="AE40">
-        <v>-1.3948400000000021</v>
+        <v>4.8314599999999999</v>
       </c>
       <c r="AF40">
-        <v>-1.7238900000000044</v>
+        <v>5.2009400000000028</v>
       </c>
       <c r="AG40">
-        <v>14.049530000000004</v>
+        <v>5.2837300000000056</v>
       </c>
       <c r="AH40">
-        <v>-2.75</v>
+        <v>5.9402400000000029</v>
       </c>
       <c r="AI40">
-        <v>-62.5</v>
+        <v>40</v>
       </c>
       <c r="AJ40">
-        <v>-63</v>
+        <v>266</v>
       </c>
       <c r="AK40">
-        <v>-60.75</v>
+        <v>379</v>
       </c>
       <c r="AL40">
-        <v>-59.25</v>
+        <v>437</v>
       </c>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>11267</v>
+        <v>27985</v>
       </c>
       <c r="B41">
-        <v>11300</v>
+        <v>27983</v>
       </c>
       <c r="AA41">
-        <v>57.792080000000006</v>
+        <v>-3.6851699999999923</v>
       </c>
       <c r="AB41">
-        <v>57.441330000000008</v>
+        <v>-6.1276599999999988</v>
       </c>
       <c r="AC41">
-        <v>57.589500000000001</v>
+        <v>-6.8416500000000013</v>
       </c>
       <c r="AD41">
-        <v>57.686140000000002</v>
+        <v>-5.8664899999999989</v>
       </c>
       <c r="AE41">
-        <v>57.837230000000005</v>
+        <v>-6.2030900000000031</v>
       </c>
       <c r="AF41">
-        <v>57.978999999999999</v>
+        <v>-6.2658699999999925</v>
       </c>
       <c r="AG41">
-        <v>58.031040000000004</v>
+        <v>6.6787500000000009</v>
       </c>
       <c r="AH41">
-        <v>58.532559999999997</v>
+        <v>17.712619999999994</v>
       </c>
       <c r="AI41">
-        <v>236</v>
+        <v>324.25</v>
       </c>
       <c r="AJ41">
-        <v>565</v>
+        <v>1001.75</v>
       </c>
       <c r="AK41">
-        <v>660</v>
+        <v>1164</v>
       </c>
       <c r="AL41">
-        <v>777</v>
+        <v>1258.5</v>
       </c>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>11441</v>
+        <v>11254</v>
       </c>
       <c r="B42">
-        <v>11415</v>
+        <v>11182</v>
       </c>
       <c r="AA42">
-        <v>47.88841</v>
+        <v>5.2950099999999907</v>
       </c>
       <c r="AB42">
-        <v>49.62265</v>
+        <v>2.9465699999999941</v>
       </c>
       <c r="AC42">
-        <v>49.256909999999998</v>
+        <v>2.6376400000000046</v>
       </c>
       <c r="AD42">
-        <v>48.228359999999995</v>
+        <v>1.1142199999999889</v>
       </c>
       <c r="AE42">
-        <v>47.199059999999996</v>
+        <v>0.93233000000000743</v>
       </c>
       <c r="AF42">
-        <v>48.514809999999997</v>
+        <v>1.5862000000000052</v>
       </c>
       <c r="AG42">
-        <v>46.332450000000001</v>
+        <v>1.1148199999999946</v>
       </c>
       <c r="AH42">
-        <v>50.449719999999999</v>
+        <v>2.076580000000007</v>
       </c>
       <c r="AI42">
-        <v>40</v>
+        <v>82.25</v>
       </c>
       <c r="AJ42">
-        <v>53</v>
+        <v>372.25</v>
       </c>
       <c r="AK42">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="AL42">
-        <v>65</v>
+        <v>469.5</v>
       </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>11088</v>
+        <v>26119</v>
       </c>
       <c r="B43">
-        <v>11046</v>
+        <v>32464</v>
       </c>
       <c r="AA43">
-        <v>14.254350000000002</v>
+        <v>45.08361</v>
       </c>
       <c r="AB43">
-        <v>12.761420000000001</v>
+        <v>45.340330000000002</v>
       </c>
       <c r="AC43">
-        <v>13.031559999999999</v>
+        <v>43.780359999999995</v>
       </c>
       <c r="AD43">
-        <v>13.364800000000002</v>
+        <v>44.14958</v>
       </c>
       <c r="AE43">
-        <v>12.644719999999992</v>
+        <v>43.588209999999997</v>
       </c>
       <c r="AF43">
-        <v>12.485579999999999</v>
+        <v>44.42736</v>
       </c>
       <c r="AG43">
-        <v>13.818069999999992</v>
+        <v>44.121009999999998</v>
       </c>
       <c r="AH43">
-        <v>14.85857</v>
+        <v>47.054470000000002</v>
       </c>
       <c r="AI43">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="AJ43">
-        <v>279.75</v>
+        <v>156</v>
       </c>
       <c r="AK43">
-        <v>341</v>
+        <v>185</v>
       </c>
       <c r="AL43">
-        <v>384</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>28003</v>
+        <v>28012</v>
       </c>
       <c r="B44">
-        <v>27999</v>
+        <v>28016</v>
       </c>
       <c r="AA44">
-        <v>4.7385400000000004</v>
+        <v>6.526680000000006</v>
       </c>
       <c r="AB44">
-        <v>1.8315300000000079</v>
+        <v>5.8068099999999987</v>
       </c>
       <c r="AC44">
-        <v>1.2708099999999973</v>
+        <v>4.7112300000000076</v>
       </c>
       <c r="AD44">
-        <v>3.4506500000000031</v>
+        <v>4.6258300000000077</v>
       </c>
       <c r="AE44">
-        <v>3.7521699999999925</v>
+        <v>3.8130499999999969</v>
       </c>
       <c r="AF44">
-        <v>3.7828400000000002</v>
+        <v>4.4876000000000005</v>
       </c>
       <c r="AG44">
-        <v>5.5059199999999962</v>
+        <v>4.5955500000000029</v>
       </c>
       <c r="AH44">
-        <v>7.6563900000000018</v>
+        <v>5.5441500000000019</v>
       </c>
       <c r="AI44">
-        <v>372</v>
+        <v>25.25</v>
       </c>
       <c r="AJ44">
-        <v>887.5</v>
+        <v>315</v>
       </c>
       <c r="AK44">
-        <v>939.75</v>
+        <v>386.5</v>
       </c>
       <c r="AL44">
-        <v>986.5</v>
+        <v>462.25</v>
       </c>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>11341</v>
+        <v>27999</v>
       </c>
       <c r="B45">
-        <v>11289</v>
+        <v>27997</v>
       </c>
       <c r="AA45">
-        <v>10.712339999999998</v>
+        <v>-1.6325300000000027</v>
       </c>
       <c r="AB45">
-        <v>5.132559999999998</v>
+        <v>-3.627830000000003</v>
       </c>
       <c r="AC45">
-        <v>4.8481699999999961</v>
+        <v>-8.3976199999999963</v>
       </c>
       <c r="AD45">
-        <v>4.2703400000000045</v>
+        <v>-1.8428100000000001</v>
       </c>
       <c r="AE45">
-        <v>3.8003900000000073</v>
+        <v>-1.7058900000000037</v>
       </c>
       <c r="AF45">
-        <v>3.8501100000000008</v>
+        <v>-1.0001999999999995</v>
       </c>
       <c r="AG45">
-        <v>3.7898899999999998</v>
+        <v>-0.35125000000000028</v>
       </c>
       <c r="AH45">
-        <v>4.7896400000000057</v>
+        <v>1.3601000000000028</v>
       </c>
       <c r="AI45">
-        <v>95.25</v>
+        <v>354</v>
       </c>
       <c r="AJ45">
-        <v>367.5</v>
+        <v>877</v>
       </c>
       <c r="AK45">
-        <v>444.25</v>
+        <v>946</v>
       </c>
       <c r="AL45">
-        <v>490.75</v>
+        <v>993</v>
       </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>11300</v>
+        <v>11302</v>
       </c>
       <c r="B46">
-        <v>36674</v>
+        <v>11268</v>
       </c>
       <c r="AA46">
-        <v>49.999690000000001</v>
+        <v>-4.2198899999999995</v>
       </c>
       <c r="AB46">
-        <v>48.893329999999999</v>
+        <v>-5.2152400000000014</v>
       </c>
       <c r="AC46">
-        <v>47.310229999999997</v>
+        <v>-5.0636300000000034</v>
       </c>
       <c r="AD46">
-        <v>43.839859999999994</v>
+        <v>-6.4677000000000007</v>
       </c>
       <c r="AE46">
-        <v>40.255759999999995</v>
+        <v>-6.3569499999999977</v>
       </c>
       <c r="AF46">
-        <v>40.13147</v>
+        <v>-6.1585499999999982</v>
       </c>
       <c r="AG46">
-        <v>39.602129999999995</v>
+        <v>-6.2785500000000027</v>
       </c>
       <c r="AH46">
-        <v>42.633490000000002</v>
+        <v>-5.553919999999998</v>
       </c>
       <c r="AI46">
-        <v>285</v>
+        <v>-31.25</v>
       </c>
       <c r="AJ46">
-        <v>700</v>
+        <v>129.75</v>
       </c>
       <c r="AK46">
-        <v>823</v>
+        <v>158.25</v>
       </c>
       <c r="AL46">
-        <v>937</v>
+        <v>149.25</v>
       </c>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>11459</v>
+        <v>11269</v>
       </c>
       <c r="B47">
-        <v>11436</v>
+        <v>11254</v>
       </c>
       <c r="AA47">
-        <v>69.002679999999998</v>
+        <v>1.4875400000000027</v>
       </c>
       <c r="AB47">
-        <v>69.062539999999998</v>
+        <v>-0.19415999999999656</v>
       </c>
       <c r="AC47">
-        <v>68.665549999999996</v>
+        <v>0.44540999999999542</v>
       </c>
       <c r="AD47">
-        <v>68.394099999999995</v>
+        <v>0.30041999999999547</v>
       </c>
       <c r="AE47">
-        <v>68.498840000000001</v>
+        <v>-1.3416699999999935</v>
       </c>
       <c r="AF47">
-        <v>68.608590000000007</v>
+        <v>-1.1088800000000063</v>
       </c>
       <c r="AG47">
-        <v>68.987160000000003</v>
+        <v>-3.0428899999999999</v>
       </c>
       <c r="AH47">
-        <v>69.753159999999994</v>
+        <v>-0.46749000000000507</v>
       </c>
       <c r="AI47">
-        <v>161</v>
+        <v>-16.5</v>
       </c>
       <c r="AJ47">
-        <v>543</v>
+        <v>25</v>
       </c>
       <c r="AK47">
-        <v>565</v>
+        <v>19.75</v>
       </c>
       <c r="AL47">
-        <v>649</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>11254</v>
+        <v>26139</v>
       </c>
       <c r="B48">
-        <v>11182</v>
+        <v>26129</v>
       </c>
       <c r="AA48">
-        <v>5.2950099999999907</v>
+        <v>-4.9303699999999964</v>
       </c>
       <c r="AB48">
-        <v>2.9465699999999941</v>
+        <v>-4.9788599999999974</v>
       </c>
       <c r="AC48">
-        <v>2.6376400000000046</v>
+        <v>-5.6937800000000038</v>
       </c>
       <c r="AD48">
-        <v>1.1142199999999889</v>
+        <v>-5.653330000000004</v>
       </c>
       <c r="AE48">
-        <v>0.93233000000000743</v>
+        <v>-5.5425599999999946</v>
       </c>
       <c r="AF48">
-        <v>1.5862000000000052</v>
+        <v>-4.8259599999999949</v>
       </c>
       <c r="AG48">
-        <v>1.1148199999999946</v>
+        <v>-4.3869199999999964</v>
       </c>
       <c r="AH48">
-        <v>2.076580000000007</v>
+        <v>-2.2679800000000085</v>
       </c>
       <c r="AI48">
-        <v>82.25</v>
+        <v>114</v>
       </c>
       <c r="AJ48">
-        <v>372.25</v>
+        <v>311</v>
       </c>
       <c r="AK48">
-        <v>410</v>
+        <v>354</v>
       </c>
       <c r="AL48">
-        <v>469.5</v>
+        <v>432</v>
       </c>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>11302</v>
+        <v>28003</v>
       </c>
       <c r="B49">
-        <v>11268</v>
+        <v>27999</v>
       </c>
       <c r="AA49">
-        <v>-4.2198899999999995</v>
+        <v>4.7385400000000004</v>
       </c>
       <c r="AB49">
-        <v>-5.2152400000000014</v>
+        <v>1.8315300000000079</v>
       </c>
       <c r="AC49">
-        <v>-5.0636300000000034</v>
+        <v>1.2708099999999973</v>
       </c>
       <c r="AD49">
-        <v>-6.4677000000000007</v>
+        <v>3.4506500000000031</v>
       </c>
       <c r="AE49">
-        <v>-6.3569499999999977</v>
+        <v>3.7521699999999925</v>
       </c>
       <c r="AF49">
-        <v>-6.1585499999999982</v>
+        <v>3.7828400000000002</v>
       </c>
       <c r="AG49">
-        <v>-6.2785500000000027</v>
+        <v>5.5059199999999962</v>
       </c>
       <c r="AH49">
-        <v>-5.553919999999998</v>
+        <v>7.6563900000000018</v>
       </c>
       <c r="AI49">
-        <v>-31.25</v>
+        <v>372</v>
       </c>
       <c r="AJ49">
-        <v>129.75</v>
+        <v>887.5</v>
       </c>
       <c r="AK49">
-        <v>158.25</v>
+        <v>939.75</v>
       </c>
       <c r="AL49">
-        <v>149.25</v>
+        <v>986.5</v>
       </c>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>27982</v>
+        <v>28017</v>
       </c>
       <c r="B50">
-        <v>27984</v>
+        <v>28013</v>
       </c>
       <c r="AA50">
-        <v>28.352090000000004</v>
+        <v>0.43904000000000565</v>
       </c>
       <c r="AB50">
-        <v>28.975680000000004</v>
+        <v>-1.8744900000000015</v>
       </c>
       <c r="AC50">
-        <v>27.548310000000001</v>
+        <v>-1.7129800000000017</v>
       </c>
       <c r="AD50">
-        <v>26.659610000000001</v>
+        <v>0.34388000000000574</v>
       </c>
       <c r="AE50">
-        <v>27.412880000000001</v>
+        <v>-0.58104000000000156</v>
       </c>
       <c r="AF50">
-        <v>29.907609999999998</v>
+        <v>-0.56131999999999493</v>
       </c>
       <c r="AG50">
-        <v>31.034380000000006</v>
+        <v>-8.0369999999994945E-2</v>
       </c>
       <c r="AH50">
-        <v>33.307450000000003</v>
+        <v>0.30401999999999418</v>
       </c>
       <c r="AI50">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="AJ50">
-        <v>825</v>
+        <v>684</v>
       </c>
       <c r="AK50">
-        <v>911.25</v>
+        <v>747.25</v>
       </c>
       <c r="AL50">
-        <v>968.25</v>
+        <v>746</v>
       </c>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>11271</v>
+        <v>11158</v>
       </c>
       <c r="B51">
-        <v>11290</v>
+        <v>11088</v>
       </c>
       <c r="AA51">
-        <v>-8.7819199999999995</v>
+        <v>8.206230000000005</v>
       </c>
       <c r="AB51">
-        <v>-7.8072099999999978</v>
+        <v>7.7364699999999971</v>
       </c>
       <c r="AC51">
-        <v>-8.8376499999999965</v>
+        <v>7.5194099999999935</v>
       </c>
       <c r="AD51">
-        <v>-7.984250000000003</v>
+        <v>7.307469999999995</v>
       </c>
       <c r="AE51">
-        <v>-7.9137199999999979</v>
+        <v>6.6674300000000102</v>
       </c>
       <c r="AF51">
-        <v>-8.3531599999999955</v>
+        <v>7.9664700000000011</v>
       </c>
       <c r="AG51">
-        <v>-8.4178799999999967</v>
+        <v>6.9319500000000005</v>
       </c>
       <c r="AH51">
-        <v>-8.0984100000000012</v>
+        <v>8.1123999999999938</v>
       </c>
       <c r="AI51">
-        <v>68.5</v>
+        <v>37.5</v>
       </c>
       <c r="AJ51">
-        <v>124</v>
+        <v>282.75</v>
       </c>
       <c r="AK51">
-        <v>148.25</v>
+        <v>335.25</v>
       </c>
       <c r="AL51">
-        <v>142.5</v>
+        <v>379</v>
       </c>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>36665</v>
+        <v>11256</v>
       </c>
       <c r="B52">
-        <v>38806</v>
+        <v>11290</v>
       </c>
       <c r="AA52">
-        <v>-1.9217199999999934</v>
+        <v>-5.5892499999999998</v>
       </c>
       <c r="AB52">
-        <v>-3.8912499999999994</v>
+        <v>-8.9739800000000045</v>
       </c>
       <c r="AC52">
-        <v>-4.5873300000000015</v>
+        <v>-9.3937999999999988</v>
       </c>
       <c r="AD52">
-        <v>-5.5470900000000043</v>
+        <v>-12.996590000000005</v>
       </c>
       <c r="AE52">
-        <v>-5.2366400000000013</v>
+        <v>-16.944499999999998</v>
       </c>
       <c r="AF52">
-        <v>-5.5629599999999968</v>
+        <v>-7.3713100000000011</v>
       </c>
       <c r="AG52">
-        <v>-5.6665500000000009</v>
+        <v>1.8842599999999976</v>
       </c>
       <c r="AH52">
-        <v>-5.223869999999998</v>
+        <v>3.6279400000000024</v>
       </c>
       <c r="AI52">
-        <v>-18.25</v>
+        <v>92.5</v>
       </c>
       <c r="AJ52">
-        <v>66.75</v>
+        <v>650.75</v>
       </c>
       <c r="AK52">
-        <v>77.75</v>
+        <v>851</v>
       </c>
       <c r="AL52">
-        <v>92.5</v>
+        <v>915.75</v>
       </c>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>38806</v>
+        <v>27998</v>
       </c>
       <c r="B53">
-        <v>36667</v>
+        <v>28006</v>
       </c>
       <c r="AA53">
-        <v>-9.1672999999999973</v>
+        <v>0.2296400000000034</v>
       </c>
       <c r="AB53">
-        <v>-10.659790000000001</v>
+        <v>0.13546999999999798</v>
       </c>
       <c r="AC53">
-        <v>-11.33569</v>
+        <v>-0.28444000000000358</v>
       </c>
       <c r="AD53">
-        <v>-12.306130000000003</v>
+        <v>-1.4673000000000016</v>
       </c>
       <c r="AE53">
-        <v>-12.746069999999996</v>
+        <v>-0.28704000000000462</v>
       </c>
       <c r="AF53">
-        <v>-12.799430000000008</v>
+        <v>-0.78079999999999927</v>
       </c>
       <c r="AG53">
-        <v>-13.922880000000006</v>
+        <v>-0.13429000000000002</v>
       </c>
       <c r="AH53">
-        <v>-13.740990000000004</v>
+        <v>0.2032999999999987</v>
       </c>
       <c r="AI53">
-        <v>-30.25</v>
+        <v>86</v>
       </c>
       <c r="AJ53">
-        <v>57</v>
+        <v>459</v>
       </c>
       <c r="AK53">
-        <v>64</v>
+        <v>540.5</v>
       </c>
       <c r="AL53">
-        <v>79</v>
+        <v>658.75</v>
       </c>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>36666</v>
+        <v>36672</v>
       </c>
       <c r="B54">
-        <v>36664</v>
+        <v>36668</v>
       </c>
       <c r="AA54">
-        <v>-0.9117999999999995</v>
+        <v>-9.5959300000000027</v>
       </c>
       <c r="AB54">
-        <v>-2.1728900000000024</v>
+        <v>-11.953189999999999</v>
       </c>
       <c r="AC54">
-        <v>-5.6049999999999045E-2</v>
+        <v>-13.864980000000003</v>
       </c>
       <c r="AD54">
-        <v>3.1694099999999992</v>
+        <v>-13.125269999999993</v>
       </c>
       <c r="AE54">
-        <v>3.077849999999998</v>
+        <v>-13.709180000000003</v>
       </c>
       <c r="AF54">
-        <v>9.8225400000000036</v>
+        <v>-12.173299999999998</v>
       </c>
       <c r="AG54">
-        <v>11.673850000000002</v>
+        <v>-10.576560000000001</v>
       </c>
       <c r="AH54">
-        <v>8.8645199999999988</v>
+        <v>-11.963019999999993</v>
       </c>
       <c r="AI54">
-        <v>19.25</v>
+        <v>-63.75</v>
       </c>
       <c r="AJ54">
-        <v>333.5</v>
+        <v>-63.75</v>
       </c>
       <c r="AK54">
-        <v>410.5</v>
+        <v>-63.25</v>
       </c>
       <c r="AL54">
-        <v>514.5</v>
+        <v>-56.5</v>
       </c>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>11167</v>
+        <v>11085</v>
       </c>
       <c r="B55">
-        <v>11181</v>
+        <v>11153</v>
       </c>
       <c r="AA55">
-        <v>-14.527999999999999</v>
+        <v>-13.004530000000003</v>
       </c>
       <c r="AB55">
-        <v>-15.794270000000004</v>
+        <v>-15.460290000000001</v>
       </c>
       <c r="AC55">
-        <v>-15.21161</v>
+        <v>-16.251220000000004</v>
       </c>
       <c r="AD55">
-        <v>-19.629930000000002</v>
+        <v>-23.852550000000001</v>
       </c>
       <c r="AE55">
-        <v>-20.599080000000001</v>
+        <v>-16.191890000000001</v>
       </c>
       <c r="AF55">
-        <v>-8.0382700000000042</v>
+        <v>-10.888840000000002</v>
       </c>
       <c r="AG55">
-        <v>-15.971080000000001</v>
+        <v>-7.6606900000000024</v>
       </c>
       <c r="AH55">
-        <v>-9.9722999999999971</v>
+        <v>-5.0335400000000021</v>
       </c>
       <c r="AI55">
-        <v>9.25</v>
+        <v>147.25</v>
       </c>
       <c r="AJ55">
-        <v>68.75</v>
+        <v>733.75</v>
       </c>
       <c r="AK55">
-        <v>57.75</v>
+        <v>967.25</v>
       </c>
       <c r="AL55">
-        <v>71.25</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>11269</v>
+        <v>11306</v>
       </c>
       <c r="B56">
-        <v>11254</v>
+        <v>12101</v>
       </c>
       <c r="AA56">
-        <v>1.4875400000000027</v>
+        <v>43.145559999999996</v>
       </c>
       <c r="AB56">
-        <v>-0.19415999999999656</v>
+        <v>43.115780000000001</v>
       </c>
       <c r="AC56">
-        <v>0.44540999999999542</v>
+        <v>43.360820000000004</v>
       </c>
       <c r="AD56">
-        <v>0.30041999999999547</v>
+        <v>43.139449999999997</v>
       </c>
       <c r="AE56">
-        <v>-1.3416699999999935</v>
+        <v>43.199449999999999</v>
       </c>
       <c r="AF56">
-        <v>-1.1088800000000063</v>
+        <v>43.445609999999995</v>
       </c>
       <c r="AG56">
-        <v>-3.0428899999999999</v>
+        <v>43.348480000000002</v>
       </c>
       <c r="AH56">
-        <v>-0.46749000000000507</v>
+        <v>44.212490000000003</v>
       </c>
       <c r="AI56">
-        <v>-16.5</v>
+        <v>134</v>
       </c>
       <c r="AJ56">
-        <v>25</v>
+        <v>206</v>
       </c>
       <c r="AK56">
-        <v>19.75</v>
+        <v>281</v>
       </c>
       <c r="AL56">
-        <v>27.5</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>32464</v>
+        <v>36665</v>
       </c>
       <c r="B57">
-        <v>26120</v>
+        <v>38806</v>
       </c>
       <c r="AA57">
-        <v>-22.579350000000002</v>
+        <v>-1.9217199999999934</v>
       </c>
       <c r="AB57">
-        <v>-22.557559999999999</v>
+        <v>-3.8912499999999994</v>
       </c>
       <c r="AC57">
-        <v>-22.596109999999996</v>
+        <v>-4.5873300000000015</v>
       </c>
       <c r="AD57">
-        <v>-22.753459999999997</v>
+        <v>-5.5470900000000043</v>
       </c>
       <c r="AE57">
-        <v>-22.86805</v>
+        <v>-5.2366400000000013</v>
       </c>
       <c r="AF57">
-        <v>-22.771690000000003</v>
+        <v>-5.5629599999999968</v>
       </c>
       <c r="AG57">
-        <v>-22.589740000000003</v>
+        <v>-5.6665500000000009</v>
       </c>
       <c r="AH57">
-        <v>-22.10012</v>
+        <v>-5.223869999999998</v>
       </c>
       <c r="AI57">
-        <v>-27</v>
+        <v>-18.25</v>
       </c>
       <c r="AJ57">
-        <v>-23</v>
+        <v>66.75</v>
       </c>
       <c r="AK57">
-        <v>-19</v>
+        <v>77.75</v>
       </c>
       <c r="AL57">
-        <v>-10</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>36673</v>
+        <v>11384</v>
       </c>
       <c r="B58">
-        <v>36675</v>
+        <v>11341</v>
       </c>
       <c r="AA58">
-        <v>-3.2865699999999975</v>
+        <v>3.9627100000000013</v>
       </c>
       <c r="AB58">
-        <v>-5.2390300000000067</v>
+        <v>5.2797099999999944</v>
       </c>
       <c r="AC58">
-        <v>-5.2876699999999985</v>
+        <v>3.6176300000000055</v>
       </c>
       <c r="AD58">
-        <v>-5.9641900000000021</v>
+        <v>2.379170000000002</v>
       </c>
       <c r="AE58">
-        <v>-5.8928300000000036</v>
+        <v>4.2282900000000012</v>
       </c>
       <c r="AF58">
-        <v>-6.6681800000000067</v>
+        <v>7.7387300000000039</v>
       </c>
       <c r="AG58">
-        <v>-6.0541300000000078</v>
+        <v>8.3829099999999954</v>
       </c>
       <c r="AH58">
-        <v>-5.825019999999995</v>
+        <v>6.9088600000000042</v>
       </c>
       <c r="AI58">
-        <v>-29.75</v>
+        <v>55.5</v>
       </c>
       <c r="AJ58">
-        <v>49.75</v>
+        <v>322</v>
       </c>
       <c r="AK58">
-        <v>67.75</v>
+        <v>355</v>
       </c>
       <c r="AL58">
-        <v>76</v>
+        <v>415.5</v>
       </c>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>27984</v>
+        <v>26115</v>
       </c>
       <c r="B59">
-        <v>27986</v>
+        <v>11485</v>
       </c>
       <c r="AA59">
-        <v>-1.3723699999999965</v>
+        <v>6.6339199999999892</v>
       </c>
       <c r="AB59">
-        <v>-3.7294499999999999</v>
+        <v>5.9998800000000045</v>
       </c>
       <c r="AC59">
-        <v>-0.3067400000000049</v>
+        <v>5.6651300000000049</v>
       </c>
       <c r="AD59">
-        <v>1.0593300000000028</v>
+        <v>4.4094699999999989</v>
       </c>
       <c r="AE59">
-        <v>0.1828000000000003</v>
+        <v>4.1291999999999973</v>
       </c>
       <c r="AF59">
-        <v>-0.24278000000000333</v>
+        <v>5.3885099999999966</v>
       </c>
       <c r="AG59">
-        <v>-8.9599999999947499E-3</v>
+        <v>4.801959999999994</v>
       </c>
       <c r="AH59">
-        <v>2.7505600000000001</v>
+        <v>6.0099400000000003</v>
       </c>
       <c r="AI59">
-        <v>118</v>
+        <v>191.5</v>
       </c>
       <c r="AJ59">
-        <v>410</v>
+        <v>629.25</v>
       </c>
       <c r="AK59">
-        <v>447</v>
+        <v>686.5</v>
       </c>
       <c r="AL59">
-        <v>509</v>
+        <v>751</v>
       </c>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>36674</v>
+        <v>11153</v>
       </c>
       <c r="B60">
-        <v>36668</v>
+        <v>11181</v>
       </c>
       <c r="AA60">
-        <v>-6.6503500000000031</v>
+        <v>-1.5065600000000003</v>
       </c>
       <c r="AB60">
-        <v>-5.9955699999999936</v>
+        <v>-5.5128300000000081</v>
       </c>
       <c r="AC60">
-        <v>-5.9125500000000031</v>
+        <v>-1.8352599999999981</v>
       </c>
       <c r="AD60">
-        <v>-5.9501300000000015</v>
+        <v>-9.0707700000000031</v>
       </c>
       <c r="AE60">
-        <v>-4.758890000000001</v>
+        <v>-6.7497100000000003</v>
       </c>
       <c r="AF60">
-        <v>-2.5006500000000003</v>
+        <v>3.5190800000000024</v>
       </c>
       <c r="AG60">
-        <v>-1.235199999999999</v>
+        <v>1.5184099999999958</v>
       </c>
       <c r="AH60">
-        <v>0.646809999999995</v>
+        <v>5.3374499999999969</v>
       </c>
       <c r="AI60">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="AJ60">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="AK60">
-        <v>517</v>
+        <v>853.75</v>
       </c>
       <c r="AL60">
-        <v>590</v>
+        <v>946.75</v>
       </c>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>28012</v>
+        <v>36667</v>
       </c>
       <c r="B61">
-        <v>28016</v>
+        <v>36669</v>
       </c>
       <c r="AA61">
-        <v>6.526680000000006</v>
+        <v>-19.343670000000003</v>
       </c>
       <c r="AB61">
-        <v>5.8068099999999987</v>
+        <v>-18.021790000000003</v>
       </c>
       <c r="AC61">
-        <v>4.7112300000000076</v>
+        <v>-19.03537</v>
       </c>
       <c r="AD61">
-        <v>4.6258300000000077</v>
+        <v>-19.902149999999999</v>
       </c>
       <c r="AE61">
-        <v>3.8130499999999969</v>
+        <v>-18.843200000000003</v>
       </c>
       <c r="AF61">
-        <v>4.4876000000000005</v>
+        <v>-19.311170000000004</v>
       </c>
       <c r="AG61">
-        <v>4.5955500000000029</v>
+        <v>-18.157800000000002</v>
       </c>
       <c r="AH61">
-        <v>5.5441500000000019</v>
+        <v>-19.530709999999999</v>
       </c>
       <c r="AI61">
-        <v>25.25</v>
+        <v>-60.75</v>
       </c>
       <c r="AJ61">
-        <v>315</v>
+        <v>-56</v>
       </c>
       <c r="AK61">
-        <v>386.5</v>
+        <v>-56.25</v>
       </c>
       <c r="AL61">
-        <v>462.25</v>
+        <v>-52.25</v>
       </c>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>11181</v>
+        <v>27982</v>
       </c>
       <c r="B62">
-        <v>11256</v>
+        <v>27984</v>
       </c>
       <c r="AA62">
-        <v>-12.852419999999995</v>
+        <v>28.352090000000004</v>
       </c>
       <c r="AB62">
-        <v>-17.830629999999999</v>
+        <v>28.975680000000004</v>
       </c>
       <c r="AC62">
-        <v>-16.579090000000001</v>
+        <v>27.548310000000001</v>
       </c>
       <c r="AD62">
-        <v>-27.717410000000001</v>
+        <v>26.659610000000001</v>
       </c>
       <c r="AE62">
-        <v>-23.596719999999998</v>
+        <v>27.412880000000001</v>
       </c>
       <c r="AF62">
-        <v>-14.793810000000001</v>
+        <v>29.907609999999998</v>
       </c>
       <c r="AG62">
-        <v>-4.7614800000000059</v>
+        <v>31.034380000000006</v>
       </c>
       <c r="AH62">
-        <v>2.0754999999999981</v>
+        <v>33.307450000000003</v>
       </c>
       <c r="AI62">
-        <v>164.5</v>
+        <v>372</v>
       </c>
       <c r="AJ62">
-        <v>754.25</v>
+        <v>825</v>
       </c>
       <c r="AK62">
+        <v>911.25</v>
+      </c>
+      <c r="AL62">
         <v>968.25</v>
-      </c>
-      <c r="AL62">
-        <v>1068.5</v>
       </c>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>11484</v>
+        <v>11300</v>
       </c>
       <c r="B63">
-        <v>26114</v>
+        <v>36674</v>
       </c>
       <c r="AA63">
-        <v>9.5000000000311502E-4</v>
+        <v>49.999690000000001</v>
       </c>
       <c r="AB63">
-        <v>-2.6983800000000073</v>
+        <v>48.893329999999999</v>
       </c>
       <c r="AC63">
-        <v>-1.7822000000000031</v>
+        <v>47.310229999999997</v>
       </c>
       <c r="AD63">
-        <v>-2.0236400000000003</v>
+        <v>43.839859999999994</v>
       </c>
       <c r="AE63">
-        <v>-2.9398599999999959</v>
+        <v>40.255759999999995</v>
       </c>
       <c r="AF63">
-        <v>7.7784699999999987</v>
+        <v>40.13147</v>
       </c>
       <c r="AG63">
-        <v>15.762259999999998</v>
+        <v>39.602129999999995</v>
       </c>
       <c r="AH63">
-        <v>22.053560000000004</v>
+        <v>42.633490000000002</v>
       </c>
       <c r="AI63">
-        <v>295.25</v>
+        <v>285</v>
       </c>
       <c r="AJ63">
-        <v>1018.75</v>
+        <v>700</v>
       </c>
       <c r="AK63">
-        <v>1246.25</v>
+        <v>823</v>
       </c>
       <c r="AL63">
-        <v>1384</v>
+        <v>937</v>
       </c>
     </row>
   </sheetData>
